--- a/s60_signal/position-01618-601618.xlsx
+++ b/s60_signal/position-01618-601618.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="125">
   <si>
     <t>trade_time</t>
   </si>
@@ -130,265 +130,265 @@
     <t>2021-04-29</t>
   </si>
   <si>
-    <t>2021-05-10</t>
-  </si>
-  <si>
     <t>2021-05-17</t>
   </si>
   <si>
     <t>2021-05-14</t>
   </si>
   <si>
-    <t>2021-06-15</t>
+    <t>2021-07-09</t>
+  </si>
+  <si>
+    <t>2016-12-30</t>
+  </si>
+  <si>
+    <t>2017-04-05</t>
+  </si>
+  <si>
+    <t>2017-05-04</t>
+  </si>
+  <si>
+    <t>2017-12-20</t>
+  </si>
+  <si>
+    <t>2020-08-11</t>
+  </si>
+  <si>
+    <t>2020-08-12</t>
+  </si>
+  <si>
+    <t>2020-03-02</t>
+  </si>
+  <si>
+    <t>2020-07-17</t>
+  </si>
+  <si>
+    <t>2020-10-15</t>
+  </si>
+  <si>
+    <t>2021-01-12</t>
+  </si>
+  <si>
+    <t>2021-05-24</t>
+  </si>
+  <si>
+    <t>2021-03-10</t>
+  </si>
+  <si>
+    <t>2021-05-21</t>
+  </si>
+  <si>
+    <t>2021-01-22</t>
+  </si>
+  <si>
+    <t>2021-04-30</t>
+  </si>
+  <si>
+    <t>2021-01-07</t>
+  </si>
+  <si>
+    <t>2021-01-26</t>
+  </si>
+  <si>
+    <t>2021-03-09</t>
+  </si>
+  <si>
+    <t>2021-04-21</t>
+  </si>
+  <si>
+    <t>2021-05-06</t>
+  </si>
+  <si>
+    <t>2021-05-28</t>
+  </si>
+  <si>
+    <t>2021-07-12</t>
+  </si>
+  <si>
+    <t>2016-12-23</t>
+  </si>
+  <si>
+    <t>2017-02-09</t>
+  </si>
+  <si>
+    <t>2017-02-10</t>
+  </si>
+  <si>
+    <t>2017-02-13</t>
+  </si>
+  <si>
+    <t>2017-02-14</t>
+  </si>
+  <si>
+    <t>2017-02-15</t>
+  </si>
+  <si>
+    <t>2017-02-16</t>
+  </si>
+  <si>
+    <t>2017-04-27</t>
+  </si>
+  <si>
+    <t>2019-12-05</t>
+  </si>
+  <si>
+    <t>2019-12-06</t>
+  </si>
+  <si>
+    <t>2019-12-20</t>
+  </si>
+  <si>
+    <t>2020-02-21</t>
+  </si>
+  <si>
+    <t>2020-02-24</t>
+  </si>
+  <si>
+    <t>2020-02-25</t>
+  </si>
+  <si>
+    <t>2020-02-26</t>
+  </si>
+  <si>
+    <t>2020-02-27</t>
+  </si>
+  <si>
+    <t>2020-02-28</t>
+  </si>
+  <si>
+    <t>2020-11-26</t>
+  </si>
+  <si>
+    <t>2020-11-27</t>
+  </si>
+  <si>
+    <t>2020-12-01</t>
+  </si>
+  <si>
+    <t>2020-12-02</t>
+  </si>
+  <si>
+    <t>2020-12-11</t>
+  </si>
+  <si>
+    <t>2020-12-14</t>
+  </si>
+  <si>
+    <t>2020-12-16</t>
+  </si>
+  <si>
+    <t>2020-12-17</t>
+  </si>
+  <si>
+    <t>2020-12-18</t>
+  </si>
+  <si>
+    <t>2020-12-21</t>
+  </si>
+  <si>
+    <t>2020-12-22</t>
+  </si>
+  <si>
+    <t>2020-12-23</t>
+  </si>
+  <si>
+    <t>2020-12-24</t>
+  </si>
+  <si>
+    <t>2020-12-28</t>
+  </si>
+  <si>
+    <t>2020-12-29</t>
+  </si>
+  <si>
+    <t>2020-12-30</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2021-01-04</t>
+  </si>
+  <si>
+    <t>2021-01-05</t>
+  </si>
+  <si>
+    <t>2021-01-06</t>
+  </si>
+  <si>
+    <t>2021-01-08</t>
+  </si>
+  <si>
+    <t>2021-01-11</t>
+  </si>
+  <si>
+    <t>2021-01-14</t>
+  </si>
+  <si>
+    <t>2021-01-18</t>
+  </si>
+  <si>
+    <t>2021-04-08</t>
+  </si>
+  <si>
+    <t>2021-04-09</t>
+  </si>
+  <si>
+    <t>2021-04-13</t>
+  </si>
+  <si>
+    <t>2021-04-14</t>
+  </si>
+  <si>
+    <t>2021-04-26</t>
+  </si>
+  <si>
+    <t>2021-04-27</t>
+  </si>
+  <si>
+    <t>2021-04-28</t>
+  </si>
+  <si>
+    <t>2021-05-11</t>
+  </si>
+  <si>
+    <t>2021-05-12</t>
+  </si>
+  <si>
+    <t>2021-05-13</t>
+  </si>
+  <si>
+    <t>2021-05-25</t>
   </si>
   <si>
     <t>2021-05-26</t>
   </si>
   <si>
-    <t>2016-12-30</t>
-  </si>
-  <si>
-    <t>2017-04-05</t>
-  </si>
-  <si>
-    <t>2017-05-04</t>
-  </si>
-  <si>
-    <t>2017-12-20</t>
-  </si>
-  <si>
-    <t>2020-08-11</t>
-  </si>
-  <si>
-    <t>2020-08-12</t>
-  </si>
-  <si>
-    <t>2020-03-02</t>
-  </si>
-  <si>
-    <t>2020-07-17</t>
-  </si>
-  <si>
-    <t>2020-10-15</t>
-  </si>
-  <si>
-    <t>2021-01-12</t>
-  </si>
-  <si>
-    <t>2021-05-24</t>
-  </si>
-  <si>
-    <t>2021-03-10</t>
-  </si>
-  <si>
-    <t>2021-05-21</t>
-  </si>
-  <si>
-    <t>2021-01-22</t>
-  </si>
-  <si>
-    <t>2021-04-30</t>
-  </si>
-  <si>
-    <t>2021-01-26</t>
-  </si>
-  <si>
-    <t>2021-03-09</t>
-  </si>
-  <si>
-    <t>2021-04-21</t>
-  </si>
-  <si>
-    <t>2021-05-06</t>
-  </si>
-  <si>
-    <t>2021-05-28</t>
-  </si>
-  <si>
-    <t>2021-06-25</t>
-  </si>
-  <si>
-    <t>2021-06-22</t>
+    <t>2021-05-27</t>
+  </si>
+  <si>
+    <t>2021-05-31</t>
+  </si>
+  <si>
+    <t>2021-06-01</t>
   </si>
   <si>
     <t>2021-06-02</t>
   </si>
   <si>
-    <t>2016-12-23</t>
-  </si>
-  <si>
-    <t>2017-02-09</t>
-  </si>
-  <si>
-    <t>2017-02-10</t>
-  </si>
-  <si>
-    <t>2017-02-13</t>
-  </si>
-  <si>
-    <t>2017-02-14</t>
-  </si>
-  <si>
-    <t>2017-02-15</t>
-  </si>
-  <si>
-    <t>2017-02-16</t>
-  </si>
-  <si>
-    <t>2017-04-27</t>
-  </si>
-  <si>
-    <t>2019-12-05</t>
-  </si>
-  <si>
-    <t>2019-12-06</t>
-  </si>
-  <si>
-    <t>2019-12-20</t>
-  </si>
-  <si>
-    <t>2020-02-21</t>
-  </si>
-  <si>
-    <t>2020-02-24</t>
-  </si>
-  <si>
-    <t>2020-02-25</t>
-  </si>
-  <si>
-    <t>2020-02-26</t>
-  </si>
-  <si>
-    <t>2020-02-27</t>
-  </si>
-  <si>
-    <t>2020-02-28</t>
-  </si>
-  <si>
-    <t>2020-11-26</t>
-  </si>
-  <si>
-    <t>2020-11-27</t>
-  </si>
-  <si>
-    <t>2020-12-01</t>
-  </si>
-  <si>
-    <t>2020-12-02</t>
-  </si>
-  <si>
-    <t>2020-12-11</t>
-  </si>
-  <si>
-    <t>2020-12-14</t>
-  </si>
-  <si>
-    <t>2020-12-16</t>
-  </si>
-  <si>
-    <t>2020-12-17</t>
-  </si>
-  <si>
-    <t>2020-12-18</t>
-  </si>
-  <si>
-    <t>2020-12-21</t>
-  </si>
-  <si>
-    <t>2020-12-22</t>
-  </si>
-  <si>
-    <t>2020-12-23</t>
-  </si>
-  <si>
-    <t>2020-12-24</t>
-  </si>
-  <si>
-    <t>2020-12-28</t>
-  </si>
-  <si>
-    <t>2020-12-29</t>
-  </si>
-  <si>
-    <t>2020-12-30</t>
-  </si>
-  <si>
-    <t>2020-12-31</t>
-  </si>
-  <si>
-    <t>2021-01-04</t>
-  </si>
-  <si>
-    <t>2021-01-05</t>
-  </si>
-  <si>
-    <t>2021-01-06</t>
-  </si>
-  <si>
-    <t>2021-01-07</t>
-  </si>
-  <si>
-    <t>2021-01-08</t>
-  </si>
-  <si>
-    <t>2021-01-11</t>
-  </si>
-  <si>
-    <t>2021-01-14</t>
-  </si>
-  <si>
-    <t>2021-01-18</t>
-  </si>
-  <si>
-    <t>2021-04-08</t>
-  </si>
-  <si>
-    <t>2021-04-09</t>
-  </si>
-  <si>
-    <t>2021-04-13</t>
-  </si>
-  <si>
-    <t>2021-04-14</t>
-  </si>
-  <si>
-    <t>2021-04-23</t>
-  </si>
-  <si>
-    <t>2021-04-26</t>
-  </si>
-  <si>
-    <t>2021-04-27</t>
-  </si>
-  <si>
-    <t>2021-04-28</t>
-  </si>
-  <si>
-    <t>2021-05-07</t>
-  </si>
-  <si>
-    <t>2021-05-11</t>
-  </si>
-  <si>
-    <t>2021-05-12</t>
-  </si>
-  <si>
-    <t>2021-05-13</t>
-  </si>
-  <si>
-    <t>2021-05-20</t>
-  </si>
-  <si>
-    <t>2021-05-25</t>
-  </si>
-  <si>
-    <t>2021-05-27</t>
-  </si>
-  <si>
-    <t>2021-05-31</t>
-  </si>
-  <si>
-    <t>2021-06-01</t>
+    <t>2021-06-03</t>
+  </si>
+  <si>
+    <t>2021-06-04</t>
+  </si>
+  <si>
+    <t>2021-06-07</t>
+  </si>
+  <si>
+    <t>2021-06-08</t>
+  </si>
+  <si>
+    <t>2021-06-09</t>
   </si>
 </sst>
 </file>
@@ -746,7 +746,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P128"/>
+  <dimension ref="A1:P126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -810,7 +810,7 @@
         <v>2.241636620202809</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E2">
         <v>2.083673377356266</v>
@@ -846,7 +846,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -860,7 +860,7 @@
         <v>2.291018963074085</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E3">
         <v>2.748932188801797</v>
@@ -896,7 +896,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -910,7 +910,7 @@
         <v>0.1640886968569069</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E4">
         <v>0.8087275807852619</v>
@@ -946,7 +946,7 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -960,7 +960,7 @@
         <v>0.1567937244930127</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E5">
         <v>0.8087275807852619</v>
@@ -996,7 +996,7 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1010,7 +1010,7 @@
         <v>0.06008199184724816</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E6">
         <v>0.7118353409391309</v>
@@ -1046,7 +1046,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1060,7 +1060,7 @@
         <v>0.05109309920632388</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E7">
         <v>0.7118353409391309</v>
@@ -1096,7 +1096,7 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1110,7 +1110,7 @@
         <v>-0.0569506423664734</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E8">
         <v>0.6028081963621785</v>
@@ -1146,7 +1146,7 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1160,7 +1160,7 @@
         <v>-0.06784560396853312</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>0.6028081963621785</v>
@@ -1196,7 +1196,7 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1210,7 +1210,7 @@
         <v>-0.1396452470657845</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E10">
         <v>0.5257702258605397</v>
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1260,7 +1260,7 @@
         <v>-0.1518870263339567</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E11">
         <v>0.5257702258605397</v>
@@ -1296,7 +1296,7 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1310,7 +1310,7 @@
         <v>-0.2479133877986754</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E12">
         <v>0.424908049151723</v>
@@ -1346,7 +1346,7 @@
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1360,7 +1360,7 @@
         <v>-0.2619184918344848</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E13">
         <v>0.424908049151723</v>
@@ -1396,7 +1396,7 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1410,7 +1410,7 @@
         <v>-0.3399965939203824</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E14">
         <v>0.3391236942630966</v>
@@ -1446,7 +1446,7 @@
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1460,7 +1460,7 @@
         <v>0.9756011105228968</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E15">
         <v>0.8107654111102569</v>
@@ -1496,7 +1496,7 @@
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1510,7 +1510,7 @@
         <v>1.301145679016073</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E16">
         <v>1.173416666670367</v>
@@ -1546,7 +1546,7 @@
         <v>1</v>
       </c>
       <c r="P16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1560,7 +1560,7 @@
         <v>1.296277364845049</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E17">
         <v>1.230890933009092</v>
@@ -1596,7 +1596,7 @@
         <v>1</v>
       </c>
       <c r="P17" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1610,7 +1610,7 @@
         <v>0.4435035626339812</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E18">
         <v>0.9439906537348826</v>
@@ -1646,7 +1646,7 @@
         <v>1</v>
       </c>
       <c r="P18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1660,7 +1660,7 @@
         <v>0.4423533289773536</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E19">
         <v>0.9439906537348826</v>
@@ -1696,7 +1696,7 @@
         <v>1</v>
       </c>
       <c r="P19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1710,7 +1710,7 @@
         <v>1.507350128118183</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E20">
         <v>1.202821457299868</v>
@@ -1746,7 +1746,7 @@
         <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1760,7 +1760,7 @@
         <v>1.54125697476493</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E21">
         <v>1.238224194239853</v>
@@ -1796,7 +1796,7 @@
         <v>1</v>
       </c>
       <c r="P21" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1810,7 +1810,7 @@
         <v>1.573438797246031</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E22">
         <v>1.271825803006885</v>
@@ -1846,7 +1846,7 @@
         <v>1</v>
       </c>
       <c r="P22" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1860,7 +1860,7 @@
         <v>1.613400857289038</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E23">
         <v>1.313550895110613</v>
@@ -1896,7 +1896,7 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1910,7 +1910,7 @@
         <v>1.593400857289038</v>
       </c>
       <c r="D24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E24">
         <v>1.363275825771058</v>
@@ -1946,7 +1946,7 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1960,7 +1960,7 @@
         <v>1.645344720184119</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E25">
         <v>1.346904046074595</v>
@@ -1996,7 +1996,7 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2010,7 +2010,7 @@
         <v>1.625344720184119</v>
       </c>
       <c r="D26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E26">
         <v>1.394045281942056</v>
@@ -2046,7 +2046,7 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2060,7 +2060,7 @@
         <v>1.68180858461344</v>
       </c>
       <c r="D27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E27">
         <v>1.384976610405209</v>
@@ -2096,7 +2096,7 @@
         <v>1</v>
       </c>
       <c r="P27" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2110,7 +2110,7 @@
         <v>1.66180858461344</v>
       </c>
       <c r="D28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E28">
         <v>1.429168563120298</v>
@@ -2146,7 +2146,7 @@
         <v>1</v>
       </c>
       <c r="P28" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2160,7 +2160,7 @@
         <v>1.710614904938503</v>
       </c>
       <c r="D29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E29">
         <v>1.415053797803437</v>
@@ -2196,7 +2196,7 @@
         <v>1</v>
       </c>
       <c r="P29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2210,7 +2210,7 @@
         <v>1.690614904938503</v>
       </c>
       <c r="D30" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E30">
         <v>1.456915827551058</v>
@@ -2246,7 +2246,7 @@
         <v>1</v>
       </c>
       <c r="P30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2260,7 +2260,7 @@
         <v>2.268334662646267</v>
       </c>
       <c r="D31" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E31">
         <v>2.649848972127444</v>
@@ -2296,7 +2296,7 @@
         <v>1</v>
       </c>
       <c r="P31" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2310,7 +2310,7 @@
         <v>2.967686812279704</v>
       </c>
       <c r="D32" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E32">
         <v>2.56427663569716</v>
@@ -2346,7 +2346,7 @@
         <v>1</v>
       </c>
       <c r="P32" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2360,7 +2360,7 @@
         <v>2.94857711339348</v>
       </c>
       <c r="D33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E33">
         <v>2.56427663569716</v>
@@ -2396,7 +2396,7 @@
         <v>1</v>
       </c>
       <c r="P33" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2410,7 +2410,7 @@
         <v>2.936045316925131</v>
       </c>
       <c r="D34" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E34">
         <v>2.56427663569716</v>
@@ -2446,7 +2446,7 @@
         <v>1</v>
       </c>
       <c r="P34" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2460,7 +2460,7 @@
         <v>2.269323006316983</v>
       </c>
       <c r="D35" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E35">
         <v>2.651071198651537</v>
@@ -2496,7 +2496,7 @@
         <v>1</v>
       </c>
       <c r="P35" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2510,7 +2510,7 @@
         <v>2.969422072159588</v>
       </c>
       <c r="D36" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E36">
         <v>2.565634665168374</v>
@@ -2546,7 +2546,7 @@
         <v>1</v>
       </c>
       <c r="P36" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2560,7 +2560,7 @@
         <v>2.950101124244508</v>
       </c>
       <c r="D37" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E37">
         <v>2.565634665168374</v>
@@ -2596,7 +2596,7 @@
         <v>1</v>
       </c>
       <c r="P37" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2610,7 +2610,7 @@
         <v>2.937576872384333</v>
       </c>
       <c r="D38" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E38">
         <v>2.565634665168374</v>
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="P38" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2660,7 +2660,7 @@
         <v>2.270137575266223</v>
       </c>
       <c r="D39" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E39">
         <v>2.652078528191817</v>
@@ -2696,7 +2696,7 @@
         <v>1</v>
       </c>
       <c r="P39" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2710,7 +2710,7 @@
         <v>2.970852231383444</v>
       </c>
       <c r="D40" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E40">
         <v>2.604235886436537</v>
@@ -2746,7 +2746,7 @@
         <v>1</v>
       </c>
       <c r="P40" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2760,7 +2760,7 @@
         <v>2.951357177128068</v>
       </c>
       <c r="D41" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E41">
         <v>2.604235886436537</v>
@@ -2796,7 +2796,7 @@
         <v>1</v>
       </c>
       <c r="P41" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2810,7 +2810,7 @@
         <v>2.938839143351475</v>
       </c>
       <c r="D42" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E42">
         <v>2.604235886436537</v>
@@ -2846,7 +2846,7 @@
         <v>1</v>
       </c>
       <c r="P42" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2860,7 +2860,7 @@
         <v>2.266750315683077</v>
       </c>
       <c r="D43" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E43">
         <v>2.647889703363805</v>
@@ -2896,7 +2896,7 @@
         <v>1</v>
       </c>
       <c r="P43" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2910,7 +2910,7 @@
         <v>2.964905134405401</v>
       </c>
       <c r="D44" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E44">
         <v>2.599555779684251</v>
@@ -2946,7 +2946,7 @@
         <v>1</v>
       </c>
       <c r="P44" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2960,7 +2960,7 @@
         <v>2.946134074564744</v>
       </c>
       <c r="D45" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E45">
         <v>2.599555779684251</v>
@@ -2996,7 +2996,7 @@
         <v>1</v>
       </c>
       <c r="P45" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3010,7 +3010,7 @@
         <v>2.933590183844768</v>
       </c>
       <c r="D46" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E46">
         <v>2.599555779684251</v>
@@ -3046,7 +3046,7 @@
         <v>1</v>
       </c>
       <c r="P46" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3060,7 +3060,7 @@
         <v>1.990887286527514</v>
       </c>
       <c r="D47" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E47">
         <v>2.306746110056926</v>
@@ -3096,7 +3096,7 @@
         <v>1</v>
       </c>
       <c r="P47" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3110,7 +3110,7 @@
         <v>2.492796963946868</v>
       </c>
       <c r="D48" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E48">
         <v>2.222096394686907</v>
@@ -3146,7 +3146,7 @@
         <v>1</v>
       </c>
       <c r="P48" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3160,7 +3160,7 @@
         <v>2.502796963946869</v>
       </c>
       <c r="D49" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E49">
         <v>2.222096394686907</v>
@@ -3196,7 +3196,7 @@
         <v>1</v>
       </c>
       <c r="P49" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3210,7 +3210,7 @@
         <v>2.504006072106261</v>
       </c>
       <c r="D50" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E50">
         <v>2.229102087286527</v>
@@ -3246,7 +3246,7 @@
         <v>1</v>
       </c>
       <c r="P50" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3260,7 +3260,7 @@
         <v>2.506107779886148</v>
       </c>
       <c r="D51" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E51">
         <v>2.229102087286527</v>
@@ -3296,7 +3296,7 @@
         <v>1</v>
       </c>
       <c r="P51" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3304,49 +3304,49 @@
         <v>0</v>
       </c>
       <c r="B52" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C52">
-        <v>2.422019174201789</v>
+        <v>1.934694011032936</v>
       </c>
       <c r="D52" t="s">
         <v>56</v>
       </c>
       <c r="E52">
-        <v>2.152176517544798</v>
+        <v>2.167884562588337</v>
       </c>
       <c r="F52">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G52">
-        <v>0.004097980825798211</v>
+        <v>0.003265305988967065</v>
       </c>
       <c r="H52">
-        <v>0.003807823482455202</v>
+        <v>0.003732115437411664</v>
       </c>
       <c r="I52">
-        <v>0.2698426566569911</v>
+        <v>0.2331905515554009</v>
       </c>
       <c r="J52">
         <v>0.5078671671504308</v>
       </c>
       <c r="K52">
-        <v>1.65</v>
+        <v>1.31</v>
       </c>
       <c r="L52">
-        <v>3.26</v>
+        <v>2.6</v>
       </c>
       <c r="M52">
-        <v>1.63</v>
+        <v>1.54</v>
       </c>
       <c r="N52">
-        <v>2.98</v>
+        <v>2.95</v>
       </c>
       <c r="O52">
         <v>1</v>
       </c>
       <c r="P52" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3354,49 +3354,49 @@
         <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C53">
-        <v>2.394108322356129</v>
+        <v>2.422019174201789</v>
       </c>
       <c r="D53" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E53">
-        <v>2.150603084114712</v>
+        <v>2.152176517544798</v>
       </c>
       <c r="F53">
         <v>-1</v>
       </c>
       <c r="G53">
-        <v>0.00444589167764387</v>
+        <v>0.004097980825798211</v>
       </c>
       <c r="H53">
-        <v>0.004009396915885288</v>
+        <v>0.003807823482455202</v>
       </c>
       <c r="I53">
-        <v>0.2435052382414176</v>
+        <v>0.2698426566569911</v>
       </c>
       <c r="J53">
         <v>0.5078671671504308</v>
       </c>
       <c r="K53">
-        <v>2.02</v>
+        <v>1.65</v>
       </c>
       <c r="L53">
-        <v>3.42</v>
+        <v>3.26</v>
       </c>
       <c r="M53">
-        <v>1.83</v>
+        <v>1.63</v>
       </c>
       <c r="N53">
-        <v>3.08</v>
+        <v>2.98</v>
       </c>
       <c r="O53">
         <v>1</v>
       </c>
       <c r="P53" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3404,13 +3404,13 @@
         <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C54">
-        <v>2.419029650684626</v>
+        <v>2.394108322356129</v>
       </c>
       <c r="D54" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E54">
         <v>2.150603084114712</v>
@@ -3419,22 +3419,22 @@
         <v>-1</v>
       </c>
       <c r="G54">
-        <v>0.004480970349315374</v>
+        <v>0.00444589167764387</v>
       </c>
       <c r="H54">
         <v>0.004009396915885288</v>
       </c>
       <c r="I54">
-        <v>0.2684265665699139</v>
+        <v>0.2435052382414176</v>
       </c>
       <c r="J54">
         <v>0.5078671671504308</v>
       </c>
       <c r="K54">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="L54">
-        <v>3.45</v>
+        <v>3.42</v>
       </c>
       <c r="M54">
         <v>1.83</v>
@@ -3446,101 +3446,101 @@
         <v>1</v>
       </c>
       <c r="P54" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" spans="1:16">
       <c r="A55" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B55" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C55">
-        <v>2.361811863714594</v>
+        <v>2.419029650684626</v>
       </c>
       <c r="D55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E55">
-        <v>2.092698992639265</v>
+        <v>2.150603084114712</v>
       </c>
       <c r="F55">
         <v>-1</v>
       </c>
       <c r="G55">
-        <v>0.004158188136285406</v>
+        <v>0.004480970349315374</v>
       </c>
       <c r="H55">
-        <v>0.003867301007360734</v>
+        <v>0.004009396915885288</v>
       </c>
       <c r="I55">
-        <v>0.2691128710753286</v>
+        <v>0.2684265665699139</v>
       </c>
       <c r="J55">
-        <v>0.5443564462335794</v>
+        <v>0.5078671671504308</v>
       </c>
       <c r="K55">
-        <v>1.65</v>
+        <v>2.03</v>
       </c>
       <c r="L55">
-        <v>3.26</v>
+        <v>3.45</v>
       </c>
       <c r="M55">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="N55">
-        <v>2.98</v>
+        <v>3.08</v>
       </c>
       <c r="O55">
         <v>1</v>
       </c>
       <c r="P55" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56" spans="1:16">
       <c r="A56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B56" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C56">
-        <v>2.32039997860817</v>
+        <v>2.361811863714594</v>
       </c>
       <c r="D56" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E56">
-        <v>2.08382770339255</v>
+        <v>2.092698992639265</v>
       </c>
       <c r="F56">
         <v>-1</v>
       </c>
       <c r="G56">
-        <v>0.004519600021391831</v>
+        <v>0.004158188136285406</v>
       </c>
       <c r="H56">
-        <v>0.004076172296607451</v>
+        <v>0.003867301007360734</v>
       </c>
       <c r="I56">
-        <v>0.2365722752156199</v>
+        <v>0.2691128710753286</v>
       </c>
       <c r="J56">
         <v>0.5443564462335794</v>
       </c>
       <c r="K56">
-        <v>2.02</v>
+        <v>1.65</v>
       </c>
       <c r="L56">
-        <v>3.42</v>
+        <v>3.26</v>
       </c>
       <c r="M56">
-        <v>1.83</v>
+        <v>1.63</v>
       </c>
       <c r="N56">
-        <v>3.08</v>
+        <v>2.98</v>
       </c>
       <c r="O56">
         <v>1</v>
@@ -3551,16 +3551,16 @@
     </row>
     <row r="57" spans="1:16">
       <c r="A57" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B57" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C57">
-        <v>2.344956414145834</v>
+        <v>2.32039997860817</v>
       </c>
       <c r="D57" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E57">
         <v>2.08382770339255</v>
@@ -3569,22 +3569,22 @@
         <v>-1</v>
       </c>
       <c r="G57">
-        <v>0.004555043585854166</v>
+        <v>0.004519600021391831</v>
       </c>
       <c r="H57">
         <v>0.004076172296607451</v>
       </c>
       <c r="I57">
-        <v>0.261128710753284</v>
+        <v>0.2365722752156199</v>
       </c>
       <c r="J57">
         <v>0.5443564462335794</v>
       </c>
       <c r="K57">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="L57">
-        <v>3.45</v>
+        <v>3.42</v>
       </c>
       <c r="M57">
         <v>1.83</v>
@@ -3601,116 +3601,116 @@
     </row>
     <row r="58" spans="1:16">
       <c r="A58" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C58">
-        <v>2.284943445032334</v>
+        <v>2.344956414145834</v>
       </c>
       <c r="D58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E58">
-        <v>2.016762312365275</v>
+        <v>2.08382770339255</v>
       </c>
       <c r="F58">
         <v>-1</v>
       </c>
       <c r="G58">
-        <v>0.004235056554967666</v>
+        <v>0.004555043585854166</v>
       </c>
       <c r="H58">
-        <v>0.003943237687634725</v>
+        <v>0.004076172296607451</v>
       </c>
       <c r="I58">
-        <v>0.2681811326670585</v>
+        <v>0.261128710753284</v>
       </c>
       <c r="J58">
-        <v>0.5909433666470703</v>
+        <v>0.5443564462335794</v>
       </c>
       <c r="K58">
-        <v>1.65</v>
+        <v>2.03</v>
       </c>
       <c r="L58">
-        <v>3.26</v>
+        <v>3.45</v>
       </c>
       <c r="M58">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="N58">
-        <v>2.98</v>
+        <v>3.08</v>
       </c>
       <c r="O58">
         <v>1</v>
       </c>
       <c r="P58" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:16">
       <c r="A59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B59" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C59">
-        <v>2.226294399372918</v>
+        <v>2.284943445032334</v>
       </c>
       <c r="D59" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E59">
-        <v>1.998573639035861</v>
+        <v>2.016762312365275</v>
       </c>
       <c r="F59">
         <v>-1</v>
       </c>
       <c r="G59">
-        <v>0.004613705600627082</v>
+        <v>0.004235056554967666</v>
       </c>
       <c r="H59">
-        <v>0.004161426360964139</v>
+        <v>0.003943237687634725</v>
       </c>
       <c r="I59">
-        <v>0.2277207603370566</v>
+        <v>0.2681811326670585</v>
       </c>
       <c r="J59">
         <v>0.5909433666470703</v>
       </c>
       <c r="K59">
-        <v>2.02</v>
+        <v>1.65</v>
       </c>
       <c r="L59">
-        <v>3.42</v>
+        <v>3.26</v>
       </c>
       <c r="M59">
-        <v>1.83</v>
+        <v>1.63</v>
       </c>
       <c r="N59">
-        <v>3.08</v>
+        <v>2.98</v>
       </c>
       <c r="O59">
         <v>1</v>
       </c>
       <c r="P59" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60" spans="1:16">
       <c r="A60" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B60" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C60">
-        <v>2.250384965706448</v>
+        <v>2.226294399372918</v>
       </c>
       <c r="D60" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E60">
         <v>1.998573639035861</v>
@@ -3719,22 +3719,22 @@
         <v>-1</v>
       </c>
       <c r="G60">
-        <v>0.004649615034293553</v>
+        <v>0.004613705600627082</v>
       </c>
       <c r="H60">
         <v>0.004161426360964139</v>
       </c>
       <c r="I60">
-        <v>0.2518113266705861</v>
+        <v>0.2277207603370566</v>
       </c>
       <c r="J60">
         <v>0.5909433666470703</v>
       </c>
       <c r="K60">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="L60">
-        <v>3.45</v>
+        <v>3.42</v>
       </c>
       <c r="M60">
         <v>1.83</v>
@@ -3746,121 +3746,121 @@
         <v>1</v>
       </c>
       <c r="P60" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61" spans="1:16">
       <c r="A61" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C61">
-        <v>2.206392009113778</v>
+        <v>2.250384965706448</v>
       </c>
       <c r="D61" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E61">
-        <v>1.894705026964186</v>
+        <v>1.998573639035861</v>
       </c>
       <c r="F61">
         <v>-1</v>
       </c>
       <c r="G61">
-        <v>0.004313607990886223</v>
+        <v>0.004649615034293553</v>
       </c>
       <c r="H61">
-        <v>0.003925294973035814</v>
+        <v>0.004161426360964139</v>
       </c>
       <c r="I61">
-        <v>0.3116869821495918</v>
+        <v>0.2518113266705861</v>
       </c>
       <c r="J61">
-        <v>0.6385502975068013</v>
+        <v>0.5909433666470703</v>
       </c>
       <c r="K61">
-        <v>1.65</v>
+        <v>2.03</v>
       </c>
       <c r="L61">
-        <v>3.26</v>
+        <v>3.45</v>
       </c>
       <c r="M61">
-        <v>1.59</v>
+        <v>1.83</v>
       </c>
       <c r="N61">
-        <v>2.91</v>
+        <v>3.08</v>
       </c>
       <c r="O61">
         <v>1</v>
       </c>
       <c r="P61" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62" spans="1:16">
       <c r="A62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B62" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C62">
-        <v>2.130128399036261</v>
+        <v>2.206392009113778</v>
       </c>
       <c r="D62" t="s">
         <v>57</v>
       </c>
       <c r="E62">
-        <v>1.911452955562554</v>
+        <v>1.894705026964186</v>
       </c>
       <c r="F62">
         <v>-1</v>
       </c>
       <c r="G62">
-        <v>0.004709871600963739</v>
+        <v>0.004313607990886223</v>
       </c>
       <c r="H62">
-        <v>0.004248547044437446</v>
+        <v>0.003925294973035814</v>
       </c>
       <c r="I62">
-        <v>0.2186754434737077</v>
+        <v>0.3116869821495918</v>
       </c>
       <c r="J62">
         <v>0.6385502975068013</v>
       </c>
       <c r="K62">
-        <v>2.02</v>
+        <v>1.65</v>
       </c>
       <c r="L62">
-        <v>3.42</v>
+        <v>3.26</v>
       </c>
       <c r="M62">
-        <v>1.83</v>
+        <v>1.59</v>
       </c>
       <c r="N62">
-        <v>3.08</v>
+        <v>2.91</v>
       </c>
       <c r="O62">
         <v>1</v>
       </c>
       <c r="P62" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63" spans="1:16">
       <c r="A63" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B63" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C63">
-        <v>2.153742896061194</v>
+        <v>2.130128399036261</v>
       </c>
       <c r="D63" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E63">
         <v>1.911452955562554</v>
@@ -3869,22 +3869,22 @@
         <v>-1</v>
       </c>
       <c r="G63">
-        <v>0.004746257103938807</v>
+        <v>0.004709871600963739</v>
       </c>
       <c r="H63">
         <v>0.004248547044437446</v>
       </c>
       <c r="I63">
-        <v>0.2422899404986398</v>
+        <v>0.2186754434737077</v>
       </c>
       <c r="J63">
         <v>0.6385502975068013</v>
       </c>
       <c r="K63">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="L63">
-        <v>3.45</v>
+        <v>3.42</v>
       </c>
       <c r="M63">
         <v>1.83</v>
@@ -3896,121 +3896,121 @@
         <v>1</v>
       </c>
       <c r="P63" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:16">
       <c r="A64" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C64">
-        <v>2.122703049542399</v>
+        <v>2.153742896061194</v>
       </c>
       <c r="D64" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="E64">
-        <v>2.1327030495424</v>
+        <v>1.911452955562554</v>
       </c>
       <c r="F64">
         <v>-1</v>
       </c>
       <c r="G64">
-        <v>0.004397296950457601</v>
+        <v>0.004746257103938807</v>
       </c>
       <c r="H64">
-        <v>0.0044072969504576</v>
+        <v>0.004248547044437446</v>
       </c>
       <c r="I64">
-        <v>-0.01000000000000068</v>
+        <v>0.2422899404986398</v>
       </c>
       <c r="J64">
-        <v>0.6892708790652124</v>
+        <v>0.6385502975068013</v>
       </c>
       <c r="K64">
-        <v>1.65</v>
+        <v>2.03</v>
       </c>
       <c r="L64">
-        <v>3.26</v>
+        <v>3.45</v>
       </c>
       <c r="M64">
-        <v>1.65</v>
+        <v>1.83</v>
       </c>
       <c r="N64">
-        <v>3.27</v>
+        <v>3.08</v>
       </c>
       <c r="O64">
         <v>1</v>
       </c>
       <c r="P64" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65" spans="1:16">
       <c r="A65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B65" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C65">
-        <v>2.062136368241531</v>
+        <v>2.122703049542399</v>
       </c>
       <c r="D65" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="E65">
-        <v>1.818634291310661</v>
+        <v>2.1327030495424</v>
       </c>
       <c r="F65">
         <v>-1</v>
       </c>
       <c r="G65">
-        <v>0.004777863631758469</v>
+        <v>0.004397296950457601</v>
       </c>
       <c r="H65">
-        <v>0.004341365708689339</v>
+        <v>0.0044072969504576</v>
       </c>
       <c r="I65">
-        <v>0.24350207693087</v>
+        <v>-0.01000000000000068</v>
       </c>
       <c r="J65">
         <v>0.6892708790652124</v>
       </c>
       <c r="K65">
-        <v>1.97</v>
+        <v>1.65</v>
       </c>
       <c r="L65">
-        <v>3.42</v>
+        <v>3.26</v>
       </c>
       <c r="M65">
-        <v>1.83</v>
+        <v>1.65</v>
       </c>
       <c r="N65">
-        <v>3.08</v>
+        <v>3.27</v>
       </c>
       <c r="O65">
         <v>1</v>
       </c>
       <c r="P65" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="66" spans="1:16">
       <c r="A66" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B66" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C66">
-        <v>2.050780115497619</v>
+        <v>2.062136368241531</v>
       </c>
       <c r="D66" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E66">
         <v>1.818634291310661</v>
@@ -4019,22 +4019,22 @@
         <v>-1</v>
       </c>
       <c r="G66">
-        <v>0.004849219884502381</v>
+        <v>0.004777863631758469</v>
       </c>
       <c r="H66">
         <v>0.004341365708689339</v>
       </c>
       <c r="I66">
-        <v>0.2321458241869578</v>
+        <v>0.24350207693087</v>
       </c>
       <c r="J66">
         <v>0.6892708790652124</v>
       </c>
       <c r="K66">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="L66">
-        <v>3.45</v>
+        <v>3.42</v>
       </c>
       <c r="M66">
         <v>1.83</v>
@@ -4046,45 +4046,45 @@
         <v>1</v>
       </c>
       <c r="P66" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="67" spans="1:16">
       <c r="A67" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C67">
-        <v>1.960646887966805</v>
+        <v>2.050780115497619</v>
       </c>
       <c r="D67" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E67">
-        <v>1.724357261410788</v>
+        <v>1.818634291310661</v>
       </c>
       <c r="F67">
         <v>-1</v>
       </c>
       <c r="G67">
-        <v>0.004879353112033196</v>
+        <v>0.004849219884502381</v>
       </c>
       <c r="H67">
-        <v>0.004435642738589212</v>
+        <v>0.004341365708689339</v>
       </c>
       <c r="I67">
-        <v>0.2362896265560166</v>
+        <v>0.2321458241869578</v>
       </c>
       <c r="J67">
-        <v>0.7407883817427386</v>
+        <v>0.6892708790652124</v>
       </c>
       <c r="K67">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="L67">
-        <v>3.42</v>
+        <v>3.45</v>
       </c>
       <c r="M67">
         <v>1.83</v>
@@ -4096,21 +4096,21 @@
         <v>1</v>
       </c>
       <c r="P67" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68" spans="1:16">
       <c r="A68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B68" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C68">
-        <v>1.946199585062241</v>
+        <v>1.960646887966805</v>
       </c>
       <c r="D68" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E68">
         <v>1.724357261410788</v>
@@ -4119,22 +4119,22 @@
         <v>-1</v>
       </c>
       <c r="G68">
-        <v>0.00495380041493776</v>
+        <v>0.004879353112033196</v>
       </c>
       <c r="H68">
         <v>0.004435642738589212</v>
       </c>
       <c r="I68">
-        <v>0.2218423236514526</v>
+        <v>0.2362896265560166</v>
       </c>
       <c r="J68">
         <v>0.7407883817427386</v>
       </c>
       <c r="K68">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="L68">
-        <v>3.45</v>
+        <v>3.42</v>
       </c>
       <c r="M68">
         <v>1.83</v>
@@ -4146,45 +4146,45 @@
         <v>1</v>
       </c>
       <c r="P68" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69" spans="1:16">
       <c r="A69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B69" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C69">
-        <v>1.843540306843175</v>
+        <v>1.946199585062241</v>
       </c>
       <c r="D69" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E69">
-        <v>1.615572975392391</v>
+        <v>1.724357261410788</v>
       </c>
       <c r="F69">
         <v>-1</v>
       </c>
       <c r="G69">
-        <v>0.004996459693156825</v>
+        <v>0.00495380041493776</v>
       </c>
       <c r="H69">
-        <v>0.00454442702460761</v>
+        <v>0.004435642738589212</v>
       </c>
       <c r="I69">
-        <v>0.227967331450784</v>
+        <v>0.2218423236514526</v>
       </c>
       <c r="J69">
-        <v>0.8002333467801142</v>
+        <v>0.7407883817427386</v>
       </c>
       <c r="K69">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="L69">
-        <v>3.42</v>
+        <v>3.45</v>
       </c>
       <c r="M69">
         <v>1.83</v>
@@ -4196,21 +4196,21 @@
         <v>1</v>
       </c>
       <c r="P69" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" spans="1:16">
       <c r="A70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B70" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C70">
-        <v>1.825526306036369</v>
+        <v>1.843540306843175</v>
       </c>
       <c r="D70" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E70">
         <v>1.615572975392391</v>
@@ -4219,22 +4219,22 @@
         <v>-1</v>
       </c>
       <c r="G70">
-        <v>0.005074473693963632</v>
+        <v>0.004996459693156825</v>
       </c>
       <c r="H70">
         <v>0.00454442702460761</v>
       </c>
       <c r="I70">
-        <v>0.2099533306439776</v>
+        <v>0.227967331450784</v>
       </c>
       <c r="J70">
         <v>0.8002333467801142</v>
       </c>
       <c r="K70">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="L70">
-        <v>3.45</v>
+        <v>3.42</v>
       </c>
       <c r="M70">
         <v>1.83</v>
@@ -4246,257 +4246,257 @@
         <v>1</v>
       </c>
       <c r="P70" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71" spans="1:16">
       <c r="A71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B71" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C71">
-        <v>1.364830842322013</v>
+        <v>1.825526306036369</v>
       </c>
       <c r="D71" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E71">
-        <v>1.554057700011381</v>
+        <v>1.615572975392391</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G71">
-        <v>0.005255169157677987</v>
+        <v>0.005074473693963632</v>
       </c>
       <c r="H71">
-        <v>0.004645942299988619</v>
+        <v>0.00454442702460761</v>
       </c>
       <c r="I71">
-        <v>0.1892268576893685</v>
+        <v>0.2099533306439776</v>
       </c>
       <c r="J71">
-        <v>0.8494188461475927</v>
+        <v>0.8002333467801142</v>
       </c>
       <c r="K71">
-        <v>2.29</v>
+        <v>2.03</v>
       </c>
       <c r="L71">
-        <v>3.31</v>
+        <v>3.45</v>
       </c>
       <c r="M71">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="N71">
-        <v>3.1</v>
+        <v>3.08</v>
       </c>
       <c r="O71">
         <v>1</v>
       </c>
       <c r="P71" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72" spans="1:16">
       <c r="A72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B72" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C72">
-        <v>1.746644873089242</v>
+        <v>1.364830842322013</v>
       </c>
       <c r="D72" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E72">
-        <v>1.525563511549905</v>
+        <v>1.554057700011381</v>
       </c>
       <c r="F72">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G72">
-        <v>0.005093355126910757</v>
+        <v>0.005255169157677987</v>
       </c>
       <c r="H72">
-        <v>0.004634436488450095</v>
+        <v>0.004645942299988619</v>
       </c>
       <c r="I72">
-        <v>0.221081361539337</v>
+        <v>0.1892268576893685</v>
       </c>
       <c r="J72">
         <v>0.8494188461475927</v>
       </c>
       <c r="K72">
-        <v>1.97</v>
+        <v>2.29</v>
       </c>
       <c r="L72">
-        <v>3.42</v>
+        <v>3.31</v>
       </c>
       <c r="M72">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="N72">
-        <v>3.08</v>
+        <v>3.1</v>
       </c>
       <c r="O72">
         <v>1</v>
       </c>
       <c r="P72" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73" spans="1:16">
       <c r="A73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B73" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C73">
-        <v>1.253223538131198</v>
+        <v>1.746644873089242</v>
       </c>
       <c r="D73" t="s">
         <v>59</v>
       </c>
       <c r="E73">
-        <v>1.465356698427415</v>
+        <v>1.552668119243339</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G73">
-        <v>0.005366776461868803</v>
+        <v>0.005093355126910757</v>
       </c>
       <c r="H73">
-        <v>0.004734643301572585</v>
+        <v>0.004967331880756661</v>
       </c>
       <c r="I73">
-        <v>0.2121331602962171</v>
+        <v>0.1939767538459036</v>
       </c>
       <c r="J73">
-        <v>0.898155660204717</v>
+        <v>0.8494188461475927</v>
       </c>
       <c r="K73">
-        <v>2.29</v>
+        <v>1.97</v>
       </c>
       <c r="L73">
-        <v>3.31</v>
+        <v>3.42</v>
       </c>
       <c r="M73">
-        <v>1.82</v>
+        <v>2.01</v>
       </c>
       <c r="N73">
-        <v>3.1</v>
+        <v>3.26</v>
       </c>
       <c r="O73">
         <v>1</v>
       </c>
       <c r="P73" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74" spans="1:16">
       <c r="A74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B74" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C74">
-        <v>1.650633349396707</v>
+        <v>1.253223538131198</v>
       </c>
       <c r="D74" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E74">
-        <v>1.454707122988519</v>
+        <v>1.465356698427415</v>
       </c>
       <c r="F74">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G74">
-        <v>0.005189366650603293</v>
+        <v>0.005366776461868803</v>
       </c>
       <c r="H74">
-        <v>0.005065292877011481</v>
+        <v>0.004734643301572585</v>
       </c>
       <c r="I74">
-        <v>0.1959262264081887</v>
+        <v>0.2121331602962171</v>
       </c>
       <c r="J74">
         <v>0.898155660204717</v>
       </c>
       <c r="K74">
-        <v>1.97</v>
+        <v>2.29</v>
       </c>
       <c r="L74">
-        <v>3.42</v>
+        <v>3.31</v>
       </c>
       <c r="M74">
-        <v>2.01</v>
+        <v>1.82</v>
       </c>
       <c r="N74">
-        <v>3.26</v>
+        <v>3.1</v>
       </c>
       <c r="O74">
         <v>1</v>
       </c>
       <c r="P74" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:16">
       <c r="A75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B75" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C75">
-        <v>1.142741567826858</v>
+        <v>1.650633349396707</v>
       </c>
       <c r="D75" t="s">
         <v>59</v>
       </c>
       <c r="E75">
-        <v>1.377550067006499</v>
+        <v>1.454707122988519</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G75">
-        <v>0.005477258432173141</v>
+        <v>0.005189366650603293</v>
       </c>
       <c r="H75">
-        <v>0.004822449932993502</v>
+        <v>0.005065292877011481</v>
       </c>
       <c r="I75">
-        <v>0.2348084991796402</v>
+        <v>0.1959262264081887</v>
       </c>
       <c r="J75">
-        <v>0.9464010620843414</v>
+        <v>0.898155660204717</v>
       </c>
       <c r="K75">
-        <v>2.29</v>
+        <v>1.97</v>
       </c>
       <c r="L75">
-        <v>3.31</v>
+        <v>3.42</v>
       </c>
       <c r="M75">
-        <v>1.82</v>
+        <v>2.01</v>
       </c>
       <c r="N75">
-        <v>3.1</v>
+        <v>3.26</v>
       </c>
       <c r="O75">
         <v>1</v>
       </c>
       <c r="P75" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -4507,28 +4507,28 @@
         <v>31</v>
       </c>
       <c r="C76">
-        <v>1.02473295176371</v>
+        <v>1.142741567826858</v>
       </c>
       <c r="D76" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E76">
-        <v>1.28376155991701</v>
+        <v>1.377550067006499</v>
       </c>
       <c r="F76">
         <v>1</v>
       </c>
       <c r="G76">
-        <v>0.005595267048236289</v>
+        <v>0.005477258432173141</v>
       </c>
       <c r="H76">
-        <v>0.004916238440082991</v>
+        <v>0.004822449932993502</v>
       </c>
       <c r="I76">
-        <v>0.2590286081532995</v>
+        <v>0.2348084991796402</v>
       </c>
       <c r="J76">
-        <v>0.9979332088368078</v>
+        <v>0.9464010620843414</v>
       </c>
       <c r="K76">
         <v>2.29</v>
@@ -4546,7 +4546,7 @@
         <v>1</v>
       </c>
       <c r="P76" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -4557,28 +4557,28 @@
         <v>31</v>
       </c>
       <c r="C77">
-        <v>0.9555784956116042</v>
+        <v>1.02473295176371</v>
       </c>
       <c r="D77" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E77">
-        <v>1.228800376424943</v>
+        <v>1.28376155991701</v>
       </c>
       <c r="F77">
         <v>1</v>
       </c>
       <c r="G77">
-        <v>0.005664421504388396</v>
+        <v>0.005595267048236289</v>
       </c>
       <c r="H77">
-        <v>0.004971199623575057</v>
+        <v>0.004916238440082991</v>
       </c>
       <c r="I77">
-        <v>0.2732218808133391</v>
+        <v>0.2590286081532995</v>
       </c>
       <c r="J77">
-        <v>1.028131661304976</v>
+        <v>0.9979332088368078</v>
       </c>
       <c r="K77">
         <v>2.29</v>
@@ -4596,7 +4596,7 @@
         <v>1</v>
       </c>
       <c r="P77" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -4604,37 +4604,37 @@
         <v>0</v>
       </c>
       <c r="B78" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C78">
-        <v>0.95505474527386</v>
+        <v>0.9555784956116042</v>
       </c>
       <c r="D78" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E78">
-        <v>1.172750932925077</v>
+        <v>1.228800376424943</v>
       </c>
       <c r="F78">
         <v>1</v>
       </c>
       <c r="G78">
-        <v>0.00580494525472614</v>
+        <v>0.005664421504388396</v>
       </c>
       <c r="H78">
-        <v>0.005027249067074924</v>
+        <v>0.004971199623575057</v>
       </c>
       <c r="I78">
-        <v>0.2176961876512167</v>
+        <v>0.2732218808133391</v>
       </c>
       <c r="J78">
-        <v>1.058928058832376</v>
+        <v>1.028131661304976</v>
       </c>
       <c r="K78">
         <v>2.29</v>
       </c>
       <c r="L78">
-        <v>3.38</v>
+        <v>3.31</v>
       </c>
       <c r="M78">
         <v>1.82</v>
@@ -4646,7 +4646,7 @@
         <v>1</v>
       </c>
       <c r="P78" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -4657,28 +4657,28 @@
         <v>32</v>
       </c>
       <c r="C79">
-        <v>0.8997461387005035</v>
+        <v>0.95505474527386</v>
       </c>
       <c r="D79" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E79">
-        <v>1.128793874425728</v>
+        <v>1.172750932925077</v>
       </c>
       <c r="F79">
         <v>1</v>
       </c>
       <c r="G79">
-        <v>0.005860253861299496</v>
+        <v>0.00580494525472614</v>
       </c>
       <c r="H79">
-        <v>0.005071206125574273</v>
+        <v>0.005027249067074924</v>
       </c>
       <c r="I79">
-        <v>0.2290477357252241</v>
+        <v>0.2176961876512167</v>
       </c>
       <c r="J79">
-        <v>1.083080288777073</v>
+        <v>1.058928058832376</v>
       </c>
       <c r="K79">
         <v>2.29</v>
@@ -4696,7 +4696,7 @@
         <v>1</v>
       </c>
       <c r="P79" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -4707,28 +4707,28 @@
         <v>32</v>
       </c>
       <c r="C80">
-        <v>0.9004291893178089</v>
+        <v>0.8997461387005035</v>
       </c>
       <c r="D80" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E80">
-        <v>1.129336735615027</v>
+        <v>1.128793874425728</v>
       </c>
       <c r="F80">
         <v>1</v>
       </c>
       <c r="G80">
-        <v>0.005859570810682191</v>
+        <v>0.005860253861299496</v>
       </c>
       <c r="H80">
-        <v>0.005070663264384973</v>
+        <v>0.005071206125574273</v>
       </c>
       <c r="I80">
-        <v>0.2289075462972185</v>
+        <v>0.2290477357252241</v>
       </c>
       <c r="J80">
-        <v>1.082782013398337</v>
+        <v>1.083080288777073</v>
       </c>
       <c r="K80">
         <v>2.29</v>
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="P80" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -4757,28 +4757,28 @@
         <v>32</v>
       </c>
       <c r="C81">
-        <v>0.8995341152947529</v>
+        <v>0.9004291893178089</v>
       </c>
       <c r="D81" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E81">
-        <v>1.128625366740808</v>
+        <v>1.129336735615027</v>
       </c>
       <c r="F81">
         <v>1</v>
       </c>
       <c r="G81">
-        <v>0.005860465884705247</v>
+        <v>0.005859570810682191</v>
       </c>
       <c r="H81">
-        <v>0.005071374633259193</v>
+        <v>0.005070663264384973</v>
       </c>
       <c r="I81">
-        <v>0.2290912514460552</v>
+        <v>0.2289075462972185</v>
       </c>
       <c r="J81">
-        <v>1.083172875417138</v>
+        <v>1.082782013398337</v>
       </c>
       <c r="K81">
         <v>2.29</v>
@@ -4796,7 +4796,7 @@
         <v>1</v>
       </c>
       <c r="P81" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -4807,28 +4807,28 @@
         <v>32</v>
       </c>
       <c r="C82">
-        <v>0.8942975364165378</v>
+        <v>0.8995341152947529</v>
       </c>
       <c r="D82" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E82">
-        <v>1.124463544226244</v>
+        <v>1.128625366740808</v>
       </c>
       <c r="F82">
         <v>1</v>
       </c>
       <c r="G82">
-        <v>0.005865702463583462</v>
+        <v>0.005860465884705247</v>
       </c>
       <c r="H82">
-        <v>0.005075536455773756</v>
+        <v>0.005071374633259193</v>
       </c>
       <c r="I82">
-        <v>0.2301660078097063</v>
+        <v>0.2290912514460552</v>
       </c>
       <c r="J82">
-        <v>1.085459591084481</v>
+        <v>1.083172875417138</v>
       </c>
       <c r="K82">
         <v>2.29</v>
@@ -4846,7 +4846,7 @@
         <v>1</v>
       </c>
       <c r="P82" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -4857,28 +4857,28 @@
         <v>32</v>
       </c>
       <c r="C83">
-        <v>0.823882990348408</v>
+        <v>0.8942975364165378</v>
       </c>
       <c r="D83" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E83">
-        <v>1.068500891892621</v>
+        <v>1.124463544226244</v>
       </c>
       <c r="F83">
         <v>1</v>
       </c>
       <c r="G83">
-        <v>0.005936117009651592</v>
+        <v>0.005865702463583462</v>
       </c>
       <c r="H83">
-        <v>0.005131499108107379</v>
+        <v>0.005075536455773756</v>
       </c>
       <c r="I83">
-        <v>0.2446179015442134</v>
+        <v>0.2301660078097063</v>
       </c>
       <c r="J83">
-        <v>1.1162083011579</v>
+        <v>1.085459591084481</v>
       </c>
       <c r="K83">
         <v>2.29</v>
@@ -4896,7 +4896,7 @@
         <v>1</v>
       </c>
       <c r="P83" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -4907,28 +4907,28 @@
         <v>32</v>
       </c>
       <c r="C84">
-        <v>0.7552208383877499</v>
+        <v>0.823882990348408</v>
       </c>
       <c r="D84" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E84">
-        <v>1.013930971993758</v>
+        <v>1.068500891892621</v>
       </c>
       <c r="F84">
         <v>1</v>
       </c>
       <c r="G84">
-        <v>0.00600477916161225</v>
+        <v>0.005936117009651592</v>
       </c>
       <c r="H84">
-        <v>0.005186069028006243</v>
+        <v>0.005131499108107379</v>
       </c>
       <c r="I84">
-        <v>0.2587101336060078</v>
+        <v>0.2446179015442134</v>
       </c>
       <c r="J84">
-        <v>1.146191773629804</v>
+        <v>1.1162083011579</v>
       </c>
       <c r="K84">
         <v>2.29</v>
@@ -4946,7 +4946,7 @@
         <v>1</v>
       </c>
       <c r="P84" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -4957,28 +4957,28 @@
         <v>32</v>
       </c>
       <c r="C85">
-        <v>0.7164672131147527</v>
+        <v>0.7552208383877499</v>
       </c>
       <c r="D85" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E85">
-        <v>0.9831311475409823</v>
+        <v>1.013930971993758</v>
       </c>
       <c r="F85">
         <v>1</v>
       </c>
       <c r="G85">
-        <v>0.006043532786885248</v>
+        <v>0.00600477916161225</v>
       </c>
       <c r="H85">
-        <v>0.005216868852459018</v>
+        <v>0.005186069028006243</v>
       </c>
       <c r="I85">
-        <v>0.2666639344262296</v>
+        <v>0.2587101336060078</v>
       </c>
       <c r="J85">
-        <v>1.163114754098361</v>
+        <v>1.146191773629804</v>
       </c>
       <c r="K85">
         <v>2.29</v>
@@ -4996,7 +4996,7 @@
         <v>1</v>
       </c>
       <c r="P85" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -5007,28 +5007,28 @@
         <v>32</v>
       </c>
       <c r="C86">
-        <v>0.6498239504652852</v>
+        <v>0.7164672131147527</v>
       </c>
       <c r="D86" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E86">
-        <v>0.9301657597584363</v>
+        <v>0.9831311475409823</v>
       </c>
       <c r="F86">
         <v>1</v>
       </c>
       <c r="G86">
-        <v>0.006110176049534715</v>
+        <v>0.006043532786885248</v>
       </c>
       <c r="H86">
-        <v>0.005269834240241564</v>
+        <v>0.005216868852459018</v>
       </c>
       <c r="I86">
-        <v>0.2803418092931511</v>
+        <v>0.2666639344262296</v>
       </c>
       <c r="J86">
-        <v>1.192216615517343</v>
+        <v>1.163114754098361</v>
       </c>
       <c r="K86">
         <v>2.29</v>
@@ -5046,7 +5046,7 @@
         <v>1</v>
       </c>
       <c r="P86" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -5054,60 +5054,60 @@
         <v>0</v>
       </c>
       <c r="B87" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C87">
-        <v>0.5205928926738919</v>
+        <v>0.6498239504652852</v>
       </c>
       <c r="D87" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="E87">
-        <v>0.4040417624885522</v>
+        <v>0.9301657597584363</v>
       </c>
       <c r="F87">
         <v>1</v>
       </c>
       <c r="G87">
-        <v>0.006459407107326108</v>
+        <v>0.006110176049534715</v>
       </c>
       <c r="H87">
-        <v>0.006215958237511448</v>
+        <v>0.005269834240241564</v>
       </c>
       <c r="I87">
-        <v>-0.1165511301853397</v>
+        <v>0.2803418092931511</v>
       </c>
       <c r="J87">
-        <v>1.268977396293209</v>
+        <v>1.192216615517343</v>
       </c>
       <c r="K87">
-        <v>2.34</v>
+        <v>2.29</v>
       </c>
       <c r="L87">
-        <v>3.49</v>
+        <v>3.38</v>
       </c>
       <c r="M87">
-        <v>2.29</v>
+        <v>1.82</v>
       </c>
       <c r="N87">
-        <v>3.31</v>
+        <v>3.1</v>
       </c>
       <c r="O87">
         <v>1</v>
       </c>
       <c r="P87" t="s">
-        <v>106</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88" spans="1:16">
       <c r="A88" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B88" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C88">
-        <v>0.474041762488552</v>
+        <v>0.5205928926738919</v>
       </c>
       <c r="D88" t="s">
         <v>31</v>
@@ -5119,22 +5119,22 @@
         <v>1</v>
       </c>
       <c r="G88">
-        <v>0.006285958237511447</v>
+        <v>0.006459407107326108</v>
       </c>
       <c r="H88">
         <v>0.006215958237511448</v>
       </c>
       <c r="I88">
-        <v>-0.06999999999999984</v>
+        <v>-0.1165511301853397</v>
       </c>
       <c r="J88">
         <v>1.268977396293209</v>
       </c>
       <c r="K88">
-        <v>2.29</v>
+        <v>2.34</v>
       </c>
       <c r="L88">
-        <v>3.38</v>
+        <v>3.49</v>
       </c>
       <c r="M88">
         <v>2.29</v>
@@ -5146,45 +5146,45 @@
         <v>1</v>
       </c>
       <c r="P88" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:16">
       <c r="A89" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B89" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C89">
-        <v>0.3774746016246668</v>
+        <v>0.474041762488552</v>
       </c>
       <c r="D89" t="s">
         <v>31</v>
       </c>
       <c r="E89">
-        <v>0.2639815545814042</v>
+        <v>0.4040417624885522</v>
       </c>
       <c r="F89">
         <v>1</v>
       </c>
       <c r="G89">
-        <v>0.006602525398375333</v>
+        <v>0.006285958237511447</v>
       </c>
       <c r="H89">
-        <v>0.006356018445418596</v>
+        <v>0.006215958237511448</v>
       </c>
       <c r="I89">
-        <v>-0.1134930470432627</v>
+        <v>-0.06999999999999984</v>
       </c>
       <c r="J89">
-        <v>1.330139059134758</v>
+        <v>1.268977396293209</v>
       </c>
       <c r="K89">
-        <v>2.34</v>
+        <v>2.29</v>
       </c>
       <c r="L89">
-        <v>3.49</v>
+        <v>3.38</v>
       </c>
       <c r="M89">
         <v>2.29</v>
@@ -5196,18 +5196,18 @@
         <v>1</v>
       </c>
       <c r="P89" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:16">
       <c r="A90" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B90" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C90">
-        <v>0.333981554581404</v>
+        <v>0.3774746016246668</v>
       </c>
       <c r="D90" t="s">
         <v>31</v>
@@ -5219,22 +5219,22 @@
         <v>1</v>
       </c>
       <c r="G90">
-        <v>0.006426018445418596</v>
+        <v>0.006602525398375333</v>
       </c>
       <c r="H90">
         <v>0.006356018445418596</v>
       </c>
       <c r="I90">
-        <v>-0.06999999999999984</v>
+        <v>-0.1134930470432627</v>
       </c>
       <c r="J90">
         <v>1.330139059134758</v>
       </c>
       <c r="K90">
-        <v>2.29</v>
+        <v>2.34</v>
       </c>
       <c r="L90">
-        <v>3.38</v>
+        <v>3.49</v>
       </c>
       <c r="M90">
         <v>2.29</v>
@@ -5251,40 +5251,40 @@
     </row>
     <row r="91" spans="1:16">
       <c r="A91" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B91" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C91">
-        <v>0.2442505289553791</v>
+        <v>0.333981554581404</v>
       </c>
       <c r="D91" t="s">
         <v>31</v>
       </c>
       <c r="E91">
-        <v>0.1336041501315459</v>
+        <v>0.2639815545814042</v>
       </c>
       <c r="F91">
         <v>1</v>
       </c>
       <c r="G91">
-        <v>0.006735749471044622</v>
+        <v>0.006426018445418596</v>
       </c>
       <c r="H91">
-        <v>0.006486395849868455</v>
+        <v>0.006356018445418596</v>
       </c>
       <c r="I91">
-        <v>-0.1106463788238332</v>
+        <v>-0.06999999999999984</v>
       </c>
       <c r="J91">
-        <v>1.387072423523342</v>
+        <v>1.330139059134758</v>
       </c>
       <c r="K91">
-        <v>2.34</v>
+        <v>2.29</v>
       </c>
       <c r="L91">
-        <v>3.49</v>
+        <v>3.38</v>
       </c>
       <c r="M91">
         <v>2.29</v>
@@ -5296,121 +5296,121 @@
         <v>1</v>
       </c>
       <c r="P91" t="s">
-        <v>107</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92" spans="1:16">
       <c r="A92" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B92" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C92">
-        <v>0.2977942894248136</v>
+        <v>0.2442505289553791</v>
       </c>
       <c r="D92" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="E92">
-        <v>0.5755281891875166</v>
+        <v>0.1336041501315459</v>
       </c>
       <c r="F92">
         <v>1</v>
       </c>
       <c r="G92">
-        <v>0.006262205710575186</v>
+        <v>0.006735749471044622</v>
       </c>
       <c r="H92">
-        <v>0.005624471810812484</v>
+        <v>0.006486395849868455</v>
       </c>
       <c r="I92">
-        <v>0.277733899762703</v>
+        <v>-0.1106463788238332</v>
       </c>
       <c r="J92">
         <v>1.387072423523342</v>
       </c>
       <c r="K92">
-        <v>2.15</v>
+        <v>2.34</v>
       </c>
       <c r="L92">
-        <v>3.28</v>
+        <v>3.49</v>
       </c>
       <c r="M92">
-        <v>1.82</v>
+        <v>2.29</v>
       </c>
       <c r="N92">
-        <v>3.1</v>
+        <v>3.31</v>
       </c>
       <c r="O92">
         <v>1</v>
       </c>
       <c r="P92" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="93" spans="1:16">
       <c r="A93" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B93" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C93">
-        <v>1.851150997400674</v>
+        <v>0.2977942894248136</v>
       </c>
       <c r="D93" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E93">
-        <v>1.622642804691997</v>
+        <v>0.5755281891875166</v>
       </c>
       <c r="F93">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G93">
-        <v>0.004988849002599325</v>
+        <v>0.006262205710575186</v>
       </c>
       <c r="H93">
-        <v>0.004537357195308004</v>
+        <v>0.005624471810812484</v>
       </c>
       <c r="I93">
-        <v>0.2285081927086774</v>
+        <v>0.277733899762703</v>
       </c>
       <c r="J93">
-        <v>0.7963700520808761</v>
+        <v>1.387072423523342</v>
       </c>
       <c r="K93">
-        <v>1.97</v>
+        <v>2.15</v>
       </c>
       <c r="L93">
-        <v>3.42</v>
+        <v>3.28</v>
       </c>
       <c r="M93">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="N93">
-        <v>3.08</v>
+        <v>3.1</v>
       </c>
       <c r="O93">
         <v>1</v>
       </c>
       <c r="P93" t="s">
-        <v>30</v>
+        <v>103</v>
       </c>
     </row>
     <row r="94" spans="1:16">
       <c r="A94" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B94" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C94">
-        <v>1.833368794275822</v>
+        <v>1.851150997400674</v>
       </c>
       <c r="D94" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E94">
         <v>1.622642804691997</v>
@@ -5419,22 +5419,22 @@
         <v>-1</v>
       </c>
       <c r="G94">
-        <v>0.005066631205724178</v>
+        <v>0.004988849002599325</v>
       </c>
       <c r="H94">
         <v>0.004537357195308004</v>
       </c>
       <c r="I94">
-        <v>0.2107259895838252</v>
+        <v>0.2285081927086774</v>
       </c>
       <c r="J94">
         <v>0.7963700520808761</v>
       </c>
       <c r="K94">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="L94">
-        <v>3.45</v>
+        <v>3.42</v>
       </c>
       <c r="M94">
         <v>1.83</v>
@@ -5451,34 +5451,34 @@
     </row>
     <row r="95" spans="1:16">
       <c r="A95" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B95" t="s">
         <v>26</v>
       </c>
       <c r="C95">
-        <v>1.825554329597634</v>
+        <v>1.833368794275822</v>
       </c>
       <c r="D95" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E95">
-        <v>1.61559823801166</v>
+        <v>1.622642804691997</v>
       </c>
       <c r="F95">
         <v>-1</v>
       </c>
       <c r="G95">
-        <v>0.005074445670402367</v>
+        <v>0.005066631205724178</v>
       </c>
       <c r="H95">
-        <v>0.00454440176198834</v>
+        <v>0.004537357195308004</v>
       </c>
       <c r="I95">
-        <v>0.2099560915859742</v>
+        <v>0.2107259895838252</v>
       </c>
       <c r="J95">
-        <v>0.8002195420701311</v>
+        <v>0.7963700520808761</v>
       </c>
       <c r="K95">
         <v>2.03</v>
@@ -5496,7 +5496,7 @@
         <v>1</v>
       </c>
       <c r="P95" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -5507,28 +5507,28 @@
         <v>26</v>
       </c>
       <c r="C96">
-        <v>1.814964366537685</v>
+        <v>1.825554329597634</v>
       </c>
       <c r="D96" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E96">
-        <v>1.606051621065991</v>
+        <v>1.61559823801166</v>
       </c>
       <c r="F96">
         <v>-1</v>
       </c>
       <c r="G96">
-        <v>0.005085035633462316</v>
+        <v>0.005074445670402367</v>
       </c>
       <c r="H96">
-        <v>0.004553948378934009</v>
+        <v>0.00454440176198834</v>
       </c>
       <c r="I96">
-        <v>0.2089127454716935</v>
+        <v>0.2099560915859742</v>
       </c>
       <c r="J96">
-        <v>0.8054362726415348</v>
+        <v>0.8002195420701311</v>
       </c>
       <c r="K96">
         <v>2.03</v>
@@ -5546,7 +5546,7 @@
         <v>1</v>
       </c>
       <c r="P96" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -5557,28 +5557,28 @@
         <v>26</v>
       </c>
       <c r="C97">
-        <v>1.80276175127278</v>
+        <v>1.814964366537685</v>
       </c>
       <c r="D97" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E97">
-        <v>1.595051233906003</v>
+        <v>1.606051621065991</v>
       </c>
       <c r="F97">
         <v>-1</v>
       </c>
       <c r="G97">
-        <v>0.005097238248727221</v>
+        <v>0.005085035633462316</v>
       </c>
       <c r="H97">
-        <v>0.004564948766093997</v>
+        <v>0.004553948378934009</v>
       </c>
       <c r="I97">
-        <v>0.2077105173667766</v>
+        <v>0.2089127454716935</v>
       </c>
       <c r="J97">
-        <v>0.8114474131661186</v>
+        <v>0.8054362726415348</v>
       </c>
       <c r="K97">
         <v>2.03</v>
@@ -5596,21 +5596,21 @@
         <v>1</v>
       </c>
       <c r="P97" t="s">
-        <v>108</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" spans="1:16">
       <c r="A98" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B98" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C98">
-        <v>1.766532803009457</v>
+        <v>1.80276175127278</v>
       </c>
       <c r="D98" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E98">
         <v>1.595051233906003</v>
@@ -5619,22 +5619,22 @@
         <v>-1</v>
       </c>
       <c r="G98">
-        <v>0.005093467196990544</v>
+        <v>0.005097238248727221</v>
       </c>
       <c r="H98">
         <v>0.004564948766093997</v>
       </c>
       <c r="I98">
-        <v>0.1714815691034541</v>
+        <v>0.2077105173667766</v>
       </c>
       <c r="J98">
         <v>0.8114474131661186</v>
       </c>
       <c r="K98">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="L98">
-        <v>3.43</v>
+        <v>3.45</v>
       </c>
       <c r="M98">
         <v>1.83</v>
@@ -5646,139 +5646,139 @@
         <v>1</v>
       </c>
       <c r="P98" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="99" spans="1:16">
       <c r="A99" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B99" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C99">
-        <v>1.799355758249058</v>
+        <v>1.766532803009457</v>
       </c>
       <c r="D99" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E99">
-        <v>1.583193292162916</v>
+        <v>1.595051233906003</v>
       </c>
       <c r="F99">
         <v>-1</v>
       </c>
       <c r="G99">
-        <v>0.005100644241750943</v>
+        <v>0.005093467196990544</v>
       </c>
       <c r="H99">
-        <v>0.004656806707837084</v>
+        <v>0.004564948766093997</v>
       </c>
       <c r="I99">
-        <v>0.2161624660861419</v>
+        <v>0.1714815691034541</v>
       </c>
       <c r="J99">
-        <v>0.8131252422418436</v>
+        <v>0.8114474131661186</v>
       </c>
       <c r="K99">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="L99">
-        <v>3.45</v>
+        <v>3.43</v>
       </c>
       <c r="M99">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="N99">
-        <v>3.12</v>
+        <v>3.08</v>
       </c>
       <c r="O99">
         <v>1</v>
       </c>
       <c r="P99" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="100" spans="1:16">
       <c r="A100" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B100" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C100">
-        <v>1.763093253404221</v>
+        <v>1.799355758249058</v>
       </c>
       <c r="D100" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E100">
-        <v>1.583193292162916</v>
+        <v>1.591980806697426</v>
       </c>
       <c r="F100">
         <v>-1</v>
       </c>
       <c r="G100">
-        <v>0.00509690674659578</v>
+        <v>0.005100644241750943</v>
       </c>
       <c r="H100">
-        <v>0.004656806707837084</v>
+        <v>0.004568019193302574</v>
       </c>
       <c r="I100">
-        <v>0.179899961241305</v>
+        <v>0.2073749515516314</v>
       </c>
       <c r="J100">
         <v>0.8131252422418436</v>
       </c>
       <c r="K100">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="L100">
-        <v>3.43</v>
+        <v>3.45</v>
       </c>
       <c r="M100">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="N100">
-        <v>3.12</v>
+        <v>3.08</v>
       </c>
       <c r="O100">
         <v>1</v>
       </c>
       <c r="P100" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="101" spans="1:16">
       <c r="A101" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B101" t="s">
         <v>35</v>
       </c>
       <c r="C101">
-        <v>1.758945050051923</v>
+        <v>1.763093253404221</v>
       </c>
       <c r="D101" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E101">
-        <v>1.579368851023481</v>
+        <v>1.591980806697426</v>
       </c>
       <c r="F101">
         <v>-1</v>
       </c>
       <c r="G101">
-        <v>0.005101054949948077</v>
+        <v>0.00509690674659578</v>
       </c>
       <c r="H101">
-        <v>0.00466063114897652</v>
+        <v>0.004568019193302574</v>
       </c>
       <c r="I101">
-        <v>0.1795761990284428</v>
+        <v>0.1711124467067946</v>
       </c>
       <c r="J101">
-        <v>0.8151487560722326</v>
+        <v>0.8131252422418436</v>
       </c>
       <c r="K101">
         <v>2.05</v>
@@ -5787,16 +5787,16 @@
         <v>3.43</v>
       </c>
       <c r="M101">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="N101">
-        <v>3.12</v>
+        <v>3.08</v>
       </c>
       <c r="O101">
         <v>1</v>
       </c>
       <c r="P101" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -5804,37 +5804,37 @@
         <v>0</v>
       </c>
       <c r="B102" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C102">
-        <v>1.72904089319749</v>
+        <v>1.758945050051923</v>
       </c>
       <c r="D102" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E102">
-        <v>1.571905533403557</v>
+        <v>1.579368851023481</v>
       </c>
       <c r="F102">
         <v>-1</v>
       </c>
       <c r="G102">
-        <v>0.00507095910680251</v>
+        <v>0.005101054949948077</v>
       </c>
       <c r="H102">
-        <v>0.004668094466596443</v>
+        <v>0.00466063114897652</v>
       </c>
       <c r="I102">
-        <v>0.1571353597939327</v>
+        <v>0.1795761990284428</v>
       </c>
       <c r="J102">
-        <v>0.8190976013737793</v>
+        <v>0.8151487560722326</v>
       </c>
       <c r="K102">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="L102">
-        <v>3.4</v>
+        <v>3.43</v>
       </c>
       <c r="M102">
         <v>1.89</v>
@@ -5846,21 +5846,21 @@
         <v>1</v>
       </c>
       <c r="P102" t="s">
-        <v>110</v>
+        <v>26</v>
       </c>
     </row>
     <row r="103" spans="1:16">
       <c r="A103" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B103" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C103">
-        <v>1.750849917183753</v>
+        <v>1.72904089319749</v>
       </c>
       <c r="D103" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E103">
         <v>1.571905533403557</v>
@@ -5869,22 +5869,22 @@
         <v>-1</v>
       </c>
       <c r="G103">
-        <v>0.005109150082816248</v>
+        <v>0.00507095910680251</v>
       </c>
       <c r="H103">
         <v>0.004668094466596443</v>
       </c>
       <c r="I103">
-        <v>0.1789443837801954</v>
+        <v>0.1571353597939327</v>
       </c>
       <c r="J103">
         <v>0.8190976013737793</v>
       </c>
       <c r="K103">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="L103">
-        <v>3.43</v>
+        <v>3.4</v>
       </c>
       <c r="M103">
         <v>1.89</v>
@@ -5896,45 +5896,45 @@
         <v>1</v>
       </c>
       <c r="P103" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="104" spans="1:16">
       <c r="A104" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B104" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C104">
-        <v>1.732368893145465</v>
+        <v>1.750849917183753</v>
       </c>
       <c r="D104" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E104">
-        <v>1.574988827473004</v>
+        <v>1.571905533403557</v>
       </c>
       <c r="F104">
         <v>-1</v>
       </c>
       <c r="G104">
-        <v>0.005067631106854534</v>
+        <v>0.005109150082816248</v>
       </c>
       <c r="H104">
-        <v>0.004665011172526996</v>
+        <v>0.004668094466596443</v>
       </c>
       <c r="I104">
-        <v>0.1573800656724604</v>
+        <v>0.1789443837801954</v>
       </c>
       <c r="J104">
-        <v>0.8174662288502623</v>
+        <v>0.8190976013737793</v>
       </c>
       <c r="K104">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="L104">
-        <v>3.4</v>
+        <v>3.43</v>
       </c>
       <c r="M104">
         <v>1.89</v>
@@ -5946,7 +5946,7 @@
         <v>1</v>
       </c>
       <c r="P104" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -5954,99 +5954,99 @@
         <v>0</v>
       </c>
       <c r="B105" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C105">
-        <v>1.697534484639878</v>
+        <v>1.732368893145465</v>
       </c>
       <c r="D105" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E105">
-        <v>1.561011377500918</v>
+        <v>1.574988827473004</v>
       </c>
       <c r="F105">
         <v>-1</v>
       </c>
       <c r="G105">
-        <v>0.004842465515360122</v>
+        <v>0.005067631106854534</v>
       </c>
       <c r="H105">
-        <v>0.004478988622499082</v>
+        <v>0.004665011172526996</v>
       </c>
       <c r="I105">
-        <v>0.1365231071389603</v>
+        <v>0.1573800656724604</v>
       </c>
       <c r="J105">
-        <v>0.8105492347217125</v>
+        <v>0.8174662288502623</v>
       </c>
       <c r="K105">
-        <v>1.94</v>
+        <v>2.04</v>
       </c>
       <c r="L105">
-        <v>3.27</v>
+        <v>3.4</v>
       </c>
       <c r="M105">
-        <v>1.8</v>
+        <v>1.89</v>
       </c>
       <c r="N105">
-        <v>3.02</v>
+        <v>3.12</v>
       </c>
       <c r="O105">
         <v>1</v>
       </c>
       <c r="P105" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="106" spans="1:16">
       <c r="A106" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B106" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C106">
-        <v>1.703024477239647</v>
+        <v>1.754194230856962</v>
       </c>
       <c r="D106" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E106">
-        <v>1.566105185067714</v>
+        <v>1.574988827473004</v>
       </c>
       <c r="F106">
         <v>-1</v>
       </c>
       <c r="G106">
-        <v>0.004836975522760354</v>
+        <v>0.005105805769143037</v>
       </c>
       <c r="H106">
-        <v>0.004473894814932287</v>
+        <v>0.004665011172526996</v>
       </c>
       <c r="I106">
-        <v>0.1369192921719335</v>
+        <v>0.1792054033839581</v>
       </c>
       <c r="J106">
-        <v>0.8077193416290479</v>
+        <v>0.8174662288502623</v>
       </c>
       <c r="K106">
-        <v>1.94</v>
+        <v>2.05</v>
       </c>
       <c r="L106">
-        <v>3.27</v>
+        <v>3.43</v>
       </c>
       <c r="M106">
-        <v>1.8</v>
+        <v>1.89</v>
       </c>
       <c r="N106">
-        <v>3.02</v>
+        <v>3.12</v>
       </c>
       <c r="O106">
         <v>1</v>
       </c>
       <c r="P106" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -6057,28 +6057,28 @@
         <v>37</v>
       </c>
       <c r="C107">
-        <v>1.706762500295012</v>
+        <v>1.703024477239647</v>
       </c>
       <c r="D107" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E107">
-        <v>1.56957345388197</v>
+        <v>1.566105185067714</v>
       </c>
       <c r="F107">
         <v>-1</v>
       </c>
       <c r="G107">
-        <v>0.004833237499704988</v>
+        <v>0.004836975522760354</v>
       </c>
       <c r="H107">
-        <v>0.004470426546118031</v>
+        <v>0.004473894814932287</v>
       </c>
       <c r="I107">
-        <v>0.1371890464130423</v>
+        <v>0.1369192921719335</v>
       </c>
       <c r="J107">
-        <v>0.8057925256211278</v>
+        <v>0.8077193416290479</v>
       </c>
       <c r="K107">
         <v>1.94</v>
@@ -6096,7 +6096,7 @@
         <v>1</v>
       </c>
       <c r="P107" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -6107,28 +6107,28 @@
         <v>37</v>
       </c>
       <c r="C108">
-        <v>1.711603744119008</v>
+        <v>1.706762500295012</v>
       </c>
       <c r="D108" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E108">
-        <v>1.574065329594956</v>
+        <v>1.56957345388197</v>
       </c>
       <c r="F108">
         <v>-1</v>
       </c>
       <c r="G108">
-        <v>0.004828396255880993</v>
+        <v>0.004833237499704988</v>
       </c>
       <c r="H108">
-        <v>0.004465934670405044</v>
+        <v>0.004470426546118031</v>
       </c>
       <c r="I108">
-        <v>0.1375384145240521</v>
+        <v>0.1371890464130423</v>
       </c>
       <c r="J108">
-        <v>0.8032970391139135</v>
+        <v>0.8057925256211278</v>
       </c>
       <c r="K108">
         <v>1.94</v>
@@ -6146,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="P108" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -6154,37 +6154,37 @@
         <v>0</v>
       </c>
       <c r="B109" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C109">
-        <v>1.692794429881362</v>
+        <v>1.711603744119008</v>
       </c>
       <c r="D109" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E109">
-        <v>1.582453645749488</v>
+        <v>1.574065329594956</v>
       </c>
       <c r="F109">
         <v>-1</v>
       </c>
       <c r="G109">
-        <v>0.004967205570118639</v>
+        <v>0.004828396255880993</v>
       </c>
       <c r="H109">
-        <v>0.004457546354250512</v>
+        <v>0.004465934670405044</v>
       </c>
       <c r="I109">
-        <v>0.1103407841318738</v>
+        <v>0.1375384145240521</v>
       </c>
       <c r="J109">
-        <v>0.7986368634725065</v>
+        <v>0.8032970391139135</v>
       </c>
       <c r="K109">
-        <v>2.05</v>
+        <v>1.94</v>
       </c>
       <c r="L109">
-        <v>3.33</v>
+        <v>3.27</v>
       </c>
       <c r="M109">
         <v>1.8</v>
@@ -6196,39 +6196,39 @@
         <v>1</v>
       </c>
       <c r="P109" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
     </row>
     <row r="110" spans="1:16">
       <c r="A110" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B110" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C110">
-        <v>1.688494539845313</v>
+        <v>1.708455604764484</v>
       </c>
       <c r="D110" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E110">
-        <v>1.582453645749488</v>
+        <v>1.581191854101024</v>
       </c>
       <c r="F110">
         <v>-1</v>
       </c>
       <c r="G110">
-        <v>0.004611505460154687</v>
+        <v>0.004591544395235517</v>
       </c>
       <c r="H110">
-        <v>0.004457546354250512</v>
+        <v>0.004558808145898975</v>
       </c>
       <c r="I110">
-        <v>0.1060408940958246</v>
+        <v>0.1272637506634595</v>
       </c>
       <c r="J110">
-        <v>0.7986368634725065</v>
+        <v>0.7877291777243258</v>
       </c>
       <c r="K110">
         <v>1.83</v>
@@ -6237,16 +6237,16 @@
         <v>3.15</v>
       </c>
       <c r="M110">
-        <v>1.8</v>
+        <v>1.89</v>
       </c>
       <c r="N110">
-        <v>3.02</v>
+        <v>3.07</v>
       </c>
       <c r="O110">
         <v>1</v>
       </c>
       <c r="P110" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -6257,34 +6257,34 @@
         <v>38</v>
       </c>
       <c r="C111">
-        <v>1.70214823612866</v>
+        <v>1.709251767384038</v>
       </c>
       <c r="D111" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E111">
-        <v>1.56920008111374</v>
+        <v>1.582014120413023</v>
       </c>
       <c r="F111">
         <v>-1</v>
       </c>
       <c r="G111">
-        <v>0.00495785176387134</v>
+        <v>0.004590748232615962</v>
       </c>
       <c r="H111">
-        <v>0.004570799918886261</v>
+        <v>0.004557985879586977</v>
       </c>
       <c r="I111">
-        <v>0.1329481550149201</v>
+        <v>0.127237646971015</v>
       </c>
       <c r="J111">
-        <v>0.7940740311567515</v>
+        <v>0.7872941161835857</v>
       </c>
       <c r="K111">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="L111">
-        <v>3.33</v>
+        <v>3.15</v>
       </c>
       <c r="M111">
         <v>1.89</v>
@@ -6296,45 +6296,45 @@
         <v>1</v>
       </c>
       <c r="P111" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
     </row>
     <row r="112" spans="1:16">
       <c r="A112" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B112" t="s">
         <v>39</v>
       </c>
       <c r="C112">
-        <v>1.696844522983145</v>
+        <v>1.700943162115883</v>
       </c>
       <c r="D112" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E112">
-        <v>1.56920008111374</v>
+        <v>1.579395987242713</v>
       </c>
       <c r="F112">
         <v>-1</v>
       </c>
       <c r="G112">
-        <v>0.004603155477016856</v>
+        <v>0.004619056837884117</v>
       </c>
       <c r="H112">
-        <v>0.004570799918886261</v>
+        <v>0.004560604012757288</v>
       </c>
       <c r="I112">
-        <v>0.1276444418694049</v>
+        <v>0.1215471748731702</v>
       </c>
       <c r="J112">
-        <v>0.7940740311567515</v>
+        <v>0.7886793718292525</v>
       </c>
       <c r="K112">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="L112">
-        <v>3.15</v>
+        <v>3.16</v>
       </c>
       <c r="M112">
         <v>1.89</v>
@@ -6346,7 +6346,7 @@
         <v>1</v>
       </c>
       <c r="P112" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -6354,99 +6354,99 @@
         <v>0</v>
       </c>
       <c r="B113" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C113">
-        <v>1.712161558505066</v>
+        <v>1.663913589994122</v>
       </c>
       <c r="D113" t="s">
         <v>62</v>
       </c>
       <c r="E113">
-        <v>1.578431875890036</v>
+        <v>1.720624811893301</v>
       </c>
       <c r="F113">
         <v>-1</v>
       </c>
       <c r="G113">
-        <v>0.004947838441494935</v>
+        <v>0.004496086410005878</v>
       </c>
       <c r="H113">
-        <v>0.004561568124109965</v>
+        <v>0.004679375188106701</v>
       </c>
       <c r="I113">
-        <v>0.1337296826150298</v>
+        <v>-0.05671122189917877</v>
       </c>
       <c r="J113">
-        <v>0.7891894836560657</v>
+        <v>0.7911097262602672</v>
       </c>
       <c r="K113">
-        <v>2.05</v>
+        <v>1.79</v>
       </c>
       <c r="L113">
-        <v>3.33</v>
+        <v>3.08</v>
       </c>
       <c r="M113">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="N113">
-        <v>3.07</v>
+        <v>3.2</v>
       </c>
       <c r="O113">
         <v>1</v>
       </c>
       <c r="P113" t="s">
-        <v>116</v>
+        <v>53</v>
       </c>
     </row>
     <row r="114" spans="1:16">
       <c r="A114" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B114" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C114">
-        <v>1.7057832449094</v>
+        <v>1.665059605928799</v>
       </c>
       <c r="D114" t="s">
         <v>62</v>
       </c>
       <c r="E114">
-        <v>1.578431875890036</v>
+        <v>1.721822046417237</v>
       </c>
       <c r="F114">
         <v>-1</v>
       </c>
       <c r="G114">
-        <v>0.0045942167550906</v>
+        <v>0.004494940394071201</v>
       </c>
       <c r="H114">
-        <v>0.004561568124109965</v>
+        <v>0.004678177953582763</v>
       </c>
       <c r="I114">
-        <v>0.1273513690193639</v>
+        <v>-0.05676244048843815</v>
       </c>
       <c r="J114">
-        <v>0.7891894836560657</v>
+        <v>0.7904694938945258</v>
       </c>
       <c r="K114">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="L114">
-        <v>3.15</v>
+        <v>3.08</v>
       </c>
       <c r="M114">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="N114">
-        <v>3.07</v>
+        <v>3.2</v>
       </c>
       <c r="O114">
         <v>1</v>
       </c>
       <c r="P114" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -6457,46 +6457,46 @@
         <v>40</v>
       </c>
       <c r="C115">
-        <v>1.702496180963806</v>
+        <v>1.667413730063291</v>
       </c>
       <c r="D115" t="s">
         <v>62</v>
       </c>
       <c r="E115">
-        <v>1.580982584876536</v>
+        <v>1.72428138280355</v>
       </c>
       <c r="F115">
         <v>-1</v>
       </c>
       <c r="G115">
-        <v>0.004617503819036195</v>
+        <v>0.004492586269936709</v>
       </c>
       <c r="H115">
-        <v>0.004559017415123464</v>
+        <v>0.00467571861719645</v>
       </c>
       <c r="I115">
-        <v>0.1215135960872693</v>
+        <v>-0.05686765274025896</v>
       </c>
       <c r="J115">
-        <v>0.7878399021817268</v>
+        <v>0.7891543407467646</v>
       </c>
       <c r="K115">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="L115">
-        <v>3.16</v>
+        <v>3.08</v>
       </c>
       <c r="M115">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="N115">
-        <v>3.07</v>
+        <v>3.2</v>
       </c>
       <c r="O115">
         <v>1</v>
       </c>
       <c r="P115" t="s">
-        <v>38</v>
+        <v>114</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -6507,46 +6507,46 @@
         <v>40</v>
       </c>
       <c r="C116">
-        <v>1.702701021209997</v>
+        <v>1.67021344942318</v>
       </c>
       <c r="D116" t="s">
         <v>62</v>
       </c>
       <c r="E116">
-        <v>1.581191854101024</v>
+        <v>1.727206229285669</v>
       </c>
       <c r="F116">
         <v>-1</v>
       </c>
       <c r="G116">
-        <v>0.004617298978790003</v>
+        <v>0.00448978655057682</v>
       </c>
       <c r="H116">
-        <v>0.004558808145898975</v>
+        <v>0.004672793770714332</v>
       </c>
       <c r="I116">
-        <v>0.1215091671089732</v>
+        <v>-0.05699277986248874</v>
       </c>
       <c r="J116">
-        <v>0.7877291777243258</v>
+        <v>0.7875902517188939</v>
       </c>
       <c r="K116">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="L116">
-        <v>3.16</v>
+        <v>3.08</v>
       </c>
       <c r="M116">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="N116">
-        <v>3.07</v>
+        <v>3.2</v>
       </c>
       <c r="O116">
         <v>1</v>
       </c>
       <c r="P116" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -6557,46 +6557,46 @@
         <v>40</v>
       </c>
       <c r="C117">
-        <v>1.703505885060367</v>
+        <v>1.671620581307566</v>
       </c>
       <c r="D117" t="s">
         <v>62</v>
       </c>
       <c r="E117">
-        <v>1.582014120413023</v>
+        <v>1.728676249745893</v>
       </c>
       <c r="F117">
         <v>-1</v>
       </c>
       <c r="G117">
-        <v>0.004616494114939634</v>
+        <v>0.004488379418692434</v>
       </c>
       <c r="H117">
-        <v>0.004557985879586977</v>
+        <v>0.004671323750254107</v>
       </c>
       <c r="I117">
-        <v>0.1214917646473437</v>
+        <v>-0.05705566843832699</v>
       </c>
       <c r="J117">
-        <v>0.7872941161835857</v>
+        <v>0.7868041445209126</v>
       </c>
       <c r="K117">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="L117">
-        <v>3.16</v>
+        <v>3.08</v>
       </c>
       <c r="M117">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="N117">
-        <v>3.07</v>
+        <v>3.2</v>
       </c>
       <c r="O117">
         <v>1</v>
       </c>
       <c r="P117" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -6607,46 +6607,46 @@
         <v>40</v>
       </c>
       <c r="C118">
-        <v>1.700943162115883</v>
+        <v>1.674116133860681</v>
       </c>
       <c r="D118" t="s">
         <v>62</v>
       </c>
       <c r="E118">
-        <v>1.579395987242713</v>
+        <v>1.731283335374008</v>
       </c>
       <c r="F118">
         <v>-1</v>
       </c>
       <c r="G118">
-        <v>0.004619056837884117</v>
+        <v>0.004485883866139319</v>
       </c>
       <c r="H118">
-        <v>0.004560604012757288</v>
+        <v>0.004668716664625992</v>
       </c>
       <c r="I118">
-        <v>0.1215471748731702</v>
+        <v>-0.05716720151332666</v>
       </c>
       <c r="J118">
-        <v>0.7886793718292525</v>
+        <v>0.7854099810834182</v>
       </c>
       <c r="K118">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="L118">
-        <v>3.16</v>
+        <v>3.08</v>
       </c>
       <c r="M118">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="N118">
-        <v>3.07</v>
+        <v>3.2</v>
       </c>
       <c r="O118">
         <v>1</v>
       </c>
       <c r="P118" t="s">
-        <v>119</v>
+        <v>61</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -6654,49 +6654,49 @@
         <v>0</v>
       </c>
       <c r="B119" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C119">
-        <v>1.501402601256944</v>
+        <v>1.677466171134621</v>
       </c>
       <c r="D119" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E119">
-        <v>1.597234266816977</v>
+        <v>1.734783094984213</v>
       </c>
       <c r="F119">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G119">
-        <v>0.004398597398743057</v>
+        <v>0.004482533828865379</v>
       </c>
       <c r="H119">
-        <v>0.004462765733183023</v>
+        <v>0.004665216905015787</v>
       </c>
       <c r="I119">
-        <v>0.09583166556003309</v>
+        <v>-0.05731692384959208</v>
       </c>
       <c r="J119">
-        <v>0.7915832780016702</v>
+        <v>0.7835384518800999</v>
       </c>
       <c r="K119">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="L119">
-        <v>2.95</v>
+        <v>3.08</v>
       </c>
       <c r="M119">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="N119">
-        <v>3.03</v>
+        <v>3.2</v>
       </c>
       <c r="O119">
         <v>1</v>
       </c>
       <c r="P119" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -6704,49 +6704,49 @@
         <v>0</v>
       </c>
       <c r="B120" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C120">
-        <v>1.502269200943711</v>
+        <v>1.678366684793693</v>
       </c>
       <c r="D120" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E120">
-        <v>1.573913589994122</v>
+        <v>1.735723855063803</v>
       </c>
       <c r="F120">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G120">
-        <v>0.004397730799056289</v>
+        <v>0.004481633315206307</v>
       </c>
       <c r="H120">
-        <v>0.004406086410005878</v>
+        <v>0.004664276144936198</v>
       </c>
       <c r="I120">
-        <v>0.07164438905041082</v>
+        <v>-0.05735717027010923</v>
       </c>
       <c r="J120">
-        <v>0.7911097262602672</v>
+        <v>0.783035371623635</v>
       </c>
       <c r="K120">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="L120">
-        <v>2.95</v>
+        <v>3.08</v>
       </c>
       <c r="M120">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="N120">
-        <v>2.99</v>
+        <v>3.2</v>
       </c>
       <c r="O120">
         <v>1</v>
       </c>
       <c r="P120" t="s">
-        <v>55</v>
+        <v>118</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -6754,49 +6754,49 @@
         <v>0</v>
       </c>
       <c r="B121" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C121">
-        <v>1.503440826173018</v>
+        <v>1.679550874418332</v>
       </c>
       <c r="D121" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E121">
-        <v>1.575059605928799</v>
+        <v>1.736960969364403</v>
       </c>
       <c r="F121">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G121">
-        <v>0.004396559173826983</v>
+        <v>0.004480449125581668</v>
       </c>
       <c r="H121">
-        <v>0.004404940394071201</v>
+        <v>0.004663039030635597</v>
       </c>
       <c r="I121">
-        <v>0.07161877975578101</v>
+        <v>-0.05741009494607074</v>
       </c>
       <c r="J121">
-        <v>0.7904694938945258</v>
+        <v>0.7823738131741161</v>
       </c>
       <c r="K121">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="L121">
-        <v>2.95</v>
+        <v>3.08</v>
       </c>
       <c r="M121">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="N121">
-        <v>2.99</v>
+        <v>3.2</v>
       </c>
       <c r="O121">
         <v>1</v>
       </c>
       <c r="P121" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -6804,93 +6804,93 @@
         <v>0</v>
       </c>
       <c r="B122" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C122">
-        <v>1.643739099840889</v>
+        <v>1.682170924710402</v>
       </c>
       <c r="D122" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E122">
-        <v>1.557956013025953</v>
+        <v>1.73969811687623</v>
       </c>
       <c r="F122">
         <v>-1</v>
       </c>
       <c r="G122">
-        <v>0.004516260900159112</v>
+        <v>0.004477829075289598</v>
       </c>
       <c r="H122">
-        <v>0.004462043986974047</v>
+        <v>0.004660301883123771</v>
       </c>
       <c r="I122">
-        <v>0.08578308681493563</v>
+        <v>-0.05752719216582824</v>
       </c>
       <c r="J122">
-        <v>0.7891543407467646</v>
+        <v>0.7809100979271496</v>
       </c>
       <c r="K122">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="L122">
         <v>3.08</v>
       </c>
       <c r="M122">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="N122">
-        <v>3.01</v>
+        <v>3.2</v>
       </c>
       <c r="O122">
         <v>1</v>
       </c>
       <c r="P122" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="123" spans="1:16">
       <c r="A123" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B123" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C123">
-        <v>1.505847556433421</v>
+        <v>1.683529202756129</v>
       </c>
       <c r="D123" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E123">
-        <v>1.577413730063292</v>
+        <v>1.741117100086012</v>
       </c>
       <c r="F123">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G123">
-        <v>0.004394152443566579</v>
+        <v>0.004476470797243872</v>
       </c>
       <c r="H123">
-        <v>0.004402586269936709</v>
+        <v>0.004658882899913989</v>
       </c>
       <c r="I123">
-        <v>0.07156617362987072</v>
+        <v>-0.0575878973298829</v>
       </c>
       <c r="J123">
-        <v>0.7891543407467646</v>
+        <v>0.7801512833764644</v>
       </c>
       <c r="K123">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="L123">
-        <v>2.95</v>
+        <v>3.08</v>
       </c>
       <c r="M123">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="N123">
-        <v>2.99</v>
+        <v>3.2</v>
       </c>
       <c r="O123">
         <v>1</v>
@@ -6904,49 +6904,49 @@
         <v>0</v>
       </c>
       <c r="B124" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C124">
-        <v>1.508709839354424</v>
+        <v>1.684238336039838</v>
       </c>
       <c r="D124" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E124">
-        <v>1.58021344942318</v>
+        <v>1.741857926477373</v>
       </c>
       <c r="F124">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G124">
-        <v>0.004391290160645577</v>
+        <v>0.004475761663960162</v>
       </c>
       <c r="H124">
-        <v>0.00439978655057682</v>
+        <v>0.004658142073522628</v>
       </c>
       <c r="I124">
-        <v>0.07150361006875583</v>
+        <v>-0.05761959043753473</v>
       </c>
       <c r="J124">
-        <v>0.7875902517188939</v>
+        <v>0.7797551195308166</v>
       </c>
       <c r="K124">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="L124">
-        <v>2.95</v>
+        <v>3.08</v>
       </c>
       <c r="M124">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="N124">
-        <v>2.99</v>
+        <v>3.2</v>
       </c>
       <c r="O124">
         <v>1</v>
       </c>
       <c r="P124" t="s">
-        <v>42</v>
+        <v>122</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -6954,49 +6954,49 @@
         <v>0</v>
       </c>
       <c r="B125" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C125">
-        <v>1.51014841552673</v>
+        <v>1.685343362363527</v>
       </c>
       <c r="D125" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E125">
-        <v>1.581620581307567</v>
+        <v>1.7430123394524</v>
       </c>
       <c r="F125">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G125">
-        <v>0.00438985158447327</v>
+        <v>0.004474656637636473</v>
       </c>
       <c r="H125">
-        <v>0.004398379418692434</v>
+        <v>0.004656987660547601</v>
       </c>
       <c r="I125">
-        <v>0.07147216578083659</v>
+        <v>-0.05766897708887275</v>
       </c>
       <c r="J125">
-        <v>0.7868041445209126</v>
+        <v>0.7791377863890909</v>
       </c>
       <c r="K125">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="L125">
-        <v>2.95</v>
+        <v>3.08</v>
       </c>
       <c r="M125">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="N125">
-        <v>2.99</v>
+        <v>3.2</v>
       </c>
       <c r="O125">
         <v>1</v>
       </c>
       <c r="P125" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -7004,148 +7004,48 @@
         <v>0</v>
       </c>
       <c r="B126" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C126">
-        <v>1.512699734617345</v>
+        <v>1.687494420433455</v>
       </c>
       <c r="D126" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E126">
-        <v>1.584116133860682</v>
+        <v>1.745259534195844</v>
       </c>
       <c r="F126">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G126">
-        <v>0.004387300265382656</v>
+        <v>0.004472505579566546</v>
       </c>
       <c r="H126">
-        <v>0.004395883866139319</v>
+        <v>0.004654740465804157</v>
       </c>
       <c r="I126">
-        <v>0.07141639924333676</v>
+        <v>-0.05776511376238913</v>
       </c>
       <c r="J126">
-        <v>0.7854099810834182</v>
+        <v>0.777936077970137</v>
       </c>
       <c r="K126">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="L126">
-        <v>2.95</v>
+        <v>3.08</v>
       </c>
       <c r="M126">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="N126">
-        <v>2.99</v>
+        <v>3.2</v>
       </c>
       <c r="O126">
         <v>1</v>
       </c>
       <c r="P126" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="127" spans="1:16">
-      <c r="A127" s="1">
-        <v>0</v>
-      </c>
-      <c r="B127" t="s">
-        <v>41</v>
-      </c>
-      <c r="C127">
-        <v>1.516124633059417</v>
-      </c>
-      <c r="D127" t="s">
-        <v>64</v>
-      </c>
-      <c r="E127">
-        <v>1.587466171134621</v>
-      </c>
-      <c r="F127">
-        <v>1</v>
-      </c>
-      <c r="G127">
-        <v>0.004383875366940583</v>
-      </c>
-      <c r="H127">
-        <v>0.00439253382886538</v>
-      </c>
-      <c r="I127">
-        <v>0.07134153807520405</v>
-      </c>
-      <c r="J127">
-        <v>0.7835384518800999</v>
-      </c>
-      <c r="K127">
-        <v>1.83</v>
-      </c>
-      <c r="L127">
-        <v>2.95</v>
-      </c>
-      <c r="M127">
-        <v>1.79</v>
-      </c>
-      <c r="N127">
-        <v>2.99</v>
-      </c>
-      <c r="O127">
-        <v>1</v>
-      </c>
-      <c r="P127" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="128" spans="1:16">
-      <c r="A128" s="1">
-        <v>0</v>
-      </c>
-      <c r="B128" t="s">
-        <v>41</v>
-      </c>
-      <c r="C128">
-        <v>1.517045269928748</v>
-      </c>
-      <c r="D128" t="s">
-        <v>64</v>
-      </c>
-      <c r="E128">
-        <v>1.588366684793693</v>
-      </c>
-      <c r="F128">
-        <v>1</v>
-      </c>
-      <c r="G128">
-        <v>0.004382954730071252</v>
-      </c>
-      <c r="H128">
-        <v>0.004391633315206307</v>
-      </c>
-      <c r="I128">
-        <v>0.07132141486494548</v>
-      </c>
-      <c r="J128">
-        <v>0.783035371623635</v>
-      </c>
-      <c r="K128">
-        <v>1.83</v>
-      </c>
-      <c r="L128">
-        <v>2.95</v>
-      </c>
-      <c r="M128">
-        <v>1.79</v>
-      </c>
-      <c r="N128">
-        <v>2.99</v>
-      </c>
-      <c r="O128">
-        <v>1</v>
-      </c>
-      <c r="P128" t="s">
         <v>124</v>
       </c>
     </row>

--- a/s60_signal/position-01618-601618.xlsx
+++ b/s60_signal/position-01618-601618.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="137">
   <si>
     <t>trade_time</t>
   </si>
@@ -97,6 +97,9 @@
     <t>2021-04-12</t>
   </si>
   <si>
+    <t>2020-12-11</t>
+  </si>
+  <si>
     <t>2021-01-13</t>
   </si>
   <si>
@@ -130,6 +133,9 @@
     <t>2021-04-29</t>
   </si>
   <si>
+    <t>2021-07-12</t>
+  </si>
+  <si>
     <t>2021-05-17</t>
   </si>
   <si>
@@ -199,12 +205,12 @@
     <t>2021-05-06</t>
   </si>
   <si>
+    <t>2021-07-13</t>
+  </si>
+  <si>
     <t>2021-05-28</t>
   </si>
   <si>
-    <t>2021-07-12</t>
-  </si>
-  <si>
     <t>2016-12-23</t>
   </si>
   <si>
@@ -268,9 +274,6 @@
     <t>2020-12-02</t>
   </si>
   <si>
-    <t>2020-12-11</t>
-  </si>
-  <si>
     <t>2020-12-14</t>
   </si>
   <si>
@@ -349,6 +352,12 @@
     <t>2021-04-28</t>
   </si>
   <si>
+    <t>2021-05-07</t>
+  </si>
+  <si>
+    <t>2021-05-10</t>
+  </si>
+  <si>
     <t>2021-05-11</t>
   </si>
   <si>
@@ -358,7 +367,7 @@
     <t>2021-05-13</t>
   </si>
   <si>
-    <t>2021-05-25</t>
+    <t>2021-05-18</t>
   </si>
   <si>
     <t>2021-05-26</t>
@@ -376,19 +385,46 @@
     <t>2021-06-02</t>
   </si>
   <si>
-    <t>2021-06-03</t>
-  </si>
-  <si>
-    <t>2021-06-04</t>
-  </si>
-  <si>
-    <t>2021-06-07</t>
-  </si>
-  <si>
-    <t>2021-06-08</t>
-  </si>
-  <si>
-    <t>2021-06-09</t>
+    <t>2021-06-10</t>
+  </si>
+  <si>
+    <t>2021-06-11</t>
+  </si>
+  <si>
+    <t>2021-06-15</t>
+  </si>
+  <si>
+    <t>2021-06-16</t>
+  </si>
+  <si>
+    <t>2021-06-17</t>
+  </si>
+  <si>
+    <t>2021-06-18</t>
+  </si>
+  <si>
+    <t>2021-06-21</t>
+  </si>
+  <si>
+    <t>2021-06-22</t>
+  </si>
+  <si>
+    <t>2021-06-23</t>
+  </si>
+  <si>
+    <t>2021-06-24</t>
+  </si>
+  <si>
+    <t>2021-06-25</t>
+  </si>
+  <si>
+    <t>2021-06-28</t>
+  </si>
+  <si>
+    <t>2021-06-29</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
   </si>
 </sst>
 </file>
@@ -746,7 +782,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P126"/>
+  <dimension ref="A1:P145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -810,7 +846,7 @@
         <v>2.241636620202809</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E2">
         <v>2.083673377356266</v>
@@ -846,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -860,7 +896,7 @@
         <v>2.291018963074085</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>2.748932188801797</v>
@@ -896,7 +932,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -910,7 +946,7 @@
         <v>0.1640886968569069</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E4">
         <v>0.8087275807852619</v>
@@ -946,7 +982,7 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -960,7 +996,7 @@
         <v>0.1567937244930127</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E5">
         <v>0.8087275807852619</v>
@@ -996,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1010,7 +1046,7 @@
         <v>0.06008199184724816</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E6">
         <v>0.7118353409391309</v>
@@ -1046,7 +1082,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1060,7 +1096,7 @@
         <v>0.05109309920632388</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E7">
         <v>0.7118353409391309</v>
@@ -1096,7 +1132,7 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1110,7 +1146,7 @@
         <v>-0.0569506423664734</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E8">
         <v>0.6028081963621785</v>
@@ -1146,7 +1182,7 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1160,7 +1196,7 @@
         <v>-0.06784560396853312</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E9">
         <v>0.6028081963621785</v>
@@ -1196,7 +1232,7 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1210,7 +1246,7 @@
         <v>-0.1396452470657845</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E10">
         <v>0.5257702258605397</v>
@@ -1246,7 +1282,7 @@
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1260,7 +1296,7 @@
         <v>-0.1518870263339567</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>0.5257702258605397</v>
@@ -1296,7 +1332,7 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1310,7 +1346,7 @@
         <v>-0.2479133877986754</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E12">
         <v>0.424908049151723</v>
@@ -1346,7 +1382,7 @@
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1360,7 +1396,7 @@
         <v>-0.2619184918344848</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E13">
         <v>0.424908049151723</v>
@@ -1396,7 +1432,7 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1410,7 +1446,7 @@
         <v>-0.3399965939203824</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E14">
         <v>0.3391236942630966</v>
@@ -1446,7 +1482,7 @@
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1460,7 +1496,7 @@
         <v>0.9756011105228968</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E15">
         <v>0.8107654111102569</v>
@@ -1496,7 +1532,7 @@
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1510,7 +1546,7 @@
         <v>1.301145679016073</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E16">
         <v>1.173416666670367</v>
@@ -1546,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="P16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1560,7 +1596,7 @@
         <v>1.296277364845049</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E17">
         <v>1.230890933009092</v>
@@ -1596,7 +1632,7 @@
         <v>1</v>
       </c>
       <c r="P17" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1610,7 +1646,7 @@
         <v>0.4435035626339812</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E18">
         <v>0.9439906537348826</v>
@@ -1646,7 +1682,7 @@
         <v>1</v>
       </c>
       <c r="P18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1660,7 +1696,7 @@
         <v>0.4423533289773536</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E19">
         <v>0.9439906537348826</v>
@@ -1696,7 +1732,7 @@
         <v>1</v>
       </c>
       <c r="P19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1710,7 +1746,7 @@
         <v>1.507350128118183</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E20">
         <v>1.202821457299868</v>
@@ -1746,7 +1782,7 @@
         <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1760,7 +1796,7 @@
         <v>1.54125697476493</v>
       </c>
       <c r="D21" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E21">
         <v>1.238224194239853</v>
@@ -1796,7 +1832,7 @@
         <v>1</v>
       </c>
       <c r="P21" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1810,7 +1846,7 @@
         <v>1.573438797246031</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E22">
         <v>1.271825803006885</v>
@@ -1846,7 +1882,7 @@
         <v>1</v>
       </c>
       <c r="P22" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1860,7 +1896,7 @@
         <v>1.613400857289038</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E23">
         <v>1.313550895110613</v>
@@ -1896,7 +1932,7 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1910,7 +1946,7 @@
         <v>1.593400857289038</v>
       </c>
       <c r="D24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E24">
         <v>1.363275825771058</v>
@@ -1946,7 +1982,7 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1960,7 +1996,7 @@
         <v>1.645344720184119</v>
       </c>
       <c r="D25" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E25">
         <v>1.346904046074595</v>
@@ -1996,7 +2032,7 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2010,7 +2046,7 @@
         <v>1.625344720184119</v>
       </c>
       <c r="D26" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E26">
         <v>1.394045281942056</v>
@@ -2046,7 +2082,7 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2060,7 +2096,7 @@
         <v>1.68180858461344</v>
       </c>
       <c r="D27" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E27">
         <v>1.384976610405209</v>
@@ -2096,7 +2132,7 @@
         <v>1</v>
       </c>
       <c r="P27" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2110,7 +2146,7 @@
         <v>1.66180858461344</v>
       </c>
       <c r="D28" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E28">
         <v>1.429168563120298</v>
@@ -2146,7 +2182,7 @@
         <v>1</v>
       </c>
       <c r="P28" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2160,7 +2196,7 @@
         <v>1.710614904938503</v>
       </c>
       <c r="D29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E29">
         <v>1.415053797803437</v>
@@ -2196,7 +2232,7 @@
         <v>1</v>
       </c>
       <c r="P29" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2210,7 +2246,7 @@
         <v>1.690614904938503</v>
       </c>
       <c r="D30" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E30">
         <v>1.456915827551058</v>
@@ -2246,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="P30" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2260,7 +2296,7 @@
         <v>2.268334662646267</v>
       </c>
       <c r="D31" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E31">
         <v>2.649848972127444</v>
@@ -2296,7 +2332,7 @@
         <v>1</v>
       </c>
       <c r="P31" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2310,7 +2346,7 @@
         <v>2.967686812279704</v>
       </c>
       <c r="D32" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E32">
         <v>2.56427663569716</v>
@@ -2346,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="P32" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2360,7 +2396,7 @@
         <v>2.94857711339348</v>
       </c>
       <c r="D33" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E33">
         <v>2.56427663569716</v>
@@ -2396,7 +2432,7 @@
         <v>1</v>
       </c>
       <c r="P33" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2410,7 +2446,7 @@
         <v>2.936045316925131</v>
       </c>
       <c r="D34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E34">
         <v>2.56427663569716</v>
@@ -2446,7 +2482,7 @@
         <v>1</v>
       </c>
       <c r="P34" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2460,7 +2496,7 @@
         <v>2.269323006316983</v>
       </c>
       <c r="D35" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E35">
         <v>2.651071198651537</v>
@@ -2496,7 +2532,7 @@
         <v>1</v>
       </c>
       <c r="P35" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2510,7 +2546,7 @@
         <v>2.969422072159588</v>
       </c>
       <c r="D36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E36">
         <v>2.565634665168374</v>
@@ -2546,7 +2582,7 @@
         <v>1</v>
       </c>
       <c r="P36" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2560,7 +2596,7 @@
         <v>2.950101124244508</v>
       </c>
       <c r="D37" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E37">
         <v>2.565634665168374</v>
@@ -2596,7 +2632,7 @@
         <v>1</v>
       </c>
       <c r="P37" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2610,7 +2646,7 @@
         <v>2.937576872384333</v>
       </c>
       <c r="D38" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E38">
         <v>2.565634665168374</v>
@@ -2646,7 +2682,7 @@
         <v>1</v>
       </c>
       <c r="P38" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2654,13 +2690,13 @@
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C39">
-        <v>2.270137575266223</v>
+        <v>2.277619541489629</v>
       </c>
       <c r="D39" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E39">
         <v>2.652078528191817</v>
@@ -2669,22 +2705,22 @@
         <v>1</v>
       </c>
       <c r="G39">
-        <v>0.002929862424733777</v>
+        <v>0.002942380458510371</v>
       </c>
       <c r="H39">
         <v>0.003467921471808183</v>
       </c>
       <c r="I39">
-        <v>0.3819409529255946</v>
+        <v>0.3744589867021886</v>
       </c>
       <c r="J39">
         <v>0.2518033776593721</v>
       </c>
       <c r="K39">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="L39">
-        <v>2.6</v>
+        <v>2.61</v>
       </c>
       <c r="M39">
         <v>1.62</v>
@@ -2696,7 +2732,7 @@
         <v>1</v>
       </c>
       <c r="P39" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2704,40 +2740,40 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C40">
-        <v>2.970852231383444</v>
+        <v>2.270137575266223</v>
       </c>
       <c r="D40" t="s">
         <v>52</v>
       </c>
       <c r="E40">
-        <v>2.604235886436537</v>
+        <v>2.652078528191817</v>
       </c>
       <c r="F40">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G40">
-        <v>0.004129147768616556</v>
+        <v>0.002929862424733777</v>
       </c>
       <c r="H40">
-        <v>0.003515764113563464</v>
+        <v>0.003467921471808183</v>
       </c>
       <c r="I40">
-        <v>0.3666163449469071</v>
+        <v>0.3819409529255946</v>
       </c>
       <c r="J40">
         <v>0.2518033776593721</v>
       </c>
       <c r="K40">
-        <v>2.3</v>
+        <v>1.31</v>
       </c>
       <c r="L40">
-        <v>3.55</v>
+        <v>2.6</v>
       </c>
       <c r="M40">
-        <v>1.81</v>
+        <v>1.62</v>
       </c>
       <c r="N40">
         <v>3.06</v>
@@ -2746,7 +2782,7 @@
         <v>1</v>
       </c>
       <c r="P40" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2754,13 +2790,13 @@
         <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C41">
-        <v>2.951357177128068</v>
+        <v>2.970852231383444</v>
       </c>
       <c r="D41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E41">
         <v>2.604235886436537</v>
@@ -2769,22 +2805,22 @@
         <v>-1</v>
       </c>
       <c r="G41">
-        <v>0.003968642822871932</v>
+        <v>0.004129147768616556</v>
       </c>
       <c r="H41">
         <v>0.003515764113563464</v>
       </c>
       <c r="I41">
-        <v>0.3471212906915317</v>
+        <v>0.3666163449469071</v>
       </c>
       <c r="J41">
         <v>0.2518033776593721</v>
       </c>
       <c r="K41">
-        <v>2.02</v>
+        <v>2.3</v>
       </c>
       <c r="L41">
-        <v>3.46</v>
+        <v>3.55</v>
       </c>
       <c r="M41">
         <v>1.81</v>
@@ -2796,7 +2832,7 @@
         <v>1</v>
       </c>
       <c r="P41" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2804,13 +2840,13 @@
         <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C42">
-        <v>2.938839143351475</v>
+        <v>2.951357177128068</v>
       </c>
       <c r="D42" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E42">
         <v>2.604235886436537</v>
@@ -2819,22 +2855,22 @@
         <v>-1</v>
       </c>
       <c r="G42">
-        <v>0.003961160856648526</v>
+        <v>0.003968642822871932</v>
       </c>
       <c r="H42">
         <v>0.003515764113563464</v>
       </c>
       <c r="I42">
-        <v>0.3346032569149382</v>
+        <v>0.3471212906915317</v>
       </c>
       <c r="J42">
         <v>0.2518033776593721</v>
       </c>
       <c r="K42">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="L42">
-        <v>3.45</v>
+        <v>3.46</v>
       </c>
       <c r="M42">
         <v>1.81</v>
@@ -2846,48 +2882,48 @@
         <v>1</v>
       </c>
       <c r="P42" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B43" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C43">
-        <v>2.266750315683077</v>
+        <v>2.938839143351475</v>
       </c>
       <c r="D43" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E43">
-        <v>2.647889703363805</v>
+        <v>2.604235886436537</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G43">
-        <v>0.002933249684316924</v>
+        <v>0.003961160856648526</v>
       </c>
       <c r="H43">
-        <v>0.003472110296636196</v>
+        <v>0.003515764113563464</v>
       </c>
       <c r="I43">
-        <v>0.3811393876807281</v>
+        <v>0.3346032569149382</v>
       </c>
       <c r="J43">
-        <v>0.2543890719976515</v>
+        <v>0.2518033776593721</v>
       </c>
       <c r="K43">
-        <v>1.31</v>
+        <v>2.03</v>
       </c>
       <c r="L43">
-        <v>2.6</v>
+        <v>3.45</v>
       </c>
       <c r="M43">
-        <v>1.62</v>
+        <v>1.81</v>
       </c>
       <c r="N43">
         <v>3.06</v>
@@ -2896,48 +2932,48 @@
         <v>1</v>
       </c>
       <c r="P43" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B44" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C44">
-        <v>2.964905134405401</v>
+        <v>2.2742064249631</v>
       </c>
       <c r="D44" t="s">
         <v>52</v>
       </c>
       <c r="E44">
-        <v>2.599555779684251</v>
+        <v>2.647889703363805</v>
       </c>
       <c r="F44">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G44">
-        <v>0.004135094865594598</v>
+        <v>0.0029457935750369</v>
       </c>
       <c r="H44">
-        <v>0.003520444220315749</v>
+        <v>0.003472110296636196</v>
       </c>
       <c r="I44">
-        <v>0.3653493547211504</v>
+        <v>0.3736832784007049</v>
       </c>
       <c r="J44">
         <v>0.2543890719976515</v>
       </c>
       <c r="K44">
-        <v>2.3</v>
+        <v>1.32</v>
       </c>
       <c r="L44">
-        <v>3.55</v>
+        <v>2.61</v>
       </c>
       <c r="M44">
-        <v>1.81</v>
+        <v>1.62</v>
       </c>
       <c r="N44">
         <v>3.06</v>
@@ -2946,48 +2982,48 @@
         <v>1</v>
       </c>
       <c r="P44" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:16">
       <c r="A45" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C45">
-        <v>2.946134074564744</v>
+        <v>2.266750315683077</v>
       </c>
       <c r="D45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E45">
-        <v>2.599555779684251</v>
+        <v>2.647889703363805</v>
       </c>
       <c r="F45">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G45">
-        <v>0.003973865925435256</v>
+        <v>0.002933249684316924</v>
       </c>
       <c r="H45">
-        <v>0.003520444220315749</v>
+        <v>0.003472110296636196</v>
       </c>
       <c r="I45">
-        <v>0.346578294880493</v>
+        <v>0.3811393876807281</v>
       </c>
       <c r="J45">
         <v>0.2543890719976515</v>
       </c>
       <c r="K45">
-        <v>2.02</v>
+        <v>1.31</v>
       </c>
       <c r="L45">
-        <v>3.46</v>
+        <v>2.6</v>
       </c>
       <c r="M45">
-        <v>1.81</v>
+        <v>1.62</v>
       </c>
       <c r="N45">
         <v>3.06</v>
@@ -2996,21 +3032,21 @@
         <v>1</v>
       </c>
       <c r="P45" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C46">
-        <v>2.933590183844768</v>
+        <v>2.964905134405401</v>
       </c>
       <c r="D46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E46">
         <v>2.599555779684251</v>
@@ -3019,22 +3055,22 @@
         <v>-1</v>
       </c>
       <c r="G46">
-        <v>0.003966409816155233</v>
+        <v>0.004135094865594598</v>
       </c>
       <c r="H46">
         <v>0.003520444220315749</v>
       </c>
       <c r="I46">
-        <v>0.3340344041605166</v>
+        <v>0.3653493547211504</v>
       </c>
       <c r="J46">
         <v>0.2543890719976515</v>
       </c>
       <c r="K46">
-        <v>2.03</v>
+        <v>2.3</v>
       </c>
       <c r="L46">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="M46">
         <v>1.81</v>
@@ -3046,48 +3082,48 @@
         <v>1</v>
       </c>
       <c r="P46" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:16">
       <c r="A47" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B47" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C47">
-        <v>1.990887286527514</v>
+        <v>2.946134074564744</v>
       </c>
       <c r="D47" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E47">
-        <v>2.306746110056926</v>
+        <v>2.599555779684251</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G47">
-        <v>0.003209112713472486</v>
+        <v>0.003973865925435256</v>
       </c>
       <c r="H47">
-        <v>0.003813253889943074</v>
+        <v>0.003520444220315749</v>
       </c>
       <c r="I47">
-        <v>0.3158588235294117</v>
+        <v>0.346578294880493</v>
       </c>
       <c r="J47">
-        <v>0.4649715370018978</v>
+        <v>0.2543890719976515</v>
       </c>
       <c r="K47">
-        <v>1.31</v>
+        <v>2.02</v>
       </c>
       <c r="L47">
-        <v>2.6</v>
+        <v>3.46</v>
       </c>
       <c r="M47">
-        <v>1.62</v>
+        <v>1.81</v>
       </c>
       <c r="N47">
         <v>3.06</v>
@@ -3096,495 +3132,495 @@
         <v>1</v>
       </c>
       <c r="P47" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:16">
       <c r="A48" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B48" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C48">
-        <v>2.492796963946868</v>
+        <v>2.933590183844768</v>
       </c>
       <c r="D48" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E48">
-        <v>2.222096394686907</v>
+        <v>2.599555779684251</v>
       </c>
       <c r="F48">
         <v>-1</v>
       </c>
       <c r="G48">
-        <v>0.004027203036053131</v>
+        <v>0.003966409816155233</v>
       </c>
       <c r="H48">
-        <v>0.003737903605313093</v>
+        <v>0.003520444220315749</v>
       </c>
       <c r="I48">
-        <v>0.2707005692599616</v>
+        <v>0.3340344041605166</v>
       </c>
       <c r="J48">
-        <v>0.4649715370018978</v>
+        <v>0.2543890719976515</v>
       </c>
       <c r="K48">
-        <v>1.65</v>
+        <v>2.03</v>
       </c>
       <c r="L48">
-        <v>3.26</v>
+        <v>3.45</v>
       </c>
       <c r="M48">
-        <v>1.63</v>
+        <v>1.81</v>
       </c>
       <c r="N48">
-        <v>2.98</v>
+        <v>3.06</v>
       </c>
       <c r="O48">
         <v>1</v>
       </c>
       <c r="P48" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:16">
       <c r="A49" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B49" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C49">
-        <v>2.502796963946869</v>
+        <v>1.990887286527514</v>
       </c>
       <c r="D49" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E49">
-        <v>2.222096394686907</v>
+        <v>2.306746110056926</v>
       </c>
       <c r="F49">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G49">
-        <v>0.004037203036053131</v>
+        <v>0.003209112713472486</v>
       </c>
       <c r="H49">
-        <v>0.003737903605313093</v>
+        <v>0.003813253889943074</v>
       </c>
       <c r="I49">
-        <v>0.2807005692599618</v>
+        <v>0.3158588235294117</v>
       </c>
       <c r="J49">
         <v>0.4649715370018978</v>
       </c>
       <c r="K49">
-        <v>1.65</v>
+        <v>1.31</v>
       </c>
       <c r="L49">
-        <v>3.27</v>
+        <v>2.6</v>
       </c>
       <c r="M49">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="N49">
-        <v>2.98</v>
+        <v>3.06</v>
       </c>
       <c r="O49">
         <v>1</v>
       </c>
       <c r="P49" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:16">
       <c r="A50" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C50">
-        <v>2.504006072106261</v>
+        <v>2.492796963946868</v>
       </c>
       <c r="D50" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E50">
-        <v>2.229102087286527</v>
+        <v>2.222096394686907</v>
       </c>
       <c r="F50">
         <v>-1</v>
       </c>
       <c r="G50">
-        <v>0.004335993927893739</v>
+        <v>0.004027203036053131</v>
       </c>
       <c r="H50">
-        <v>0.003930897912713473</v>
+        <v>0.003737903605313093</v>
       </c>
       <c r="I50">
-        <v>0.2749039848197343</v>
+        <v>0.2707005692599616</v>
       </c>
       <c r="J50">
         <v>0.4649715370018978</v>
       </c>
       <c r="K50">
-        <v>1.97</v>
+        <v>1.65</v>
       </c>
       <c r="L50">
-        <v>3.42</v>
+        <v>3.26</v>
       </c>
       <c r="M50">
-        <v>1.83</v>
+        <v>1.63</v>
       </c>
       <c r="N50">
-        <v>3.08</v>
+        <v>2.98</v>
       </c>
       <c r="O50">
         <v>1</v>
       </c>
       <c r="P50" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" spans="1:16">
       <c r="A51" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C51">
-        <v>2.506107779886148</v>
+        <v>2.502796963946869</v>
       </c>
       <c r="D51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E51">
-        <v>2.229102087286527</v>
+        <v>2.222096394686907</v>
       </c>
       <c r="F51">
         <v>-1</v>
       </c>
       <c r="G51">
-        <v>0.004393892220113852</v>
+        <v>0.004037203036053131</v>
       </c>
       <c r="H51">
-        <v>0.003930897912713473</v>
+        <v>0.003737903605313093</v>
       </c>
       <c r="I51">
-        <v>0.2770056925996207</v>
+        <v>0.2807005692599618</v>
       </c>
       <c r="J51">
         <v>0.4649715370018978</v>
       </c>
       <c r="K51">
-        <v>2.03</v>
+        <v>1.65</v>
       </c>
       <c r="L51">
-        <v>3.45</v>
+        <v>3.27</v>
       </c>
       <c r="M51">
-        <v>1.83</v>
+        <v>1.63</v>
       </c>
       <c r="N51">
-        <v>3.08</v>
+        <v>2.98</v>
       </c>
       <c r="O51">
         <v>1</v>
       </c>
       <c r="P51" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:16">
       <c r="A52" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B52" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C52">
-        <v>1.934694011032936</v>
+        <v>2.504006072106261</v>
       </c>
       <c r="D52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E52">
-        <v>2.167884562588337</v>
+        <v>2.229102087286527</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G52">
-        <v>0.003265305988967065</v>
+        <v>0.004335993927893739</v>
       </c>
       <c r="H52">
-        <v>0.003732115437411664</v>
+        <v>0.003930897912713473</v>
       </c>
       <c r="I52">
-        <v>0.2331905515554009</v>
+        <v>0.2749039848197343</v>
       </c>
       <c r="J52">
-        <v>0.5078671671504308</v>
+        <v>0.4649715370018978</v>
       </c>
       <c r="K52">
-        <v>1.31</v>
+        <v>1.97</v>
       </c>
       <c r="L52">
-        <v>2.6</v>
+        <v>3.42</v>
       </c>
       <c r="M52">
-        <v>1.54</v>
+        <v>1.83</v>
       </c>
       <c r="N52">
-        <v>2.95</v>
+        <v>3.08</v>
       </c>
       <c r="O52">
         <v>1</v>
       </c>
       <c r="P52" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" spans="1:16">
       <c r="A53" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B53" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53">
+        <v>2.506107779886148</v>
+      </c>
+      <c r="D53" t="s">
+        <v>57</v>
+      </c>
+      <c r="E53">
+        <v>2.229102087286527</v>
+      </c>
+      <c r="F53">
+        <v>-1</v>
+      </c>
+      <c r="G53">
+        <v>0.004393892220113852</v>
+      </c>
+      <c r="H53">
+        <v>0.003930897912713473</v>
+      </c>
+      <c r="I53">
+        <v>0.2770056925996207</v>
+      </c>
+      <c r="J53">
+        <v>0.4649715370018978</v>
+      </c>
+      <c r="K53">
+        <v>2.03</v>
+      </c>
+      <c r="L53">
+        <v>3.45</v>
+      </c>
+      <c r="M53">
+        <v>1.83</v>
+      </c>
+      <c r="N53">
+        <v>3.08</v>
+      </c>
+      <c r="O53">
+        <v>1</v>
+      </c>
+      <c r="P53" t="s">
         <v>27</v>
-      </c>
-      <c r="C53">
-        <v>2.422019174201789</v>
-      </c>
-      <c r="D53" t="s">
-        <v>54</v>
-      </c>
-      <c r="E53">
-        <v>2.152176517544798</v>
-      </c>
-      <c r="F53">
-        <v>-1</v>
-      </c>
-      <c r="G53">
-        <v>0.004097980825798211</v>
-      </c>
-      <c r="H53">
-        <v>0.003807823482455202</v>
-      </c>
-      <c r="I53">
-        <v>0.2698426566569911</v>
-      </c>
-      <c r="J53">
-        <v>0.5078671671504308</v>
-      </c>
-      <c r="K53">
-        <v>1.65</v>
-      </c>
-      <c r="L53">
-        <v>3.26</v>
-      </c>
-      <c r="M53">
-        <v>1.63</v>
-      </c>
-      <c r="N53">
-        <v>2.98</v>
-      </c>
-      <c r="O53">
-        <v>1</v>
-      </c>
-      <c r="P53" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:16">
       <c r="A54" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B54" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C54">
-        <v>2.394108322356129</v>
+        <v>1.934694011032936</v>
       </c>
       <c r="D54" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E54">
-        <v>2.150603084114712</v>
+        <v>2.167884562588337</v>
       </c>
       <c r="F54">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G54">
-        <v>0.00444589167764387</v>
+        <v>0.003265305988967065</v>
       </c>
       <c r="H54">
-        <v>0.004009396915885288</v>
+        <v>0.003732115437411664</v>
       </c>
       <c r="I54">
-        <v>0.2435052382414176</v>
+        <v>0.2331905515554009</v>
       </c>
       <c r="J54">
         <v>0.5078671671504308</v>
       </c>
       <c r="K54">
-        <v>2.02</v>
+        <v>1.31</v>
       </c>
       <c r="L54">
-        <v>3.42</v>
+        <v>2.6</v>
       </c>
       <c r="M54">
-        <v>1.83</v>
+        <v>1.54</v>
       </c>
       <c r="N54">
-        <v>3.08</v>
+        <v>2.95</v>
       </c>
       <c r="O54">
         <v>1</v>
       </c>
       <c r="P54" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55" spans="1:16">
       <c r="A55" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C55">
-        <v>2.419029650684626</v>
+        <v>2.422019174201789</v>
       </c>
       <c r="D55" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E55">
-        <v>2.150603084114712</v>
+        <v>2.152176517544798</v>
       </c>
       <c r="F55">
         <v>-1</v>
       </c>
       <c r="G55">
-        <v>0.004480970349315374</v>
+        <v>0.004097980825798211</v>
       </c>
       <c r="H55">
-        <v>0.004009396915885288</v>
+        <v>0.003807823482455202</v>
       </c>
       <c r="I55">
-        <v>0.2684265665699139</v>
+        <v>0.2698426566569911</v>
       </c>
       <c r="J55">
         <v>0.5078671671504308</v>
       </c>
       <c r="K55">
-        <v>2.03</v>
+        <v>1.65</v>
       </c>
       <c r="L55">
-        <v>3.45</v>
+        <v>3.26</v>
       </c>
       <c r="M55">
-        <v>1.83</v>
+        <v>1.63</v>
       </c>
       <c r="N55">
-        <v>3.08</v>
+        <v>2.98</v>
       </c>
       <c r="O55">
         <v>1</v>
       </c>
       <c r="P55" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56" spans="1:16">
       <c r="A56" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C56">
-        <v>2.361811863714594</v>
+        <v>2.394108322356129</v>
       </c>
       <c r="D56" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E56">
-        <v>2.092698992639265</v>
+        <v>2.150603084114712</v>
       </c>
       <c r="F56">
         <v>-1</v>
       </c>
       <c r="G56">
-        <v>0.004158188136285406</v>
+        <v>0.00444589167764387</v>
       </c>
       <c r="H56">
-        <v>0.003867301007360734</v>
+        <v>0.004009396915885288</v>
       </c>
       <c r="I56">
-        <v>0.2691128710753286</v>
+        <v>0.2435052382414176</v>
       </c>
       <c r="J56">
-        <v>0.5443564462335794</v>
+        <v>0.5078671671504308</v>
       </c>
       <c r="K56">
-        <v>1.65</v>
+        <v>2.02</v>
       </c>
       <c r="L56">
-        <v>3.26</v>
+        <v>3.42</v>
       </c>
       <c r="M56">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="N56">
-        <v>2.98</v>
+        <v>3.08</v>
       </c>
       <c r="O56">
         <v>1</v>
       </c>
       <c r="P56" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57" spans="1:16">
       <c r="A57" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B57" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C57">
-        <v>2.32039997860817</v>
+        <v>2.419029650684626</v>
       </c>
       <c r="D57" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E57">
-        <v>2.08382770339255</v>
+        <v>2.150603084114712</v>
       </c>
       <c r="F57">
         <v>-1</v>
       </c>
       <c r="G57">
-        <v>0.004519600021391831</v>
+        <v>0.004480970349315374</v>
       </c>
       <c r="H57">
-        <v>0.004076172296607451</v>
+        <v>0.004009396915885288</v>
       </c>
       <c r="I57">
-        <v>0.2365722752156199</v>
+        <v>0.2684265665699139</v>
       </c>
       <c r="J57">
-        <v>0.5443564462335794</v>
+        <v>0.5078671671504308</v>
       </c>
       <c r="K57">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="L57">
-        <v>3.42</v>
+        <v>3.45</v>
       </c>
       <c r="M57">
         <v>1.83</v>
@@ -3596,51 +3632,51 @@
         <v>1</v>
       </c>
       <c r="P57" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58" spans="1:16">
       <c r="A58" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B58" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C58">
-        <v>2.344956414145834</v>
+        <v>2.361811863714594</v>
       </c>
       <c r="D58" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E58">
-        <v>2.08382770339255</v>
+        <v>2.092698992639265</v>
       </c>
       <c r="F58">
         <v>-1</v>
       </c>
       <c r="G58">
-        <v>0.004555043585854166</v>
+        <v>0.004158188136285406</v>
       </c>
       <c r="H58">
-        <v>0.004076172296607451</v>
+        <v>0.003867301007360734</v>
       </c>
       <c r="I58">
-        <v>0.261128710753284</v>
+        <v>0.2691128710753286</v>
       </c>
       <c r="J58">
         <v>0.5443564462335794</v>
       </c>
       <c r="K58">
-        <v>2.03</v>
+        <v>1.65</v>
       </c>
       <c r="L58">
-        <v>3.45</v>
+        <v>3.26</v>
       </c>
       <c r="M58">
-        <v>1.83</v>
+        <v>1.63</v>
       </c>
       <c r="N58">
-        <v>3.08</v>
+        <v>2.98</v>
       </c>
       <c r="O58">
         <v>1</v>
@@ -3651,90 +3687,90 @@
     </row>
     <row r="59" spans="1:16">
       <c r="A59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B59" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C59">
-        <v>2.284943445032334</v>
+        <v>2.32039997860817</v>
       </c>
       <c r="D59" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E59">
-        <v>2.016762312365275</v>
+        <v>2.08382770339255</v>
       </c>
       <c r="F59">
         <v>-1</v>
       </c>
       <c r="G59">
-        <v>0.004235056554967666</v>
+        <v>0.004519600021391831</v>
       </c>
       <c r="H59">
-        <v>0.003943237687634725</v>
+        <v>0.004076172296607451</v>
       </c>
       <c r="I59">
-        <v>0.2681811326670585</v>
+        <v>0.2365722752156199</v>
       </c>
       <c r="J59">
-        <v>0.5909433666470703</v>
+        <v>0.5443564462335794</v>
       </c>
       <c r="K59">
-        <v>1.65</v>
+        <v>2.02</v>
       </c>
       <c r="L59">
-        <v>3.26</v>
+        <v>3.42</v>
       </c>
       <c r="M59">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="N59">
-        <v>2.98</v>
+        <v>3.08</v>
       </c>
       <c r="O59">
         <v>1</v>
       </c>
       <c r="P59" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:16">
       <c r="A60" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C60">
-        <v>2.226294399372918</v>
+        <v>2.344956414145834</v>
       </c>
       <c r="D60" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E60">
-        <v>1.998573639035861</v>
+        <v>2.08382770339255</v>
       </c>
       <c r="F60">
         <v>-1</v>
       </c>
       <c r="G60">
-        <v>0.004613705600627082</v>
+        <v>0.004555043585854166</v>
       </c>
       <c r="H60">
-        <v>0.004161426360964139</v>
+        <v>0.004076172296607451</v>
       </c>
       <c r="I60">
-        <v>0.2277207603370566</v>
+        <v>0.261128710753284</v>
       </c>
       <c r="J60">
-        <v>0.5909433666470703</v>
+        <v>0.5443564462335794</v>
       </c>
       <c r="K60">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="L60">
-        <v>3.42</v>
+        <v>3.45</v>
       </c>
       <c r="M60">
         <v>1.83</v>
@@ -3746,101 +3782,101 @@
         <v>1</v>
       </c>
       <c r="P60" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:16">
       <c r="A61" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B61" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C61">
-        <v>2.250384965706448</v>
+        <v>2.284943445032334</v>
       </c>
       <c r="D61" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E61">
-        <v>1.998573639035861</v>
+        <v>2.016762312365275</v>
       </c>
       <c r="F61">
         <v>-1</v>
       </c>
       <c r="G61">
-        <v>0.004649615034293553</v>
+        <v>0.004235056554967666</v>
       </c>
       <c r="H61">
-        <v>0.004161426360964139</v>
+        <v>0.003943237687634725</v>
       </c>
       <c r="I61">
-        <v>0.2518113266705861</v>
+        <v>0.2681811326670585</v>
       </c>
       <c r="J61">
         <v>0.5909433666470703</v>
       </c>
       <c r="K61">
-        <v>2.03</v>
+        <v>1.65</v>
       </c>
       <c r="L61">
-        <v>3.45</v>
+        <v>3.26</v>
       </c>
       <c r="M61">
-        <v>1.83</v>
+        <v>1.63</v>
       </c>
       <c r="N61">
-        <v>3.08</v>
+        <v>2.98</v>
       </c>
       <c r="O61">
         <v>1</v>
       </c>
       <c r="P61" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62" spans="1:16">
       <c r="A62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B62" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C62">
-        <v>2.206392009113778</v>
+        <v>2.226294399372918</v>
       </c>
       <c r="D62" t="s">
         <v>57</v>
       </c>
       <c r="E62">
-        <v>1.894705026964186</v>
+        <v>1.998573639035861</v>
       </c>
       <c r="F62">
         <v>-1</v>
       </c>
       <c r="G62">
-        <v>0.004313607990886223</v>
+        <v>0.004613705600627082</v>
       </c>
       <c r="H62">
-        <v>0.003925294973035814</v>
+        <v>0.004161426360964139</v>
       </c>
       <c r="I62">
-        <v>0.3116869821495918</v>
+        <v>0.2277207603370566</v>
       </c>
       <c r="J62">
-        <v>0.6385502975068013</v>
+        <v>0.5909433666470703</v>
       </c>
       <c r="K62">
-        <v>1.65</v>
+        <v>2.02</v>
       </c>
       <c r="L62">
-        <v>3.26</v>
+        <v>3.42</v>
       </c>
       <c r="M62">
-        <v>1.59</v>
+        <v>1.83</v>
       </c>
       <c r="N62">
-        <v>2.91</v>
+        <v>3.08</v>
       </c>
       <c r="O62">
         <v>1</v>
@@ -3851,40 +3887,40 @@
     </row>
     <row r="63" spans="1:16">
       <c r="A63" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C63">
-        <v>2.130128399036261</v>
+        <v>2.250384965706448</v>
       </c>
       <c r="D63" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E63">
-        <v>1.911452955562554</v>
+        <v>1.998573639035861</v>
       </c>
       <c r="F63">
         <v>-1</v>
       </c>
       <c r="G63">
-        <v>0.004709871600963739</v>
+        <v>0.004649615034293553</v>
       </c>
       <c r="H63">
-        <v>0.004248547044437446</v>
+        <v>0.004161426360964139</v>
       </c>
       <c r="I63">
-        <v>0.2186754434737077</v>
+        <v>0.2518113266705861</v>
       </c>
       <c r="J63">
-        <v>0.6385502975068013</v>
+        <v>0.5909433666470703</v>
       </c>
       <c r="K63">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="L63">
-        <v>3.42</v>
+        <v>3.45</v>
       </c>
       <c r="M63">
         <v>1.83</v>
@@ -3901,96 +3937,96 @@
     </row>
     <row r="64" spans="1:16">
       <c r="A64" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B64" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C64">
-        <v>2.153742896061194</v>
+        <v>2.206392009113778</v>
       </c>
       <c r="D64" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E64">
-        <v>1.911452955562554</v>
+        <v>1.894705026964186</v>
       </c>
       <c r="F64">
         <v>-1</v>
       </c>
       <c r="G64">
-        <v>0.004746257103938807</v>
+        <v>0.004313607990886223</v>
       </c>
       <c r="H64">
-        <v>0.004248547044437446</v>
+        <v>0.003925294973035814</v>
       </c>
       <c r="I64">
-        <v>0.2422899404986398</v>
+        <v>0.3116869821495918</v>
       </c>
       <c r="J64">
         <v>0.6385502975068013</v>
       </c>
       <c r="K64">
-        <v>2.03</v>
+        <v>1.65</v>
       </c>
       <c r="L64">
-        <v>3.45</v>
+        <v>3.26</v>
       </c>
       <c r="M64">
-        <v>1.83</v>
+        <v>1.59</v>
       </c>
       <c r="N64">
-        <v>3.08</v>
+        <v>2.91</v>
       </c>
       <c r="O64">
         <v>1</v>
       </c>
       <c r="P64" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65" spans="1:16">
       <c r="A65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B65" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C65">
-        <v>2.122703049542399</v>
+        <v>2.130128399036261</v>
       </c>
       <c r="D65" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="E65">
-        <v>2.1327030495424</v>
+        <v>1.911452955562554</v>
       </c>
       <c r="F65">
         <v>-1</v>
       </c>
       <c r="G65">
-        <v>0.004397296950457601</v>
+        <v>0.004709871600963739</v>
       </c>
       <c r="H65">
-        <v>0.0044072969504576</v>
+        <v>0.004248547044437446</v>
       </c>
       <c r="I65">
-        <v>-0.01000000000000068</v>
+        <v>0.2186754434737077</v>
       </c>
       <c r="J65">
-        <v>0.6892708790652124</v>
+        <v>0.6385502975068013</v>
       </c>
       <c r="K65">
-        <v>1.65</v>
+        <v>2.02</v>
       </c>
       <c r="L65">
-        <v>3.26</v>
+        <v>3.42</v>
       </c>
       <c r="M65">
-        <v>1.65</v>
+        <v>1.83</v>
       </c>
       <c r="N65">
-        <v>3.27</v>
+        <v>3.08</v>
       </c>
       <c r="O65">
         <v>1</v>
@@ -4001,40 +4037,40 @@
     </row>
     <row r="66" spans="1:16">
       <c r="A66" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C66">
-        <v>2.062136368241531</v>
+        <v>2.153742896061194</v>
       </c>
       <c r="D66" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E66">
-        <v>1.818634291310661</v>
+        <v>1.911452955562554</v>
       </c>
       <c r="F66">
         <v>-1</v>
       </c>
       <c r="G66">
-        <v>0.004777863631758469</v>
+        <v>0.004746257103938807</v>
       </c>
       <c r="H66">
-        <v>0.004341365708689339</v>
+        <v>0.004248547044437446</v>
       </c>
       <c r="I66">
-        <v>0.24350207693087</v>
+        <v>0.2422899404986398</v>
       </c>
       <c r="J66">
-        <v>0.6892708790652124</v>
+        <v>0.6385502975068013</v>
       </c>
       <c r="K66">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="L66">
-        <v>3.42</v>
+        <v>3.45</v>
       </c>
       <c r="M66">
         <v>1.83</v>
@@ -4051,84 +4087,84 @@
     </row>
     <row r="67" spans="1:16">
       <c r="A67" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B67" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C67">
-        <v>2.050780115497619</v>
+        <v>2.122703049542399</v>
       </c>
       <c r="D67" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E67">
-        <v>1.818634291310661</v>
+        <v>2.1327030495424</v>
       </c>
       <c r="F67">
         <v>-1</v>
       </c>
       <c r="G67">
-        <v>0.004849219884502381</v>
+        <v>0.004397296950457601</v>
       </c>
       <c r="H67">
-        <v>0.004341365708689339</v>
+        <v>0.0044072969504576</v>
       </c>
       <c r="I67">
-        <v>0.2321458241869578</v>
+        <v>-0.01000000000000068</v>
       </c>
       <c r="J67">
         <v>0.6892708790652124</v>
       </c>
       <c r="K67">
-        <v>2.03</v>
+        <v>1.65</v>
       </c>
       <c r="L67">
-        <v>3.45</v>
+        <v>3.26</v>
       </c>
       <c r="M67">
-        <v>1.83</v>
+        <v>1.65</v>
       </c>
       <c r="N67">
-        <v>3.08</v>
+        <v>3.27</v>
       </c>
       <c r="O67">
         <v>1</v>
       </c>
       <c r="P67" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68" spans="1:16">
       <c r="A68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B68" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C68">
-        <v>1.960646887966805</v>
+        <v>2.062136368241531</v>
       </c>
       <c r="D68" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E68">
-        <v>1.724357261410788</v>
+        <v>1.818634291310661</v>
       </c>
       <c r="F68">
         <v>-1</v>
       </c>
       <c r="G68">
-        <v>0.004879353112033196</v>
+        <v>0.004777863631758469</v>
       </c>
       <c r="H68">
-        <v>0.004435642738589212</v>
+        <v>0.004341365708689339</v>
       </c>
       <c r="I68">
-        <v>0.2362896265560166</v>
+        <v>0.24350207693087</v>
       </c>
       <c r="J68">
-        <v>0.7407883817427386</v>
+        <v>0.6892708790652124</v>
       </c>
       <c r="K68">
         <v>1.97</v>
@@ -4151,34 +4187,34 @@
     </row>
     <row r="69" spans="1:16">
       <c r="A69" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B69" t="s">
         <v>26</v>
       </c>
       <c r="C69">
-        <v>1.946199585062241</v>
+        <v>2.050780115497619</v>
       </c>
       <c r="D69" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E69">
-        <v>1.724357261410788</v>
+        <v>1.818634291310661</v>
       </c>
       <c r="F69">
         <v>-1</v>
       </c>
       <c r="G69">
-        <v>0.00495380041493776</v>
+        <v>0.004849219884502381</v>
       </c>
       <c r="H69">
-        <v>0.004435642738589212</v>
+        <v>0.004341365708689339</v>
       </c>
       <c r="I69">
-        <v>0.2218423236514526</v>
+        <v>0.2321458241869578</v>
       </c>
       <c r="J69">
-        <v>0.7407883817427386</v>
+        <v>0.6892708790652124</v>
       </c>
       <c r="K69">
         <v>2.03</v>
@@ -4204,31 +4240,31 @@
         <v>0</v>
       </c>
       <c r="B70" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C70">
-        <v>1.843540306843175</v>
+        <v>1.960646887966805</v>
       </c>
       <c r="D70" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E70">
-        <v>1.615572975392391</v>
+        <v>1.724357261410788</v>
       </c>
       <c r="F70">
         <v>-1</v>
       </c>
       <c r="G70">
-        <v>0.004996459693156825</v>
+        <v>0.004879353112033196</v>
       </c>
       <c r="H70">
-        <v>0.00454442702460761</v>
+        <v>0.004435642738589212</v>
       </c>
       <c r="I70">
-        <v>0.227967331450784</v>
+        <v>0.2362896265560166</v>
       </c>
       <c r="J70">
-        <v>0.8002333467801142</v>
+        <v>0.7407883817427386</v>
       </c>
       <c r="K70">
         <v>1.97</v>
@@ -4257,28 +4293,28 @@
         <v>26</v>
       </c>
       <c r="C71">
-        <v>1.825526306036369</v>
+        <v>1.946199585062241</v>
       </c>
       <c r="D71" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E71">
-        <v>1.615572975392391</v>
+        <v>1.724357261410788</v>
       </c>
       <c r="F71">
         <v>-1</v>
       </c>
       <c r="G71">
-        <v>0.005074473693963632</v>
+        <v>0.00495380041493776</v>
       </c>
       <c r="H71">
-        <v>0.00454442702460761</v>
+        <v>0.004435642738589212</v>
       </c>
       <c r="I71">
-        <v>0.2099533306439776</v>
+        <v>0.2218423236514526</v>
       </c>
       <c r="J71">
-        <v>0.8002333467801142</v>
+        <v>0.7407883817427386</v>
       </c>
       <c r="K71">
         <v>2.03</v>
@@ -4304,43 +4340,43 @@
         <v>0</v>
       </c>
       <c r="B72" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C72">
-        <v>1.364830842322013</v>
+        <v>1.843540306843175</v>
       </c>
       <c r="D72" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E72">
-        <v>1.554057700011381</v>
+        <v>1.615572975392391</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G72">
-        <v>0.005255169157677987</v>
+        <v>0.004996459693156825</v>
       </c>
       <c r="H72">
-        <v>0.004645942299988619</v>
+        <v>0.00454442702460761</v>
       </c>
       <c r="I72">
-        <v>0.1892268576893685</v>
+        <v>0.227967331450784</v>
       </c>
       <c r="J72">
-        <v>0.8494188461475927</v>
+        <v>0.8002333467801142</v>
       </c>
       <c r="K72">
-        <v>2.29</v>
+        <v>1.97</v>
       </c>
       <c r="L72">
-        <v>3.31</v>
+        <v>3.42</v>
       </c>
       <c r="M72">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="N72">
-        <v>3.1</v>
+        <v>3.08</v>
       </c>
       <c r="O72">
         <v>1</v>
@@ -4354,43 +4390,43 @@
         <v>1</v>
       </c>
       <c r="B73" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C73">
-        <v>1.746644873089242</v>
+        <v>1.825526306036369</v>
       </c>
       <c r="D73" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E73">
-        <v>1.552668119243339</v>
+        <v>1.615572975392391</v>
       </c>
       <c r="F73">
         <v>-1</v>
       </c>
       <c r="G73">
-        <v>0.005093355126910757</v>
+        <v>0.005074473693963632</v>
       </c>
       <c r="H73">
-        <v>0.004967331880756661</v>
+        <v>0.00454442702460761</v>
       </c>
       <c r="I73">
-        <v>0.1939767538459036</v>
+        <v>0.2099533306439776</v>
       </c>
       <c r="J73">
-        <v>0.8494188461475927</v>
+        <v>0.8002333467801142</v>
       </c>
       <c r="K73">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="L73">
-        <v>3.42</v>
+        <v>3.45</v>
       </c>
       <c r="M73">
-        <v>2.01</v>
+        <v>1.83</v>
       </c>
       <c r="N73">
-        <v>3.26</v>
+        <v>3.08</v>
       </c>
       <c r="O73">
         <v>1</v>
@@ -4404,31 +4440,31 @@
         <v>0</v>
       </c>
       <c r="B74" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C74">
-        <v>1.253223538131198</v>
+        <v>1.364830842322013</v>
       </c>
       <c r="D74" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E74">
-        <v>1.465356698427415</v>
+        <v>1.554057700011381</v>
       </c>
       <c r="F74">
         <v>1</v>
       </c>
       <c r="G74">
-        <v>0.005366776461868803</v>
+        <v>0.005255169157677987</v>
       </c>
       <c r="H74">
-        <v>0.004734643301572585</v>
+        <v>0.004645942299988619</v>
       </c>
       <c r="I74">
-        <v>0.2121331602962171</v>
+        <v>0.1892268576893685</v>
       </c>
       <c r="J74">
-        <v>0.898155660204717</v>
+        <v>0.8494188461475927</v>
       </c>
       <c r="K74">
         <v>2.29</v>
@@ -4454,31 +4490,31 @@
         <v>1</v>
       </c>
       <c r="B75" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C75">
-        <v>1.650633349396707</v>
+        <v>1.746644873089242</v>
       </c>
       <c r="D75" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E75">
-        <v>1.454707122988519</v>
+        <v>1.552668119243339</v>
       </c>
       <c r="F75">
         <v>-1</v>
       </c>
       <c r="G75">
-        <v>0.005189366650603293</v>
+        <v>0.005093355126910757</v>
       </c>
       <c r="H75">
-        <v>0.005065292877011481</v>
+        <v>0.004967331880756661</v>
       </c>
       <c r="I75">
-        <v>0.1959262264081887</v>
+        <v>0.1939767538459036</v>
       </c>
       <c r="J75">
-        <v>0.898155660204717</v>
+        <v>0.8494188461475927</v>
       </c>
       <c r="K75">
         <v>1.97</v>
@@ -4504,31 +4540,31 @@
         <v>0</v>
       </c>
       <c r="B76" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C76">
-        <v>1.142741567826858</v>
+        <v>1.253223538131198</v>
       </c>
       <c r="D76" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E76">
-        <v>1.377550067006499</v>
+        <v>1.465356698427415</v>
       </c>
       <c r="F76">
         <v>1</v>
       </c>
       <c r="G76">
-        <v>0.005477258432173141</v>
+        <v>0.005366776461868803</v>
       </c>
       <c r="H76">
-        <v>0.004822449932993502</v>
+        <v>0.004734643301572585</v>
       </c>
       <c r="I76">
-        <v>0.2348084991796402</v>
+        <v>0.2121331602962171</v>
       </c>
       <c r="J76">
-        <v>0.9464010620843414</v>
+        <v>0.898155660204717</v>
       </c>
       <c r="K76">
         <v>2.29</v>
@@ -4551,52 +4587,52 @@
     </row>
     <row r="77" spans="1:16">
       <c r="A77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B77" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C77">
-        <v>1.02473295176371</v>
+        <v>1.650633349396707</v>
       </c>
       <c r="D77" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E77">
-        <v>1.28376155991701</v>
+        <v>1.454707122988519</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G77">
-        <v>0.005595267048236289</v>
+        <v>0.005189366650603293</v>
       </c>
       <c r="H77">
-        <v>0.004916238440082991</v>
+        <v>0.005065292877011481</v>
       </c>
       <c r="I77">
-        <v>0.2590286081532995</v>
+        <v>0.1959262264081887</v>
       </c>
       <c r="J77">
-        <v>0.9979332088368078</v>
+        <v>0.898155660204717</v>
       </c>
       <c r="K77">
-        <v>2.29</v>
+        <v>1.97</v>
       </c>
       <c r="L77">
-        <v>3.31</v>
+        <v>3.42</v>
       </c>
       <c r="M77">
-        <v>1.82</v>
+        <v>2.01</v>
       </c>
       <c r="N77">
-        <v>3.1</v>
+        <v>3.26</v>
       </c>
       <c r="O77">
         <v>1</v>
       </c>
       <c r="P77" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -4604,31 +4640,31 @@
         <v>0</v>
       </c>
       <c r="B78" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C78">
-        <v>0.9555784956116042</v>
+        <v>1.142741567826858</v>
       </c>
       <c r="D78" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E78">
-        <v>1.228800376424943</v>
+        <v>1.377550067006499</v>
       </c>
       <c r="F78">
         <v>1</v>
       </c>
       <c r="G78">
-        <v>0.005664421504388396</v>
+        <v>0.005477258432173141</v>
       </c>
       <c r="H78">
-        <v>0.004971199623575057</v>
+        <v>0.004822449932993502</v>
       </c>
       <c r="I78">
-        <v>0.2732218808133391</v>
+        <v>0.2348084991796402</v>
       </c>
       <c r="J78">
-        <v>1.028131661304976</v>
+        <v>0.9464010620843414</v>
       </c>
       <c r="K78">
         <v>2.29</v>
@@ -4646,7 +4682,7 @@
         <v>1</v>
       </c>
       <c r="P78" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -4657,34 +4693,34 @@
         <v>32</v>
       </c>
       <c r="C79">
-        <v>0.95505474527386</v>
+        <v>1.02473295176371</v>
       </c>
       <c r="D79" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E79">
-        <v>1.172750932925077</v>
+        <v>1.28376155991701</v>
       </c>
       <c r="F79">
         <v>1</v>
       </c>
       <c r="G79">
-        <v>0.00580494525472614</v>
+        <v>0.005595267048236289</v>
       </c>
       <c r="H79">
-        <v>0.005027249067074924</v>
+        <v>0.004916238440082991</v>
       </c>
       <c r="I79">
-        <v>0.2176961876512167</v>
+        <v>0.2590286081532995</v>
       </c>
       <c r="J79">
-        <v>1.058928058832376</v>
+        <v>0.9979332088368078</v>
       </c>
       <c r="K79">
         <v>2.29</v>
       </c>
       <c r="L79">
-        <v>3.38</v>
+        <v>3.31</v>
       </c>
       <c r="M79">
         <v>1.82</v>
@@ -4696,7 +4732,7 @@
         <v>1</v>
       </c>
       <c r="P79" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -4707,34 +4743,34 @@
         <v>32</v>
       </c>
       <c r="C80">
-        <v>0.8997461387005035</v>
+        <v>0.9555784956116042</v>
       </c>
       <c r="D80" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E80">
-        <v>1.128793874425728</v>
+        <v>1.228800376424943</v>
       </c>
       <c r="F80">
         <v>1</v>
       </c>
       <c r="G80">
-        <v>0.005860253861299496</v>
+        <v>0.005664421504388396</v>
       </c>
       <c r="H80">
-        <v>0.005071206125574273</v>
+        <v>0.004971199623575057</v>
       </c>
       <c r="I80">
-        <v>0.2290477357252241</v>
+        <v>0.2732218808133391</v>
       </c>
       <c r="J80">
-        <v>1.083080288777073</v>
+        <v>1.028131661304976</v>
       </c>
       <c r="K80">
         <v>2.29</v>
       </c>
       <c r="L80">
-        <v>3.38</v>
+        <v>3.31</v>
       </c>
       <c r="M80">
         <v>1.82</v>
@@ -4746,7 +4782,7 @@
         <v>1</v>
       </c>
       <c r="P80" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -4754,31 +4790,31 @@
         <v>0</v>
       </c>
       <c r="B81" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C81">
-        <v>0.9004291893178089</v>
+        <v>0.95505474527386</v>
       </c>
       <c r="D81" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E81">
-        <v>1.129336735615027</v>
+        <v>1.172750932925077</v>
       </c>
       <c r="F81">
         <v>1</v>
       </c>
       <c r="G81">
-        <v>0.005859570810682191</v>
+        <v>0.00580494525472614</v>
       </c>
       <c r="H81">
-        <v>0.005070663264384973</v>
+        <v>0.005027249067074924</v>
       </c>
       <c r="I81">
-        <v>0.2289075462972185</v>
+        <v>0.2176961876512167</v>
       </c>
       <c r="J81">
-        <v>1.082782013398337</v>
+        <v>1.058928058832376</v>
       </c>
       <c r="K81">
         <v>2.29</v>
@@ -4796,7 +4832,7 @@
         <v>1</v>
       </c>
       <c r="P81" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -4804,31 +4840,31 @@
         <v>0</v>
       </c>
       <c r="B82" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C82">
-        <v>0.8995341152947529</v>
+        <v>0.8997461387005035</v>
       </c>
       <c r="D82" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E82">
-        <v>1.128625366740808</v>
+        <v>1.128793874425728</v>
       </c>
       <c r="F82">
         <v>1</v>
       </c>
       <c r="G82">
-        <v>0.005860465884705247</v>
+        <v>0.005860253861299496</v>
       </c>
       <c r="H82">
-        <v>0.005071374633259193</v>
+        <v>0.005071206125574273</v>
       </c>
       <c r="I82">
-        <v>0.2290912514460552</v>
+        <v>0.2290477357252241</v>
       </c>
       <c r="J82">
-        <v>1.083172875417138</v>
+        <v>1.083080288777073</v>
       </c>
       <c r="K82">
         <v>2.29</v>
@@ -4846,7 +4882,7 @@
         <v>1</v>
       </c>
       <c r="P82" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -4854,31 +4890,31 @@
         <v>0</v>
       </c>
       <c r="B83" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C83">
-        <v>0.8942975364165378</v>
+        <v>0.9004291893178089</v>
       </c>
       <c r="D83" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E83">
-        <v>1.124463544226244</v>
+        <v>1.129336735615027</v>
       </c>
       <c r="F83">
         <v>1</v>
       </c>
       <c r="G83">
-        <v>0.005865702463583462</v>
+        <v>0.005859570810682191</v>
       </c>
       <c r="H83">
-        <v>0.005075536455773756</v>
+        <v>0.005070663264384973</v>
       </c>
       <c r="I83">
-        <v>0.2301660078097063</v>
+        <v>0.2289075462972185</v>
       </c>
       <c r="J83">
-        <v>1.085459591084481</v>
+        <v>1.082782013398337</v>
       </c>
       <c r="K83">
         <v>2.29</v>
@@ -4896,7 +4932,7 @@
         <v>1</v>
       </c>
       <c r="P83" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -4904,31 +4940,31 @@
         <v>0</v>
       </c>
       <c r="B84" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C84">
-        <v>0.823882990348408</v>
+        <v>0.8995341152947529</v>
       </c>
       <c r="D84" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E84">
-        <v>1.068500891892621</v>
+        <v>1.128625366740808</v>
       </c>
       <c r="F84">
         <v>1</v>
       </c>
       <c r="G84">
-        <v>0.005936117009651592</v>
+        <v>0.005860465884705247</v>
       </c>
       <c r="H84">
-        <v>0.005131499108107379</v>
+        <v>0.005071374633259193</v>
       </c>
       <c r="I84">
-        <v>0.2446179015442134</v>
+        <v>0.2290912514460552</v>
       </c>
       <c r="J84">
-        <v>1.1162083011579</v>
+        <v>1.083172875417138</v>
       </c>
       <c r="K84">
         <v>2.29</v>
@@ -4954,31 +4990,31 @@
         <v>0</v>
       </c>
       <c r="B85" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C85">
-        <v>0.7552208383877499</v>
+        <v>0.8942975364165378</v>
       </c>
       <c r="D85" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E85">
-        <v>1.013930971993758</v>
+        <v>1.124463544226244</v>
       </c>
       <c r="F85">
         <v>1</v>
       </c>
       <c r="G85">
-        <v>0.00600477916161225</v>
+        <v>0.005865702463583462</v>
       </c>
       <c r="H85">
-        <v>0.005186069028006243</v>
+        <v>0.005075536455773756</v>
       </c>
       <c r="I85">
-        <v>0.2587101336060078</v>
+        <v>0.2301660078097063</v>
       </c>
       <c r="J85">
-        <v>1.146191773629804</v>
+        <v>1.085459591084481</v>
       </c>
       <c r="K85">
         <v>2.29</v>
@@ -4996,7 +5032,7 @@
         <v>1</v>
       </c>
       <c r="P85" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -5004,31 +5040,31 @@
         <v>0</v>
       </c>
       <c r="B86" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C86">
-        <v>0.7164672131147527</v>
+        <v>0.823882990348408</v>
       </c>
       <c r="D86" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E86">
-        <v>0.9831311475409823</v>
+        <v>1.068500891892621</v>
       </c>
       <c r="F86">
         <v>1</v>
       </c>
       <c r="G86">
-        <v>0.006043532786885248</v>
+        <v>0.005936117009651592</v>
       </c>
       <c r="H86">
-        <v>0.005216868852459018</v>
+        <v>0.005131499108107379</v>
       </c>
       <c r="I86">
-        <v>0.2666639344262296</v>
+        <v>0.2446179015442134</v>
       </c>
       <c r="J86">
-        <v>1.163114754098361</v>
+        <v>1.1162083011579</v>
       </c>
       <c r="K86">
         <v>2.29</v>
@@ -5046,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="P86" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -5054,31 +5090,31 @@
         <v>0</v>
       </c>
       <c r="B87" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C87">
-        <v>0.6498239504652852</v>
+        <v>0.7552208383877499</v>
       </c>
       <c r="D87" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E87">
-        <v>0.9301657597584363</v>
+        <v>1.013930971993758</v>
       </c>
       <c r="F87">
         <v>1</v>
       </c>
       <c r="G87">
-        <v>0.006110176049534715</v>
+        <v>0.00600477916161225</v>
       </c>
       <c r="H87">
-        <v>0.005269834240241564</v>
+        <v>0.005186069028006243</v>
       </c>
       <c r="I87">
-        <v>0.2803418092931511</v>
+        <v>0.2587101336060078</v>
       </c>
       <c r="J87">
-        <v>1.192216615517343</v>
+        <v>1.146191773629804</v>
       </c>
       <c r="K87">
         <v>2.29</v>
@@ -5096,7 +5132,7 @@
         <v>1</v>
       </c>
       <c r="P87" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -5107,78 +5143,78 @@
         <v>33</v>
       </c>
       <c r="C88">
-        <v>0.5205928926738919</v>
+        <v>0.7164672131147527</v>
       </c>
       <c r="D88" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="E88">
-        <v>0.4040417624885522</v>
+        <v>0.9831311475409823</v>
       </c>
       <c r="F88">
         <v>1</v>
       </c>
       <c r="G88">
-        <v>0.006459407107326108</v>
+        <v>0.006043532786885248</v>
       </c>
       <c r="H88">
-        <v>0.006215958237511448</v>
+        <v>0.005216868852459018</v>
       </c>
       <c r="I88">
-        <v>-0.1165511301853397</v>
+        <v>0.2666639344262296</v>
       </c>
       <c r="J88">
-        <v>1.268977396293209</v>
+        <v>1.163114754098361</v>
       </c>
       <c r="K88">
-        <v>2.34</v>
+        <v>2.29</v>
       </c>
       <c r="L88">
-        <v>3.49</v>
+        <v>3.38</v>
       </c>
       <c r="M88">
-        <v>2.29</v>
+        <v>1.82</v>
       </c>
       <c r="N88">
-        <v>3.31</v>
+        <v>3.1</v>
       </c>
       <c r="O88">
         <v>1</v>
       </c>
       <c r="P88" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
     </row>
     <row r="89" spans="1:16">
       <c r="A89" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B89" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C89">
-        <v>0.474041762488552</v>
+        <v>0.6498239504652852</v>
       </c>
       <c r="D89" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="E89">
-        <v>0.4040417624885522</v>
+        <v>0.9301657597584363</v>
       </c>
       <c r="F89">
         <v>1</v>
       </c>
       <c r="G89">
-        <v>0.006285958237511447</v>
+        <v>0.006110176049534715</v>
       </c>
       <c r="H89">
-        <v>0.006215958237511448</v>
+        <v>0.005269834240241564</v>
       </c>
       <c r="I89">
-        <v>-0.06999999999999984</v>
+        <v>0.2803418092931511</v>
       </c>
       <c r="J89">
-        <v>1.268977396293209</v>
+        <v>1.192216615517343</v>
       </c>
       <c r="K89">
         <v>2.29</v>
@@ -5187,16 +5223,16 @@
         <v>3.38</v>
       </c>
       <c r="M89">
-        <v>2.29</v>
+        <v>1.82</v>
       </c>
       <c r="N89">
-        <v>3.31</v>
+        <v>3.1</v>
       </c>
       <c r="O89">
         <v>1</v>
       </c>
       <c r="P89" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -5204,31 +5240,31 @@
         <v>0</v>
       </c>
       <c r="B90" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C90">
-        <v>0.3774746016246668</v>
+        <v>0.5205928926738919</v>
       </c>
       <c r="D90" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E90">
-        <v>0.2639815545814042</v>
+        <v>0.4040417624885522</v>
       </c>
       <c r="F90">
         <v>1</v>
       </c>
       <c r="G90">
-        <v>0.006602525398375333</v>
+        <v>0.006459407107326108</v>
       </c>
       <c r="H90">
-        <v>0.006356018445418596</v>
+        <v>0.006215958237511448</v>
       </c>
       <c r="I90">
-        <v>-0.1134930470432627</v>
+        <v>-0.1165511301853397</v>
       </c>
       <c r="J90">
-        <v>1.330139059134758</v>
+        <v>1.268977396293209</v>
       </c>
       <c r="K90">
         <v>2.34</v>
@@ -5246,7 +5282,7 @@
         <v>1</v>
       </c>
       <c r="P90" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -5254,31 +5290,31 @@
         <v>1</v>
       </c>
       <c r="B91" t="s">
+        <v>33</v>
+      </c>
+      <c r="C91">
+        <v>0.474041762488552</v>
+      </c>
+      <c r="D91" t="s">
         <v>32</v>
       </c>
-      <c r="C91">
-        <v>0.333981554581404</v>
-      </c>
-      <c r="D91" t="s">
-        <v>31</v>
-      </c>
       <c r="E91">
-        <v>0.2639815545814042</v>
+        <v>0.4040417624885522</v>
       </c>
       <c r="F91">
         <v>1</v>
       </c>
       <c r="G91">
-        <v>0.006426018445418596</v>
+        <v>0.006285958237511447</v>
       </c>
       <c r="H91">
-        <v>0.006356018445418596</v>
+        <v>0.006215958237511448</v>
       </c>
       <c r="I91">
         <v>-0.06999999999999984</v>
       </c>
       <c r="J91">
-        <v>1.330139059134758</v>
+        <v>1.268977396293209</v>
       </c>
       <c r="K91">
         <v>2.29</v>
@@ -5296,7 +5332,7 @@
         <v>1</v>
       </c>
       <c r="P91" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -5304,31 +5340,31 @@
         <v>0</v>
       </c>
       <c r="B92" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C92">
-        <v>0.2442505289553791</v>
+        <v>0.3774746016246668</v>
       </c>
       <c r="D92" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E92">
-        <v>0.1336041501315459</v>
+        <v>0.2639815545814042</v>
       </c>
       <c r="F92">
         <v>1</v>
       </c>
       <c r="G92">
-        <v>0.006735749471044622</v>
+        <v>0.006602525398375333</v>
       </c>
       <c r="H92">
-        <v>0.006486395849868455</v>
+        <v>0.006356018445418596</v>
       </c>
       <c r="I92">
-        <v>-0.1106463788238332</v>
+        <v>-0.1134930470432627</v>
       </c>
       <c r="J92">
-        <v>1.387072423523342</v>
+        <v>1.330139059134758</v>
       </c>
       <c r="K92">
         <v>2.34</v>
@@ -5346,7 +5382,7 @@
         <v>1</v>
       </c>
       <c r="P92" t="s">
-        <v>103</v>
+        <v>29</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -5354,49 +5390,49 @@
         <v>1</v>
       </c>
       <c r="B93" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C93">
-        <v>0.2977942894248136</v>
+        <v>0.333981554581404</v>
       </c>
       <c r="D93" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="E93">
-        <v>0.5755281891875166</v>
+        <v>0.2639815545814042</v>
       </c>
       <c r="F93">
         <v>1</v>
       </c>
       <c r="G93">
-        <v>0.006262205710575186</v>
+        <v>0.006426018445418596</v>
       </c>
       <c r="H93">
-        <v>0.005624471810812484</v>
+        <v>0.006356018445418596</v>
       </c>
       <c r="I93">
-        <v>0.277733899762703</v>
+        <v>-0.06999999999999984</v>
       </c>
       <c r="J93">
-        <v>1.387072423523342</v>
+        <v>1.330139059134758</v>
       </c>
       <c r="K93">
-        <v>2.15</v>
+        <v>2.29</v>
       </c>
       <c r="L93">
-        <v>3.28</v>
+        <v>3.38</v>
       </c>
       <c r="M93">
-        <v>1.82</v>
+        <v>2.29</v>
       </c>
       <c r="N93">
-        <v>3.1</v>
+        <v>3.31</v>
       </c>
       <c r="O93">
         <v>1</v>
       </c>
       <c r="P93" t="s">
-        <v>103</v>
+        <v>29</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -5404,49 +5440,49 @@
         <v>0</v>
       </c>
       <c r="B94" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C94">
-        <v>1.851150997400674</v>
+        <v>0.2442505289553791</v>
       </c>
       <c r="D94" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="E94">
-        <v>1.622642804691997</v>
+        <v>0.1336041501315459</v>
       </c>
       <c r="F94">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G94">
-        <v>0.004988849002599325</v>
+        <v>0.006735749471044622</v>
       </c>
       <c r="H94">
-        <v>0.004537357195308004</v>
+        <v>0.006486395849868455</v>
       </c>
       <c r="I94">
-        <v>0.2285081927086774</v>
+        <v>-0.1106463788238332</v>
       </c>
       <c r="J94">
-        <v>0.7963700520808761</v>
+        <v>1.387072423523342</v>
       </c>
       <c r="K94">
-        <v>1.97</v>
+        <v>2.34</v>
       </c>
       <c r="L94">
-        <v>3.42</v>
+        <v>3.49</v>
       </c>
       <c r="M94">
-        <v>1.83</v>
+        <v>2.29</v>
       </c>
       <c r="N94">
-        <v>3.08</v>
+        <v>3.31</v>
       </c>
       <c r="O94">
         <v>1</v>
       </c>
       <c r="P94" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -5454,49 +5490,49 @@
         <v>1</v>
       </c>
       <c r="B95" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C95">
-        <v>1.833368794275822</v>
+        <v>0.2977942894248136</v>
       </c>
       <c r="D95" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E95">
-        <v>1.622642804691997</v>
+        <v>0.5755281891875166</v>
       </c>
       <c r="F95">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G95">
-        <v>0.005066631205724178</v>
+        <v>0.006262205710575186</v>
       </c>
       <c r="H95">
-        <v>0.004537357195308004</v>
+        <v>0.005624471810812484</v>
       </c>
       <c r="I95">
-        <v>0.2107259895838252</v>
+        <v>0.277733899762703</v>
       </c>
       <c r="J95">
-        <v>0.7963700520808761</v>
+        <v>1.387072423523342</v>
       </c>
       <c r="K95">
-        <v>2.03</v>
+        <v>2.15</v>
       </c>
       <c r="L95">
-        <v>3.45</v>
+        <v>3.28</v>
       </c>
       <c r="M95">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="N95">
-        <v>3.08</v>
+        <v>3.1</v>
       </c>
       <c r="O95">
         <v>1</v>
       </c>
       <c r="P95" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -5504,37 +5540,37 @@
         <v>0</v>
       </c>
       <c r="B96" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C96">
-        <v>1.825554329597634</v>
+        <v>1.851150997400674</v>
       </c>
       <c r="D96" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E96">
-        <v>1.61559823801166</v>
+        <v>1.622642804691997</v>
       </c>
       <c r="F96">
         <v>-1</v>
       </c>
       <c r="G96">
-        <v>0.005074445670402367</v>
+        <v>0.004988849002599325</v>
       </c>
       <c r="H96">
-        <v>0.00454440176198834</v>
+        <v>0.004537357195308004</v>
       </c>
       <c r="I96">
-        <v>0.2099560915859742</v>
+        <v>0.2285081927086774</v>
       </c>
       <c r="J96">
-        <v>0.8002195420701311</v>
+        <v>0.7963700520808761</v>
       </c>
       <c r="K96">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="L96">
-        <v>3.45</v>
+        <v>3.42</v>
       </c>
       <c r="M96">
         <v>1.83</v>
@@ -5546,39 +5582,39 @@
         <v>1</v>
       </c>
       <c r="P96" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="97" spans="1:16">
       <c r="A97" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B97" t="s">
         <v>26</v>
       </c>
       <c r="C97">
-        <v>1.814964366537685</v>
+        <v>1.833368794275822</v>
       </c>
       <c r="D97" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E97">
-        <v>1.606051621065991</v>
+        <v>1.622642804691997</v>
       </c>
       <c r="F97">
         <v>-1</v>
       </c>
       <c r="G97">
-        <v>0.005085035633462316</v>
+        <v>0.005066631205724178</v>
       </c>
       <c r="H97">
-        <v>0.004553948378934009</v>
+        <v>0.004537357195308004</v>
       </c>
       <c r="I97">
-        <v>0.2089127454716935</v>
+        <v>0.2107259895838252</v>
       </c>
       <c r="J97">
-        <v>0.8054362726415348</v>
+        <v>0.7963700520808761</v>
       </c>
       <c r="K97">
         <v>2.03</v>
@@ -5596,7 +5632,7 @@
         <v>1</v>
       </c>
       <c r="P97" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -5607,28 +5643,28 @@
         <v>26</v>
       </c>
       <c r="C98">
-        <v>1.80276175127278</v>
+        <v>1.825554329597634</v>
       </c>
       <c r="D98" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E98">
-        <v>1.595051233906003</v>
+        <v>1.61559823801166</v>
       </c>
       <c r="F98">
         <v>-1</v>
       </c>
       <c r="G98">
-        <v>0.005097238248727221</v>
+        <v>0.005074445670402367</v>
       </c>
       <c r="H98">
-        <v>0.004564948766093997</v>
+        <v>0.00454440176198834</v>
       </c>
       <c r="I98">
-        <v>0.2077105173667766</v>
+        <v>0.2099560915859742</v>
       </c>
       <c r="J98">
-        <v>0.8114474131661186</v>
+        <v>0.8002195420701311</v>
       </c>
       <c r="K98">
         <v>2.03</v>
@@ -5646,45 +5682,45 @@
         <v>1</v>
       </c>
       <c r="P98" t="s">
-        <v>104</v>
+        <v>30</v>
       </c>
     </row>
     <row r="99" spans="1:16">
       <c r="A99" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B99" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C99">
-        <v>1.766532803009457</v>
+        <v>1.814964366537685</v>
       </c>
       <c r="D99" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E99">
-        <v>1.595051233906003</v>
+        <v>1.606051621065991</v>
       </c>
       <c r="F99">
         <v>-1</v>
       </c>
       <c r="G99">
-        <v>0.005093467196990544</v>
+        <v>0.005085035633462316</v>
       </c>
       <c r="H99">
-        <v>0.004564948766093997</v>
+        <v>0.004553948378934009</v>
       </c>
       <c r="I99">
-        <v>0.1714815691034541</v>
+        <v>0.2089127454716935</v>
       </c>
       <c r="J99">
-        <v>0.8114474131661186</v>
+        <v>0.8054362726415348</v>
       </c>
       <c r="K99">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="L99">
-        <v>3.43</v>
+        <v>3.45</v>
       </c>
       <c r="M99">
         <v>1.83</v>
@@ -5696,7 +5732,7 @@
         <v>1</v>
       </c>
       <c r="P99" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -5707,28 +5743,28 @@
         <v>26</v>
       </c>
       <c r="C100">
-        <v>1.799355758249058</v>
+        <v>1.80276175127278</v>
       </c>
       <c r="D100" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E100">
-        <v>1.591980806697426</v>
+        <v>1.595051233906003</v>
       </c>
       <c r="F100">
         <v>-1</v>
       </c>
       <c r="G100">
-        <v>0.005100644241750943</v>
+        <v>0.005097238248727221</v>
       </c>
       <c r="H100">
-        <v>0.004568019193302574</v>
+        <v>0.004564948766093997</v>
       </c>
       <c r="I100">
-        <v>0.2073749515516314</v>
+        <v>0.2077105173667766</v>
       </c>
       <c r="J100">
-        <v>0.8131252422418436</v>
+        <v>0.8114474131661186</v>
       </c>
       <c r="K100">
         <v>2.03</v>
@@ -5754,31 +5790,31 @@
         <v>1</v>
       </c>
       <c r="B101" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C101">
-        <v>1.763093253404221</v>
+        <v>1.766532803009457</v>
       </c>
       <c r="D101" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E101">
-        <v>1.591980806697426</v>
+        <v>1.595051233906003</v>
       </c>
       <c r="F101">
         <v>-1</v>
       </c>
       <c r="G101">
-        <v>0.00509690674659578</v>
+        <v>0.005093467196990544</v>
       </c>
       <c r="H101">
-        <v>0.004568019193302574</v>
+        <v>0.004564948766093997</v>
       </c>
       <c r="I101">
-        <v>0.1711124467067946</v>
+        <v>0.1714815691034541</v>
       </c>
       <c r="J101">
-        <v>0.8131252422418436</v>
+        <v>0.8114474131661186</v>
       </c>
       <c r="K101">
         <v>2.05</v>
@@ -5804,93 +5840,93 @@
         <v>0</v>
       </c>
       <c r="B102" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C102">
-        <v>1.758945050051923</v>
+        <v>1.799355758249058</v>
       </c>
       <c r="D102" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E102">
-        <v>1.579368851023481</v>
+        <v>1.591980806697426</v>
       </c>
       <c r="F102">
         <v>-1</v>
       </c>
       <c r="G102">
-        <v>0.005101054949948077</v>
+        <v>0.005100644241750943</v>
       </c>
       <c r="H102">
-        <v>0.00466063114897652</v>
+        <v>0.004568019193302574</v>
       </c>
       <c r="I102">
-        <v>0.1795761990284428</v>
+        <v>0.2073749515516314</v>
       </c>
       <c r="J102">
-        <v>0.8151487560722326</v>
+        <v>0.8131252422418436</v>
       </c>
       <c r="K102">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="L102">
-        <v>3.43</v>
+        <v>3.45</v>
       </c>
       <c r="M102">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="N102">
-        <v>3.12</v>
+        <v>3.08</v>
       </c>
       <c r="O102">
         <v>1</v>
       </c>
       <c r="P102" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
     </row>
     <row r="103" spans="1:16">
       <c r="A103" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B103" t="s">
         <v>36</v>
       </c>
       <c r="C103">
-        <v>1.72904089319749</v>
+        <v>1.763093253404221</v>
       </c>
       <c r="D103" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E103">
-        <v>1.571905533403557</v>
+        <v>1.591980806697426</v>
       </c>
       <c r="F103">
         <v>-1</v>
       </c>
       <c r="G103">
-        <v>0.00507095910680251</v>
+        <v>0.00509690674659578</v>
       </c>
       <c r="H103">
-        <v>0.004668094466596443</v>
+        <v>0.004568019193302574</v>
       </c>
       <c r="I103">
-        <v>0.1571353597939327</v>
+        <v>0.1711124467067946</v>
       </c>
       <c r="J103">
-        <v>0.8190976013737793</v>
+        <v>0.8131252422418436</v>
       </c>
       <c r="K103">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="L103">
-        <v>3.4</v>
+        <v>3.43</v>
       </c>
       <c r="M103">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="N103">
-        <v>3.12</v>
+        <v>3.08</v>
       </c>
       <c r="O103">
         <v>1</v>
@@ -5901,34 +5937,34 @@
     </row>
     <row r="104" spans="1:16">
       <c r="A104" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B104" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C104">
-        <v>1.750849917183753</v>
+        <v>1.758945050051923</v>
       </c>
       <c r="D104" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E104">
-        <v>1.571905533403557</v>
+        <v>1.579368851023481</v>
       </c>
       <c r="F104">
         <v>-1</v>
       </c>
       <c r="G104">
-        <v>0.005109150082816248</v>
+        <v>0.005101054949948077</v>
       </c>
       <c r="H104">
-        <v>0.004668094466596443</v>
+        <v>0.00466063114897652</v>
       </c>
       <c r="I104">
-        <v>0.1789443837801954</v>
+        <v>0.1795761990284428</v>
       </c>
       <c r="J104">
-        <v>0.8190976013737793</v>
+        <v>0.8151487560722326</v>
       </c>
       <c r="K104">
         <v>2.05</v>
@@ -5946,7 +5982,7 @@
         <v>1</v>
       </c>
       <c r="P104" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -5954,31 +5990,31 @@
         <v>0</v>
       </c>
       <c r="B105" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C105">
-        <v>1.732368893145465</v>
+        <v>1.72904089319749</v>
       </c>
       <c r="D105" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E105">
-        <v>1.574988827473004</v>
+        <v>1.571905533403557</v>
       </c>
       <c r="F105">
         <v>-1</v>
       </c>
       <c r="G105">
-        <v>0.005067631106854534</v>
+        <v>0.00507095910680251</v>
       </c>
       <c r="H105">
-        <v>0.004665011172526996</v>
+        <v>0.004668094466596443</v>
       </c>
       <c r="I105">
-        <v>0.1573800656724604</v>
+        <v>0.1571353597939327</v>
       </c>
       <c r="J105">
-        <v>0.8174662288502623</v>
+        <v>0.8190976013737793</v>
       </c>
       <c r="K105">
         <v>2.04</v>
@@ -6004,31 +6040,31 @@
         <v>1</v>
       </c>
       <c r="B106" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C106">
-        <v>1.754194230856962</v>
+        <v>1.750849917183753</v>
       </c>
       <c r="D106" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E106">
-        <v>1.574988827473004</v>
+        <v>1.571905533403557</v>
       </c>
       <c r="F106">
         <v>-1</v>
       </c>
       <c r="G106">
-        <v>0.005105805769143037</v>
+        <v>0.005109150082816248</v>
       </c>
       <c r="H106">
-        <v>0.004665011172526996</v>
+        <v>0.004668094466596443</v>
       </c>
       <c r="I106">
-        <v>0.1792054033839581</v>
+        <v>0.1789443837801954</v>
       </c>
       <c r="J106">
-        <v>0.8174662288502623</v>
+        <v>0.8190976013737793</v>
       </c>
       <c r="K106">
         <v>2.05</v>
@@ -6057,40 +6093,40 @@
         <v>37</v>
       </c>
       <c r="C107">
-        <v>1.703024477239647</v>
+        <v>1.732368893145465</v>
       </c>
       <c r="D107" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="E107">
-        <v>1.566105185067714</v>
+        <v>1.574988827473004</v>
       </c>
       <c r="F107">
         <v>-1</v>
       </c>
       <c r="G107">
-        <v>0.004836975522760354</v>
+        <v>0.005067631106854534</v>
       </c>
       <c r="H107">
-        <v>0.004473894814932287</v>
+        <v>0.004665011172526996</v>
       </c>
       <c r="I107">
-        <v>0.1369192921719335</v>
+        <v>0.1573800656724604</v>
       </c>
       <c r="J107">
-        <v>0.8077193416290479</v>
+        <v>0.8174662288502623</v>
       </c>
       <c r="K107">
-        <v>1.94</v>
+        <v>2.04</v>
       </c>
       <c r="L107">
-        <v>3.27</v>
+        <v>3.4</v>
       </c>
       <c r="M107">
-        <v>1.8</v>
+        <v>1.89</v>
       </c>
       <c r="N107">
-        <v>3.02</v>
+        <v>3.12</v>
       </c>
       <c r="O107">
         <v>1</v>
@@ -6101,52 +6137,52 @@
     </row>
     <row r="108" spans="1:16">
       <c r="A108" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B108" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C108">
-        <v>1.706762500295012</v>
+        <v>1.754194230856962</v>
       </c>
       <c r="D108" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="E108">
-        <v>1.56957345388197</v>
+        <v>1.574988827473004</v>
       </c>
       <c r="F108">
         <v>-1</v>
       </c>
       <c r="G108">
-        <v>0.004833237499704988</v>
+        <v>0.005105805769143037</v>
       </c>
       <c r="H108">
-        <v>0.004470426546118031</v>
+        <v>0.004665011172526996</v>
       </c>
       <c r="I108">
-        <v>0.1371890464130423</v>
+        <v>0.1792054033839581</v>
       </c>
       <c r="J108">
-        <v>0.8057925256211278</v>
+        <v>0.8174662288502623</v>
       </c>
       <c r="K108">
-        <v>1.94</v>
+        <v>2.05</v>
       </c>
       <c r="L108">
-        <v>3.27</v>
+        <v>3.43</v>
       </c>
       <c r="M108">
-        <v>1.8</v>
+        <v>1.89</v>
       </c>
       <c r="N108">
-        <v>3.02</v>
+        <v>3.12</v>
       </c>
       <c r="O108">
         <v>1</v>
       </c>
       <c r="P108" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -6154,31 +6190,31 @@
         <v>0</v>
       </c>
       <c r="B109" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C109">
-        <v>1.711603744119008</v>
+        <v>1.703024477239647</v>
       </c>
       <c r="D109" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E109">
-        <v>1.574065329594956</v>
+        <v>1.566105185067714</v>
       </c>
       <c r="F109">
         <v>-1</v>
       </c>
       <c r="G109">
-        <v>0.004828396255880993</v>
+        <v>0.004836975522760354</v>
       </c>
       <c r="H109">
-        <v>0.004465934670405044</v>
+        <v>0.004473894814932287</v>
       </c>
       <c r="I109">
-        <v>0.1375384145240521</v>
+        <v>0.1369192921719335</v>
       </c>
       <c r="J109">
-        <v>0.8032970391139135</v>
+        <v>0.8077193416290479</v>
       </c>
       <c r="K109">
         <v>1.94</v>
@@ -6196,7 +6232,7 @@
         <v>1</v>
       </c>
       <c r="P109" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -6207,46 +6243,46 @@
         <v>38</v>
       </c>
       <c r="C110">
-        <v>1.708455604764484</v>
+        <v>1.706762500295012</v>
       </c>
       <c r="D110" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E110">
-        <v>1.581191854101024</v>
+        <v>1.56957345388197</v>
       </c>
       <c r="F110">
         <v>-1</v>
       </c>
       <c r="G110">
-        <v>0.004591544395235517</v>
+        <v>0.004833237499704988</v>
       </c>
       <c r="H110">
-        <v>0.004558808145898975</v>
+        <v>0.004470426546118031</v>
       </c>
       <c r="I110">
-        <v>0.1272637506634595</v>
+        <v>0.1371890464130423</v>
       </c>
       <c r="J110">
-        <v>0.7877291777243258</v>
+        <v>0.8057925256211278</v>
       </c>
       <c r="K110">
-        <v>1.83</v>
+        <v>1.94</v>
       </c>
       <c r="L110">
-        <v>3.15</v>
+        <v>3.27</v>
       </c>
       <c r="M110">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="N110">
-        <v>3.07</v>
+        <v>3.02</v>
       </c>
       <c r="O110">
         <v>1</v>
       </c>
       <c r="P110" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -6257,46 +6293,46 @@
         <v>38</v>
       </c>
       <c r="C111">
-        <v>1.709251767384038</v>
+        <v>1.711603744119008</v>
       </c>
       <c r="D111" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E111">
-        <v>1.582014120413023</v>
+        <v>1.574065329594956</v>
       </c>
       <c r="F111">
         <v>-1</v>
       </c>
       <c r="G111">
-        <v>0.004590748232615962</v>
+        <v>0.004828396255880993</v>
       </c>
       <c r="H111">
-        <v>0.004557985879586977</v>
+        <v>0.004465934670405044</v>
       </c>
       <c r="I111">
-        <v>0.127237646971015</v>
+        <v>0.1375384145240521</v>
       </c>
       <c r="J111">
-        <v>0.7872941161835857</v>
+        <v>0.8032970391139135</v>
       </c>
       <c r="K111">
-        <v>1.83</v>
+        <v>1.94</v>
       </c>
       <c r="L111">
-        <v>3.15</v>
+        <v>3.27</v>
       </c>
       <c r="M111">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="N111">
-        <v>3.07</v>
+        <v>3.02</v>
       </c>
       <c r="O111">
         <v>1</v>
       </c>
       <c r="P111" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -6307,46 +6343,46 @@
         <v>39</v>
       </c>
       <c r="C112">
-        <v>1.700943162115883</v>
+        <v>1.702699397711841</v>
       </c>
       <c r="D112" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E112">
-        <v>1.579395987242713</v>
+        <v>1.638643756972241</v>
       </c>
       <c r="F112">
         <v>-1</v>
       </c>
       <c r="G112">
-        <v>0.004619056837884117</v>
+        <v>0.004697300602288159</v>
       </c>
       <c r="H112">
-        <v>0.004560604012757288</v>
+        <v>0.00476135624302776</v>
       </c>
       <c r="I112">
-        <v>0.1215471748731702</v>
+        <v>0.06405564073960024</v>
       </c>
       <c r="J112">
-        <v>0.7886793718292525</v>
+        <v>0.8006955092450049</v>
       </c>
       <c r="K112">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="L112">
-        <v>3.16</v>
+        <v>3.2</v>
       </c>
       <c r="M112">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="N112">
-        <v>3.07</v>
+        <v>3.2</v>
       </c>
       <c r="O112">
         <v>1</v>
       </c>
       <c r="P112" t="s">
-        <v>113</v>
+        <v>38</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -6354,40 +6390,40 @@
         <v>0</v>
       </c>
       <c r="B113" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C113">
-        <v>1.663913589994122</v>
+        <v>1.706549065306413</v>
       </c>
       <c r="D113" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E113">
-        <v>1.720624811893301</v>
+        <v>1.642658116228612</v>
       </c>
       <c r="F113">
         <v>-1</v>
       </c>
       <c r="G113">
-        <v>0.004496086410005878</v>
+        <v>0.004693450934693588</v>
       </c>
       <c r="H113">
-        <v>0.004679375188106701</v>
+        <v>0.004757341883771388</v>
       </c>
       <c r="I113">
-        <v>-0.05671122189917877</v>
+        <v>0.06389094907780035</v>
       </c>
       <c r="J113">
-        <v>0.7911097262602672</v>
+        <v>0.7986368634725065</v>
       </c>
       <c r="K113">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="L113">
-        <v>3.08</v>
+        <v>3.2</v>
       </c>
       <c r="M113">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="N113">
         <v>3.2</v>
@@ -6396,7 +6432,7 @@
         <v>1</v>
       </c>
       <c r="P113" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -6404,40 +6440,40 @@
         <v>0</v>
       </c>
       <c r="B114" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C114">
-        <v>1.665059605928799</v>
+        <v>1.715081561736875</v>
       </c>
       <c r="D114" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E114">
-        <v>1.721822046417237</v>
+        <v>1.651555639244335</v>
       </c>
       <c r="F114">
         <v>-1</v>
       </c>
       <c r="G114">
-        <v>0.004494940394071201</v>
+        <v>0.004684918438263125</v>
       </c>
       <c r="H114">
-        <v>0.004678177953582763</v>
+        <v>0.004748444360755666</v>
       </c>
       <c r="I114">
-        <v>-0.05676244048843815</v>
+        <v>0.06352592249253997</v>
       </c>
       <c r="J114">
-        <v>0.7904694938945258</v>
+        <v>0.7940740311567515</v>
       </c>
       <c r="K114">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="L114">
-        <v>3.08</v>
+        <v>3.2</v>
       </c>
       <c r="M114">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="N114">
         <v>3.2</v>
@@ -6446,7 +6482,7 @@
         <v>1</v>
       </c>
       <c r="P114" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -6454,40 +6490,40 @@
         <v>0</v>
       </c>
       <c r="B115" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C115">
-        <v>1.667413730063291</v>
+        <v>1.724215665563157</v>
       </c>
       <c r="D115" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E115">
-        <v>1.72428138280355</v>
+        <v>1.661080506870672</v>
       </c>
       <c r="F115">
         <v>-1</v>
       </c>
       <c r="G115">
-        <v>0.004492586269936709</v>
+        <v>0.004675784334436843</v>
       </c>
       <c r="H115">
-        <v>0.00467571861719645</v>
+        <v>0.004738919493129328</v>
       </c>
       <c r="I115">
-        <v>-0.05686765274025896</v>
+        <v>0.06313515869248509</v>
       </c>
       <c r="J115">
-        <v>0.7891543407467646</v>
+        <v>0.7891894836560657</v>
       </c>
       <c r="K115">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="L115">
-        <v>3.08</v>
+        <v>3.2</v>
       </c>
       <c r="M115">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="N115">
         <v>3.2</v>
@@ -6496,7 +6532,7 @@
         <v>1</v>
       </c>
       <c r="P115" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -6504,40 +6540,40 @@
         <v>0</v>
       </c>
       <c r="B116" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C116">
-        <v>1.67021344942318</v>
+        <v>1.726739382920171</v>
       </c>
       <c r="D116" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E116">
-        <v>1.727206229285669</v>
+        <v>1.663712190745633</v>
       </c>
       <c r="F116">
         <v>-1</v>
       </c>
       <c r="G116">
-        <v>0.00448978655057682</v>
+        <v>0.00467326061707983</v>
       </c>
       <c r="H116">
-        <v>0.004672793770714332</v>
+        <v>0.004736287809254367</v>
       </c>
       <c r="I116">
-        <v>-0.05699277986248874</v>
+        <v>0.063027192174538</v>
       </c>
       <c r="J116">
-        <v>0.7875902517188939</v>
+        <v>0.7878399021817268</v>
       </c>
       <c r="K116">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="L116">
-        <v>3.08</v>
+        <v>3.2</v>
       </c>
       <c r="M116">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="N116">
         <v>3.2</v>
@@ -6546,7 +6582,7 @@
         <v>1</v>
       </c>
       <c r="P116" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -6557,87 +6593,87 @@
         <v>40</v>
       </c>
       <c r="C117">
-        <v>1.671620581307566</v>
+        <v>1.708455604764484</v>
       </c>
       <c r="D117" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E117">
-        <v>1.728676249745893</v>
+        <v>1.581191854101024</v>
       </c>
       <c r="F117">
         <v>-1</v>
       </c>
       <c r="G117">
-        <v>0.004488379418692434</v>
+        <v>0.004591544395235517</v>
       </c>
       <c r="H117">
-        <v>0.004671323750254107</v>
+        <v>0.004558808145898975</v>
       </c>
       <c r="I117">
-        <v>-0.05705566843832699</v>
+        <v>0.1272637506634595</v>
       </c>
       <c r="J117">
-        <v>0.7868041445209126</v>
+        <v>0.7877291777243258</v>
       </c>
       <c r="K117">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="L117">
-        <v>3.08</v>
+        <v>3.15</v>
       </c>
       <c r="M117">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="N117">
-        <v>3.2</v>
+        <v>3.07</v>
       </c>
       <c r="O117">
         <v>1</v>
       </c>
       <c r="P117" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="118" spans="1:16">
       <c r="A118" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B118" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C118">
-        <v>1.674116133860681</v>
+        <v>1.726946437655511</v>
       </c>
       <c r="D118" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E118">
-        <v>1.731283335374008</v>
+        <v>1.663928103437565</v>
       </c>
       <c r="F118">
         <v>-1</v>
       </c>
       <c r="G118">
-        <v>0.004485883866139319</v>
+        <v>0.004673053562344489</v>
       </c>
       <c r="H118">
-        <v>0.004668716664625992</v>
+        <v>0.004736071896562436</v>
       </c>
       <c r="I118">
-        <v>-0.05716720151332666</v>
+        <v>0.063018334217946</v>
       </c>
       <c r="J118">
-        <v>0.7854099810834182</v>
+        <v>0.7877291777243258</v>
       </c>
       <c r="K118">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="L118">
-        <v>3.08</v>
+        <v>3.2</v>
       </c>
       <c r="M118">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="N118">
         <v>3.2</v>
@@ -6646,7 +6682,7 @@
         <v>1</v>
       </c>
       <c r="P118" t="s">
-        <v>61</v>
+        <v>114</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -6657,87 +6693,87 @@
         <v>40</v>
       </c>
       <c r="C119">
-        <v>1.677466171134621</v>
+        <v>1.709251767384038</v>
       </c>
       <c r="D119" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E119">
-        <v>1.734783094984213</v>
+        <v>1.582014120413023</v>
       </c>
       <c r="F119">
         <v>-1</v>
       </c>
       <c r="G119">
-        <v>0.004482533828865379</v>
+        <v>0.004590748232615962</v>
       </c>
       <c r="H119">
-        <v>0.004665216905015787</v>
+        <v>0.004557985879586977</v>
       </c>
       <c r="I119">
-        <v>-0.05731692384959208</v>
+        <v>0.127237646971015</v>
       </c>
       <c r="J119">
-        <v>0.7835384518800999</v>
+        <v>0.7872941161835857</v>
       </c>
       <c r="K119">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="L119">
-        <v>3.08</v>
+        <v>3.15</v>
       </c>
       <c r="M119">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="N119">
-        <v>3.2</v>
+        <v>3.07</v>
       </c>
       <c r="O119">
         <v>1</v>
       </c>
       <c r="P119" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="120" spans="1:16">
       <c r="A120" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B120" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C120">
-        <v>1.678366684793693</v>
+        <v>1.727760002736695</v>
       </c>
       <c r="D120" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E120">
-        <v>1.735723855063803</v>
+        <v>1.664776473442008</v>
       </c>
       <c r="F120">
         <v>-1</v>
       </c>
       <c r="G120">
-        <v>0.004481633315206307</v>
+        <v>0.004672239997263306</v>
       </c>
       <c r="H120">
-        <v>0.004664276144936198</v>
+        <v>0.004735223526557993</v>
       </c>
       <c r="I120">
-        <v>-0.05735717027010923</v>
+        <v>0.06298352929468676</v>
       </c>
       <c r="J120">
-        <v>0.783035371623635</v>
+        <v>0.7872941161835857</v>
       </c>
       <c r="K120">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="L120">
-        <v>3.08</v>
+        <v>3.2</v>
       </c>
       <c r="M120">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="N120">
         <v>3.2</v>
@@ -6746,7 +6782,7 @@
         <v>1</v>
       </c>
       <c r="P120" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -6754,90 +6790,90 @@
         <v>0</v>
       </c>
       <c r="B121" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C121">
-        <v>1.679550874418332</v>
+        <v>1.700943162115883</v>
       </c>
       <c r="D121" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E121">
-        <v>1.736960969364403</v>
+        <v>1.579395987242713</v>
       </c>
       <c r="F121">
         <v>-1</v>
       </c>
       <c r="G121">
-        <v>0.004480449125581668</v>
+        <v>0.004619056837884117</v>
       </c>
       <c r="H121">
-        <v>0.004663039030635597</v>
+        <v>0.004560604012757288</v>
       </c>
       <c r="I121">
-        <v>-0.05741009494607074</v>
+        <v>0.1215471748731702</v>
       </c>
       <c r="J121">
-        <v>0.7823738131741161</v>
+        <v>0.7886793718292525</v>
       </c>
       <c r="K121">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="L121">
-        <v>3.08</v>
+        <v>3.16</v>
       </c>
       <c r="M121">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="N121">
-        <v>3.2</v>
+        <v>3.07</v>
       </c>
       <c r="O121">
         <v>1</v>
       </c>
       <c r="P121" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="122" spans="1:16">
       <c r="A122" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B122" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C122">
-        <v>1.682170924710402</v>
+        <v>1.725169574679298</v>
       </c>
       <c r="D122" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E122">
-        <v>1.73969811687623</v>
+        <v>1.662075224932958</v>
       </c>
       <c r="F122">
         <v>-1</v>
       </c>
       <c r="G122">
-        <v>0.004477829075289598</v>
+        <v>0.004674830425320703</v>
       </c>
       <c r="H122">
-        <v>0.004660301883123771</v>
+        <v>0.004737924775067043</v>
       </c>
       <c r="I122">
-        <v>-0.05752719216582824</v>
+        <v>0.06309434974634009</v>
       </c>
       <c r="J122">
-        <v>0.7809100979271496</v>
+        <v>0.7886793718292525</v>
       </c>
       <c r="K122">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="L122">
-        <v>3.08</v>
+        <v>3.2</v>
       </c>
       <c r="M122">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="N122">
         <v>3.2</v>
@@ -6846,7 +6882,7 @@
         <v>1</v>
       </c>
       <c r="P122" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -6854,40 +6890,40 @@
         <v>0</v>
       </c>
       <c r="B123" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C123">
-        <v>1.683529202756129</v>
+        <v>1.722799046842222</v>
       </c>
       <c r="D123" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E123">
-        <v>1.741117100086012</v>
+        <v>1.659603284140285</v>
       </c>
       <c r="F123">
         <v>-1</v>
       </c>
       <c r="G123">
-        <v>0.004476470797243872</v>
+        <v>0.004677200953157779</v>
       </c>
       <c r="H123">
-        <v>0.004658882899913989</v>
+        <v>0.004740396715859715</v>
       </c>
       <c r="I123">
-        <v>-0.0575878973298829</v>
+        <v>0.06319576270193683</v>
       </c>
       <c r="J123">
-        <v>0.7801512833764644</v>
+        <v>0.7899470337742129</v>
       </c>
       <c r="K123">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="L123">
-        <v>3.08</v>
+        <v>3.2</v>
       </c>
       <c r="M123">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="N123">
         <v>3.2</v>
@@ -6896,7 +6932,7 @@
         <v>1</v>
       </c>
       <c r="P123" t="s">
-        <v>121</v>
+        <v>41</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -6904,40 +6940,40 @@
         <v>0</v>
       </c>
       <c r="B124" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C124">
-        <v>1.684238336039838</v>
+        <v>1.721909002855845</v>
       </c>
       <c r="D124" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E124">
-        <v>1.741857926477373</v>
+        <v>1.658675163405828</v>
       </c>
       <c r="F124">
         <v>-1</v>
       </c>
       <c r="G124">
-        <v>0.004475761663960162</v>
+        <v>0.004678090997144155</v>
       </c>
       <c r="H124">
-        <v>0.004658142073522628</v>
+        <v>0.004741324836594172</v>
       </c>
       <c r="I124">
-        <v>-0.05761959043753473</v>
+        <v>0.06323383945001715</v>
       </c>
       <c r="J124">
-        <v>0.7797551195308166</v>
+        <v>0.7904229931252164</v>
       </c>
       <c r="K124">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="L124">
-        <v>3.08</v>
+        <v>3.2</v>
       </c>
       <c r="M124">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="N124">
         <v>3.2</v>
@@ -6946,7 +6982,7 @@
         <v>1</v>
       </c>
       <c r="P124" t="s">
-        <v>122</v>
+        <v>40</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -6954,40 +6990,40 @@
         <v>0</v>
       </c>
       <c r="B125" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C125">
-        <v>1.685343362363527</v>
+        <v>1.720598225993867</v>
       </c>
       <c r="D125" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E125">
-        <v>1.7430123394524</v>
+        <v>1.657308310528364</v>
       </c>
       <c r="F125">
         <v>-1</v>
       </c>
       <c r="G125">
-        <v>0.004474656637636473</v>
+        <v>0.004679401774006134</v>
       </c>
       <c r="H125">
-        <v>0.004656987660547601</v>
+        <v>0.004742691689471637</v>
       </c>
       <c r="I125">
-        <v>-0.05766897708887275</v>
+        <v>0.06328991546550289</v>
       </c>
       <c r="J125">
-        <v>0.7791377863890909</v>
+        <v>0.791123943318788</v>
       </c>
       <c r="K125">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="L125">
-        <v>3.08</v>
+        <v>3.2</v>
       </c>
       <c r="M125">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="N125">
         <v>3.2</v>
@@ -6996,7 +7032,7 @@
         <v>1</v>
       </c>
       <c r="P125" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -7004,31 +7040,31 @@
         <v>0</v>
       </c>
       <c r="B126" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C126">
-        <v>1.687494420433455</v>
+        <v>1.67021344942318</v>
       </c>
       <c r="D126" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="E126">
-        <v>1.745259534195844</v>
+        <v>1.727206229285669</v>
       </c>
       <c r="F126">
         <v>-1</v>
       </c>
       <c r="G126">
-        <v>0.004472505579566546</v>
+        <v>0.00448978655057682</v>
       </c>
       <c r="H126">
-        <v>0.004654740465804157</v>
+        <v>0.004672793770714332</v>
       </c>
       <c r="I126">
-        <v>-0.05776511376238913</v>
+        <v>-0.05699277986248874</v>
       </c>
       <c r="J126">
-        <v>0.777936077970137</v>
+        <v>0.7875902517188939</v>
       </c>
       <c r="K126">
         <v>1.79</v>
@@ -7046,7 +7082,957 @@
         <v>1</v>
       </c>
       <c r="P126" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16">
+      <c r="A127" s="1">
+        <v>0</v>
+      </c>
+      <c r="B127" t="s">
+        <v>42</v>
+      </c>
+      <c r="C127">
+        <v>1.671620581307566</v>
+      </c>
+      <c r="D127" t="s">
+        <v>39</v>
+      </c>
+      <c r="E127">
+        <v>1.728676249745893</v>
+      </c>
+      <c r="F127">
+        <v>-1</v>
+      </c>
+      <c r="G127">
+        <v>0.004488379418692434</v>
+      </c>
+      <c r="H127">
+        <v>0.004671323750254107</v>
+      </c>
+      <c r="I127">
+        <v>-0.05705566843832699</v>
+      </c>
+      <c r="J127">
+        <v>0.7868041445209126</v>
+      </c>
+      <c r="K127">
+        <v>1.79</v>
+      </c>
+      <c r="L127">
+        <v>3.08</v>
+      </c>
+      <c r="M127">
+        <v>1.87</v>
+      </c>
+      <c r="N127">
+        <v>3.2</v>
+      </c>
+      <c r="O127">
+        <v>1</v>
+      </c>
+      <c r="P127" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16">
+      <c r="A128" s="1">
+        <v>0</v>
+      </c>
+      <c r="B128" t="s">
+        <v>42</v>
+      </c>
+      <c r="C128">
+        <v>1.674116133860681</v>
+      </c>
+      <c r="D128" t="s">
+        <v>39</v>
+      </c>
+      <c r="E128">
+        <v>1.731283335374008</v>
+      </c>
+      <c r="F128">
+        <v>-1</v>
+      </c>
+      <c r="G128">
+        <v>0.004485883866139319</v>
+      </c>
+      <c r="H128">
+        <v>0.004668716664625992</v>
+      </c>
+      <c r="I128">
+        <v>-0.05716720151332666</v>
+      </c>
+      <c r="J128">
+        <v>0.7854099810834182</v>
+      </c>
+      <c r="K128">
+        <v>1.79</v>
+      </c>
+      <c r="L128">
+        <v>3.08</v>
+      </c>
+      <c r="M128">
+        <v>1.87</v>
+      </c>
+      <c r="N128">
+        <v>3.2</v>
+      </c>
+      <c r="O128">
+        <v>1</v>
+      </c>
+      <c r="P128" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16">
+      <c r="A129" s="1">
+        <v>0</v>
+      </c>
+      <c r="B129" t="s">
+        <v>42</v>
+      </c>
+      <c r="C129">
+        <v>1.677466171134621</v>
+      </c>
+      <c r="D129" t="s">
+        <v>39</v>
+      </c>
+      <c r="E129">
+        <v>1.734783094984213</v>
+      </c>
+      <c r="F129">
+        <v>-1</v>
+      </c>
+      <c r="G129">
+        <v>0.004482533828865379</v>
+      </c>
+      <c r="H129">
+        <v>0.004665216905015787</v>
+      </c>
+      <c r="I129">
+        <v>-0.05731692384959208</v>
+      </c>
+      <c r="J129">
+        <v>0.7835384518800999</v>
+      </c>
+      <c r="K129">
+        <v>1.79</v>
+      </c>
+      <c r="L129">
+        <v>3.08</v>
+      </c>
+      <c r="M129">
+        <v>1.87</v>
+      </c>
+      <c r="N129">
+        <v>3.2</v>
+      </c>
+      <c r="O129">
+        <v>1</v>
+      </c>
+      <c r="P129" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16">
+      <c r="A130" s="1">
+        <v>0</v>
+      </c>
+      <c r="B130" t="s">
+        <v>42</v>
+      </c>
+      <c r="C130">
+        <v>1.678366684793693</v>
+      </c>
+      <c r="D130" t="s">
+        <v>39</v>
+      </c>
+      <c r="E130">
+        <v>1.735723855063803</v>
+      </c>
+      <c r="F130">
+        <v>-1</v>
+      </c>
+      <c r="G130">
+        <v>0.004481633315206307</v>
+      </c>
+      <c r="H130">
+        <v>0.004664276144936198</v>
+      </c>
+      <c r="I130">
+        <v>-0.05735717027010923</v>
+      </c>
+      <c r="J130">
+        <v>0.783035371623635</v>
+      </c>
+      <c r="K130">
+        <v>1.79</v>
+      </c>
+      <c r="L130">
+        <v>3.08</v>
+      </c>
+      <c r="M130">
+        <v>1.87</v>
+      </c>
+      <c r="N130">
+        <v>3.2</v>
+      </c>
+      <c r="O130">
+        <v>1</v>
+      </c>
+      <c r="P130" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16">
+      <c r="A131" s="1">
+        <v>0</v>
+      </c>
+      <c r="B131" t="s">
+        <v>42</v>
+      </c>
+      <c r="C131">
+        <v>1.679550874418332</v>
+      </c>
+      <c r="D131" t="s">
+        <v>39</v>
+      </c>
+      <c r="E131">
+        <v>1.736960969364403</v>
+      </c>
+      <c r="F131">
+        <v>-1</v>
+      </c>
+      <c r="G131">
+        <v>0.004480449125581668</v>
+      </c>
+      <c r="H131">
+        <v>0.004663039030635597</v>
+      </c>
+      <c r="I131">
+        <v>-0.05741009494607074</v>
+      </c>
+      <c r="J131">
+        <v>0.7823738131741161</v>
+      </c>
+      <c r="K131">
+        <v>1.79</v>
+      </c>
+      <c r="L131">
+        <v>3.08</v>
+      </c>
+      <c r="M131">
+        <v>1.87</v>
+      </c>
+      <c r="N131">
+        <v>3.2</v>
+      </c>
+      <c r="O131">
+        <v>1</v>
+      </c>
+      <c r="P131" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16">
+      <c r="A132" s="1">
+        <v>0</v>
+      </c>
+      <c r="B132" t="s">
+        <v>39</v>
+      </c>
+      <c r="C132">
+        <v>1.746411489484559</v>
+      </c>
+      <c r="D132" t="s">
+        <v>63</v>
+      </c>
+      <c r="E132">
+        <v>1.684225884756626</v>
+      </c>
+      <c r="F132">
+        <v>-1</v>
+      </c>
+      <c r="G132">
+        <v>0.004653588510515442</v>
+      </c>
+      <c r="H132">
+        <v>0.004715774115243375</v>
+      </c>
+      <c r="I132">
+        <v>0.06218560472793322</v>
+      </c>
+      <c r="J132">
+        <v>0.7773200590991663</v>
+      </c>
+      <c r="K132">
+        <v>1.87</v>
+      </c>
+      <c r="L132">
+        <v>3.2</v>
+      </c>
+      <c r="M132">
+        <v>1.95</v>
+      </c>
+      <c r="N132">
+        <v>3.2</v>
+      </c>
+      <c r="O132">
+        <v>1</v>
+      </c>
+      <c r="P132" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16">
+      <c r="A133" s="1">
+        <v>0</v>
+      </c>
+      <c r="B133" t="s">
+        <v>39</v>
+      </c>
+      <c r="C133">
+        <v>1.748527788884446</v>
+      </c>
+      <c r="D133" t="s">
+        <v>63</v>
+      </c>
+      <c r="E133">
+        <v>1.686432721029235</v>
+      </c>
+      <c r="F133">
+        <v>-1</v>
+      </c>
+      <c r="G133">
+        <v>0.004651472211115554</v>
+      </c>
+      <c r="H133">
+        <v>0.004713567278970765</v>
+      </c>
+      <c r="I133">
+        <v>0.06209506785521079</v>
+      </c>
+      <c r="J133">
+        <v>0.7761883481901358</v>
+      </c>
+      <c r="K133">
+        <v>1.87</v>
+      </c>
+      <c r="L133">
+        <v>3.2</v>
+      </c>
+      <c r="M133">
+        <v>1.95</v>
+      </c>
+      <c r="N133">
+        <v>3.2</v>
+      </c>
+      <c r="O133">
+        <v>1</v>
+      </c>
+      <c r="P133" t="s">
         <v>124</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16">
+      <c r="A134" s="1">
+        <v>0</v>
+      </c>
+      <c r="B134" t="s">
+        <v>39</v>
+      </c>
+      <c r="C134">
+        <v>1.750999132580348</v>
+      </c>
+      <c r="D134" t="s">
+        <v>63</v>
+      </c>
+      <c r="E134">
+        <v>1.689009790658652</v>
+      </c>
+      <c r="F134">
+        <v>-1</v>
+      </c>
+      <c r="G134">
+        <v>0.004649000867419653</v>
+      </c>
+      <c r="H134">
+        <v>0.004710990209341349</v>
+      </c>
+      <c r="I134">
+        <v>0.06198934192169614</v>
+      </c>
+      <c r="J134">
+        <v>0.7748667740212044</v>
+      </c>
+      <c r="K134">
+        <v>1.87</v>
+      </c>
+      <c r="L134">
+        <v>3.2</v>
+      </c>
+      <c r="M134">
+        <v>1.95</v>
+      </c>
+      <c r="N134">
+        <v>3.2</v>
+      </c>
+      <c r="O134">
+        <v>1</v>
+      </c>
+      <c r="P134" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16">
+      <c r="A135" s="1">
+        <v>0</v>
+      </c>
+      <c r="B135" t="s">
+        <v>39</v>
+      </c>
+      <c r="C135">
+        <v>1.753450334202255</v>
+      </c>
+      <c r="D135" t="s">
+        <v>63</v>
+      </c>
+      <c r="E135">
+        <v>1.691565856521068</v>
+      </c>
+      <c r="F135">
+        <v>-1</v>
+      </c>
+      <c r="G135">
+        <v>0.004646549665797745</v>
+      </c>
+      <c r="H135">
+        <v>0.004708434143478933</v>
+      </c>
+      <c r="I135">
+        <v>0.06188447768118688</v>
+      </c>
+      <c r="J135">
+        <v>0.7735559710148369</v>
+      </c>
+      <c r="K135">
+        <v>1.87</v>
+      </c>
+      <c r="L135">
+        <v>3.2</v>
+      </c>
+      <c r="M135">
+        <v>1.95</v>
+      </c>
+      <c r="N135">
+        <v>3.2</v>
+      </c>
+      <c r="O135">
+        <v>1</v>
+      </c>
+      <c r="P135" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16">
+      <c r="A136" s="1">
+        <v>0</v>
+      </c>
+      <c r="B136" t="s">
+        <v>39</v>
+      </c>
+      <c r="C136">
+        <v>1.754939802540862</v>
+      </c>
+      <c r="D136" t="s">
+        <v>63</v>
+      </c>
+      <c r="E136">
+        <v>1.69311904543031</v>
+      </c>
+      <c r="F136">
+        <v>-1</v>
+      </c>
+      <c r="G136">
+        <v>0.004645060197459139</v>
+      </c>
+      <c r="H136">
+        <v>0.00470688095456969</v>
+      </c>
+      <c r="I136">
+        <v>0.06182075711055135</v>
+      </c>
+      <c r="J136">
+        <v>0.7727594638818923</v>
+      </c>
+      <c r="K136">
+        <v>1.87</v>
+      </c>
+      <c r="L136">
+        <v>3.2</v>
+      </c>
+      <c r="M136">
+        <v>1.95</v>
+      </c>
+      <c r="N136">
+        <v>3.2</v>
+      </c>
+      <c r="O136">
+        <v>1</v>
+      </c>
+      <c r="P136" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16">
+      <c r="A137" s="1">
+        <v>0</v>
+      </c>
+      <c r="B137" t="s">
+        <v>39</v>
+      </c>
+      <c r="C137">
+        <v>1.755568315849489</v>
+      </c>
+      <c r="D137" t="s">
+        <v>63</v>
+      </c>
+      <c r="E137">
+        <v>1.693774447008826</v>
+      </c>
+      <c r="F137">
+        <v>-1</v>
+      </c>
+      <c r="G137">
+        <v>0.004644431684150511</v>
+      </c>
+      <c r="H137">
+        <v>0.004706225552991174</v>
+      </c>
+      <c r="I137">
+        <v>0.0617938688406634</v>
+      </c>
+      <c r="J137">
+        <v>0.7724233605082945</v>
+      </c>
+      <c r="K137">
+        <v>1.87</v>
+      </c>
+      <c r="L137">
+        <v>3.2</v>
+      </c>
+      <c r="M137">
+        <v>1.95</v>
+      </c>
+      <c r="N137">
+        <v>3.2</v>
+      </c>
+      <c r="O137">
+        <v>1</v>
+      </c>
+      <c r="P137" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16">
+      <c r="A138" s="1">
+        <v>0</v>
+      </c>
+      <c r="B138" t="s">
+        <v>39</v>
+      </c>
+      <c r="C138">
+        <v>1.755871060200726</v>
+      </c>
+      <c r="D138" t="s">
+        <v>63</v>
+      </c>
+      <c r="E138">
+        <v>1.694090142990062</v>
+      </c>
+      <c r="F138">
+        <v>-1</v>
+      </c>
+      <c r="G138">
+        <v>0.004644128939799275</v>
+      </c>
+      <c r="H138">
+        <v>0.004705909857009939</v>
+      </c>
+      <c r="I138">
+        <v>0.06178091721066403</v>
+      </c>
+      <c r="J138">
+        <v>0.7722614651333018</v>
+      </c>
+      <c r="K138">
+        <v>1.87</v>
+      </c>
+      <c r="L138">
+        <v>3.2</v>
+      </c>
+      <c r="M138">
+        <v>1.95</v>
+      </c>
+      <c r="N138">
+        <v>3.2</v>
+      </c>
+      <c r="O138">
+        <v>1</v>
+      </c>
+      <c r="P138" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16">
+      <c r="A139" s="1">
+        <v>0</v>
+      </c>
+      <c r="B139" t="s">
+        <v>39</v>
+      </c>
+      <c r="C139">
+        <v>1.755021860709565</v>
+      </c>
+      <c r="D139" t="s">
+        <v>63</v>
+      </c>
+      <c r="E139">
+        <v>1.693204614108905</v>
+      </c>
+      <c r="F139">
+        <v>-1</v>
+      </c>
+      <c r="G139">
+        <v>0.004644978139290435</v>
+      </c>
+      <c r="H139">
+        <v>0.004706795385891096</v>
+      </c>
+      <c r="I139">
+        <v>0.06181724660066013</v>
+      </c>
+      <c r="J139">
+        <v>0.772715582508254</v>
+      </c>
+      <c r="K139">
+        <v>1.87</v>
+      </c>
+      <c r="L139">
+        <v>3.2</v>
+      </c>
+      <c r="M139">
+        <v>1.95</v>
+      </c>
+      <c r="N139">
+        <v>3.2</v>
+      </c>
+      <c r="O139">
+        <v>1</v>
+      </c>
+      <c r="P139" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16">
+      <c r="A140" s="1">
+        <v>0</v>
+      </c>
+      <c r="B140" t="s">
+        <v>39</v>
+      </c>
+      <c r="C140">
+        <v>1.753276827162878</v>
+      </c>
+      <c r="D140" t="s">
+        <v>63</v>
+      </c>
+      <c r="E140">
+        <v>1.691384926720649</v>
+      </c>
+      <c r="F140">
+        <v>-1</v>
+      </c>
+      <c r="G140">
+        <v>0.004646723172837122</v>
+      </c>
+      <c r="H140">
+        <v>0.004708615073279352</v>
+      </c>
+      <c r="I140">
+        <v>0.06189190044222959</v>
+      </c>
+      <c r="J140">
+        <v>0.7736487555278725</v>
+      </c>
+      <c r="K140">
+        <v>1.87</v>
+      </c>
+      <c r="L140">
+        <v>3.2</v>
+      </c>
+      <c r="M140">
+        <v>1.95</v>
+      </c>
+      <c r="N140">
+        <v>3.2</v>
+      </c>
+      <c r="O140">
+        <v>1</v>
+      </c>
+      <c r="P140" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16">
+      <c r="A141" s="1">
+        <v>0</v>
+      </c>
+      <c r="B141" t="s">
+        <v>39</v>
+      </c>
+      <c r="C141">
+        <v>1.751466054533885</v>
+      </c>
+      <c r="D141" t="s">
+        <v>63</v>
+      </c>
+      <c r="E141">
+        <v>1.689496687882929</v>
+      </c>
+      <c r="F141">
+        <v>-1</v>
+      </c>
+      <c r="G141">
+        <v>0.004648533945466115</v>
+      </c>
+      <c r="H141">
+        <v>0.004710503312117072</v>
+      </c>
+      <c r="I141">
+        <v>0.06196936665095665</v>
+      </c>
+      <c r="J141">
+        <v>0.7746170831369599</v>
+      </c>
+      <c r="K141">
+        <v>1.87</v>
+      </c>
+      <c r="L141">
+        <v>3.2</v>
+      </c>
+      <c r="M141">
+        <v>1.95</v>
+      </c>
+      <c r="N141">
+        <v>3.2</v>
+      </c>
+      <c r="O141">
+        <v>1</v>
+      </c>
+      <c r="P141" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16">
+      <c r="A142" s="1">
+        <v>0</v>
+      </c>
+      <c r="B142" t="s">
+        <v>39</v>
+      </c>
+      <c r="C142">
+        <v>1.748327094900906</v>
+      </c>
+      <c r="D142" t="s">
+        <v>63</v>
+      </c>
+      <c r="E142">
+        <v>1.686223441206827</v>
+      </c>
+      <c r="F142">
+        <v>-1</v>
+      </c>
+      <c r="G142">
+        <v>0.004651672905099095</v>
+      </c>
+      <c r="H142">
+        <v>0.004713776558793173</v>
+      </c>
+      <c r="I142">
+        <v>0.06210365369407889</v>
+      </c>
+      <c r="J142">
+        <v>0.7762956711759863</v>
+      </c>
+      <c r="K142">
+        <v>1.87</v>
+      </c>
+      <c r="L142">
+        <v>3.2</v>
+      </c>
+      <c r="M142">
+        <v>1.95</v>
+      </c>
+      <c r="N142">
+        <v>3.2</v>
+      </c>
+      <c r="O142">
+        <v>1</v>
+      </c>
+      <c r="P142" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16">
+      <c r="A143" s="1">
+        <v>0</v>
+      </c>
+      <c r="B143" t="s">
+        <v>39</v>
+      </c>
+      <c r="C143">
+        <v>1.745110555324242</v>
+      </c>
+      <c r="D143" t="s">
+        <v>63</v>
+      </c>
+      <c r="E143">
+        <v>1.682869295658969</v>
+      </c>
+      <c r="F143">
+        <v>-1</v>
+      </c>
+      <c r="G143">
+        <v>0.004654889444675759</v>
+      </c>
+      <c r="H143">
+        <v>0.004717130704341031</v>
+      </c>
+      <c r="I143">
+        <v>0.06224125966527305</v>
+      </c>
+      <c r="J143">
+        <v>0.7780157458159134</v>
+      </c>
+      <c r="K143">
+        <v>1.87</v>
+      </c>
+      <c r="L143">
+        <v>3.2</v>
+      </c>
+      <c r="M143">
+        <v>1.95</v>
+      </c>
+      <c r="N143">
+        <v>3.2</v>
+      </c>
+      <c r="O143">
+        <v>1</v>
+      </c>
+      <c r="P143" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16">
+      <c r="A144" s="1">
+        <v>0</v>
+      </c>
+      <c r="B144" t="s">
+        <v>39</v>
+      </c>
+      <c r="C144">
+        <v>1.743382145937803</v>
+      </c>
+      <c r="D144" t="s">
+        <v>63</v>
+      </c>
+      <c r="E144">
+        <v>1.681066943624982</v>
+      </c>
+      <c r="F144">
+        <v>-1</v>
+      </c>
+      <c r="G144">
+        <v>0.004656617854062197</v>
+      </c>
+      <c r="H144">
+        <v>0.004718933056375018</v>
+      </c>
+      <c r="I144">
+        <v>0.06231520231282106</v>
+      </c>
+      <c r="J144">
+        <v>0.7789400289102656</v>
+      </c>
+      <c r="K144">
+        <v>1.87</v>
+      </c>
+      <c r="L144">
+        <v>3.2</v>
+      </c>
+      <c r="M144">
+        <v>1.95</v>
+      </c>
+      <c r="N144">
+        <v>3.2</v>
+      </c>
+      <c r="O144">
+        <v>1</v>
+      </c>
+      <c r="P144" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16">
+      <c r="A145" s="1">
+        <v>0</v>
+      </c>
+      <c r="B145" t="s">
+        <v>39</v>
+      </c>
+      <c r="C145">
+        <v>1.7416544035055</v>
+      </c>
+      <c r="D145" t="s">
+        <v>63</v>
+      </c>
+      <c r="E145">
+        <v>1.679265287077928</v>
+      </c>
+      <c r="F145">
+        <v>-1</v>
+      </c>
+      <c r="G145">
+        <v>0.0046583455964945</v>
+      </c>
+      <c r="H145">
+        <v>0.004720734712922072</v>
+      </c>
+      <c r="I145">
+        <v>0.06238911642757206</v>
+      </c>
+      <c r="J145">
+        <v>0.7798639553446522</v>
+      </c>
+      <c r="K145">
+        <v>1.87</v>
+      </c>
+      <c r="L145">
+        <v>3.2</v>
+      </c>
+      <c r="M145">
+        <v>1.95</v>
+      </c>
+      <c r="N145">
+        <v>3.2</v>
+      </c>
+      <c r="O145">
+        <v>1</v>
+      </c>
+      <c r="P145" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/s60_signal/position-01618-601618.xlsx
+++ b/s60_signal/position-01618-601618.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="134">
   <si>
     <t>trade_time</t>
   </si>
@@ -139,250 +139,241 @@
     <t>2021-05-17</t>
   </si>
   <si>
+    <t>2021-07-09</t>
+  </si>
+  <si>
+    <t>2016-12-30</t>
+  </si>
+  <si>
+    <t>2017-04-05</t>
+  </si>
+  <si>
+    <t>2017-05-04</t>
+  </si>
+  <si>
+    <t>2017-12-20</t>
+  </si>
+  <si>
+    <t>2020-08-11</t>
+  </si>
+  <si>
+    <t>2020-08-12</t>
+  </si>
+  <si>
+    <t>2020-03-02</t>
+  </si>
+  <si>
+    <t>2020-07-17</t>
+  </si>
+  <si>
+    <t>2020-10-15</t>
+  </si>
+  <si>
+    <t>2021-01-12</t>
+  </si>
+  <si>
+    <t>2021-05-24</t>
+  </si>
+  <si>
+    <t>2021-03-10</t>
+  </si>
+  <si>
+    <t>2021-05-21</t>
+  </si>
+  <si>
+    <t>2021-01-22</t>
+  </si>
+  <si>
+    <t>2021-04-30</t>
+  </si>
+  <si>
+    <t>2021-01-07</t>
+  </si>
+  <si>
+    <t>2021-01-26</t>
+  </si>
+  <si>
+    <t>2021-03-09</t>
+  </si>
+  <si>
+    <t>2021-04-21</t>
+  </si>
+  <si>
+    <t>2021-05-06</t>
+  </si>
+  <si>
+    <t>2021-07-14</t>
+  </si>
+  <si>
+    <t>2021-05-28</t>
+  </si>
+  <si>
+    <t>2016-12-23</t>
+  </si>
+  <si>
+    <t>2017-02-09</t>
+  </si>
+  <si>
+    <t>2017-02-10</t>
+  </si>
+  <si>
+    <t>2017-02-13</t>
+  </si>
+  <si>
+    <t>2017-02-14</t>
+  </si>
+  <si>
+    <t>2017-02-15</t>
+  </si>
+  <si>
+    <t>2017-02-16</t>
+  </si>
+  <si>
+    <t>2017-04-27</t>
+  </si>
+  <si>
+    <t>2019-12-05</t>
+  </si>
+  <si>
+    <t>2019-12-06</t>
+  </si>
+  <si>
+    <t>2019-12-20</t>
+  </si>
+  <si>
+    <t>2020-02-21</t>
+  </si>
+  <si>
+    <t>2020-02-24</t>
+  </si>
+  <si>
+    <t>2020-02-25</t>
+  </si>
+  <si>
+    <t>2020-02-26</t>
+  </si>
+  <si>
+    <t>2020-02-27</t>
+  </si>
+  <si>
+    <t>2020-02-28</t>
+  </si>
+  <si>
+    <t>2020-11-26</t>
+  </si>
+  <si>
+    <t>2020-11-27</t>
+  </si>
+  <si>
+    <t>2020-12-01</t>
+  </si>
+  <si>
+    <t>2020-12-02</t>
+  </si>
+  <si>
+    <t>2020-12-14</t>
+  </si>
+  <si>
+    <t>2020-12-16</t>
+  </si>
+  <si>
+    <t>2020-12-17</t>
+  </si>
+  <si>
+    <t>2020-12-18</t>
+  </si>
+  <si>
+    <t>2020-12-21</t>
+  </si>
+  <si>
+    <t>2020-12-22</t>
+  </si>
+  <si>
+    <t>2020-12-23</t>
+  </si>
+  <si>
+    <t>2020-12-24</t>
+  </si>
+  <si>
+    <t>2020-12-28</t>
+  </si>
+  <si>
+    <t>2020-12-29</t>
+  </si>
+  <si>
+    <t>2020-12-30</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2021-01-04</t>
+  </si>
+  <si>
+    <t>2021-01-05</t>
+  </si>
+  <si>
+    <t>2021-01-06</t>
+  </si>
+  <si>
+    <t>2021-01-08</t>
+  </si>
+  <si>
+    <t>2021-01-11</t>
+  </si>
+  <si>
+    <t>2021-01-14</t>
+  </si>
+  <si>
+    <t>2021-01-18</t>
+  </si>
+  <si>
+    <t>2021-04-08</t>
+  </si>
+  <si>
+    <t>2021-04-09</t>
+  </si>
+  <si>
+    <t>2021-04-13</t>
+  </si>
+  <si>
+    <t>2021-04-14</t>
+  </si>
+  <si>
+    <t>2021-04-26</t>
+  </si>
+  <si>
+    <t>2021-04-27</t>
+  </si>
+  <si>
+    <t>2021-04-28</t>
+  </si>
+  <si>
+    <t>2021-05-07</t>
+  </si>
+  <si>
+    <t>2021-05-10</t>
+  </si>
+  <si>
+    <t>2021-05-11</t>
+  </si>
+  <si>
+    <t>2021-05-12</t>
+  </si>
+  <si>
+    <t>2021-05-13</t>
+  </si>
+  <si>
     <t>2021-05-14</t>
   </si>
   <si>
-    <t>2021-07-09</t>
-  </si>
-  <si>
-    <t>2016-12-30</t>
-  </si>
-  <si>
-    <t>2017-04-05</t>
-  </si>
-  <si>
-    <t>2017-05-04</t>
-  </si>
-  <si>
-    <t>2017-12-20</t>
-  </si>
-  <si>
-    <t>2020-08-11</t>
-  </si>
-  <si>
-    <t>2020-08-12</t>
-  </si>
-  <si>
-    <t>2020-03-02</t>
-  </si>
-  <si>
-    <t>2020-07-17</t>
-  </si>
-  <si>
-    <t>2020-10-15</t>
-  </si>
-  <si>
-    <t>2021-01-12</t>
-  </si>
-  <si>
-    <t>2021-05-24</t>
-  </si>
-  <si>
-    <t>2021-03-10</t>
-  </si>
-  <si>
-    <t>2021-05-21</t>
-  </si>
-  <si>
-    <t>2021-01-22</t>
-  </si>
-  <si>
-    <t>2021-04-30</t>
-  </si>
-  <si>
-    <t>2021-01-07</t>
-  </si>
-  <si>
-    <t>2021-01-26</t>
-  </si>
-  <si>
-    <t>2021-03-09</t>
-  </si>
-  <si>
-    <t>2021-04-21</t>
-  </si>
-  <si>
-    <t>2021-05-06</t>
-  </si>
-  <si>
-    <t>2021-07-13</t>
-  </si>
-  <si>
-    <t>2021-05-28</t>
-  </si>
-  <si>
-    <t>2016-12-23</t>
-  </si>
-  <si>
-    <t>2017-02-09</t>
-  </si>
-  <si>
-    <t>2017-02-10</t>
-  </si>
-  <si>
-    <t>2017-02-13</t>
-  </si>
-  <si>
-    <t>2017-02-14</t>
-  </si>
-  <si>
-    <t>2017-02-15</t>
-  </si>
-  <si>
-    <t>2017-02-16</t>
-  </si>
-  <si>
-    <t>2017-04-27</t>
-  </si>
-  <si>
-    <t>2019-12-05</t>
-  </si>
-  <si>
-    <t>2019-12-06</t>
-  </si>
-  <si>
-    <t>2019-12-20</t>
-  </si>
-  <si>
-    <t>2020-02-21</t>
-  </si>
-  <si>
-    <t>2020-02-24</t>
-  </si>
-  <si>
-    <t>2020-02-25</t>
-  </si>
-  <si>
-    <t>2020-02-26</t>
-  </si>
-  <si>
-    <t>2020-02-27</t>
-  </si>
-  <si>
-    <t>2020-02-28</t>
-  </si>
-  <si>
-    <t>2020-11-26</t>
-  </si>
-  <si>
-    <t>2020-11-27</t>
-  </si>
-  <si>
-    <t>2020-12-01</t>
-  </si>
-  <si>
-    <t>2020-12-02</t>
-  </si>
-  <si>
-    <t>2020-12-14</t>
-  </si>
-  <si>
-    <t>2020-12-16</t>
-  </si>
-  <si>
-    <t>2020-12-17</t>
-  </si>
-  <si>
-    <t>2020-12-18</t>
-  </si>
-  <si>
-    <t>2020-12-21</t>
-  </si>
-  <si>
-    <t>2020-12-22</t>
-  </si>
-  <si>
-    <t>2020-12-23</t>
-  </si>
-  <si>
-    <t>2020-12-24</t>
-  </si>
-  <si>
-    <t>2020-12-28</t>
-  </si>
-  <si>
-    <t>2020-12-29</t>
-  </si>
-  <si>
-    <t>2020-12-30</t>
-  </si>
-  <si>
-    <t>2020-12-31</t>
-  </si>
-  <si>
-    <t>2021-01-04</t>
-  </si>
-  <si>
-    <t>2021-01-05</t>
-  </si>
-  <si>
-    <t>2021-01-06</t>
-  </si>
-  <si>
-    <t>2021-01-08</t>
-  </si>
-  <si>
-    <t>2021-01-11</t>
-  </si>
-  <si>
-    <t>2021-01-14</t>
-  </si>
-  <si>
-    <t>2021-01-18</t>
-  </si>
-  <si>
-    <t>2021-04-08</t>
-  </si>
-  <si>
-    <t>2021-04-09</t>
-  </si>
-  <si>
-    <t>2021-04-13</t>
-  </si>
-  <si>
-    <t>2021-04-14</t>
-  </si>
-  <si>
-    <t>2021-04-26</t>
-  </si>
-  <si>
-    <t>2021-04-27</t>
-  </si>
-  <si>
-    <t>2021-04-28</t>
-  </si>
-  <si>
-    <t>2021-05-07</t>
-  </si>
-  <si>
-    <t>2021-05-10</t>
-  </si>
-  <si>
-    <t>2021-05-11</t>
-  </si>
-  <si>
-    <t>2021-05-12</t>
-  </si>
-  <si>
-    <t>2021-05-13</t>
-  </si>
-  <si>
     <t>2021-05-18</t>
   </si>
   <si>
-    <t>2021-05-26</t>
-  </si>
-  <si>
     <t>2021-05-27</t>
   </si>
   <si>
-    <t>2021-05-31</t>
-  </si>
-  <si>
-    <t>2021-06-01</t>
-  </si>
-  <si>
-    <t>2021-06-02</t>
+    <t>2021-06-09</t>
   </si>
   <si>
     <t>2021-06-10</t>
@@ -782,7 +773,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P145"/>
+  <dimension ref="A1:P140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -846,7 +837,7 @@
         <v>2.241636620202809</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2">
         <v>2.083673377356266</v>
@@ -882,7 +873,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -896,7 +887,7 @@
         <v>2.291018963074085</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3">
         <v>2.748932188801797</v>
@@ -932,7 +923,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -946,7 +937,7 @@
         <v>0.1640886968569069</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4">
         <v>0.8087275807852619</v>
@@ -982,7 +973,7 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -996,7 +987,7 @@
         <v>0.1567937244930127</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5">
         <v>0.8087275807852619</v>
@@ -1032,7 +1023,7 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1046,7 +1037,7 @@
         <v>0.06008199184724816</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6">
         <v>0.7118353409391309</v>
@@ -1082,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1096,7 +1087,7 @@
         <v>0.05109309920632388</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7">
         <v>0.7118353409391309</v>
@@ -1132,7 +1123,7 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1146,7 +1137,7 @@
         <v>-0.0569506423664734</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8">
         <v>0.6028081963621785</v>
@@ -1182,7 +1173,7 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1196,7 +1187,7 @@
         <v>-0.06784560396853312</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9">
         <v>0.6028081963621785</v>
@@ -1232,7 +1223,7 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1246,7 +1237,7 @@
         <v>-0.1396452470657845</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>0.5257702258605397</v>
@@ -1282,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1296,7 +1287,7 @@
         <v>-0.1518870263339567</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11">
         <v>0.5257702258605397</v>
@@ -1332,7 +1323,7 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1346,7 +1337,7 @@
         <v>-0.2479133877986754</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12">
         <v>0.424908049151723</v>
@@ -1382,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1396,7 +1387,7 @@
         <v>-0.2619184918344848</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13">
         <v>0.424908049151723</v>
@@ -1432,7 +1423,7 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1446,7 +1437,7 @@
         <v>-0.3399965939203824</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E14">
         <v>0.3391236942630966</v>
@@ -1482,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1496,7 +1487,7 @@
         <v>0.9756011105228968</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E15">
         <v>0.8107654111102569</v>
@@ -1532,7 +1523,7 @@
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1546,7 +1537,7 @@
         <v>1.301145679016073</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E16">
         <v>1.173416666670367</v>
@@ -1582,7 +1573,7 @@
         <v>1</v>
       </c>
       <c r="P16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1596,7 +1587,7 @@
         <v>1.296277364845049</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E17">
         <v>1.230890933009092</v>
@@ -1632,7 +1623,7 @@
         <v>1</v>
       </c>
       <c r="P17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1646,7 +1637,7 @@
         <v>0.4435035626339812</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E18">
         <v>0.9439906537348826</v>
@@ -1682,7 +1673,7 @@
         <v>1</v>
       </c>
       <c r="P18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1696,7 +1687,7 @@
         <v>0.4423533289773536</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E19">
         <v>0.9439906537348826</v>
@@ -1732,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="P19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1746,7 +1737,7 @@
         <v>1.507350128118183</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E20">
         <v>1.202821457299868</v>
@@ -1782,7 +1773,7 @@
         <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1796,7 +1787,7 @@
         <v>1.54125697476493</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E21">
         <v>1.238224194239853</v>
@@ -1832,7 +1823,7 @@
         <v>1</v>
       </c>
       <c r="P21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1846,7 +1837,7 @@
         <v>1.573438797246031</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E22">
         <v>1.271825803006885</v>
@@ -1882,7 +1873,7 @@
         <v>1</v>
       </c>
       <c r="P22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1896,7 +1887,7 @@
         <v>1.613400857289038</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E23">
         <v>1.313550895110613</v>
@@ -1932,7 +1923,7 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1946,7 +1937,7 @@
         <v>1.593400857289038</v>
       </c>
       <c r="D24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E24">
         <v>1.363275825771058</v>
@@ -1982,7 +1973,7 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1996,7 +1987,7 @@
         <v>1.645344720184119</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E25">
         <v>1.346904046074595</v>
@@ -2032,7 +2023,7 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2046,7 +2037,7 @@
         <v>1.625344720184119</v>
       </c>
       <c r="D26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E26">
         <v>1.394045281942056</v>
@@ -2082,7 +2073,7 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2096,7 +2087,7 @@
         <v>1.68180858461344</v>
       </c>
       <c r="D27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E27">
         <v>1.384976610405209</v>
@@ -2132,7 +2123,7 @@
         <v>1</v>
       </c>
       <c r="P27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2146,7 +2137,7 @@
         <v>1.66180858461344</v>
       </c>
       <c r="D28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E28">
         <v>1.429168563120298</v>
@@ -2182,7 +2173,7 @@
         <v>1</v>
       </c>
       <c r="P28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2196,7 +2187,7 @@
         <v>1.710614904938503</v>
       </c>
       <c r="D29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E29">
         <v>1.415053797803437</v>
@@ -2232,7 +2223,7 @@
         <v>1</v>
       </c>
       <c r="P29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2246,7 +2237,7 @@
         <v>1.690614904938503</v>
       </c>
       <c r="D30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E30">
         <v>1.456915827551058</v>
@@ -2282,7 +2273,7 @@
         <v>1</v>
       </c>
       <c r="P30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2296,7 +2287,7 @@
         <v>2.268334662646267</v>
       </c>
       <c r="D31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E31">
         <v>2.649848972127444</v>
@@ -2332,7 +2323,7 @@
         <v>1</v>
       </c>
       <c r="P31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2346,7 +2337,7 @@
         <v>2.967686812279704</v>
       </c>
       <c r="D32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E32">
         <v>2.56427663569716</v>
@@ -2382,7 +2373,7 @@
         <v>1</v>
       </c>
       <c r="P32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2396,7 +2387,7 @@
         <v>2.94857711339348</v>
       </c>
       <c r="D33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E33">
         <v>2.56427663569716</v>
@@ -2432,7 +2423,7 @@
         <v>1</v>
       </c>
       <c r="P33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2446,7 +2437,7 @@
         <v>2.936045316925131</v>
       </c>
       <c r="D34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E34">
         <v>2.56427663569716</v>
@@ -2482,7 +2473,7 @@
         <v>1</v>
       </c>
       <c r="P34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2496,7 +2487,7 @@
         <v>2.269323006316983</v>
       </c>
       <c r="D35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E35">
         <v>2.651071198651537</v>
@@ -2532,7 +2523,7 @@
         <v>1</v>
       </c>
       <c r="P35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2549,7 +2540,7 @@
         <v>53</v>
       </c>
       <c r="E36">
-        <v>2.565634665168374</v>
+        <v>2.603110413308198</v>
       </c>
       <c r="F36">
         <v>-1</v>
@@ -2558,10 +2549,10 @@
         <v>0.004130577927840411</v>
       </c>
       <c r="H36">
-        <v>0.003474365334831626</v>
+        <v>0.003516889586691802</v>
       </c>
       <c r="I36">
-        <v>0.4037874069912144</v>
+        <v>0.3663116588513904</v>
       </c>
       <c r="J36">
         <v>0.2524251860175702</v>
@@ -2573,16 +2564,16 @@
         <v>3.55</v>
       </c>
       <c r="M36">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="N36">
-        <v>3.02</v>
+        <v>3.06</v>
       </c>
       <c r="O36">
         <v>1</v>
       </c>
       <c r="P36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2596,10 +2587,10 @@
         <v>2.950101124244508</v>
       </c>
       <c r="D37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E37">
-        <v>2.565634665168374</v>
+        <v>2.603110413308198</v>
       </c>
       <c r="F37">
         <v>-1</v>
@@ -2608,10 +2599,10 @@
         <v>0.003969898875755492</v>
       </c>
       <c r="H37">
-        <v>0.003474365334831626</v>
+        <v>0.003516889586691802</v>
       </c>
       <c r="I37">
-        <v>0.3844664590761342</v>
+        <v>0.3469907109363102</v>
       </c>
       <c r="J37">
         <v>0.2524251860175702</v>
@@ -2623,16 +2614,16 @@
         <v>3.46</v>
       </c>
       <c r="M37">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="N37">
-        <v>3.02</v>
+        <v>3.06</v>
       </c>
       <c r="O37">
         <v>1</v>
       </c>
       <c r="P37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2646,10 +2637,10 @@
         <v>2.937576872384333</v>
       </c>
       <c r="D38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E38">
-        <v>2.565634665168374</v>
+        <v>2.603110413308198</v>
       </c>
       <c r="F38">
         <v>-1</v>
@@ -2658,10 +2649,10 @@
         <v>0.003962423127615668</v>
       </c>
       <c r="H38">
-        <v>0.003474365334831626</v>
+        <v>0.003516889586691802</v>
       </c>
       <c r="I38">
-        <v>0.3719422072159588</v>
+        <v>0.3344664590761348</v>
       </c>
       <c r="J38">
         <v>0.2524251860175702</v>
@@ -2673,16 +2664,16 @@
         <v>3.45</v>
       </c>
       <c r="M38">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="N38">
-        <v>3.02</v>
+        <v>3.06</v>
       </c>
       <c r="O38">
         <v>1</v>
       </c>
       <c r="P38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2696,7 +2687,7 @@
         <v>2.277619541489629</v>
       </c>
       <c r="D39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E39">
         <v>2.652078528191817</v>
@@ -2732,7 +2723,7 @@
         <v>1</v>
       </c>
       <c r="P39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2746,7 +2737,7 @@
         <v>2.270137575266223</v>
       </c>
       <c r="D40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E40">
         <v>2.652078528191817</v>
@@ -2782,7 +2773,7 @@
         <v>1</v>
       </c>
       <c r="P40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2796,7 +2787,7 @@
         <v>2.970852231383444</v>
       </c>
       <c r="D41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E41">
         <v>2.604235886436537</v>
@@ -2832,7 +2823,7 @@
         <v>1</v>
       </c>
       <c r="P41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2846,7 +2837,7 @@
         <v>2.951357177128068</v>
       </c>
       <c r="D42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E42">
         <v>2.604235886436537</v>
@@ -2882,7 +2873,7 @@
         <v>1</v>
       </c>
       <c r="P42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2896,7 +2887,7 @@
         <v>2.938839143351475</v>
       </c>
       <c r="D43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E43">
         <v>2.604235886436537</v>
@@ -2932,7 +2923,7 @@
         <v>1</v>
       </c>
       <c r="P43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2946,7 +2937,7 @@
         <v>2.2742064249631</v>
       </c>
       <c r="D44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E44">
         <v>2.647889703363805</v>
@@ -2982,7 +2973,7 @@
         <v>1</v>
       </c>
       <c r="P44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2990,40 +2981,40 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C45">
-        <v>2.266750315683077</v>
+        <v>2.964905134405401</v>
       </c>
       <c r="D45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E45">
-        <v>2.647889703363805</v>
+        <v>2.599555779684251</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G45">
-        <v>0.002933249684316924</v>
+        <v>0.004135094865594598</v>
       </c>
       <c r="H45">
-        <v>0.003472110296636196</v>
+        <v>0.003520444220315749</v>
       </c>
       <c r="I45">
-        <v>0.3811393876807281</v>
+        <v>0.3653493547211504</v>
       </c>
       <c r="J45">
         <v>0.2543890719976515</v>
       </c>
       <c r="K45">
-        <v>1.31</v>
+        <v>2.3</v>
       </c>
       <c r="L45">
-        <v>2.6</v>
+        <v>3.55</v>
       </c>
       <c r="M45">
-        <v>1.62</v>
+        <v>1.81</v>
       </c>
       <c r="N45">
         <v>3.06</v>
@@ -3032,7 +3023,7 @@
         <v>1</v>
       </c>
       <c r="P45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3040,10 +3031,10 @@
         <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C46">
-        <v>2.964905134405401</v>
+        <v>2.946134074564744</v>
       </c>
       <c r="D46" t="s">
         <v>54</v>
@@ -3055,22 +3046,22 @@
         <v>-1</v>
       </c>
       <c r="G46">
-        <v>0.004135094865594598</v>
+        <v>0.003973865925435256</v>
       </c>
       <c r="H46">
         <v>0.003520444220315749</v>
       </c>
       <c r="I46">
-        <v>0.3653493547211504</v>
+        <v>0.346578294880493</v>
       </c>
       <c r="J46">
         <v>0.2543890719976515</v>
       </c>
       <c r="K46">
-        <v>2.3</v>
+        <v>2.02</v>
       </c>
       <c r="L46">
-        <v>3.55</v>
+        <v>3.46</v>
       </c>
       <c r="M46">
         <v>1.81</v>
@@ -3082,7 +3073,7 @@
         <v>1</v>
       </c>
       <c r="P46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3090,13 +3081,13 @@
         <v>3</v>
       </c>
       <c r="B47" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C47">
-        <v>2.946134074564744</v>
+        <v>2.933590183844768</v>
       </c>
       <c r="D47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E47">
         <v>2.599555779684251</v>
@@ -3105,22 +3096,22 @@
         <v>-1</v>
       </c>
       <c r="G47">
-        <v>0.003973865925435256</v>
+        <v>0.003966409816155233</v>
       </c>
       <c r="H47">
         <v>0.003520444220315749</v>
       </c>
       <c r="I47">
-        <v>0.346578294880493</v>
+        <v>0.3340344041605166</v>
       </c>
       <c r="J47">
         <v>0.2543890719976515</v>
       </c>
       <c r="K47">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="L47">
-        <v>3.46</v>
+        <v>3.45</v>
       </c>
       <c r="M47">
         <v>1.81</v>
@@ -3132,48 +3123,48 @@
         <v>1</v>
       </c>
       <c r="P47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:16">
       <c r="A48" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B48" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C48">
-        <v>2.933590183844768</v>
+        <v>1.990887286527514</v>
       </c>
       <c r="D48" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E48">
-        <v>2.599555779684251</v>
+        <v>2.306746110056926</v>
       </c>
       <c r="F48">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G48">
-        <v>0.003966409816155233</v>
+        <v>0.003209112713472486</v>
       </c>
       <c r="H48">
-        <v>0.003520444220315749</v>
+        <v>0.003813253889943074</v>
       </c>
       <c r="I48">
-        <v>0.3340344041605166</v>
+        <v>0.3158588235294117</v>
       </c>
       <c r="J48">
-        <v>0.2543890719976515</v>
+        <v>0.4649715370018978</v>
       </c>
       <c r="K48">
-        <v>2.03</v>
+        <v>1.31</v>
       </c>
       <c r="L48">
-        <v>3.45</v>
+        <v>2.6</v>
       </c>
       <c r="M48">
-        <v>1.81</v>
+        <v>1.62</v>
       </c>
       <c r="N48">
         <v>3.06</v>
@@ -3182,51 +3173,51 @@
         <v>1</v>
       </c>
       <c r="P48" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" spans="1:16">
       <c r="A49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C49">
-        <v>1.990887286527514</v>
+        <v>2.492796963946868</v>
       </c>
       <c r="D49" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E49">
-        <v>2.306746110056926</v>
+        <v>2.222096394686907</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G49">
-        <v>0.003209112713472486</v>
+        <v>0.004027203036053131</v>
       </c>
       <c r="H49">
-        <v>0.003813253889943074</v>
+        <v>0.003737903605313093</v>
       </c>
       <c r="I49">
-        <v>0.3158588235294117</v>
+        <v>0.2707005692599616</v>
       </c>
       <c r="J49">
         <v>0.4649715370018978</v>
       </c>
       <c r="K49">
-        <v>1.31</v>
+        <v>1.65</v>
       </c>
       <c r="L49">
-        <v>2.6</v>
+        <v>3.26</v>
       </c>
       <c r="M49">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="N49">
-        <v>3.06</v>
+        <v>2.98</v>
       </c>
       <c r="O49">
         <v>1</v>
@@ -3237,16 +3228,16 @@
     </row>
     <row r="50" spans="1:16">
       <c r="A50" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C50">
-        <v>2.492796963946868</v>
+        <v>2.502796963946869</v>
       </c>
       <c r="D50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E50">
         <v>2.222096394686907</v>
@@ -3255,13 +3246,13 @@
         <v>-1</v>
       </c>
       <c r="G50">
-        <v>0.004027203036053131</v>
+        <v>0.004037203036053131</v>
       </c>
       <c r="H50">
         <v>0.003737903605313093</v>
       </c>
       <c r="I50">
-        <v>0.2707005692599616</v>
+        <v>0.2807005692599618</v>
       </c>
       <c r="J50">
         <v>0.4649715370018978</v>
@@ -3270,7 +3261,7 @@
         <v>1.65</v>
       </c>
       <c r="L50">
-        <v>3.26</v>
+        <v>3.27</v>
       </c>
       <c r="M50">
         <v>1.63</v>
@@ -3287,46 +3278,46 @@
     </row>
     <row r="51" spans="1:16">
       <c r="A51" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B51" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C51">
-        <v>2.502796963946869</v>
+        <v>2.504006072106261</v>
       </c>
       <c r="D51" t="s">
         <v>56</v>
       </c>
       <c r="E51">
-        <v>2.222096394686907</v>
+        <v>2.229102087286527</v>
       </c>
       <c r="F51">
         <v>-1</v>
       </c>
       <c r="G51">
-        <v>0.004037203036053131</v>
+        <v>0.004335993927893739</v>
       </c>
       <c r="H51">
-        <v>0.003737903605313093</v>
+        <v>0.003930897912713473</v>
       </c>
       <c r="I51">
-        <v>0.2807005692599618</v>
+        <v>0.2749039848197343</v>
       </c>
       <c r="J51">
         <v>0.4649715370018978</v>
       </c>
       <c r="K51">
-        <v>1.65</v>
+        <v>1.97</v>
       </c>
       <c r="L51">
-        <v>3.27</v>
+        <v>3.42</v>
       </c>
       <c r="M51">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="N51">
-        <v>2.98</v>
+        <v>3.08</v>
       </c>
       <c r="O51">
         <v>1</v>
@@ -3337,16 +3328,16 @@
     </row>
     <row r="52" spans="1:16">
       <c r="A52" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B52" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C52">
-        <v>2.504006072106261</v>
+        <v>2.506107779886148</v>
       </c>
       <c r="D52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E52">
         <v>2.229102087286527</v>
@@ -3355,22 +3346,22 @@
         <v>-1</v>
       </c>
       <c r="G52">
-        <v>0.004335993927893739</v>
+        <v>0.004393892220113852</v>
       </c>
       <c r="H52">
         <v>0.003930897912713473</v>
       </c>
       <c r="I52">
-        <v>0.2749039848197343</v>
+        <v>0.2770056925996207</v>
       </c>
       <c r="J52">
         <v>0.4649715370018978</v>
       </c>
       <c r="K52">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="L52">
-        <v>3.42</v>
+        <v>3.45</v>
       </c>
       <c r="M52">
         <v>1.83</v>
@@ -3387,166 +3378,166 @@
     </row>
     <row r="53" spans="1:16">
       <c r="A53" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B53" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C53">
-        <v>2.506107779886148</v>
+        <v>1.934694011032936</v>
       </c>
       <c r="D53" t="s">
         <v>57</v>
       </c>
       <c r="E53">
-        <v>2.229102087286527</v>
+        <v>2.167884562588337</v>
       </c>
       <c r="F53">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G53">
-        <v>0.004393892220113852</v>
+        <v>0.003265305988967065</v>
       </c>
       <c r="H53">
-        <v>0.003930897912713473</v>
+        <v>0.003732115437411664</v>
       </c>
       <c r="I53">
-        <v>0.2770056925996207</v>
+        <v>0.2331905515554009</v>
       </c>
       <c r="J53">
-        <v>0.4649715370018978</v>
+        <v>0.5078671671504308</v>
       </c>
       <c r="K53">
-        <v>2.03</v>
+        <v>1.31</v>
       </c>
       <c r="L53">
-        <v>3.45</v>
+        <v>2.6</v>
       </c>
       <c r="M53">
-        <v>1.83</v>
+        <v>1.54</v>
       </c>
       <c r="N53">
-        <v>3.08</v>
+        <v>2.95</v>
       </c>
       <c r="O53">
         <v>1</v>
       </c>
       <c r="P53" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:16">
       <c r="A54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B54" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C54">
-        <v>1.934694011032936</v>
+        <v>2.422019174201789</v>
       </c>
       <c r="D54" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E54">
-        <v>2.167884562588337</v>
+        <v>2.152176517544798</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G54">
-        <v>0.003265305988967065</v>
+        <v>0.004097980825798211</v>
       </c>
       <c r="H54">
-        <v>0.003732115437411664</v>
+        <v>0.003807823482455202</v>
       </c>
       <c r="I54">
-        <v>0.2331905515554009</v>
+        <v>0.2698426566569911</v>
       </c>
       <c r="J54">
         <v>0.5078671671504308</v>
       </c>
       <c r="K54">
-        <v>1.31</v>
+        <v>1.65</v>
       </c>
       <c r="L54">
-        <v>2.6</v>
+        <v>3.26</v>
       </c>
       <c r="M54">
-        <v>1.54</v>
+        <v>1.63</v>
       </c>
       <c r="N54">
-        <v>2.95</v>
+        <v>2.98</v>
       </c>
       <c r="O54">
         <v>1</v>
       </c>
       <c r="P54" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" spans="1:16">
       <c r="A55" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C55">
-        <v>2.422019174201789</v>
+        <v>2.394108322356129</v>
       </c>
       <c r="D55" t="s">
         <v>56</v>
       </c>
       <c r="E55">
-        <v>2.152176517544798</v>
+        <v>2.150603084114712</v>
       </c>
       <c r="F55">
         <v>-1</v>
       </c>
       <c r="G55">
-        <v>0.004097980825798211</v>
+        <v>0.00444589167764387</v>
       </c>
       <c r="H55">
-        <v>0.003807823482455202</v>
+        <v>0.004009396915885288</v>
       </c>
       <c r="I55">
-        <v>0.2698426566569911</v>
+        <v>0.2435052382414176</v>
       </c>
       <c r="J55">
         <v>0.5078671671504308</v>
       </c>
       <c r="K55">
-        <v>1.65</v>
+        <v>2.02</v>
       </c>
       <c r="L55">
-        <v>3.26</v>
+        <v>3.42</v>
       </c>
       <c r="M55">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="N55">
-        <v>2.98</v>
+        <v>3.08</v>
       </c>
       <c r="O55">
         <v>1</v>
       </c>
       <c r="P55" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56" spans="1:16">
       <c r="A56" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B56" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C56">
-        <v>2.394108322356129</v>
+        <v>2.419029650684626</v>
       </c>
       <c r="D56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E56">
         <v>2.150603084114712</v>
@@ -3555,22 +3546,22 @@
         <v>-1</v>
       </c>
       <c r="G56">
-        <v>0.00444589167764387</v>
+        <v>0.004480970349315374</v>
       </c>
       <c r="H56">
         <v>0.004009396915885288</v>
       </c>
       <c r="I56">
-        <v>0.2435052382414176</v>
+        <v>0.2684265665699139</v>
       </c>
       <c r="J56">
         <v>0.5078671671504308</v>
       </c>
       <c r="K56">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="L56">
-        <v>3.42</v>
+        <v>3.45</v>
       </c>
       <c r="M56">
         <v>1.83</v>
@@ -3582,101 +3573,101 @@
         <v>1</v>
       </c>
       <c r="P56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57" spans="1:16">
       <c r="A57" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B57" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C57">
-        <v>2.419029650684626</v>
+        <v>2.361811863714594</v>
       </c>
       <c r="D57" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E57">
-        <v>2.150603084114712</v>
+        <v>2.092698992639265</v>
       </c>
       <c r="F57">
         <v>-1</v>
       </c>
       <c r="G57">
-        <v>0.004480970349315374</v>
+        <v>0.004158188136285406</v>
       </c>
       <c r="H57">
-        <v>0.004009396915885288</v>
+        <v>0.003867301007360734</v>
       </c>
       <c r="I57">
-        <v>0.2684265665699139</v>
+        <v>0.2691128710753286</v>
       </c>
       <c r="J57">
-        <v>0.5078671671504308</v>
+        <v>0.5443564462335794</v>
       </c>
       <c r="K57">
-        <v>2.03</v>
+        <v>1.65</v>
       </c>
       <c r="L57">
-        <v>3.45</v>
+        <v>3.26</v>
       </c>
       <c r="M57">
-        <v>1.83</v>
+        <v>1.63</v>
       </c>
       <c r="N57">
-        <v>3.08</v>
+        <v>2.98</v>
       </c>
       <c r="O57">
         <v>1</v>
       </c>
       <c r="P57" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:16">
       <c r="A58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B58" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C58">
-        <v>2.361811863714594</v>
+        <v>2.32039997860817</v>
       </c>
       <c r="D58" t="s">
         <v>56</v>
       </c>
       <c r="E58">
-        <v>2.092698992639265</v>
+        <v>2.08382770339255</v>
       </c>
       <c r="F58">
         <v>-1</v>
       </c>
       <c r="G58">
-        <v>0.004158188136285406</v>
+        <v>0.004519600021391831</v>
       </c>
       <c r="H58">
-        <v>0.003867301007360734</v>
+        <v>0.004076172296607451</v>
       </c>
       <c r="I58">
-        <v>0.2691128710753286</v>
+        <v>0.2365722752156199</v>
       </c>
       <c r="J58">
         <v>0.5443564462335794</v>
       </c>
       <c r="K58">
-        <v>1.65</v>
+        <v>2.02</v>
       </c>
       <c r="L58">
-        <v>3.26</v>
+        <v>3.42</v>
       </c>
       <c r="M58">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="N58">
-        <v>2.98</v>
+        <v>3.08</v>
       </c>
       <c r="O58">
         <v>1</v>
@@ -3687,16 +3678,16 @@
     </row>
     <row r="59" spans="1:16">
       <c r="A59" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C59">
-        <v>2.32039997860817</v>
+        <v>2.344956414145834</v>
       </c>
       <c r="D59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E59">
         <v>2.08382770339255</v>
@@ -3705,22 +3696,22 @@
         <v>-1</v>
       </c>
       <c r="G59">
-        <v>0.004519600021391831</v>
+        <v>0.004555043585854166</v>
       </c>
       <c r="H59">
         <v>0.004076172296607451</v>
       </c>
       <c r="I59">
-        <v>0.2365722752156199</v>
+        <v>0.261128710753284</v>
       </c>
       <c r="J59">
         <v>0.5443564462335794</v>
       </c>
       <c r="K59">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="L59">
-        <v>3.42</v>
+        <v>3.45</v>
       </c>
       <c r="M59">
         <v>1.83</v>
@@ -3737,116 +3728,116 @@
     </row>
     <row r="60" spans="1:16">
       <c r="A60" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B60" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C60">
-        <v>2.344956414145834</v>
+        <v>2.284943445032334</v>
       </c>
       <c r="D60" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E60">
-        <v>2.08382770339255</v>
+        <v>2.016762312365275</v>
       </c>
       <c r="F60">
         <v>-1</v>
       </c>
       <c r="G60">
-        <v>0.004555043585854166</v>
+        <v>0.004235056554967666</v>
       </c>
       <c r="H60">
-        <v>0.004076172296607451</v>
+        <v>0.003943237687634725</v>
       </c>
       <c r="I60">
-        <v>0.261128710753284</v>
+        <v>0.2681811326670585</v>
       </c>
       <c r="J60">
-        <v>0.5443564462335794</v>
+        <v>0.5909433666470703</v>
       </c>
       <c r="K60">
-        <v>2.03</v>
+        <v>1.65</v>
       </c>
       <c r="L60">
-        <v>3.45</v>
+        <v>3.26</v>
       </c>
       <c r="M60">
-        <v>1.83</v>
+        <v>1.63</v>
       </c>
       <c r="N60">
-        <v>3.08</v>
+        <v>2.98</v>
       </c>
       <c r="O60">
         <v>1</v>
       </c>
       <c r="P60" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61" spans="1:16">
       <c r="A61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C61">
-        <v>2.284943445032334</v>
+        <v>2.226294399372918</v>
       </c>
       <c r="D61" t="s">
         <v>56</v>
       </c>
       <c r="E61">
-        <v>2.016762312365275</v>
+        <v>1.998573639035861</v>
       </c>
       <c r="F61">
         <v>-1</v>
       </c>
       <c r="G61">
-        <v>0.004235056554967666</v>
+        <v>0.004613705600627082</v>
       </c>
       <c r="H61">
-        <v>0.003943237687634725</v>
+        <v>0.004161426360964139</v>
       </c>
       <c r="I61">
-        <v>0.2681811326670585</v>
+        <v>0.2277207603370566</v>
       </c>
       <c r="J61">
         <v>0.5909433666470703</v>
       </c>
       <c r="K61">
-        <v>1.65</v>
+        <v>2.02</v>
       </c>
       <c r="L61">
-        <v>3.26</v>
+        <v>3.42</v>
       </c>
       <c r="M61">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="N61">
-        <v>2.98</v>
+        <v>3.08</v>
       </c>
       <c r="O61">
         <v>1</v>
       </c>
       <c r="P61" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62" spans="1:16">
       <c r="A62" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C62">
-        <v>2.226294399372918</v>
+        <v>2.250384965706448</v>
       </c>
       <c r="D62" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E62">
         <v>1.998573639035861</v>
@@ -3855,22 +3846,22 @@
         <v>-1</v>
       </c>
       <c r="G62">
-        <v>0.004613705600627082</v>
+        <v>0.004649615034293553</v>
       </c>
       <c r="H62">
         <v>0.004161426360964139</v>
       </c>
       <c r="I62">
-        <v>0.2277207603370566</v>
+        <v>0.2518113266705861</v>
       </c>
       <c r="J62">
         <v>0.5909433666470703</v>
       </c>
       <c r="K62">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="L62">
-        <v>3.42</v>
+        <v>3.45</v>
       </c>
       <c r="M62">
         <v>1.83</v>
@@ -3882,51 +3873,51 @@
         <v>1</v>
       </c>
       <c r="P62" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63" spans="1:16">
       <c r="A63" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B63" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C63">
-        <v>2.250384965706448</v>
+        <v>2.206392009113778</v>
       </c>
       <c r="D63" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E63">
-        <v>1.998573639035861</v>
+        <v>1.894705026964186</v>
       </c>
       <c r="F63">
         <v>-1</v>
       </c>
       <c r="G63">
-        <v>0.004649615034293553</v>
+        <v>0.004313607990886223</v>
       </c>
       <c r="H63">
-        <v>0.004161426360964139</v>
+        <v>0.003925294973035814</v>
       </c>
       <c r="I63">
-        <v>0.2518113266705861</v>
+        <v>0.3116869821495918</v>
       </c>
       <c r="J63">
-        <v>0.5909433666470703</v>
+        <v>0.6385502975068013</v>
       </c>
       <c r="K63">
-        <v>2.03</v>
+        <v>1.65</v>
       </c>
       <c r="L63">
-        <v>3.45</v>
+        <v>3.26</v>
       </c>
       <c r="M63">
-        <v>1.83</v>
+        <v>1.59</v>
       </c>
       <c r="N63">
-        <v>3.08</v>
+        <v>2.91</v>
       </c>
       <c r="O63">
         <v>1</v>
@@ -3937,66 +3928,66 @@
     </row>
     <row r="64" spans="1:16">
       <c r="A64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B64" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C64">
-        <v>2.206392009113778</v>
+        <v>2.130128399036261</v>
       </c>
       <c r="D64" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E64">
-        <v>1.894705026964186</v>
+        <v>1.911452955562554</v>
       </c>
       <c r="F64">
         <v>-1</v>
       </c>
       <c r="G64">
-        <v>0.004313607990886223</v>
+        <v>0.004709871600963739</v>
       </c>
       <c r="H64">
-        <v>0.003925294973035814</v>
+        <v>0.004248547044437446</v>
       </c>
       <c r="I64">
-        <v>0.3116869821495918</v>
+        <v>0.2186754434737077</v>
       </c>
       <c r="J64">
         <v>0.6385502975068013</v>
       </c>
       <c r="K64">
-        <v>1.65</v>
+        <v>2.02</v>
       </c>
       <c r="L64">
-        <v>3.26</v>
+        <v>3.42</v>
       </c>
       <c r="M64">
-        <v>1.59</v>
+        <v>1.83</v>
       </c>
       <c r="N64">
-        <v>2.91</v>
+        <v>3.08</v>
       </c>
       <c r="O64">
         <v>1</v>
       </c>
       <c r="P64" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65" spans="1:16">
       <c r="A65" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C65">
-        <v>2.130128399036261</v>
+        <v>2.153742896061194</v>
       </c>
       <c r="D65" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E65">
         <v>1.911452955562554</v>
@@ -4005,22 +3996,22 @@
         <v>-1</v>
       </c>
       <c r="G65">
-        <v>0.004709871600963739</v>
+        <v>0.004746257103938807</v>
       </c>
       <c r="H65">
         <v>0.004248547044437446</v>
       </c>
       <c r="I65">
-        <v>0.2186754434737077</v>
+        <v>0.2422899404986398</v>
       </c>
       <c r="J65">
         <v>0.6385502975068013</v>
       </c>
       <c r="K65">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="L65">
-        <v>3.42</v>
+        <v>3.45</v>
       </c>
       <c r="M65">
         <v>1.83</v>
@@ -4032,51 +4023,51 @@
         <v>1</v>
       </c>
       <c r="P65" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66" spans="1:16">
       <c r="A66" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C66">
-        <v>2.153742896061194</v>
+        <v>2.122703049542399</v>
       </c>
       <c r="D66" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="E66">
-        <v>1.911452955562554</v>
+        <v>2.1327030495424</v>
       </c>
       <c r="F66">
         <v>-1</v>
       </c>
       <c r="G66">
-        <v>0.004746257103938807</v>
+        <v>0.004397296950457601</v>
       </c>
       <c r="H66">
-        <v>0.004248547044437446</v>
+        <v>0.0044072969504576</v>
       </c>
       <c r="I66">
-        <v>0.2422899404986398</v>
+        <v>-0.01000000000000068</v>
       </c>
       <c r="J66">
-        <v>0.6385502975068013</v>
+        <v>0.6892708790652124</v>
       </c>
       <c r="K66">
-        <v>2.03</v>
+        <v>1.65</v>
       </c>
       <c r="L66">
-        <v>3.45</v>
+        <v>3.26</v>
       </c>
       <c r="M66">
-        <v>1.83</v>
+        <v>1.65</v>
       </c>
       <c r="N66">
-        <v>3.08</v>
+        <v>3.27</v>
       </c>
       <c r="O66">
         <v>1</v>
@@ -4087,66 +4078,66 @@
     </row>
     <row r="67" spans="1:16">
       <c r="A67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C67">
-        <v>2.122703049542399</v>
+        <v>2.062136368241531</v>
       </c>
       <c r="D67" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="E67">
-        <v>2.1327030495424</v>
+        <v>1.818634291310661</v>
       </c>
       <c r="F67">
         <v>-1</v>
       </c>
       <c r="G67">
-        <v>0.004397296950457601</v>
+        <v>0.004777863631758469</v>
       </c>
       <c r="H67">
-        <v>0.0044072969504576</v>
+        <v>0.004341365708689339</v>
       </c>
       <c r="I67">
-        <v>-0.01000000000000068</v>
+        <v>0.24350207693087</v>
       </c>
       <c r="J67">
         <v>0.6892708790652124</v>
       </c>
       <c r="K67">
-        <v>1.65</v>
+        <v>1.97</v>
       </c>
       <c r="L67">
-        <v>3.26</v>
+        <v>3.42</v>
       </c>
       <c r="M67">
-        <v>1.65</v>
+        <v>1.83</v>
       </c>
       <c r="N67">
-        <v>3.27</v>
+        <v>3.08</v>
       </c>
       <c r="O67">
         <v>1</v>
       </c>
       <c r="P67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68" spans="1:16">
       <c r="A68" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C68">
-        <v>2.062136368241531</v>
+        <v>2.050780115497619</v>
       </c>
       <c r="D68" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E68">
         <v>1.818634291310661</v>
@@ -4155,22 +4146,22 @@
         <v>-1</v>
       </c>
       <c r="G68">
-        <v>0.004777863631758469</v>
+        <v>0.004849219884502381</v>
       </c>
       <c r="H68">
         <v>0.004341365708689339</v>
       </c>
       <c r="I68">
-        <v>0.24350207693087</v>
+        <v>0.2321458241869578</v>
       </c>
       <c r="J68">
         <v>0.6892708790652124</v>
       </c>
       <c r="K68">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="L68">
-        <v>3.42</v>
+        <v>3.45</v>
       </c>
       <c r="M68">
         <v>1.83</v>
@@ -4182,45 +4173,45 @@
         <v>1</v>
       </c>
       <c r="P68" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="69" spans="1:16">
       <c r="A69" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B69" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C69">
-        <v>2.050780115497619</v>
+        <v>1.960646887966805</v>
       </c>
       <c r="D69" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E69">
-        <v>1.818634291310661</v>
+        <v>1.724357261410788</v>
       </c>
       <c r="F69">
         <v>-1</v>
       </c>
       <c r="G69">
-        <v>0.004849219884502381</v>
+        <v>0.004879353112033196</v>
       </c>
       <c r="H69">
-        <v>0.004341365708689339</v>
+        <v>0.004435642738589212</v>
       </c>
       <c r="I69">
-        <v>0.2321458241869578</v>
+        <v>0.2362896265560166</v>
       </c>
       <c r="J69">
-        <v>0.6892708790652124</v>
+        <v>0.7407883817427386</v>
       </c>
       <c r="K69">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="L69">
-        <v>3.45</v>
+        <v>3.42</v>
       </c>
       <c r="M69">
         <v>1.83</v>
@@ -4237,16 +4228,16 @@
     </row>
     <row r="70" spans="1:16">
       <c r="A70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B70" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C70">
-        <v>1.960646887966805</v>
+        <v>1.946199585062241</v>
       </c>
       <c r="D70" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E70">
         <v>1.724357261410788</v>
@@ -4255,22 +4246,22 @@
         <v>-1</v>
       </c>
       <c r="G70">
-        <v>0.004879353112033196</v>
+        <v>0.00495380041493776</v>
       </c>
       <c r="H70">
         <v>0.004435642738589212</v>
       </c>
       <c r="I70">
-        <v>0.2362896265560166</v>
+        <v>0.2218423236514526</v>
       </c>
       <c r="J70">
         <v>0.7407883817427386</v>
       </c>
       <c r="K70">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="L70">
-        <v>3.42</v>
+        <v>3.45</v>
       </c>
       <c r="M70">
         <v>1.83</v>
@@ -4282,45 +4273,45 @@
         <v>1</v>
       </c>
       <c r="P70" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71" spans="1:16">
       <c r="A71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B71" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C71">
-        <v>1.946199585062241</v>
+        <v>1.843540306843175</v>
       </c>
       <c r="D71" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E71">
-        <v>1.724357261410788</v>
+        <v>1.615572975392391</v>
       </c>
       <c r="F71">
         <v>-1</v>
       </c>
       <c r="G71">
-        <v>0.00495380041493776</v>
+        <v>0.004996459693156825</v>
       </c>
       <c r="H71">
-        <v>0.004435642738589212</v>
+        <v>0.00454442702460761</v>
       </c>
       <c r="I71">
-        <v>0.2218423236514526</v>
+        <v>0.227967331450784</v>
       </c>
       <c r="J71">
-        <v>0.7407883817427386</v>
+        <v>0.8002333467801142</v>
       </c>
       <c r="K71">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="L71">
-        <v>3.45</v>
+        <v>3.42</v>
       </c>
       <c r="M71">
         <v>1.83</v>
@@ -4337,16 +4328,16 @@
     </row>
     <row r="72" spans="1:16">
       <c r="A72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B72" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C72">
-        <v>1.843540306843175</v>
+        <v>1.825526306036369</v>
       </c>
       <c r="D72" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E72">
         <v>1.615572975392391</v>
@@ -4355,22 +4346,22 @@
         <v>-1</v>
       </c>
       <c r="G72">
-        <v>0.004996459693156825</v>
+        <v>0.005074473693963632</v>
       </c>
       <c r="H72">
         <v>0.00454442702460761</v>
       </c>
       <c r="I72">
-        <v>0.227967331450784</v>
+        <v>0.2099533306439776</v>
       </c>
       <c r="J72">
         <v>0.8002333467801142</v>
       </c>
       <c r="K72">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="L72">
-        <v>3.42</v>
+        <v>3.45</v>
       </c>
       <c r="M72">
         <v>1.83</v>
@@ -4382,51 +4373,51 @@
         <v>1</v>
       </c>
       <c r="P72" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:16">
       <c r="A73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B73" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C73">
-        <v>1.825526306036369</v>
+        <v>1.364830842322013</v>
       </c>
       <c r="D73" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E73">
-        <v>1.615572975392391</v>
+        <v>1.554057700011381</v>
       </c>
       <c r="F73">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G73">
-        <v>0.005074473693963632</v>
+        <v>0.005255169157677987</v>
       </c>
       <c r="H73">
-        <v>0.00454442702460761</v>
+        <v>0.004645942299988619</v>
       </c>
       <c r="I73">
-        <v>0.2099533306439776</v>
+        <v>0.1892268576893685</v>
       </c>
       <c r="J73">
-        <v>0.8002333467801142</v>
+        <v>0.8494188461475927</v>
       </c>
       <c r="K73">
-        <v>2.03</v>
+        <v>2.29</v>
       </c>
       <c r="L73">
-        <v>3.45</v>
+        <v>3.31</v>
       </c>
       <c r="M73">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="N73">
-        <v>3.08</v>
+        <v>3.1</v>
       </c>
       <c r="O73">
         <v>1</v>
@@ -4437,96 +4428,96 @@
     </row>
     <row r="74" spans="1:16">
       <c r="A74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B74" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C74">
-        <v>1.364830842322013</v>
+        <v>1.746644873089242</v>
       </c>
       <c r="D74" t="s">
         <v>60</v>
       </c>
       <c r="E74">
-        <v>1.554057700011381</v>
+        <v>1.552668119243339</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G74">
-        <v>0.005255169157677987</v>
+        <v>0.005093355126910757</v>
       </c>
       <c r="H74">
-        <v>0.004645942299988619</v>
+        <v>0.004967331880756661</v>
       </c>
       <c r="I74">
-        <v>0.1892268576893685</v>
+        <v>0.1939767538459036</v>
       </c>
       <c r="J74">
         <v>0.8494188461475927</v>
       </c>
       <c r="K74">
-        <v>2.29</v>
+        <v>1.97</v>
       </c>
       <c r="L74">
-        <v>3.31</v>
+        <v>3.42</v>
       </c>
       <c r="M74">
-        <v>1.82</v>
+        <v>2.01</v>
       </c>
       <c r="N74">
-        <v>3.1</v>
+        <v>3.26</v>
       </c>
       <c r="O74">
         <v>1</v>
       </c>
       <c r="P74" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" spans="1:16">
       <c r="A75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B75" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C75">
-        <v>1.746644873089242</v>
+        <v>1.253223538131198</v>
       </c>
       <c r="D75" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E75">
-        <v>1.552668119243339</v>
+        <v>1.465356698427415</v>
       </c>
       <c r="F75">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G75">
-        <v>0.005093355126910757</v>
+        <v>0.005366776461868803</v>
       </c>
       <c r="H75">
-        <v>0.004967331880756661</v>
+        <v>0.004734643301572585</v>
       </c>
       <c r="I75">
-        <v>0.1939767538459036</v>
+        <v>0.2121331602962171</v>
       </c>
       <c r="J75">
-        <v>0.8494188461475927</v>
+        <v>0.898155660204717</v>
       </c>
       <c r="K75">
-        <v>1.97</v>
+        <v>2.29</v>
       </c>
       <c r="L75">
-        <v>3.42</v>
+        <v>3.31</v>
       </c>
       <c r="M75">
-        <v>2.01</v>
+        <v>1.82</v>
       </c>
       <c r="N75">
-        <v>3.26</v>
+        <v>3.1</v>
       </c>
       <c r="O75">
         <v>1</v>
@@ -4537,96 +4528,96 @@
     </row>
     <row r="76" spans="1:16">
       <c r="A76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B76" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C76">
-        <v>1.253223538131198</v>
+        <v>1.650633349396707</v>
       </c>
       <c r="D76" t="s">
         <v>60</v>
       </c>
       <c r="E76">
-        <v>1.465356698427415</v>
+        <v>1.454707122988519</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G76">
-        <v>0.005366776461868803</v>
+        <v>0.005189366650603293</v>
       </c>
       <c r="H76">
-        <v>0.004734643301572585</v>
+        <v>0.005065292877011481</v>
       </c>
       <c r="I76">
-        <v>0.2121331602962171</v>
+        <v>0.1959262264081887</v>
       </c>
       <c r="J76">
         <v>0.898155660204717</v>
       </c>
       <c r="K76">
-        <v>2.29</v>
+        <v>1.97</v>
       </c>
       <c r="L76">
-        <v>3.31</v>
+        <v>3.42</v>
       </c>
       <c r="M76">
-        <v>1.82</v>
+        <v>2.01</v>
       </c>
       <c r="N76">
-        <v>3.1</v>
+        <v>3.26</v>
       </c>
       <c r="O76">
         <v>1</v>
       </c>
       <c r="P76" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:16">
       <c r="A77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B77" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C77">
-        <v>1.650633349396707</v>
+        <v>1.142741567826858</v>
       </c>
       <c r="D77" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E77">
-        <v>1.454707122988519</v>
+        <v>1.377550067006499</v>
       </c>
       <c r="F77">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G77">
-        <v>0.005189366650603293</v>
+        <v>0.005477258432173141</v>
       </c>
       <c r="H77">
-        <v>0.005065292877011481</v>
+        <v>0.004822449932993502</v>
       </c>
       <c r="I77">
-        <v>0.1959262264081887</v>
+        <v>0.2348084991796402</v>
       </c>
       <c r="J77">
-        <v>0.898155660204717</v>
+        <v>0.9464010620843414</v>
       </c>
       <c r="K77">
-        <v>1.97</v>
+        <v>2.29</v>
       </c>
       <c r="L77">
-        <v>3.42</v>
+        <v>3.31</v>
       </c>
       <c r="M77">
-        <v>2.01</v>
+        <v>1.82</v>
       </c>
       <c r="N77">
-        <v>3.26</v>
+        <v>3.1</v>
       </c>
       <c r="O77">
         <v>1</v>
@@ -4643,28 +4634,28 @@
         <v>32</v>
       </c>
       <c r="C78">
-        <v>1.142741567826858</v>
+        <v>1.02473295176371</v>
       </c>
       <c r="D78" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E78">
-        <v>1.377550067006499</v>
+        <v>1.28376155991701</v>
       </c>
       <c r="F78">
         <v>1</v>
       </c>
       <c r="G78">
-        <v>0.005477258432173141</v>
+        <v>0.005595267048236289</v>
       </c>
       <c r="H78">
-        <v>0.004822449932993502</v>
+        <v>0.004916238440082991</v>
       </c>
       <c r="I78">
-        <v>0.2348084991796402</v>
+        <v>0.2590286081532995</v>
       </c>
       <c r="J78">
-        <v>0.9464010620843414</v>
+        <v>0.9979332088368078</v>
       </c>
       <c r="K78">
         <v>2.29</v>
@@ -4693,28 +4684,28 @@
         <v>32</v>
       </c>
       <c r="C79">
-        <v>1.02473295176371</v>
+        <v>0.9555784956116042</v>
       </c>
       <c r="D79" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E79">
-        <v>1.28376155991701</v>
+        <v>1.228800376424943</v>
       </c>
       <c r="F79">
         <v>1</v>
       </c>
       <c r="G79">
-        <v>0.005595267048236289</v>
+        <v>0.005664421504388396</v>
       </c>
       <c r="H79">
-        <v>0.004916238440082991</v>
+        <v>0.004971199623575057</v>
       </c>
       <c r="I79">
-        <v>0.2590286081532995</v>
+        <v>0.2732218808133391</v>
       </c>
       <c r="J79">
-        <v>0.9979332088368078</v>
+        <v>1.028131661304976</v>
       </c>
       <c r="K79">
         <v>2.29</v>
@@ -4740,37 +4731,37 @@
         <v>0</v>
       </c>
       <c r="B80" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C80">
-        <v>0.9555784956116042</v>
+        <v>0.95505474527386</v>
       </c>
       <c r="D80" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E80">
-        <v>1.228800376424943</v>
+        <v>1.172750932925077</v>
       </c>
       <c r="F80">
         <v>1</v>
       </c>
       <c r="G80">
-        <v>0.005664421504388396</v>
+        <v>0.00580494525472614</v>
       </c>
       <c r="H80">
-        <v>0.004971199623575057</v>
+        <v>0.005027249067074924</v>
       </c>
       <c r="I80">
-        <v>0.2732218808133391</v>
+        <v>0.2176961876512167</v>
       </c>
       <c r="J80">
-        <v>1.028131661304976</v>
+        <v>1.058928058832376</v>
       </c>
       <c r="K80">
         <v>2.29</v>
       </c>
       <c r="L80">
-        <v>3.31</v>
+        <v>3.38</v>
       </c>
       <c r="M80">
         <v>1.82</v>
@@ -4793,28 +4784,28 @@
         <v>33</v>
       </c>
       <c r="C81">
-        <v>0.95505474527386</v>
+        <v>0.8997461387005035</v>
       </c>
       <c r="D81" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E81">
-        <v>1.172750932925077</v>
+        <v>1.128793874425728</v>
       </c>
       <c r="F81">
         <v>1</v>
       </c>
       <c r="G81">
-        <v>0.00580494525472614</v>
+        <v>0.005860253861299496</v>
       </c>
       <c r="H81">
-        <v>0.005027249067074924</v>
+        <v>0.005071206125574273</v>
       </c>
       <c r="I81">
-        <v>0.2176961876512167</v>
+        <v>0.2290477357252241</v>
       </c>
       <c r="J81">
-        <v>1.058928058832376</v>
+        <v>1.083080288777073</v>
       </c>
       <c r="K81">
         <v>2.29</v>
@@ -4843,28 +4834,28 @@
         <v>33</v>
       </c>
       <c r="C82">
-        <v>0.8997461387005035</v>
+        <v>0.9004291893178089</v>
       </c>
       <c r="D82" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E82">
-        <v>1.128793874425728</v>
+        <v>1.129336735615027</v>
       </c>
       <c r="F82">
         <v>1</v>
       </c>
       <c r="G82">
-        <v>0.005860253861299496</v>
+        <v>0.005859570810682191</v>
       </c>
       <c r="H82">
-        <v>0.005071206125574273</v>
+        <v>0.005070663264384973</v>
       </c>
       <c r="I82">
-        <v>0.2290477357252241</v>
+        <v>0.2289075462972185</v>
       </c>
       <c r="J82">
-        <v>1.083080288777073</v>
+        <v>1.082782013398337</v>
       </c>
       <c r="K82">
         <v>2.29</v>
@@ -4893,28 +4884,28 @@
         <v>33</v>
       </c>
       <c r="C83">
-        <v>0.9004291893178089</v>
+        <v>0.8995341152947529</v>
       </c>
       <c r="D83" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E83">
-        <v>1.129336735615027</v>
+        <v>1.128625366740808</v>
       </c>
       <c r="F83">
         <v>1</v>
       </c>
       <c r="G83">
-        <v>0.005859570810682191</v>
+        <v>0.005860465884705247</v>
       </c>
       <c r="H83">
-        <v>0.005070663264384973</v>
+        <v>0.005071374633259193</v>
       </c>
       <c r="I83">
-        <v>0.2289075462972185</v>
+        <v>0.2290912514460552</v>
       </c>
       <c r="J83">
-        <v>1.082782013398337</v>
+        <v>1.083172875417138</v>
       </c>
       <c r="K83">
         <v>2.29</v>
@@ -4943,28 +4934,28 @@
         <v>33</v>
       </c>
       <c r="C84">
-        <v>0.8995341152947529</v>
+        <v>0.8942975364165378</v>
       </c>
       <c r="D84" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E84">
-        <v>1.128625366740808</v>
+        <v>1.124463544226244</v>
       </c>
       <c r="F84">
         <v>1</v>
       </c>
       <c r="G84">
-        <v>0.005860465884705247</v>
+        <v>0.005865702463583462</v>
       </c>
       <c r="H84">
-        <v>0.005071374633259193</v>
+        <v>0.005075536455773756</v>
       </c>
       <c r="I84">
-        <v>0.2290912514460552</v>
+        <v>0.2301660078097063</v>
       </c>
       <c r="J84">
-        <v>1.083172875417138</v>
+        <v>1.085459591084481</v>
       </c>
       <c r="K84">
         <v>2.29</v>
@@ -4982,7 +4973,7 @@
         <v>1</v>
       </c>
       <c r="P84" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -4993,28 +4984,28 @@
         <v>33</v>
       </c>
       <c r="C85">
-        <v>0.8942975364165378</v>
+        <v>0.823882990348408</v>
       </c>
       <c r="D85" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E85">
-        <v>1.124463544226244</v>
+        <v>1.068500891892621</v>
       </c>
       <c r="F85">
         <v>1</v>
       </c>
       <c r="G85">
-        <v>0.005865702463583462</v>
+        <v>0.005936117009651592</v>
       </c>
       <c r="H85">
-        <v>0.005075536455773756</v>
+        <v>0.005131499108107379</v>
       </c>
       <c r="I85">
-        <v>0.2301660078097063</v>
+        <v>0.2446179015442134</v>
       </c>
       <c r="J85">
-        <v>1.085459591084481</v>
+        <v>1.1162083011579</v>
       </c>
       <c r="K85">
         <v>2.29</v>
@@ -5032,7 +5023,7 @@
         <v>1</v>
       </c>
       <c r="P85" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -5043,28 +5034,28 @@
         <v>33</v>
       </c>
       <c r="C86">
-        <v>0.823882990348408</v>
+        <v>0.7552208383877499</v>
       </c>
       <c r="D86" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E86">
-        <v>1.068500891892621</v>
+        <v>1.013930971993758</v>
       </c>
       <c r="F86">
         <v>1</v>
       </c>
       <c r="G86">
-        <v>0.005936117009651592</v>
+        <v>0.00600477916161225</v>
       </c>
       <c r="H86">
-        <v>0.005131499108107379</v>
+        <v>0.005186069028006243</v>
       </c>
       <c r="I86">
-        <v>0.2446179015442134</v>
+        <v>0.2587101336060078</v>
       </c>
       <c r="J86">
-        <v>1.1162083011579</v>
+        <v>1.146191773629804</v>
       </c>
       <c r="K86">
         <v>2.29</v>
@@ -5093,28 +5084,28 @@
         <v>33</v>
       </c>
       <c r="C87">
-        <v>0.7552208383877499</v>
+        <v>0.7164672131147527</v>
       </c>
       <c r="D87" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E87">
-        <v>1.013930971993758</v>
+        <v>0.9831311475409823</v>
       </c>
       <c r="F87">
         <v>1</v>
       </c>
       <c r="G87">
-        <v>0.00600477916161225</v>
+        <v>0.006043532786885248</v>
       </c>
       <c r="H87">
-        <v>0.005186069028006243</v>
+        <v>0.005216868852459018</v>
       </c>
       <c r="I87">
-        <v>0.2587101336060078</v>
+        <v>0.2666639344262296</v>
       </c>
       <c r="J87">
-        <v>1.146191773629804</v>
+        <v>1.163114754098361</v>
       </c>
       <c r="K87">
         <v>2.29</v>
@@ -5132,7 +5123,7 @@
         <v>1</v>
       </c>
       <c r="P87" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -5143,28 +5134,28 @@
         <v>33</v>
       </c>
       <c r="C88">
-        <v>0.7164672131147527</v>
+        <v>0.6498239504652852</v>
       </c>
       <c r="D88" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E88">
-        <v>0.9831311475409823</v>
+        <v>0.9301657597584363</v>
       </c>
       <c r="F88">
         <v>1</v>
       </c>
       <c r="G88">
-        <v>0.006043532786885248</v>
+        <v>0.006110176049534715</v>
       </c>
       <c r="H88">
-        <v>0.005216868852459018</v>
+        <v>0.005269834240241564</v>
       </c>
       <c r="I88">
-        <v>0.2666639344262296</v>
+        <v>0.2803418092931511</v>
       </c>
       <c r="J88">
-        <v>1.163114754098361</v>
+        <v>1.192216615517343</v>
       </c>
       <c r="K88">
         <v>2.29</v>
@@ -5182,7 +5173,7 @@
         <v>1</v>
       </c>
       <c r="P88" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -5190,60 +5181,60 @@
         <v>0</v>
       </c>
       <c r="B89" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C89">
-        <v>0.6498239504652852</v>
+        <v>0.5205928926738919</v>
       </c>
       <c r="D89" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="E89">
-        <v>0.9301657597584363</v>
+        <v>0.4040417624885522</v>
       </c>
       <c r="F89">
         <v>1</v>
       </c>
       <c r="G89">
-        <v>0.006110176049534715</v>
+        <v>0.006459407107326108</v>
       </c>
       <c r="H89">
-        <v>0.005269834240241564</v>
+        <v>0.006215958237511448</v>
       </c>
       <c r="I89">
-        <v>0.2803418092931511</v>
+        <v>-0.1165511301853397</v>
       </c>
       <c r="J89">
-        <v>1.192216615517343</v>
+        <v>1.268977396293209</v>
       </c>
       <c r="K89">
+        <v>2.34</v>
+      </c>
+      <c r="L89">
+        <v>3.49</v>
+      </c>
+      <c r="M89">
         <v>2.29</v>
       </c>
-      <c r="L89">
-        <v>3.38</v>
-      </c>
-      <c r="M89">
-        <v>1.82</v>
-      </c>
       <c r="N89">
-        <v>3.1</v>
+        <v>3.31</v>
       </c>
       <c r="O89">
         <v>1</v>
       </c>
       <c r="P89" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:16">
       <c r="A90" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B90" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C90">
-        <v>0.5205928926738919</v>
+        <v>0.474041762488552</v>
       </c>
       <c r="D90" t="s">
         <v>32</v>
@@ -5255,22 +5246,22 @@
         <v>1</v>
       </c>
       <c r="G90">
-        <v>0.006459407107326108</v>
+        <v>0.006285958237511447</v>
       </c>
       <c r="H90">
         <v>0.006215958237511448</v>
       </c>
       <c r="I90">
-        <v>-0.1165511301853397</v>
+        <v>-0.06999999999999984</v>
       </c>
       <c r="J90">
         <v>1.268977396293209</v>
       </c>
       <c r="K90">
-        <v>2.34</v>
+        <v>2.29</v>
       </c>
       <c r="L90">
-        <v>3.49</v>
+        <v>3.38</v>
       </c>
       <c r="M90">
         <v>2.29</v>
@@ -5282,45 +5273,45 @@
         <v>1</v>
       </c>
       <c r="P90" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="91" spans="1:16">
       <c r="A91" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B91" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C91">
-        <v>0.474041762488552</v>
+        <v>0.3774746016246668</v>
       </c>
       <c r="D91" t="s">
         <v>32</v>
       </c>
       <c r="E91">
-        <v>0.4040417624885522</v>
+        <v>0.2639815545814042</v>
       </c>
       <c r="F91">
         <v>1</v>
       </c>
       <c r="G91">
-        <v>0.006285958237511447</v>
+        <v>0.006602525398375333</v>
       </c>
       <c r="H91">
-        <v>0.006215958237511448</v>
+        <v>0.006356018445418596</v>
       </c>
       <c r="I91">
-        <v>-0.06999999999999984</v>
+        <v>-0.1134930470432627</v>
       </c>
       <c r="J91">
-        <v>1.268977396293209</v>
+        <v>1.330139059134758</v>
       </c>
       <c r="K91">
-        <v>2.29</v>
+        <v>2.34</v>
       </c>
       <c r="L91">
-        <v>3.38</v>
+        <v>3.49</v>
       </c>
       <c r="M91">
         <v>2.29</v>
@@ -5332,18 +5323,18 @@
         <v>1</v>
       </c>
       <c r="P91" t="s">
-        <v>103</v>
+        <v>29</v>
       </c>
     </row>
     <row r="92" spans="1:16">
       <c r="A92" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B92" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C92">
-        <v>0.3774746016246668</v>
+        <v>0.333981554581404</v>
       </c>
       <c r="D92" t="s">
         <v>32</v>
@@ -5355,22 +5346,22 @@
         <v>1</v>
       </c>
       <c r="G92">
-        <v>0.006602525398375333</v>
+        <v>0.006426018445418596</v>
       </c>
       <c r="H92">
         <v>0.006356018445418596</v>
       </c>
       <c r="I92">
-        <v>-0.1134930470432627</v>
+        <v>-0.06999999999999984</v>
       </c>
       <c r="J92">
         <v>1.330139059134758</v>
       </c>
       <c r="K92">
-        <v>2.34</v>
+        <v>2.29</v>
       </c>
       <c r="L92">
-        <v>3.49</v>
+        <v>3.38</v>
       </c>
       <c r="M92">
         <v>2.29</v>
@@ -5387,40 +5378,40 @@
     </row>
     <row r="93" spans="1:16">
       <c r="A93" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B93" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C93">
-        <v>0.333981554581404</v>
+        <v>0.2442505289553791</v>
       </c>
       <c r="D93" t="s">
         <v>32</v>
       </c>
       <c r="E93">
-        <v>0.2639815545814042</v>
+        <v>0.1336041501315459</v>
       </c>
       <c r="F93">
         <v>1</v>
       </c>
       <c r="G93">
-        <v>0.006426018445418596</v>
+        <v>0.006735749471044622</v>
       </c>
       <c r="H93">
-        <v>0.006356018445418596</v>
+        <v>0.006486395849868455</v>
       </c>
       <c r="I93">
-        <v>-0.06999999999999984</v>
+        <v>-0.1106463788238332</v>
       </c>
       <c r="J93">
-        <v>1.330139059134758</v>
+        <v>1.387072423523342</v>
       </c>
       <c r="K93">
-        <v>2.29</v>
+        <v>2.34</v>
       </c>
       <c r="L93">
-        <v>3.38</v>
+        <v>3.49</v>
       </c>
       <c r="M93">
         <v>2.29</v>
@@ -5432,121 +5423,121 @@
         <v>1</v>
       </c>
       <c r="P93" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
     </row>
     <row r="94" spans="1:16">
       <c r="A94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B94" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C94">
-        <v>0.2442505289553791</v>
+        <v>0.2977942894248136</v>
       </c>
       <c r="D94" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="E94">
-        <v>0.1336041501315459</v>
+        <v>0.5755281891875166</v>
       </c>
       <c r="F94">
         <v>1</v>
       </c>
       <c r="G94">
-        <v>0.006735749471044622</v>
+        <v>0.006262205710575186</v>
       </c>
       <c r="H94">
-        <v>0.006486395849868455</v>
+        <v>0.005624471810812484</v>
       </c>
       <c r="I94">
-        <v>-0.1106463788238332</v>
+        <v>0.277733899762703</v>
       </c>
       <c r="J94">
         <v>1.387072423523342</v>
       </c>
       <c r="K94">
-        <v>2.34</v>
+        <v>2.15</v>
       </c>
       <c r="L94">
-        <v>3.49</v>
+        <v>3.28</v>
       </c>
       <c r="M94">
-        <v>2.29</v>
+        <v>1.82</v>
       </c>
       <c r="N94">
-        <v>3.31</v>
+        <v>3.1</v>
       </c>
       <c r="O94">
         <v>1</v>
       </c>
       <c r="P94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="95" spans="1:16">
       <c r="A95" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B95" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C95">
-        <v>0.2977942894248136</v>
+        <v>1.851150997400674</v>
       </c>
       <c r="D95" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E95">
-        <v>0.5755281891875166</v>
+        <v>1.622642804691997</v>
       </c>
       <c r="F95">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G95">
-        <v>0.006262205710575186</v>
+        <v>0.004988849002599325</v>
       </c>
       <c r="H95">
-        <v>0.005624471810812484</v>
+        <v>0.004537357195308004</v>
       </c>
       <c r="I95">
-        <v>0.277733899762703</v>
+        <v>0.2285081927086774</v>
       </c>
       <c r="J95">
-        <v>1.387072423523342</v>
+        <v>0.7963700520808761</v>
       </c>
       <c r="K95">
-        <v>2.15</v>
+        <v>1.97</v>
       </c>
       <c r="L95">
-        <v>3.28</v>
+        <v>3.42</v>
       </c>
       <c r="M95">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="N95">
-        <v>3.1</v>
+        <v>3.08</v>
       </c>
       <c r="O95">
         <v>1</v>
       </c>
       <c r="P95" t="s">
-        <v>104</v>
+        <v>31</v>
       </c>
     </row>
     <row r="96" spans="1:16">
       <c r="A96" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B96" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C96">
-        <v>1.851150997400674</v>
+        <v>1.833368794275822</v>
       </c>
       <c r="D96" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E96">
         <v>1.622642804691997</v>
@@ -5555,22 +5546,22 @@
         <v>-1</v>
       </c>
       <c r="G96">
-        <v>0.004988849002599325</v>
+        <v>0.005066631205724178</v>
       </c>
       <c r="H96">
         <v>0.004537357195308004</v>
       </c>
       <c r="I96">
-        <v>0.2285081927086774</v>
+        <v>0.2107259895838252</v>
       </c>
       <c r="J96">
         <v>0.7963700520808761</v>
       </c>
       <c r="K96">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="L96">
-        <v>3.42</v>
+        <v>3.45</v>
       </c>
       <c r="M96">
         <v>1.83</v>
@@ -5587,34 +5578,34 @@
     </row>
     <row r="97" spans="1:16">
       <c r="A97" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B97" t="s">
         <v>26</v>
       </c>
       <c r="C97">
-        <v>1.833368794275822</v>
+        <v>1.825554329597634</v>
       </c>
       <c r="D97" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E97">
-        <v>1.622642804691997</v>
+        <v>1.61559823801166</v>
       </c>
       <c r="F97">
         <v>-1</v>
       </c>
       <c r="G97">
-        <v>0.005066631205724178</v>
+        <v>0.005074445670402367</v>
       </c>
       <c r="H97">
-        <v>0.004537357195308004</v>
+        <v>0.00454440176198834</v>
       </c>
       <c r="I97">
-        <v>0.2107259895838252</v>
+        <v>0.2099560915859742</v>
       </c>
       <c r="J97">
-        <v>0.7963700520808761</v>
+        <v>0.8002195420701311</v>
       </c>
       <c r="K97">
         <v>2.03</v>
@@ -5632,7 +5623,7 @@
         <v>1</v>
       </c>
       <c r="P97" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -5643,28 +5634,28 @@
         <v>26</v>
       </c>
       <c r="C98">
-        <v>1.825554329597634</v>
+        <v>1.814964366537685</v>
       </c>
       <c r="D98" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E98">
-        <v>1.61559823801166</v>
+        <v>1.606051621065991</v>
       </c>
       <c r="F98">
         <v>-1</v>
       </c>
       <c r="G98">
-        <v>0.005074445670402367</v>
+        <v>0.005085035633462316</v>
       </c>
       <c r="H98">
-        <v>0.00454440176198834</v>
+        <v>0.004553948378934009</v>
       </c>
       <c r="I98">
-        <v>0.2099560915859742</v>
+        <v>0.2089127454716935</v>
       </c>
       <c r="J98">
-        <v>0.8002195420701311</v>
+        <v>0.8054362726415348</v>
       </c>
       <c r="K98">
         <v>2.03</v>
@@ -5682,7 +5673,7 @@
         <v>1</v>
       </c>
       <c r="P98" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -5693,28 +5684,28 @@
         <v>26</v>
       </c>
       <c r="C99">
-        <v>1.814964366537685</v>
+        <v>1.80276175127278</v>
       </c>
       <c r="D99" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E99">
-        <v>1.606051621065991</v>
+        <v>1.595051233906003</v>
       </c>
       <c r="F99">
         <v>-1</v>
       </c>
       <c r="G99">
-        <v>0.005085035633462316</v>
+        <v>0.005097238248727221</v>
       </c>
       <c r="H99">
-        <v>0.004553948378934009</v>
+        <v>0.004564948766093997</v>
       </c>
       <c r="I99">
-        <v>0.2089127454716935</v>
+        <v>0.2077105173667766</v>
       </c>
       <c r="J99">
-        <v>0.8054362726415348</v>
+        <v>0.8114474131661186</v>
       </c>
       <c r="K99">
         <v>2.03</v>
@@ -5732,21 +5723,21 @@
         <v>1</v>
       </c>
       <c r="P99" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
     </row>
     <row r="100" spans="1:16">
       <c r="A100" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B100" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C100">
-        <v>1.80276175127278</v>
+        <v>1.766532803009457</v>
       </c>
       <c r="D100" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E100">
         <v>1.595051233906003</v>
@@ -5755,22 +5746,22 @@
         <v>-1</v>
       </c>
       <c r="G100">
-        <v>0.005097238248727221</v>
+        <v>0.005093467196990544</v>
       </c>
       <c r="H100">
         <v>0.004564948766093997</v>
       </c>
       <c r="I100">
-        <v>0.2077105173667766</v>
+        <v>0.1714815691034541</v>
       </c>
       <c r="J100">
         <v>0.8114474131661186</v>
       </c>
       <c r="K100">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="L100">
-        <v>3.45</v>
+        <v>3.43</v>
       </c>
       <c r="M100">
         <v>1.83</v>
@@ -5782,45 +5773,45 @@
         <v>1</v>
       </c>
       <c r="P100" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="101" spans="1:16">
       <c r="A101" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B101" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C101">
-        <v>1.766532803009457</v>
+        <v>1.799355758249058</v>
       </c>
       <c r="D101" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E101">
-        <v>1.595051233906003</v>
+        <v>1.591980806697426</v>
       </c>
       <c r="F101">
         <v>-1</v>
       </c>
       <c r="G101">
-        <v>0.005093467196990544</v>
+        <v>0.005100644241750943</v>
       </c>
       <c r="H101">
-        <v>0.004564948766093997</v>
+        <v>0.004568019193302574</v>
       </c>
       <c r="I101">
-        <v>0.1714815691034541</v>
+        <v>0.2073749515516314</v>
       </c>
       <c r="J101">
-        <v>0.8114474131661186</v>
+        <v>0.8131252422418436</v>
       </c>
       <c r="K101">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="L101">
-        <v>3.43</v>
+        <v>3.45</v>
       </c>
       <c r="M101">
         <v>1.83</v>
@@ -5837,16 +5828,16 @@
     </row>
     <row r="102" spans="1:16">
       <c r="A102" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B102" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C102">
-        <v>1.799355758249058</v>
+        <v>1.763093253404221</v>
       </c>
       <c r="D102" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E102">
         <v>1.591980806697426</v>
@@ -5855,22 +5846,22 @@
         <v>-1</v>
       </c>
       <c r="G102">
-        <v>0.005100644241750943</v>
+        <v>0.00509690674659578</v>
       </c>
       <c r="H102">
         <v>0.004568019193302574</v>
       </c>
       <c r="I102">
-        <v>0.2073749515516314</v>
+        <v>0.1711124467067946</v>
       </c>
       <c r="J102">
         <v>0.8131252422418436</v>
       </c>
       <c r="K102">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="L102">
-        <v>3.45</v>
+        <v>3.43</v>
       </c>
       <c r="M102">
         <v>1.83</v>
@@ -5882,39 +5873,39 @@
         <v>1</v>
       </c>
       <c r="P102" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="103" spans="1:16">
       <c r="A103" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B103" t="s">
         <v>36</v>
       </c>
       <c r="C103">
-        <v>1.763093253404221</v>
+        <v>1.758945050051923</v>
       </c>
       <c r="D103" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E103">
-        <v>1.591980806697426</v>
+        <v>1.579368851023481</v>
       </c>
       <c r="F103">
         <v>-1</v>
       </c>
       <c r="G103">
-        <v>0.00509690674659578</v>
+        <v>0.005101054949948077</v>
       </c>
       <c r="H103">
-        <v>0.004568019193302574</v>
+        <v>0.00466063114897652</v>
       </c>
       <c r="I103">
-        <v>0.1711124467067946</v>
+        <v>0.1795761990284428</v>
       </c>
       <c r="J103">
-        <v>0.8131252422418436</v>
+        <v>0.8151487560722326</v>
       </c>
       <c r="K103">
         <v>2.05</v>
@@ -5923,16 +5914,16 @@
         <v>3.43</v>
       </c>
       <c r="M103">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="N103">
-        <v>3.08</v>
+        <v>3.12</v>
       </c>
       <c r="O103">
         <v>1</v>
       </c>
       <c r="P103" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -5940,37 +5931,37 @@
         <v>0</v>
       </c>
       <c r="B104" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C104">
-        <v>1.758945050051923</v>
+        <v>1.72904089319749</v>
       </c>
       <c r="D104" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E104">
-        <v>1.579368851023481</v>
+        <v>1.571905533403557</v>
       </c>
       <c r="F104">
         <v>-1</v>
       </c>
       <c r="G104">
-        <v>0.005101054949948077</v>
+        <v>0.00507095910680251</v>
       </c>
       <c r="H104">
-        <v>0.00466063114897652</v>
+        <v>0.004668094466596443</v>
       </c>
       <c r="I104">
-        <v>0.1795761990284428</v>
+        <v>0.1571353597939327</v>
       </c>
       <c r="J104">
-        <v>0.8151487560722326</v>
+        <v>0.8190976013737793</v>
       </c>
       <c r="K104">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="L104">
-        <v>3.43</v>
+        <v>3.4</v>
       </c>
       <c r="M104">
         <v>1.89</v>
@@ -5982,21 +5973,21 @@
         <v>1</v>
       </c>
       <c r="P104" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
     </row>
     <row r="105" spans="1:16">
       <c r="A105" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B105" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C105">
-        <v>1.72904089319749</v>
+        <v>1.750849917183753</v>
       </c>
       <c r="D105" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E105">
         <v>1.571905533403557</v>
@@ -6005,22 +5996,22 @@
         <v>-1</v>
       </c>
       <c r="G105">
-        <v>0.00507095910680251</v>
+        <v>0.005109150082816248</v>
       </c>
       <c r="H105">
         <v>0.004668094466596443</v>
       </c>
       <c r="I105">
-        <v>0.1571353597939327</v>
+        <v>0.1789443837801954</v>
       </c>
       <c r="J105">
         <v>0.8190976013737793</v>
       </c>
       <c r="K105">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="L105">
-        <v>3.4</v>
+        <v>3.43</v>
       </c>
       <c r="M105">
         <v>1.89</v>
@@ -6032,45 +6023,45 @@
         <v>1</v>
       </c>
       <c r="P105" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="106" spans="1:16">
       <c r="A106" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B106" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C106">
-        <v>1.750849917183753</v>
+        <v>1.732368893145465</v>
       </c>
       <c r="D106" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E106">
-        <v>1.571905533403557</v>
+        <v>1.574988827473004</v>
       </c>
       <c r="F106">
         <v>-1</v>
       </c>
       <c r="G106">
-        <v>0.005109150082816248</v>
+        <v>0.005067631106854534</v>
       </c>
       <c r="H106">
-        <v>0.004668094466596443</v>
+        <v>0.004665011172526996</v>
       </c>
       <c r="I106">
-        <v>0.1789443837801954</v>
+        <v>0.1573800656724604</v>
       </c>
       <c r="J106">
-        <v>0.8190976013737793</v>
+        <v>0.8174662288502623</v>
       </c>
       <c r="K106">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="L106">
-        <v>3.43</v>
+        <v>3.4</v>
       </c>
       <c r="M106">
         <v>1.89</v>
@@ -6090,43 +6081,43 @@
         <v>0</v>
       </c>
       <c r="B107" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C107">
-        <v>1.732368893145465</v>
+        <v>1.703024477239647</v>
       </c>
       <c r="D107" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E107">
-        <v>1.574988827473004</v>
+        <v>1.566105185067714</v>
       </c>
       <c r="F107">
         <v>-1</v>
       </c>
       <c r="G107">
-        <v>0.005067631106854534</v>
+        <v>0.004836975522760354</v>
       </c>
       <c r="H107">
-        <v>0.004665011172526996</v>
+        <v>0.004473894814932287</v>
       </c>
       <c r="I107">
-        <v>0.1573800656724604</v>
+        <v>0.1369192921719335</v>
       </c>
       <c r="J107">
-        <v>0.8174662288502623</v>
+        <v>0.8077193416290479</v>
       </c>
       <c r="K107">
-        <v>2.04</v>
+        <v>1.94</v>
       </c>
       <c r="L107">
-        <v>3.4</v>
+        <v>3.27</v>
       </c>
       <c r="M107">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="N107">
-        <v>3.12</v>
+        <v>3.02</v>
       </c>
       <c r="O107">
         <v>1</v>
@@ -6137,52 +6128,52 @@
     </row>
     <row r="108" spans="1:16">
       <c r="A108" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B108" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C108">
-        <v>1.754194230856962</v>
+        <v>1.706762500295012</v>
       </c>
       <c r="D108" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E108">
-        <v>1.574988827473004</v>
+        <v>1.56957345388197</v>
       </c>
       <c r="F108">
         <v>-1</v>
       </c>
       <c r="G108">
-        <v>0.005105805769143037</v>
+        <v>0.004833237499704988</v>
       </c>
       <c r="H108">
-        <v>0.004665011172526996</v>
+        <v>0.004470426546118031</v>
       </c>
       <c r="I108">
-        <v>0.1792054033839581</v>
+        <v>0.1371890464130423</v>
       </c>
       <c r="J108">
-        <v>0.8174662288502623</v>
+        <v>0.8057925256211278</v>
       </c>
       <c r="K108">
-        <v>2.05</v>
+        <v>1.94</v>
       </c>
       <c r="L108">
-        <v>3.43</v>
+        <v>3.27</v>
       </c>
       <c r="M108">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="N108">
-        <v>3.12</v>
+        <v>3.02</v>
       </c>
       <c r="O108">
         <v>1</v>
       </c>
       <c r="P108" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -6193,28 +6184,28 @@
         <v>38</v>
       </c>
       <c r="C109">
-        <v>1.703024477239647</v>
+        <v>1.711603744119008</v>
       </c>
       <c r="D109" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E109">
-        <v>1.566105185067714</v>
+        <v>1.574065329594956</v>
       </c>
       <c r="F109">
         <v>-1</v>
       </c>
       <c r="G109">
-        <v>0.004836975522760354</v>
+        <v>0.004828396255880993</v>
       </c>
       <c r="H109">
-        <v>0.004473894814932287</v>
+        <v>0.004465934670405044</v>
       </c>
       <c r="I109">
-        <v>0.1369192921719335</v>
+        <v>0.1375384145240521</v>
       </c>
       <c r="J109">
-        <v>0.8077193416290479</v>
+        <v>0.8032970391139135</v>
       </c>
       <c r="K109">
         <v>1.94</v>
@@ -6232,7 +6223,7 @@
         <v>1</v>
       </c>
       <c r="P109" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -6240,49 +6231,49 @@
         <v>0</v>
       </c>
       <c r="B110" t="s">
+        <v>39</v>
+      </c>
+      <c r="C110">
+        <v>1.702699397711841</v>
+      </c>
+      <c r="D110" t="s">
+        <v>62</v>
+      </c>
+      <c r="E110">
+        <v>1.61665071206469</v>
+      </c>
+      <c r="F110">
+        <v>-1</v>
+      </c>
+      <c r="G110">
+        <v>0.004697300602288159</v>
+      </c>
+      <c r="H110">
+        <v>0.004723349287935309</v>
+      </c>
+      <c r="I110">
+        <v>0.08604868564715051</v>
+      </c>
+      <c r="J110">
+        <v>0.8006955092450049</v>
+      </c>
+      <c r="K110">
+        <v>1.87</v>
+      </c>
+      <c r="L110">
+        <v>3.2</v>
+      </c>
+      <c r="M110">
+        <v>1.94</v>
+      </c>
+      <c r="N110">
+        <v>3.17</v>
+      </c>
+      <c r="O110">
+        <v>1</v>
+      </c>
+      <c r="P110" t="s">
         <v>38</v>
-      </c>
-      <c r="C110">
-        <v>1.706762500295012</v>
-      </c>
-      <c r="D110" t="s">
-        <v>53</v>
-      </c>
-      <c r="E110">
-        <v>1.56957345388197</v>
-      </c>
-      <c r="F110">
-        <v>-1</v>
-      </c>
-      <c r="G110">
-        <v>0.004833237499704988</v>
-      </c>
-      <c r="H110">
-        <v>0.004470426546118031</v>
-      </c>
-      <c r="I110">
-        <v>0.1371890464130423</v>
-      </c>
-      <c r="J110">
-        <v>0.8057925256211278</v>
-      </c>
-      <c r="K110">
-        <v>1.94</v>
-      </c>
-      <c r="L110">
-        <v>3.27</v>
-      </c>
-      <c r="M110">
-        <v>1.8</v>
-      </c>
-      <c r="N110">
-        <v>3.02</v>
-      </c>
-      <c r="O110">
-        <v>1</v>
-      </c>
-      <c r="P110" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -6290,49 +6281,49 @@
         <v>0</v>
       </c>
       <c r="B111" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C111">
-        <v>1.711603744119008</v>
+        <v>1.706549065306413</v>
       </c>
       <c r="D111" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E111">
-        <v>1.574065329594956</v>
+        <v>1.620644484863337</v>
       </c>
       <c r="F111">
         <v>-1</v>
       </c>
       <c r="G111">
-        <v>0.004828396255880993</v>
+        <v>0.004693450934693588</v>
       </c>
       <c r="H111">
-        <v>0.004465934670405044</v>
+        <v>0.004719355515136662</v>
       </c>
       <c r="I111">
-        <v>0.1375384145240521</v>
+        <v>0.08590458044307536</v>
       </c>
       <c r="J111">
-        <v>0.8032970391139135</v>
+        <v>0.7986368634725065</v>
       </c>
       <c r="K111">
+        <v>1.87</v>
+      </c>
+      <c r="L111">
+        <v>3.2</v>
+      </c>
+      <c r="M111">
         <v>1.94</v>
       </c>
-      <c r="L111">
-        <v>3.27</v>
-      </c>
-      <c r="M111">
-        <v>1.8</v>
-      </c>
       <c r="N111">
-        <v>3.02</v>
+        <v>3.17</v>
       </c>
       <c r="O111">
         <v>1</v>
       </c>
       <c r="P111" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -6343,28 +6334,28 @@
         <v>39</v>
       </c>
       <c r="C112">
-        <v>1.702699397711841</v>
+        <v>1.715081561736875</v>
       </c>
       <c r="D112" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E112">
-        <v>1.638643756972241</v>
+        <v>1.629496379555902</v>
       </c>
       <c r="F112">
         <v>-1</v>
       </c>
       <c r="G112">
-        <v>0.004697300602288159</v>
+        <v>0.004684918438263125</v>
       </c>
       <c r="H112">
-        <v>0.00476135624302776</v>
+        <v>0.004710503620444098</v>
       </c>
       <c r="I112">
-        <v>0.06405564073960024</v>
+        <v>0.08558518218097277</v>
       </c>
       <c r="J112">
-        <v>0.8006955092450049</v>
+        <v>0.7940740311567515</v>
       </c>
       <c r="K112">
         <v>1.87</v>
@@ -6373,16 +6364,16 @@
         <v>3.2</v>
       </c>
       <c r="M112">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="N112">
-        <v>3.2</v>
+        <v>3.17</v>
       </c>
       <c r="O112">
         <v>1</v>
       </c>
       <c r="P112" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -6393,28 +6384,28 @@
         <v>39</v>
       </c>
       <c r="C113">
-        <v>1.706549065306413</v>
+        <v>1.724215665563157</v>
       </c>
       <c r="D113" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E113">
-        <v>1.642658116228612</v>
+        <v>1.638972401707232</v>
       </c>
       <c r="F113">
         <v>-1</v>
       </c>
       <c r="G113">
-        <v>0.004693450934693588</v>
+        <v>0.004675784334436843</v>
       </c>
       <c r="H113">
-        <v>0.004757341883771388</v>
+        <v>0.004701027598292767</v>
       </c>
       <c r="I113">
-        <v>0.06389094907780035</v>
+        <v>0.08524326385592484</v>
       </c>
       <c r="J113">
-        <v>0.7986368634725065</v>
+        <v>0.7891894836560657</v>
       </c>
       <c r="K113">
         <v>1.87</v>
@@ -6423,16 +6414,16 @@
         <v>3.2</v>
       </c>
       <c r="M113">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="N113">
-        <v>3.2</v>
+        <v>3.17</v>
       </c>
       <c r="O113">
         <v>1</v>
       </c>
       <c r="P113" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -6443,28 +6434,28 @@
         <v>39</v>
       </c>
       <c r="C114">
-        <v>1.715081561736875</v>
+        <v>1.726739382920171</v>
       </c>
       <c r="D114" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E114">
-        <v>1.651555639244335</v>
+        <v>1.64159058976745</v>
       </c>
       <c r="F114">
         <v>-1</v>
       </c>
       <c r="G114">
-        <v>0.004684918438263125</v>
+        <v>0.00467326061707983</v>
       </c>
       <c r="H114">
-        <v>0.004748444360755666</v>
+        <v>0.00469840941023255</v>
       </c>
       <c r="I114">
-        <v>0.06352592249253997</v>
+        <v>0.08514879315272106</v>
       </c>
       <c r="J114">
-        <v>0.7940740311567515</v>
+        <v>0.7878399021817268</v>
       </c>
       <c r="K114">
         <v>1.87</v>
@@ -6473,16 +6464,16 @@
         <v>3.2</v>
       </c>
       <c r="M114">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="N114">
-        <v>3.2</v>
+        <v>3.17</v>
       </c>
       <c r="O114">
         <v>1</v>
       </c>
       <c r="P114" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -6490,81 +6481,81 @@
         <v>0</v>
       </c>
       <c r="B115" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C115">
-        <v>1.724215665563157</v>
+        <v>1.708455604764484</v>
       </c>
       <c r="D115" t="s">
         <v>63</v>
       </c>
       <c r="E115">
-        <v>1.661080506870672</v>
+        <v>1.581191854101024</v>
       </c>
       <c r="F115">
         <v>-1</v>
       </c>
       <c r="G115">
-        <v>0.004675784334436843</v>
+        <v>0.004591544395235517</v>
       </c>
       <c r="H115">
-        <v>0.004738919493129328</v>
+        <v>0.004558808145898975</v>
       </c>
       <c r="I115">
-        <v>0.06313515869248509</v>
+        <v>0.1272637506634595</v>
       </c>
       <c r="J115">
-        <v>0.7891894836560657</v>
+        <v>0.7877291777243258</v>
       </c>
       <c r="K115">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="L115">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="M115">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="N115">
-        <v>3.2</v>
+        <v>3.07</v>
       </c>
       <c r="O115">
         <v>1</v>
       </c>
       <c r="P115" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="116" spans="1:16">
       <c r="A116" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B116" t="s">
         <v>39</v>
       </c>
       <c r="C116">
-        <v>1.726739382920171</v>
+        <v>1.726946437655511</v>
       </c>
       <c r="D116" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E116">
-        <v>1.663712190745633</v>
+        <v>1.641805395214808</v>
       </c>
       <c r="F116">
         <v>-1</v>
       </c>
       <c r="G116">
-        <v>0.00467326061707983</v>
+        <v>0.004673053562344489</v>
       </c>
       <c r="H116">
-        <v>0.004736287809254367</v>
+        <v>0.004698194604785192</v>
       </c>
       <c r="I116">
-        <v>0.063027192174538</v>
+        <v>0.08514104244070286</v>
       </c>
       <c r="J116">
-        <v>0.7878399021817268</v>
+        <v>0.7877291777243258</v>
       </c>
       <c r="K116">
         <v>1.87</v>
@@ -6573,10 +6564,10 @@
         <v>3.2</v>
       </c>
       <c r="M116">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="N116">
-        <v>3.2</v>
+        <v>3.17</v>
       </c>
       <c r="O116">
         <v>1</v>
@@ -6593,28 +6584,28 @@
         <v>40</v>
       </c>
       <c r="C117">
-        <v>1.708455604764484</v>
+        <v>1.709251767384038</v>
       </c>
       <c r="D117" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E117">
-        <v>1.581191854101024</v>
+        <v>1.582014120413023</v>
       </c>
       <c r="F117">
         <v>-1</v>
       </c>
       <c r="G117">
-        <v>0.004591544395235517</v>
+        <v>0.004590748232615962</v>
       </c>
       <c r="H117">
-        <v>0.004558808145898975</v>
+        <v>0.004557985879586977</v>
       </c>
       <c r="I117">
-        <v>0.1272637506634595</v>
+        <v>0.127237646971015</v>
       </c>
       <c r="J117">
-        <v>0.7877291777243258</v>
+        <v>0.7872941161835857</v>
       </c>
       <c r="K117">
         <v>1.83</v>
@@ -6643,28 +6634,28 @@
         <v>39</v>
       </c>
       <c r="C118">
-        <v>1.726946437655511</v>
+        <v>1.727760002736695</v>
       </c>
       <c r="D118" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E118">
-        <v>1.663928103437565</v>
+        <v>1.642649414603844</v>
       </c>
       <c r="F118">
         <v>-1</v>
       </c>
       <c r="G118">
-        <v>0.004673053562344489</v>
+        <v>0.004672239997263306</v>
       </c>
       <c r="H118">
-        <v>0.004736071896562436</v>
+        <v>0.004697350585396156</v>
       </c>
       <c r="I118">
-        <v>0.063018334217946</v>
+        <v>0.08511058813285111</v>
       </c>
       <c r="J118">
-        <v>0.7877291777243258</v>
+        <v>0.7872941161835857</v>
       </c>
       <c r="K118">
         <v>1.87</v>
@@ -6673,10 +6664,10 @@
         <v>3.2</v>
       </c>
       <c r="M118">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="N118">
-        <v>3.2</v>
+        <v>3.17</v>
       </c>
       <c r="O118">
         <v>1</v>
@@ -6693,28 +6684,28 @@
         <v>40</v>
       </c>
       <c r="C119">
-        <v>1.709251767384038</v>
+        <v>1.706716749552468</v>
       </c>
       <c r="D119" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E119">
-        <v>1.582014120413023</v>
+        <v>1.579395987242713</v>
       </c>
       <c r="F119">
         <v>-1</v>
       </c>
       <c r="G119">
-        <v>0.004590748232615962</v>
+        <v>0.004593283250447533</v>
       </c>
       <c r="H119">
-        <v>0.004557985879586977</v>
+        <v>0.004560604012757288</v>
       </c>
       <c r="I119">
-        <v>0.127237646971015</v>
+        <v>0.1273207623097552</v>
       </c>
       <c r="J119">
-        <v>0.7872941161835857</v>
+        <v>0.7886793718292525</v>
       </c>
       <c r="K119">
         <v>1.83</v>
@@ -6743,28 +6734,28 @@
         <v>39</v>
       </c>
       <c r="C120">
-        <v>1.727760002736695</v>
+        <v>1.725169574679298</v>
       </c>
       <c r="D120" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E120">
-        <v>1.664776473442008</v>
+        <v>1.63996201865125</v>
       </c>
       <c r="F120">
         <v>-1</v>
       </c>
       <c r="G120">
-        <v>0.004672239997263306</v>
+        <v>0.004674830425320703</v>
       </c>
       <c r="H120">
-        <v>0.004735223526557993</v>
+        <v>0.00470003798134875</v>
       </c>
       <c r="I120">
-        <v>0.06298352929468676</v>
+        <v>0.08520755602804786</v>
       </c>
       <c r="J120">
-        <v>0.7872941161835857</v>
+        <v>0.7886793718292525</v>
       </c>
       <c r="K120">
         <v>1.87</v>
@@ -6773,10 +6764,10 @@
         <v>3.2</v>
       </c>
       <c r="M120">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="N120">
-        <v>3.2</v>
+        <v>3.17</v>
       </c>
       <c r="O120">
         <v>1</v>
@@ -6790,43 +6781,43 @@
         <v>0</v>
       </c>
       <c r="B121" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C121">
-        <v>1.700943162115883</v>
+        <v>1.722799046842222</v>
       </c>
       <c r="D121" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E121">
-        <v>1.579395987242713</v>
+        <v>1.637502754478027</v>
       </c>
       <c r="F121">
         <v>-1</v>
       </c>
       <c r="G121">
-        <v>0.004619056837884117</v>
+        <v>0.004677200953157779</v>
       </c>
       <c r="H121">
-        <v>0.004560604012757288</v>
+        <v>0.004702497245521972</v>
       </c>
       <c r="I121">
-        <v>0.1215471748731702</v>
+        <v>0.08529629236419489</v>
       </c>
       <c r="J121">
-        <v>0.7886793718292525</v>
+        <v>0.7899470337742129</v>
       </c>
       <c r="K121">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="L121">
-        <v>3.16</v>
+        <v>3.2</v>
       </c>
       <c r="M121">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="N121">
-        <v>3.07</v>
+        <v>3.17</v>
       </c>
       <c r="O121">
         <v>1</v>
@@ -6837,34 +6828,34 @@
     </row>
     <row r="122" spans="1:16">
       <c r="A122" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B122" t="s">
         <v>39</v>
       </c>
       <c r="C122">
-        <v>1.725169574679298</v>
+        <v>1.721909002855845</v>
       </c>
       <c r="D122" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E122">
-        <v>1.662075224932958</v>
+        <v>1.63657939333708</v>
       </c>
       <c r="F122">
         <v>-1</v>
       </c>
       <c r="G122">
-        <v>0.004674830425320703</v>
+        <v>0.004678090997144155</v>
       </c>
       <c r="H122">
-        <v>0.004737924775067043</v>
+        <v>0.004703420606662919</v>
       </c>
       <c r="I122">
-        <v>0.06309434974634009</v>
+        <v>0.08532960951876523</v>
       </c>
       <c r="J122">
-        <v>0.7886793718292525</v>
+        <v>0.7904229931252164</v>
       </c>
       <c r="K122">
         <v>1.87</v>
@@ -6873,16 +6864,16 @@
         <v>3.2</v>
       </c>
       <c r="M122">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="N122">
-        <v>3.2</v>
+        <v>3.17</v>
       </c>
       <c r="O122">
         <v>1</v>
       </c>
       <c r="P122" t="s">
-        <v>116</v>
+        <v>40</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -6893,28 +6884,28 @@
         <v>39</v>
       </c>
       <c r="C123">
-        <v>1.722799046842222</v>
+        <v>1.720598225993867</v>
       </c>
       <c r="D123" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E123">
-        <v>1.659603284140285</v>
+        <v>1.635219549961551</v>
       </c>
       <c r="F123">
         <v>-1</v>
       </c>
       <c r="G123">
-        <v>0.004677200953157779</v>
+        <v>0.004679401774006134</v>
       </c>
       <c r="H123">
-        <v>0.004740396715859715</v>
+        <v>0.004704780450038449</v>
       </c>
       <c r="I123">
-        <v>0.06319576270193683</v>
+        <v>0.08537867603231541</v>
       </c>
       <c r="J123">
-        <v>0.7899470337742129</v>
+        <v>0.791123943318788</v>
       </c>
       <c r="K123">
         <v>1.87</v>
@@ -6923,16 +6914,16 @@
         <v>3.2</v>
       </c>
       <c r="M123">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="N123">
-        <v>3.2</v>
+        <v>3.17</v>
       </c>
       <c r="O123">
         <v>1</v>
       </c>
       <c r="P123" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -6940,40 +6931,40 @@
         <v>0</v>
       </c>
       <c r="B124" t="s">
+        <v>41</v>
+      </c>
+      <c r="C124">
+        <v>1.671620581307566</v>
+      </c>
+      <c r="D124" t="s">
         <v>39</v>
       </c>
-      <c r="C124">
-        <v>1.721909002855845</v>
-      </c>
-      <c r="D124" t="s">
-        <v>63</v>
-      </c>
       <c r="E124">
-        <v>1.658675163405828</v>
+        <v>1.728676249745893</v>
       </c>
       <c r="F124">
         <v>-1</v>
       </c>
       <c r="G124">
-        <v>0.004678090997144155</v>
+        <v>0.004488379418692434</v>
       </c>
       <c r="H124">
-        <v>0.004741324836594172</v>
+        <v>0.004671323750254107</v>
       </c>
       <c r="I124">
-        <v>0.06323383945001715</v>
+        <v>-0.05705566843832699</v>
       </c>
       <c r="J124">
-        <v>0.7904229931252164</v>
+        <v>0.7868041445209126</v>
       </c>
       <c r="K124">
+        <v>1.79</v>
+      </c>
+      <c r="L124">
+        <v>3.08</v>
+      </c>
+      <c r="M124">
         <v>1.87</v>
-      </c>
-      <c r="L124">
-        <v>3.2</v>
-      </c>
-      <c r="M124">
-        <v>1.95</v>
       </c>
       <c r="N124">
         <v>3.2</v>
@@ -6982,7 +6973,7 @@
         <v>1</v>
       </c>
       <c r="P124" t="s">
-        <v>40</v>
+        <v>118</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -6990,40 +6981,40 @@
         <v>0</v>
       </c>
       <c r="B125" t="s">
+        <v>41</v>
+      </c>
+      <c r="C125">
+        <v>1.674116133860681</v>
+      </c>
+      <c r="D125" t="s">
         <v>39</v>
       </c>
-      <c r="C125">
-        <v>1.720598225993867</v>
-      </c>
-      <c r="D125" t="s">
-        <v>63</v>
-      </c>
       <c r="E125">
-        <v>1.657308310528364</v>
+        <v>1.731283335374008</v>
       </c>
       <c r="F125">
         <v>-1</v>
       </c>
       <c r="G125">
-        <v>0.004679401774006134</v>
+        <v>0.004485883866139319</v>
       </c>
       <c r="H125">
-        <v>0.004742691689471637</v>
+        <v>0.004668716664625992</v>
       </c>
       <c r="I125">
-        <v>0.06328991546550289</v>
+        <v>-0.05716720151332666</v>
       </c>
       <c r="J125">
-        <v>0.791123943318788</v>
+        <v>0.7854099810834182</v>
       </c>
       <c r="K125">
+        <v>1.79</v>
+      </c>
+      <c r="L125">
+        <v>3.08</v>
+      </c>
+      <c r="M125">
         <v>1.87</v>
-      </c>
-      <c r="L125">
-        <v>3.2</v>
-      </c>
-      <c r="M125">
-        <v>1.95</v>
       </c>
       <c r="N125">
         <v>3.2</v>
@@ -7032,7 +7023,7 @@
         <v>1</v>
       </c>
       <c r="P125" t="s">
-        <v>117</v>
+        <v>63</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -7040,49 +7031,49 @@
         <v>0</v>
       </c>
       <c r="B126" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C126">
-        <v>1.67021344942318</v>
+        <v>1.745259534195844</v>
       </c>
       <c r="D126" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="E126">
-        <v>1.727206229285669</v>
+        <v>1.660804008737934</v>
       </c>
       <c r="F126">
         <v>-1</v>
       </c>
       <c r="G126">
-        <v>0.00448978655057682</v>
+        <v>0.004654740465804157</v>
       </c>
       <c r="H126">
-        <v>0.004672793770714332</v>
+        <v>0.004679195991262065</v>
       </c>
       <c r="I126">
-        <v>-0.05699277986248874</v>
+        <v>0.08445552545790957</v>
       </c>
       <c r="J126">
-        <v>0.7875902517188939</v>
+        <v>0.777936077970137</v>
       </c>
       <c r="K126">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="L126">
-        <v>3.08</v>
+        <v>3.2</v>
       </c>
       <c r="M126">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="N126">
-        <v>3.2</v>
+        <v>3.17</v>
       </c>
       <c r="O126">
         <v>1</v>
       </c>
       <c r="P126" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -7090,49 +7081,49 @@
         <v>0</v>
       </c>
       <c r="B127" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C127">
-        <v>1.671620581307566</v>
+        <v>1.746411489484559</v>
       </c>
       <c r="D127" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="E127">
-        <v>1.728676249745893</v>
+        <v>1.661999085347617</v>
       </c>
       <c r="F127">
         <v>-1</v>
       </c>
       <c r="G127">
-        <v>0.004488379418692434</v>
+        <v>0.004653588510515442</v>
       </c>
       <c r="H127">
-        <v>0.004671323750254107</v>
+        <v>0.004678000914652383</v>
       </c>
       <c r="I127">
-        <v>-0.05705566843832699</v>
+        <v>0.08441240413694184</v>
       </c>
       <c r="J127">
-        <v>0.7868041445209126</v>
+        <v>0.7773200590991663</v>
       </c>
       <c r="K127">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="L127">
-        <v>3.08</v>
+        <v>3.2</v>
       </c>
       <c r="M127">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="N127">
-        <v>3.2</v>
+        <v>3.17</v>
       </c>
       <c r="O127">
         <v>1</v>
       </c>
       <c r="P127" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -7140,49 +7131,49 @@
         <v>0</v>
       </c>
       <c r="B128" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C128">
-        <v>1.674116133860681</v>
+        <v>1.748527788884446</v>
       </c>
       <c r="D128" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="E128">
-        <v>1.731283335374008</v>
+        <v>1.664194604511136</v>
       </c>
       <c r="F128">
         <v>-1</v>
       </c>
       <c r="G128">
-        <v>0.004485883866139319</v>
+        <v>0.004651472211115554</v>
       </c>
       <c r="H128">
-        <v>0.004668716664625992</v>
+        <v>0.004675805395488864</v>
       </c>
       <c r="I128">
-        <v>-0.05716720151332666</v>
+        <v>0.08433318437330972</v>
       </c>
       <c r="J128">
-        <v>0.7854099810834182</v>
+        <v>0.7761883481901358</v>
       </c>
       <c r="K128">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="L128">
-        <v>3.08</v>
+        <v>3.2</v>
       </c>
       <c r="M128">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="N128">
-        <v>3.2</v>
+        <v>3.17</v>
       </c>
       <c r="O128">
         <v>1</v>
       </c>
       <c r="P128" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -7190,49 +7181,49 @@
         <v>0</v>
       </c>
       <c r="B129" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C129">
-        <v>1.677466171134621</v>
+        <v>1.750999132580348</v>
       </c>
       <c r="D129" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="E129">
-        <v>1.734783094984213</v>
+        <v>1.666758458398863</v>
       </c>
       <c r="F129">
         <v>-1</v>
       </c>
       <c r="G129">
-        <v>0.004482533828865379</v>
+        <v>0.004649000867419653</v>
       </c>
       <c r="H129">
-        <v>0.004665216905015787</v>
+        <v>0.004673241541601136</v>
       </c>
       <c r="I129">
-        <v>-0.05731692384959208</v>
+        <v>0.08424067418148429</v>
       </c>
       <c r="J129">
-        <v>0.7835384518800999</v>
+        <v>0.7748667740212044</v>
       </c>
       <c r="K129">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="L129">
-        <v>3.08</v>
+        <v>3.2</v>
       </c>
       <c r="M129">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="N129">
-        <v>3.2</v>
+        <v>3.17</v>
       </c>
       <c r="O129">
         <v>1</v>
       </c>
       <c r="P129" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -7240,49 +7231,49 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C130">
-        <v>1.678366684793693</v>
+        <v>1.753450334202255</v>
       </c>
       <c r="D130" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="E130">
-        <v>1.735723855063803</v>
+        <v>1.669301416231217</v>
       </c>
       <c r="F130">
         <v>-1</v>
       </c>
       <c r="G130">
-        <v>0.004481633315206307</v>
+        <v>0.004646549665797745</v>
       </c>
       <c r="H130">
-        <v>0.004664276144936198</v>
+        <v>0.004670698583768783</v>
       </c>
       <c r="I130">
-        <v>-0.05735717027010923</v>
+        <v>0.08414891797103863</v>
       </c>
       <c r="J130">
-        <v>0.783035371623635</v>
+        <v>0.7735559710148369</v>
       </c>
       <c r="K130">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="L130">
-        <v>3.08</v>
+        <v>3.2</v>
       </c>
       <c r="M130">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="N130">
-        <v>3.2</v>
+        <v>3.17</v>
       </c>
       <c r="O130">
         <v>1</v>
       </c>
       <c r="P130" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -7290,49 +7281,49 @@
         <v>0</v>
       </c>
       <c r="B131" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C131">
-        <v>1.679550874418332</v>
+        <v>1.754939802540862</v>
       </c>
       <c r="D131" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="E131">
-        <v>1.736960969364403</v>
+        <v>1.670846640069129</v>
       </c>
       <c r="F131">
         <v>-1</v>
       </c>
       <c r="G131">
-        <v>0.004480449125581668</v>
+        <v>0.004645060197459139</v>
       </c>
       <c r="H131">
-        <v>0.004663039030635597</v>
+        <v>0.00466915335993087</v>
       </c>
       <c r="I131">
-        <v>-0.05741009494607074</v>
+        <v>0.08409316247173271</v>
       </c>
       <c r="J131">
-        <v>0.7823738131741161</v>
+        <v>0.7727594638818923</v>
       </c>
       <c r="K131">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="L131">
-        <v>3.08</v>
+        <v>3.2</v>
       </c>
       <c r="M131">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="N131">
-        <v>3.2</v>
+        <v>3.17</v>
       </c>
       <c r="O131">
         <v>1</v>
       </c>
       <c r="P131" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="132" spans="1:16">
@@ -7343,28 +7334,28 @@
         <v>39</v>
       </c>
       <c r="C132">
-        <v>1.746411489484559</v>
+        <v>1.755568315849489</v>
       </c>
       <c r="D132" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E132">
-        <v>1.684225884756626</v>
+        <v>1.671498680613908</v>
       </c>
       <c r="F132">
         <v>-1</v>
       </c>
       <c r="G132">
-        <v>0.004653588510515442</v>
+        <v>0.004644431684150511</v>
       </c>
       <c r="H132">
-        <v>0.004715774115243375</v>
+        <v>0.004668501319386092</v>
       </c>
       <c r="I132">
-        <v>0.06218560472793322</v>
+        <v>0.08406963523558075</v>
       </c>
       <c r="J132">
-        <v>0.7773200590991663</v>
+        <v>0.7724233605082945</v>
       </c>
       <c r="K132">
         <v>1.87</v>
@@ -7373,16 +7364,16 @@
         <v>3.2</v>
       </c>
       <c r="M132">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="N132">
-        <v>3.2</v>
+        <v>3.17</v>
       </c>
       <c r="O132">
         <v>1</v>
       </c>
       <c r="P132" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="133" spans="1:16">
@@ -7393,28 +7384,28 @@
         <v>39</v>
       </c>
       <c r="C133">
-        <v>1.748527788884446</v>
+        <v>1.755871060200726</v>
       </c>
       <c r="D133" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E133">
-        <v>1.686432721029235</v>
+        <v>1.671812757641394</v>
       </c>
       <c r="F133">
         <v>-1</v>
       </c>
       <c r="G133">
-        <v>0.004651472211115554</v>
+        <v>0.004644128939799275</v>
       </c>
       <c r="H133">
-        <v>0.004713567278970765</v>
+        <v>0.004668187242358606</v>
       </c>
       <c r="I133">
-        <v>0.06209506785521079</v>
+        <v>0.08405830255933133</v>
       </c>
       <c r="J133">
-        <v>0.7761883481901358</v>
+        <v>0.7722614651333018</v>
       </c>
       <c r="K133">
         <v>1.87</v>
@@ -7423,16 +7414,16 @@
         <v>3.2</v>
       </c>
       <c r="M133">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="N133">
-        <v>3.2</v>
+        <v>3.17</v>
       </c>
       <c r="O133">
         <v>1</v>
       </c>
       <c r="P133" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -7443,28 +7434,28 @@
         <v>39</v>
       </c>
       <c r="C134">
-        <v>1.750999132580348</v>
+        <v>1.755021860709565</v>
       </c>
       <c r="D134" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E134">
-        <v>1.689009790658652</v>
+        <v>1.670931769933987</v>
       </c>
       <c r="F134">
         <v>-1</v>
       </c>
       <c r="G134">
-        <v>0.004649000867419653</v>
+        <v>0.004644978139290435</v>
       </c>
       <c r="H134">
-        <v>0.004710990209341349</v>
+        <v>0.004669068230066012</v>
       </c>
       <c r="I134">
-        <v>0.06198934192169614</v>
+        <v>0.08409009077557794</v>
       </c>
       <c r="J134">
-        <v>0.7748667740212044</v>
+        <v>0.772715582508254</v>
       </c>
       <c r="K134">
         <v>1.87</v>
@@ -7473,16 +7464,16 @@
         <v>3.2</v>
       </c>
       <c r="M134">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="N134">
-        <v>3.2</v>
+        <v>3.17</v>
       </c>
       <c r="O134">
         <v>1</v>
       </c>
       <c r="P134" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -7493,28 +7484,28 @@
         <v>39</v>
       </c>
       <c r="C135">
-        <v>1.753450334202255</v>
+        <v>1.753276827162878</v>
       </c>
       <c r="D135" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E135">
-        <v>1.691565856521068</v>
+        <v>1.669121414275927</v>
       </c>
       <c r="F135">
         <v>-1</v>
       </c>
       <c r="G135">
-        <v>0.004646549665797745</v>
+        <v>0.004646723172837122</v>
       </c>
       <c r="H135">
-        <v>0.004708434143478933</v>
+        <v>0.004670878585724072</v>
       </c>
       <c r="I135">
-        <v>0.06188447768118688</v>
+        <v>0.08415541288695105</v>
       </c>
       <c r="J135">
-        <v>0.7735559710148369</v>
+        <v>0.7736487555278725</v>
       </c>
       <c r="K135">
         <v>1.87</v>
@@ -7523,16 +7514,16 @@
         <v>3.2</v>
       </c>
       <c r="M135">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="N135">
-        <v>3.2</v>
+        <v>3.17</v>
       </c>
       <c r="O135">
         <v>1</v>
       </c>
       <c r="P135" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="136" spans="1:16">
@@ -7543,28 +7534,28 @@
         <v>39</v>
       </c>
       <c r="C136">
-        <v>1.754939802540862</v>
+        <v>1.751466054533885</v>
       </c>
       <c r="D136" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E136">
-        <v>1.69311904543031</v>
+        <v>1.667242858714298</v>
       </c>
       <c r="F136">
         <v>-1</v>
       </c>
       <c r="G136">
-        <v>0.004645060197459139</v>
+        <v>0.004648533945466115</v>
       </c>
       <c r="H136">
-        <v>0.00470688095456969</v>
+        <v>0.004672757141285702</v>
       </c>
       <c r="I136">
-        <v>0.06182075711055135</v>
+        <v>0.08422319581958737</v>
       </c>
       <c r="J136">
-        <v>0.7727594638818923</v>
+        <v>0.7746170831369599</v>
       </c>
       <c r="K136">
         <v>1.87</v>
@@ -7573,16 +7564,16 @@
         <v>3.2</v>
       </c>
       <c r="M136">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="N136">
-        <v>3.2</v>
+        <v>3.17</v>
       </c>
       <c r="O136">
         <v>1</v>
       </c>
       <c r="P136" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -7593,28 +7584,28 @@
         <v>39</v>
       </c>
       <c r="C137">
-        <v>1.755568315849489</v>
+        <v>1.748327094900906</v>
       </c>
       <c r="D137" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E137">
-        <v>1.693774447008826</v>
+        <v>1.663986397918586</v>
       </c>
       <c r="F137">
         <v>-1</v>
       </c>
       <c r="G137">
-        <v>0.004644431684150511</v>
+        <v>0.004651672905099095</v>
       </c>
       <c r="H137">
-        <v>0.004706225552991174</v>
+        <v>0.004676013602081413</v>
       </c>
       <c r="I137">
-        <v>0.0617938688406634</v>
+        <v>0.08434069698231927</v>
       </c>
       <c r="J137">
-        <v>0.7724233605082945</v>
+        <v>0.7762956711759863</v>
       </c>
       <c r="K137">
         <v>1.87</v>
@@ -7623,16 +7614,16 @@
         <v>3.2</v>
       </c>
       <c r="M137">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="N137">
-        <v>3.2</v>
+        <v>3.17</v>
       </c>
       <c r="O137">
         <v>1</v>
       </c>
       <c r="P137" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="138" spans="1:16">
@@ -7643,28 +7634,28 @@
         <v>39</v>
       </c>
       <c r="C138">
-        <v>1.755871060200726</v>
+        <v>1.745110555324242</v>
       </c>
       <c r="D138" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E138">
-        <v>1.694090142990062</v>
+        <v>1.660649453117128</v>
       </c>
       <c r="F138">
         <v>-1</v>
       </c>
       <c r="G138">
-        <v>0.004644128939799275</v>
+        <v>0.004654889444675759</v>
       </c>
       <c r="H138">
-        <v>0.004705909857009939</v>
+        <v>0.004679350546882872</v>
       </c>
       <c r="I138">
-        <v>0.06178091721066403</v>
+        <v>0.084461102207114</v>
       </c>
       <c r="J138">
-        <v>0.7722614651333018</v>
+        <v>0.7780157458159134</v>
       </c>
       <c r="K138">
         <v>1.87</v>
@@ -7673,16 +7664,16 @@
         <v>3.2</v>
       </c>
       <c r="M138">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="N138">
-        <v>3.2</v>
+        <v>3.17</v>
       </c>
       <c r="O138">
         <v>1</v>
       </c>
       <c r="P138" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="139" spans="1:16">
@@ -7693,28 +7684,28 @@
         <v>39</v>
       </c>
       <c r="C139">
-        <v>1.755021860709565</v>
+        <v>1.743382145937803</v>
       </c>
       <c r="D139" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E139">
-        <v>1.693204614108905</v>
+        <v>1.658856343914085</v>
       </c>
       <c r="F139">
         <v>-1</v>
       </c>
       <c r="G139">
-        <v>0.004644978139290435</v>
+        <v>0.004656617854062197</v>
       </c>
       <c r="H139">
-        <v>0.004706795385891096</v>
+        <v>0.004681143656085915</v>
       </c>
       <c r="I139">
-        <v>0.06181724660066013</v>
+        <v>0.08452580202371873</v>
       </c>
       <c r="J139">
-        <v>0.772715582508254</v>
+        <v>0.7789400289102656</v>
       </c>
       <c r="K139">
         <v>1.87</v>
@@ -7723,16 +7714,16 @@
         <v>3.2</v>
       </c>
       <c r="M139">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="N139">
-        <v>3.2</v>
+        <v>3.17</v>
       </c>
       <c r="O139">
         <v>1</v>
       </c>
       <c r="P139" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -7743,28 +7734,28 @@
         <v>39</v>
       </c>
       <c r="C140">
-        <v>1.753276827162878</v>
+        <v>1.7416544035055</v>
       </c>
       <c r="D140" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E140">
-        <v>1.691384926720649</v>
+        <v>1.657063926631375</v>
       </c>
       <c r="F140">
         <v>-1</v>
       </c>
       <c r="G140">
-        <v>0.004646723172837122</v>
+        <v>0.0046583455964945</v>
       </c>
       <c r="H140">
-        <v>0.004708615073279352</v>
+        <v>0.004682936073368625</v>
       </c>
       <c r="I140">
-        <v>0.06189190044222959</v>
+        <v>0.08459047687412569</v>
       </c>
       <c r="J140">
-        <v>0.7736487555278725</v>
+        <v>0.7798639553446522</v>
       </c>
       <c r="K140">
         <v>1.87</v>
@@ -7773,266 +7764,16 @@
         <v>3.2</v>
       </c>
       <c r="M140">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="N140">
-        <v>3.2</v>
+        <v>3.17</v>
       </c>
       <c r="O140">
         <v>1</v>
       </c>
       <c r="P140" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="141" spans="1:16">
-      <c r="A141" s="1">
-        <v>0</v>
-      </c>
-      <c r="B141" t="s">
-        <v>39</v>
-      </c>
-      <c r="C141">
-        <v>1.751466054533885</v>
-      </c>
-      <c r="D141" t="s">
-        <v>63</v>
-      </c>
-      <c r="E141">
-        <v>1.689496687882929</v>
-      </c>
-      <c r="F141">
-        <v>-1</v>
-      </c>
-      <c r="G141">
-        <v>0.004648533945466115</v>
-      </c>
-      <c r="H141">
-        <v>0.004710503312117072</v>
-      </c>
-      <c r="I141">
-        <v>0.06196936665095665</v>
-      </c>
-      <c r="J141">
-        <v>0.7746170831369599</v>
-      </c>
-      <c r="K141">
-        <v>1.87</v>
-      </c>
-      <c r="L141">
-        <v>3.2</v>
-      </c>
-      <c r="M141">
-        <v>1.95</v>
-      </c>
-      <c r="N141">
-        <v>3.2</v>
-      </c>
-      <c r="O141">
-        <v>1</v>
-      </c>
-      <c r="P141" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="142" spans="1:16">
-      <c r="A142" s="1">
-        <v>0</v>
-      </c>
-      <c r="B142" t="s">
-        <v>39</v>
-      </c>
-      <c r="C142">
-        <v>1.748327094900906</v>
-      </c>
-      <c r="D142" t="s">
-        <v>63</v>
-      </c>
-      <c r="E142">
-        <v>1.686223441206827</v>
-      </c>
-      <c r="F142">
-        <v>-1</v>
-      </c>
-      <c r="G142">
-        <v>0.004651672905099095</v>
-      </c>
-      <c r="H142">
-        <v>0.004713776558793173</v>
-      </c>
-      <c r="I142">
-        <v>0.06210365369407889</v>
-      </c>
-      <c r="J142">
-        <v>0.7762956711759863</v>
-      </c>
-      <c r="K142">
-        <v>1.87</v>
-      </c>
-      <c r="L142">
-        <v>3.2</v>
-      </c>
-      <c r="M142">
-        <v>1.95</v>
-      </c>
-      <c r="N142">
-        <v>3.2</v>
-      </c>
-      <c r="O142">
-        <v>1</v>
-      </c>
-      <c r="P142" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="143" spans="1:16">
-      <c r="A143" s="1">
-        <v>0</v>
-      </c>
-      <c r="B143" t="s">
-        <v>39</v>
-      </c>
-      <c r="C143">
-        <v>1.745110555324242</v>
-      </c>
-      <c r="D143" t="s">
-        <v>63</v>
-      </c>
-      <c r="E143">
-        <v>1.682869295658969</v>
-      </c>
-      <c r="F143">
-        <v>-1</v>
-      </c>
-      <c r="G143">
-        <v>0.004654889444675759</v>
-      </c>
-      <c r="H143">
-        <v>0.004717130704341031</v>
-      </c>
-      <c r="I143">
-        <v>0.06224125966527305</v>
-      </c>
-      <c r="J143">
-        <v>0.7780157458159134</v>
-      </c>
-      <c r="K143">
-        <v>1.87</v>
-      </c>
-      <c r="L143">
-        <v>3.2</v>
-      </c>
-      <c r="M143">
-        <v>1.95</v>
-      </c>
-      <c r="N143">
-        <v>3.2</v>
-      </c>
-      <c r="O143">
-        <v>1</v>
-      </c>
-      <c r="P143" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="144" spans="1:16">
-      <c r="A144" s="1">
-        <v>0</v>
-      </c>
-      <c r="B144" t="s">
-        <v>39</v>
-      </c>
-      <c r="C144">
-        <v>1.743382145937803</v>
-      </c>
-      <c r="D144" t="s">
-        <v>63</v>
-      </c>
-      <c r="E144">
-        <v>1.681066943624982</v>
-      </c>
-      <c r="F144">
-        <v>-1</v>
-      </c>
-      <c r="G144">
-        <v>0.004656617854062197</v>
-      </c>
-      <c r="H144">
-        <v>0.004718933056375018</v>
-      </c>
-      <c r="I144">
-        <v>0.06231520231282106</v>
-      </c>
-      <c r="J144">
-        <v>0.7789400289102656</v>
-      </c>
-      <c r="K144">
-        <v>1.87</v>
-      </c>
-      <c r="L144">
-        <v>3.2</v>
-      </c>
-      <c r="M144">
-        <v>1.95</v>
-      </c>
-      <c r="N144">
-        <v>3.2</v>
-      </c>
-      <c r="O144">
-        <v>1</v>
-      </c>
-      <c r="P144" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="145" spans="1:16">
-      <c r="A145" s="1">
-        <v>0</v>
-      </c>
-      <c r="B145" t="s">
-        <v>39</v>
-      </c>
-      <c r="C145">
-        <v>1.7416544035055</v>
-      </c>
-      <c r="D145" t="s">
-        <v>63</v>
-      </c>
-      <c r="E145">
-        <v>1.679265287077928</v>
-      </c>
-      <c r="F145">
-        <v>-1</v>
-      </c>
-      <c r="G145">
-        <v>0.0046583455964945</v>
-      </c>
-      <c r="H145">
-        <v>0.004720734712922072</v>
-      </c>
-      <c r="I145">
-        <v>0.06238911642757206</v>
-      </c>
-      <c r="J145">
-        <v>0.7798639553446522</v>
-      </c>
-      <c r="K145">
-        <v>1.87</v>
-      </c>
-      <c r="L145">
-        <v>3.2</v>
-      </c>
-      <c r="M145">
-        <v>1.95</v>
-      </c>
-      <c r="N145">
-        <v>3.2</v>
-      </c>
-      <c r="O145">
-        <v>1</v>
-      </c>
-      <c r="P145" t="s">
-        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/s60_signal/position-01618-601618.xlsx
+++ b/s60_signal/position-01618-601618.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="136">
   <si>
     <t>trade_time</t>
   </si>
@@ -139,9 +139,6 @@
     <t>2021-05-17</t>
   </si>
   <si>
-    <t>2021-07-09</t>
-  </si>
-  <si>
     <t>2016-12-30</t>
   </si>
   <si>
@@ -202,7 +199,7 @@
     <t>2021-05-06</t>
   </si>
   <si>
-    <t>2021-07-14</t>
+    <t>2021-07-15</t>
   </si>
   <si>
     <t>2021-05-28</t>
@@ -340,6 +337,9 @@
     <t>2021-04-14</t>
   </si>
   <si>
+    <t>2021-04-23</t>
+  </si>
+  <si>
     <t>2021-04-26</t>
   </si>
   <si>
@@ -370,7 +370,10 @@
     <t>2021-05-18</t>
   </si>
   <si>
-    <t>2021-05-27</t>
+    <t>2021-06-07</t>
+  </si>
+  <si>
+    <t>2021-06-08</t>
   </si>
   <si>
     <t>2021-06-09</t>
@@ -416,6 +419,9 @@
   </si>
   <si>
     <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-07-02</t>
   </si>
 </sst>
 </file>
@@ -773,7 +779,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P140"/>
+  <dimension ref="A1:P141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -837,7 +843,7 @@
         <v>2.241636620202809</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E2">
         <v>2.083673377356266</v>
@@ -873,7 +879,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -887,7 +893,7 @@
         <v>2.291018963074085</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3">
         <v>2.748932188801797</v>
@@ -923,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -937,7 +943,7 @@
         <v>0.1640886968569069</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4">
         <v>0.8087275807852619</v>
@@ -973,7 +979,7 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -987,7 +993,7 @@
         <v>0.1567937244930127</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5">
         <v>0.8087275807852619</v>
@@ -1023,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1037,7 +1043,7 @@
         <v>0.06008199184724816</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6">
         <v>0.7118353409391309</v>
@@ -1073,7 +1079,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1087,7 +1093,7 @@
         <v>0.05109309920632388</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7">
         <v>0.7118353409391309</v>
@@ -1123,7 +1129,7 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1137,7 +1143,7 @@
         <v>-0.0569506423664734</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8">
         <v>0.6028081963621785</v>
@@ -1173,7 +1179,7 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1187,7 +1193,7 @@
         <v>-0.06784560396853312</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>0.6028081963621785</v>
@@ -1223,7 +1229,7 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1237,7 +1243,7 @@
         <v>-0.1396452470657845</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10">
         <v>0.5257702258605397</v>
@@ -1273,7 +1279,7 @@
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1287,7 +1293,7 @@
         <v>-0.1518870263339567</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11">
         <v>0.5257702258605397</v>
@@ -1323,7 +1329,7 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1337,7 +1343,7 @@
         <v>-0.2479133877986754</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12">
         <v>0.424908049151723</v>
@@ -1373,7 +1379,7 @@
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1387,7 +1393,7 @@
         <v>-0.2619184918344848</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13">
         <v>0.424908049151723</v>
@@ -1423,7 +1429,7 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1437,7 +1443,7 @@
         <v>-0.3399965939203824</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E14">
         <v>0.3391236942630966</v>
@@ -1473,7 +1479,7 @@
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1487,7 +1493,7 @@
         <v>0.9756011105228968</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E15">
         <v>0.8107654111102569</v>
@@ -1523,7 +1529,7 @@
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1537,7 +1543,7 @@
         <v>1.301145679016073</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E16">
         <v>1.173416666670367</v>
@@ -1573,7 +1579,7 @@
         <v>1</v>
       </c>
       <c r="P16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1587,7 +1593,7 @@
         <v>1.296277364845049</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E17">
         <v>1.230890933009092</v>
@@ -1623,7 +1629,7 @@
         <v>1</v>
       </c>
       <c r="P17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1637,7 +1643,7 @@
         <v>0.4435035626339812</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E18">
         <v>0.9439906537348826</v>
@@ -1673,7 +1679,7 @@
         <v>1</v>
       </c>
       <c r="P18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1687,7 +1693,7 @@
         <v>0.4423533289773536</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E19">
         <v>0.9439906537348826</v>
@@ -1723,7 +1729,7 @@
         <v>1</v>
       </c>
       <c r="P19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1737,7 +1743,7 @@
         <v>1.507350128118183</v>
       </c>
       <c r="D20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E20">
         <v>1.202821457299868</v>
@@ -1773,7 +1779,7 @@
         <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1787,7 +1793,7 @@
         <v>1.54125697476493</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E21">
         <v>1.238224194239853</v>
@@ -1823,7 +1829,7 @@
         <v>1</v>
       </c>
       <c r="P21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1837,7 +1843,7 @@
         <v>1.573438797246031</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E22">
         <v>1.271825803006885</v>
@@ -1873,7 +1879,7 @@
         <v>1</v>
       </c>
       <c r="P22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1887,7 +1893,7 @@
         <v>1.613400857289038</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E23">
         <v>1.313550895110613</v>
@@ -1923,7 +1929,7 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1937,7 +1943,7 @@
         <v>1.593400857289038</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E24">
         <v>1.363275825771058</v>
@@ -1973,7 +1979,7 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1987,7 +1993,7 @@
         <v>1.645344720184119</v>
       </c>
       <c r="D25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E25">
         <v>1.346904046074595</v>
@@ -2023,7 +2029,7 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2037,7 +2043,7 @@
         <v>1.625344720184119</v>
       </c>
       <c r="D26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E26">
         <v>1.394045281942056</v>
@@ -2073,7 +2079,7 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2087,7 +2093,7 @@
         <v>1.68180858461344</v>
       </c>
       <c r="D27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E27">
         <v>1.384976610405209</v>
@@ -2123,7 +2129,7 @@
         <v>1</v>
       </c>
       <c r="P27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2137,7 +2143,7 @@
         <v>1.66180858461344</v>
       </c>
       <c r="D28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E28">
         <v>1.429168563120298</v>
@@ -2173,7 +2179,7 @@
         <v>1</v>
       </c>
       <c r="P28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2187,7 +2193,7 @@
         <v>1.710614904938503</v>
       </c>
       <c r="D29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E29">
         <v>1.415053797803437</v>
@@ -2223,7 +2229,7 @@
         <v>1</v>
       </c>
       <c r="P29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2237,7 +2243,7 @@
         <v>1.690614904938503</v>
       </c>
       <c r="D30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E30">
         <v>1.456915827551058</v>
@@ -2273,7 +2279,7 @@
         <v>1</v>
       </c>
       <c r="P30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2287,7 +2293,7 @@
         <v>2.268334662646267</v>
       </c>
       <c r="D31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E31">
         <v>2.649848972127444</v>
@@ -2323,7 +2329,7 @@
         <v>1</v>
       </c>
       <c r="P31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2337,7 +2343,7 @@
         <v>2.967686812279704</v>
       </c>
       <c r="D32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E32">
         <v>2.56427663569716</v>
@@ -2373,7 +2379,7 @@
         <v>1</v>
       </c>
       <c r="P32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2387,7 +2393,7 @@
         <v>2.94857711339348</v>
       </c>
       <c r="D33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E33">
         <v>2.56427663569716</v>
@@ -2423,7 +2429,7 @@
         <v>1</v>
       </c>
       <c r="P33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2437,7 +2443,7 @@
         <v>2.936045316925131</v>
       </c>
       <c r="D34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E34">
         <v>2.56427663569716</v>
@@ -2473,7 +2479,7 @@
         <v>1</v>
       </c>
       <c r="P34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2481,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C35">
-        <v>2.269323006316983</v>
+        <v>2.276798754456807</v>
       </c>
       <c r="D35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E35">
         <v>2.651071198651537</v>
@@ -2496,22 +2502,22 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0.002930676993683017</v>
+        <v>0.002943201245543193</v>
       </c>
       <c r="H35">
         <v>0.003468928801348464</v>
       </c>
       <c r="I35">
-        <v>0.3817481923345531</v>
+        <v>0.3742724441947294</v>
       </c>
       <c r="J35">
         <v>0.2524251860175702</v>
       </c>
       <c r="K35">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="L35">
-        <v>2.6</v>
+        <v>2.61</v>
       </c>
       <c r="M35">
         <v>1.62</v>
@@ -2523,7 +2529,7 @@
         <v>1</v>
       </c>
       <c r="P35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2531,40 +2537,40 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C36">
-        <v>2.969422072159588</v>
+        <v>2.269323006316983</v>
       </c>
       <c r="D36" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E36">
-        <v>2.603110413308198</v>
+        <v>2.651071198651537</v>
       </c>
       <c r="F36">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>0.004130577927840411</v>
+        <v>0.002930676993683017</v>
       </c>
       <c r="H36">
-        <v>0.003516889586691802</v>
+        <v>0.003468928801348464</v>
       </c>
       <c r="I36">
-        <v>0.3663116588513904</v>
+        <v>0.3817481923345531</v>
       </c>
       <c r="J36">
         <v>0.2524251860175702</v>
       </c>
       <c r="K36">
-        <v>2.3</v>
+        <v>1.31</v>
       </c>
       <c r="L36">
-        <v>3.55</v>
+        <v>2.6</v>
       </c>
       <c r="M36">
-        <v>1.81</v>
+        <v>1.62</v>
       </c>
       <c r="N36">
         <v>3.06</v>
@@ -2573,7 +2579,7 @@
         <v>1</v>
       </c>
       <c r="P36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2581,13 +2587,13 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C37">
-        <v>2.950101124244508</v>
+        <v>2.969422072159588</v>
       </c>
       <c r="D37" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E37">
         <v>2.603110413308198</v>
@@ -2596,22 +2602,22 @@
         <v>-1</v>
       </c>
       <c r="G37">
-        <v>0.003969898875755492</v>
+        <v>0.004130577927840411</v>
       </c>
       <c r="H37">
         <v>0.003516889586691802</v>
       </c>
       <c r="I37">
-        <v>0.3469907109363102</v>
+        <v>0.3663116588513904</v>
       </c>
       <c r="J37">
         <v>0.2524251860175702</v>
       </c>
       <c r="K37">
-        <v>2.02</v>
+        <v>2.3</v>
       </c>
       <c r="L37">
-        <v>3.46</v>
+        <v>3.55</v>
       </c>
       <c r="M37">
         <v>1.81</v>
@@ -2623,7 +2629,7 @@
         <v>1</v>
       </c>
       <c r="P37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2631,13 +2637,13 @@
         <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C38">
-        <v>2.937576872384333</v>
+        <v>2.950101124244508</v>
       </c>
       <c r="D38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E38">
         <v>2.603110413308198</v>
@@ -2646,22 +2652,22 @@
         <v>-1</v>
       </c>
       <c r="G38">
-        <v>0.003962423127615668</v>
+        <v>0.003969898875755492</v>
       </c>
       <c r="H38">
         <v>0.003516889586691802</v>
       </c>
       <c r="I38">
-        <v>0.3344664590761348</v>
+        <v>0.3469907109363102</v>
       </c>
       <c r="J38">
         <v>0.2524251860175702</v>
       </c>
       <c r="K38">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="L38">
-        <v>3.45</v>
+        <v>3.46</v>
       </c>
       <c r="M38">
         <v>1.81</v>
@@ -2673,48 +2679,48 @@
         <v>1</v>
       </c>
       <c r="P38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C39">
-        <v>2.277619541489629</v>
+        <v>2.937576872384333</v>
       </c>
       <c r="D39" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E39">
-        <v>2.652078528191817</v>
+        <v>2.603110413308198</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G39">
-        <v>0.002942380458510371</v>
+        <v>0.003962423127615668</v>
       </c>
       <c r="H39">
-        <v>0.003467921471808183</v>
+        <v>0.003516889586691802</v>
       </c>
       <c r="I39">
-        <v>0.3744589867021886</v>
+        <v>0.3344664590761348</v>
       </c>
       <c r="J39">
-        <v>0.2518033776593721</v>
+        <v>0.2524251860175702</v>
       </c>
       <c r="K39">
-        <v>1.32</v>
+        <v>2.03</v>
       </c>
       <c r="L39">
-        <v>2.61</v>
+        <v>3.45</v>
       </c>
       <c r="M39">
-        <v>1.62</v>
+        <v>1.81</v>
       </c>
       <c r="N39">
         <v>3.06</v>
@@ -2723,21 +2729,21 @@
         <v>1</v>
       </c>
       <c r="P39" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C40">
-        <v>2.270137575266223</v>
+        <v>2.277619541489629</v>
       </c>
       <c r="D40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E40">
         <v>2.652078528191817</v>
@@ -2746,22 +2752,22 @@
         <v>1</v>
       </c>
       <c r="G40">
-        <v>0.002929862424733777</v>
+        <v>0.002942380458510371</v>
       </c>
       <c r="H40">
         <v>0.003467921471808183</v>
       </c>
       <c r="I40">
-        <v>0.3819409529255946</v>
+        <v>0.3744589867021886</v>
       </c>
       <c r="J40">
         <v>0.2518033776593721</v>
       </c>
       <c r="K40">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="L40">
-        <v>2.6</v>
+        <v>2.61</v>
       </c>
       <c r="M40">
         <v>1.62</v>
@@ -2773,12 +2779,12 @@
         <v>1</v>
       </c>
       <c r="P40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B41" t="s">
         <v>24</v>
@@ -2787,7 +2793,7 @@
         <v>2.970852231383444</v>
       </c>
       <c r="D41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E41">
         <v>2.604235886436537</v>
@@ -2823,12 +2829,12 @@
         <v>1</v>
       </c>
       <c r="P41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B42" t="s">
         <v>25</v>
@@ -2837,7 +2843,7 @@
         <v>2.951357177128068</v>
       </c>
       <c r="D42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E42">
         <v>2.604235886436537</v>
@@ -2873,12 +2879,12 @@
         <v>1</v>
       </c>
       <c r="P42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B43" t="s">
         <v>26</v>
@@ -2887,7 +2893,7 @@
         <v>2.938839143351475</v>
       </c>
       <c r="D43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E43">
         <v>2.604235886436537</v>
@@ -2923,7 +2929,7 @@
         <v>1</v>
       </c>
       <c r="P43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2937,7 +2943,7 @@
         <v>2.2742064249631</v>
       </c>
       <c r="D44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E44">
         <v>2.647889703363805</v>
@@ -2973,7 +2979,7 @@
         <v>1</v>
       </c>
       <c r="P44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2987,7 +2993,7 @@
         <v>2.964905134405401</v>
       </c>
       <c r="D45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E45">
         <v>2.599555779684251</v>
@@ -3023,7 +3029,7 @@
         <v>1</v>
       </c>
       <c r="P45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3037,7 +3043,7 @@
         <v>2.946134074564744</v>
       </c>
       <c r="D46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E46">
         <v>2.599555779684251</v>
@@ -3073,7 +3079,7 @@
         <v>1</v>
       </c>
       <c r="P46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3087,7 +3093,7 @@
         <v>2.933590183844768</v>
       </c>
       <c r="D47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E47">
         <v>2.599555779684251</v>
@@ -3123,7 +3129,7 @@
         <v>1</v>
       </c>
       <c r="P47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3137,7 +3143,7 @@
         <v>1.990887286527514</v>
       </c>
       <c r="D48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E48">
         <v>2.306746110056926</v>
@@ -3187,7 +3193,7 @@
         <v>2.492796963946868</v>
       </c>
       <c r="D49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E49">
         <v>2.222096394686907</v>
@@ -3237,7 +3243,7 @@
         <v>2.502796963946869</v>
       </c>
       <c r="D50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E50">
         <v>2.222096394686907</v>
@@ -3287,7 +3293,7 @@
         <v>2.504006072106261</v>
       </c>
       <c r="D51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E51">
         <v>2.229102087286527</v>
@@ -3337,7 +3343,7 @@
         <v>2.506107779886148</v>
       </c>
       <c r="D52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E52">
         <v>2.229102087286527</v>
@@ -3387,7 +3393,7 @@
         <v>1.934694011032936</v>
       </c>
       <c r="D53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E53">
         <v>2.167884562588337</v>
@@ -3423,7 +3429,7 @@
         <v>1</v>
       </c>
       <c r="P53" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3437,7 +3443,7 @@
         <v>2.422019174201789</v>
       </c>
       <c r="D54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E54">
         <v>2.152176517544798</v>
@@ -3473,7 +3479,7 @@
         <v>1</v>
       </c>
       <c r="P54" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -3487,7 +3493,7 @@
         <v>2.394108322356129</v>
       </c>
       <c r="D55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E55">
         <v>2.150603084114712</v>
@@ -3523,7 +3529,7 @@
         <v>1</v>
       </c>
       <c r="P55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -3537,7 +3543,7 @@
         <v>2.419029650684626</v>
       </c>
       <c r="D56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E56">
         <v>2.150603084114712</v>
@@ -3573,7 +3579,7 @@
         <v>1</v>
       </c>
       <c r="P56" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -3587,7 +3593,7 @@
         <v>2.361811863714594</v>
       </c>
       <c r="D57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E57">
         <v>2.092698992639265</v>
@@ -3637,7 +3643,7 @@
         <v>2.32039997860817</v>
       </c>
       <c r="D58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E58">
         <v>2.08382770339255</v>
@@ -3687,7 +3693,7 @@
         <v>2.344956414145834</v>
       </c>
       <c r="D59" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E59">
         <v>2.08382770339255</v>
@@ -3737,7 +3743,7 @@
         <v>2.284943445032334</v>
       </c>
       <c r="D60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E60">
         <v>2.016762312365275</v>
@@ -3773,7 +3779,7 @@
         <v>1</v>
       </c>
       <c r="P60" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -3787,7 +3793,7 @@
         <v>2.226294399372918</v>
       </c>
       <c r="D61" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E61">
         <v>1.998573639035861</v>
@@ -3823,7 +3829,7 @@
         <v>1</v>
       </c>
       <c r="P61" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -3837,7 +3843,7 @@
         <v>2.250384965706448</v>
       </c>
       <c r="D62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E62">
         <v>1.998573639035861</v>
@@ -3873,7 +3879,7 @@
         <v>1</v>
       </c>
       <c r="P62" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -3887,7 +3893,7 @@
         <v>2.206392009113778</v>
       </c>
       <c r="D63" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E63">
         <v>1.894705026964186</v>
@@ -3923,7 +3929,7 @@
         <v>1</v>
       </c>
       <c r="P63" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -3937,7 +3943,7 @@
         <v>2.130128399036261</v>
       </c>
       <c r="D64" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E64">
         <v>1.911452955562554</v>
@@ -3973,7 +3979,7 @@
         <v>1</v>
       </c>
       <c r="P64" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -3987,7 +3993,7 @@
         <v>2.153742896061194</v>
       </c>
       <c r="D65" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E65">
         <v>1.911452955562554</v>
@@ -4023,7 +4029,7 @@
         <v>1</v>
       </c>
       <c r="P65" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4031,49 +4037,49 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C66">
-        <v>2.122703049542399</v>
+        <v>2.062136368241531</v>
       </c>
       <c r="D66" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="E66">
-        <v>2.1327030495424</v>
+        <v>1.818634291310661</v>
       </c>
       <c r="F66">
         <v>-1</v>
       </c>
       <c r="G66">
-        <v>0.004397296950457601</v>
+        <v>0.004777863631758469</v>
       </c>
       <c r="H66">
-        <v>0.0044072969504576</v>
+        <v>0.004341365708689339</v>
       </c>
       <c r="I66">
-        <v>-0.01000000000000068</v>
+        <v>0.24350207693087</v>
       </c>
       <c r="J66">
         <v>0.6892708790652124</v>
       </c>
       <c r="K66">
-        <v>1.65</v>
+        <v>1.97</v>
       </c>
       <c r="L66">
-        <v>3.26</v>
+        <v>3.42</v>
       </c>
       <c r="M66">
-        <v>1.65</v>
+        <v>1.83</v>
       </c>
       <c r="N66">
-        <v>3.27</v>
+        <v>3.08</v>
       </c>
       <c r="O66">
         <v>1</v>
       </c>
       <c r="P66" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4081,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C67">
-        <v>2.062136368241531</v>
+        <v>2.050780115497619</v>
       </c>
       <c r="D67" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E67">
         <v>1.818634291310661</v>
@@ -4096,22 +4102,22 @@
         <v>-1</v>
       </c>
       <c r="G67">
-        <v>0.004777863631758469</v>
+        <v>0.004849219884502381</v>
       </c>
       <c r="H67">
         <v>0.004341365708689339</v>
       </c>
       <c r="I67">
-        <v>0.24350207693087</v>
+        <v>0.2321458241869578</v>
       </c>
       <c r="J67">
         <v>0.6892708790652124</v>
       </c>
       <c r="K67">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="L67">
-        <v>3.42</v>
+        <v>3.45</v>
       </c>
       <c r="M67">
         <v>1.83</v>
@@ -4123,45 +4129,45 @@
         <v>1</v>
       </c>
       <c r="P67" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="1:16">
       <c r="A68" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B68" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C68">
-        <v>2.050780115497619</v>
+        <v>1.960646887966805</v>
       </c>
       <c r="D68" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E68">
-        <v>1.818634291310661</v>
+        <v>1.724357261410788</v>
       </c>
       <c r="F68">
         <v>-1</v>
       </c>
       <c r="G68">
-        <v>0.004849219884502381</v>
+        <v>0.004879353112033196</v>
       </c>
       <c r="H68">
-        <v>0.004341365708689339</v>
+        <v>0.004435642738589212</v>
       </c>
       <c r="I68">
-        <v>0.2321458241869578</v>
+        <v>0.2362896265560166</v>
       </c>
       <c r="J68">
-        <v>0.6892708790652124</v>
+        <v>0.7407883817427386</v>
       </c>
       <c r="K68">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="L68">
-        <v>3.45</v>
+        <v>3.42</v>
       </c>
       <c r="M68">
         <v>1.83</v>
@@ -4178,16 +4184,16 @@
     </row>
     <row r="69" spans="1:16">
       <c r="A69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B69" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C69">
-        <v>1.960646887966805</v>
+        <v>1.946199585062241</v>
       </c>
       <c r="D69" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E69">
         <v>1.724357261410788</v>
@@ -4196,22 +4202,22 @@
         <v>-1</v>
       </c>
       <c r="G69">
-        <v>0.004879353112033196</v>
+        <v>0.00495380041493776</v>
       </c>
       <c r="H69">
         <v>0.004435642738589212</v>
       </c>
       <c r="I69">
-        <v>0.2362896265560166</v>
+        <v>0.2218423236514526</v>
       </c>
       <c r="J69">
         <v>0.7407883817427386</v>
       </c>
       <c r="K69">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="L69">
-        <v>3.42</v>
+        <v>3.45</v>
       </c>
       <c r="M69">
         <v>1.83</v>
@@ -4223,45 +4229,45 @@
         <v>1</v>
       </c>
       <c r="P69" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="70" spans="1:16">
       <c r="A70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B70" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C70">
-        <v>1.946199585062241</v>
+        <v>1.843540306843175</v>
       </c>
       <c r="D70" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E70">
-        <v>1.724357261410788</v>
+        <v>1.615572975392391</v>
       </c>
       <c r="F70">
         <v>-1</v>
       </c>
       <c r="G70">
-        <v>0.00495380041493776</v>
+        <v>0.004996459693156825</v>
       </c>
       <c r="H70">
-        <v>0.004435642738589212</v>
+        <v>0.00454442702460761</v>
       </c>
       <c r="I70">
-        <v>0.2218423236514526</v>
+        <v>0.227967331450784</v>
       </c>
       <c r="J70">
-        <v>0.7407883817427386</v>
+        <v>0.8002333467801142</v>
       </c>
       <c r="K70">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="L70">
-        <v>3.45</v>
+        <v>3.42</v>
       </c>
       <c r="M70">
         <v>1.83</v>
@@ -4278,16 +4284,16 @@
     </row>
     <row r="71" spans="1:16">
       <c r="A71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B71" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C71">
-        <v>1.843540306843175</v>
+        <v>1.825526306036369</v>
       </c>
       <c r="D71" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E71">
         <v>1.615572975392391</v>
@@ -4296,22 +4302,22 @@
         <v>-1</v>
       </c>
       <c r="G71">
-        <v>0.004996459693156825</v>
+        <v>0.005074473693963632</v>
       </c>
       <c r="H71">
         <v>0.00454442702460761</v>
       </c>
       <c r="I71">
-        <v>0.227967331450784</v>
+        <v>0.2099533306439776</v>
       </c>
       <c r="J71">
         <v>0.8002333467801142</v>
       </c>
       <c r="K71">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="L71">
-        <v>3.42</v>
+        <v>3.45</v>
       </c>
       <c r="M71">
         <v>1.83</v>
@@ -4323,51 +4329,51 @@
         <v>1</v>
       </c>
       <c r="P71" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:16">
       <c r="A72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B72" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C72">
-        <v>1.825526306036369</v>
+        <v>1.364830842322013</v>
       </c>
       <c r="D72" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E72">
-        <v>1.615572975392391</v>
+        <v>1.554057700011381</v>
       </c>
       <c r="F72">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G72">
-        <v>0.005074473693963632</v>
+        <v>0.005255169157677987</v>
       </c>
       <c r="H72">
-        <v>0.00454442702460761</v>
+        <v>0.004645942299988619</v>
       </c>
       <c r="I72">
-        <v>0.2099533306439776</v>
+        <v>0.1892268576893685</v>
       </c>
       <c r="J72">
-        <v>0.8002333467801142</v>
+        <v>0.8494188461475927</v>
       </c>
       <c r="K72">
-        <v>2.03</v>
+        <v>2.29</v>
       </c>
       <c r="L72">
-        <v>3.45</v>
+        <v>3.31</v>
       </c>
       <c r="M72">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="N72">
-        <v>3.08</v>
+        <v>3.1</v>
       </c>
       <c r="O72">
         <v>1</v>
@@ -4378,96 +4384,96 @@
     </row>
     <row r="73" spans="1:16">
       <c r="A73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B73" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C73">
-        <v>1.364830842322013</v>
+        <v>1.746644873089242</v>
       </c>
       <c r="D73" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E73">
-        <v>1.554057700011381</v>
+        <v>1.525563511549905</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G73">
-        <v>0.005255169157677987</v>
+        <v>0.005093355126910757</v>
       </c>
       <c r="H73">
-        <v>0.004645942299988619</v>
+        <v>0.004634436488450095</v>
       </c>
       <c r="I73">
-        <v>0.1892268576893685</v>
+        <v>0.221081361539337</v>
       </c>
       <c r="J73">
         <v>0.8494188461475927</v>
       </c>
       <c r="K73">
-        <v>2.29</v>
+        <v>1.97</v>
       </c>
       <c r="L73">
-        <v>3.31</v>
+        <v>3.42</v>
       </c>
       <c r="M73">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="N73">
-        <v>3.1</v>
+        <v>3.08</v>
       </c>
       <c r="O73">
         <v>1</v>
       </c>
       <c r="P73" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:16">
       <c r="A74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B74" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C74">
-        <v>1.746644873089242</v>
+        <v>1.253223538131198</v>
       </c>
       <c r="D74" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E74">
-        <v>1.552668119243339</v>
+        <v>1.465356698427415</v>
       </c>
       <c r="F74">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G74">
-        <v>0.005093355126910757</v>
+        <v>0.005366776461868803</v>
       </c>
       <c r="H74">
-        <v>0.004967331880756661</v>
+        <v>0.004734643301572585</v>
       </c>
       <c r="I74">
-        <v>0.1939767538459036</v>
+        <v>0.2121331602962171</v>
       </c>
       <c r="J74">
-        <v>0.8494188461475927</v>
+        <v>0.898155660204717</v>
       </c>
       <c r="K74">
-        <v>1.97</v>
+        <v>2.29</v>
       </c>
       <c r="L74">
-        <v>3.42</v>
+        <v>3.31</v>
       </c>
       <c r="M74">
-        <v>2.01</v>
+        <v>1.82</v>
       </c>
       <c r="N74">
-        <v>3.26</v>
+        <v>3.1</v>
       </c>
       <c r="O74">
         <v>1</v>
@@ -4478,96 +4484,96 @@
     </row>
     <row r="75" spans="1:16">
       <c r="A75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B75" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C75">
-        <v>1.253223538131198</v>
+        <v>1.650633349396707</v>
       </c>
       <c r="D75" t="s">
         <v>59</v>
       </c>
       <c r="E75">
-        <v>1.465356698427415</v>
+        <v>1.454707122988519</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G75">
-        <v>0.005366776461868803</v>
+        <v>0.005189366650603293</v>
       </c>
       <c r="H75">
-        <v>0.004734643301572585</v>
+        <v>0.005065292877011481</v>
       </c>
       <c r="I75">
-        <v>0.2121331602962171</v>
+        <v>0.1959262264081887</v>
       </c>
       <c r="J75">
         <v>0.898155660204717</v>
       </c>
       <c r="K75">
-        <v>2.29</v>
+        <v>1.97</v>
       </c>
       <c r="L75">
-        <v>3.31</v>
+        <v>3.42</v>
       </c>
       <c r="M75">
-        <v>1.82</v>
+        <v>2.01</v>
       </c>
       <c r="N75">
-        <v>3.1</v>
+        <v>3.26</v>
       </c>
       <c r="O75">
         <v>1</v>
       </c>
       <c r="P75" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:16">
       <c r="A76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B76" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C76">
-        <v>1.650633349396707</v>
+        <v>1.142741567826858</v>
       </c>
       <c r="D76" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E76">
-        <v>1.454707122988519</v>
+        <v>1.377550067006499</v>
       </c>
       <c r="F76">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G76">
-        <v>0.005189366650603293</v>
+        <v>0.005477258432173141</v>
       </c>
       <c r="H76">
-        <v>0.005065292877011481</v>
+        <v>0.004822449932993502</v>
       </c>
       <c r="I76">
-        <v>0.1959262264081887</v>
+        <v>0.2348084991796402</v>
       </c>
       <c r="J76">
-        <v>0.898155660204717</v>
+        <v>0.9464010620843414</v>
       </c>
       <c r="K76">
-        <v>1.97</v>
+        <v>2.29</v>
       </c>
       <c r="L76">
-        <v>3.42</v>
+        <v>3.31</v>
       </c>
       <c r="M76">
-        <v>2.01</v>
+        <v>1.82</v>
       </c>
       <c r="N76">
-        <v>3.26</v>
+        <v>3.1</v>
       </c>
       <c r="O76">
         <v>1</v>
@@ -4584,28 +4590,28 @@
         <v>32</v>
       </c>
       <c r="C77">
-        <v>1.142741567826858</v>
+        <v>1.02473295176371</v>
       </c>
       <c r="D77" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E77">
-        <v>1.377550067006499</v>
+        <v>1.28376155991701</v>
       </c>
       <c r="F77">
         <v>1</v>
       </c>
       <c r="G77">
-        <v>0.005477258432173141</v>
+        <v>0.005595267048236289</v>
       </c>
       <c r="H77">
-        <v>0.004822449932993502</v>
+        <v>0.004916238440082991</v>
       </c>
       <c r="I77">
-        <v>0.2348084991796402</v>
+        <v>0.2590286081532995</v>
       </c>
       <c r="J77">
-        <v>0.9464010620843414</v>
+        <v>0.9979332088368078</v>
       </c>
       <c r="K77">
         <v>2.29</v>
@@ -4634,28 +4640,28 @@
         <v>32</v>
       </c>
       <c r="C78">
-        <v>1.02473295176371</v>
+        <v>0.9555784956116042</v>
       </c>
       <c r="D78" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E78">
-        <v>1.28376155991701</v>
+        <v>1.228800376424943</v>
       </c>
       <c r="F78">
         <v>1</v>
       </c>
       <c r="G78">
-        <v>0.005595267048236289</v>
+        <v>0.005664421504388396</v>
       </c>
       <c r="H78">
-        <v>0.004916238440082991</v>
+        <v>0.004971199623575057</v>
       </c>
       <c r="I78">
-        <v>0.2590286081532995</v>
+        <v>0.2732218808133391</v>
       </c>
       <c r="J78">
-        <v>0.9979332088368078</v>
+        <v>1.028131661304976</v>
       </c>
       <c r="K78">
         <v>2.29</v>
@@ -4681,37 +4687,37 @@
         <v>0</v>
       </c>
       <c r="B79" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C79">
-        <v>0.9555784956116042</v>
+        <v>0.95505474527386</v>
       </c>
       <c r="D79" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E79">
-        <v>1.228800376424943</v>
+        <v>1.172750932925077</v>
       </c>
       <c r="F79">
         <v>1</v>
       </c>
       <c r="G79">
-        <v>0.005664421504388396</v>
+        <v>0.00580494525472614</v>
       </c>
       <c r="H79">
-        <v>0.004971199623575057</v>
+        <v>0.005027249067074924</v>
       </c>
       <c r="I79">
-        <v>0.2732218808133391</v>
+        <v>0.2176961876512167</v>
       </c>
       <c r="J79">
-        <v>1.028131661304976</v>
+        <v>1.058928058832376</v>
       </c>
       <c r="K79">
         <v>2.29</v>
       </c>
       <c r="L79">
-        <v>3.31</v>
+        <v>3.38</v>
       </c>
       <c r="M79">
         <v>1.82</v>
@@ -4734,28 +4740,28 @@
         <v>33</v>
       </c>
       <c r="C80">
-        <v>0.95505474527386</v>
+        <v>0.8997461387005035</v>
       </c>
       <c r="D80" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E80">
-        <v>1.172750932925077</v>
+        <v>1.128793874425728</v>
       </c>
       <c r="F80">
         <v>1</v>
       </c>
       <c r="G80">
-        <v>0.00580494525472614</v>
+        <v>0.005860253861299496</v>
       </c>
       <c r="H80">
-        <v>0.005027249067074924</v>
+        <v>0.005071206125574273</v>
       </c>
       <c r="I80">
-        <v>0.2176961876512167</v>
+        <v>0.2290477357252241</v>
       </c>
       <c r="J80">
-        <v>1.058928058832376</v>
+        <v>1.083080288777073</v>
       </c>
       <c r="K80">
         <v>2.29</v>
@@ -4784,28 +4790,28 @@
         <v>33</v>
       </c>
       <c r="C81">
-        <v>0.8997461387005035</v>
+        <v>0.9004291893178089</v>
       </c>
       <c r="D81" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E81">
-        <v>1.128793874425728</v>
+        <v>1.129336735615027</v>
       </c>
       <c r="F81">
         <v>1</v>
       </c>
       <c r="G81">
-        <v>0.005860253861299496</v>
+        <v>0.005859570810682191</v>
       </c>
       <c r="H81">
-        <v>0.005071206125574273</v>
+        <v>0.005070663264384973</v>
       </c>
       <c r="I81">
-        <v>0.2290477357252241</v>
+        <v>0.2289075462972185</v>
       </c>
       <c r="J81">
-        <v>1.083080288777073</v>
+        <v>1.082782013398337</v>
       </c>
       <c r="K81">
         <v>2.29</v>
@@ -4834,28 +4840,28 @@
         <v>33</v>
       </c>
       <c r="C82">
-        <v>0.9004291893178089</v>
+        <v>0.8995341152947529</v>
       </c>
       <c r="D82" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E82">
-        <v>1.129336735615027</v>
+        <v>1.128625366740808</v>
       </c>
       <c r="F82">
         <v>1</v>
       </c>
       <c r="G82">
-        <v>0.005859570810682191</v>
+        <v>0.005860465884705247</v>
       </c>
       <c r="H82">
-        <v>0.005070663264384973</v>
+        <v>0.005071374633259193</v>
       </c>
       <c r="I82">
-        <v>0.2289075462972185</v>
+        <v>0.2290912514460552</v>
       </c>
       <c r="J82">
-        <v>1.082782013398337</v>
+        <v>1.083172875417138</v>
       </c>
       <c r="K82">
         <v>2.29</v>
@@ -4884,28 +4890,28 @@
         <v>33</v>
       </c>
       <c r="C83">
-        <v>0.8995341152947529</v>
+        <v>0.8942975364165378</v>
       </c>
       <c r="D83" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E83">
-        <v>1.128625366740808</v>
+        <v>1.124463544226244</v>
       </c>
       <c r="F83">
         <v>1</v>
       </c>
       <c r="G83">
-        <v>0.005860465884705247</v>
+        <v>0.005865702463583462</v>
       </c>
       <c r="H83">
-        <v>0.005071374633259193</v>
+        <v>0.005075536455773756</v>
       </c>
       <c r="I83">
-        <v>0.2290912514460552</v>
+        <v>0.2301660078097063</v>
       </c>
       <c r="J83">
-        <v>1.083172875417138</v>
+        <v>1.085459591084481</v>
       </c>
       <c r="K83">
         <v>2.29</v>
@@ -4923,7 +4929,7 @@
         <v>1</v>
       </c>
       <c r="P83" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -4934,28 +4940,28 @@
         <v>33</v>
       </c>
       <c r="C84">
-        <v>0.8942975364165378</v>
+        <v>0.823882990348408</v>
       </c>
       <c r="D84" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E84">
-        <v>1.124463544226244</v>
+        <v>1.068500891892621</v>
       </c>
       <c r="F84">
         <v>1</v>
       </c>
       <c r="G84">
-        <v>0.005865702463583462</v>
+        <v>0.005936117009651592</v>
       </c>
       <c r="H84">
-        <v>0.005075536455773756</v>
+        <v>0.005131499108107379</v>
       </c>
       <c r="I84">
-        <v>0.2301660078097063</v>
+        <v>0.2446179015442134</v>
       </c>
       <c r="J84">
-        <v>1.085459591084481</v>
+        <v>1.1162083011579</v>
       </c>
       <c r="K84">
         <v>2.29</v>
@@ -4973,7 +4979,7 @@
         <v>1</v>
       </c>
       <c r="P84" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -4984,28 +4990,28 @@
         <v>33</v>
       </c>
       <c r="C85">
-        <v>0.823882990348408</v>
+        <v>0.7552208383877499</v>
       </c>
       <c r="D85" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E85">
-        <v>1.068500891892621</v>
+        <v>1.013930971993758</v>
       </c>
       <c r="F85">
         <v>1</v>
       </c>
       <c r="G85">
-        <v>0.005936117009651592</v>
+        <v>0.00600477916161225</v>
       </c>
       <c r="H85">
-        <v>0.005131499108107379</v>
+        <v>0.005186069028006243</v>
       </c>
       <c r="I85">
-        <v>0.2446179015442134</v>
+        <v>0.2587101336060078</v>
       </c>
       <c r="J85">
-        <v>1.1162083011579</v>
+        <v>1.146191773629804</v>
       </c>
       <c r="K85">
         <v>2.29</v>
@@ -5034,28 +5040,28 @@
         <v>33</v>
       </c>
       <c r="C86">
-        <v>0.7552208383877499</v>
+        <v>0.7164672131147527</v>
       </c>
       <c r="D86" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E86">
-        <v>1.013930971993758</v>
+        <v>0.9831311475409823</v>
       </c>
       <c r="F86">
         <v>1</v>
       </c>
       <c r="G86">
-        <v>0.00600477916161225</v>
+        <v>0.006043532786885248</v>
       </c>
       <c r="H86">
-        <v>0.005186069028006243</v>
+        <v>0.005216868852459018</v>
       </c>
       <c r="I86">
-        <v>0.2587101336060078</v>
+        <v>0.2666639344262296</v>
       </c>
       <c r="J86">
-        <v>1.146191773629804</v>
+        <v>1.163114754098361</v>
       </c>
       <c r="K86">
         <v>2.29</v>
@@ -5073,7 +5079,7 @@
         <v>1</v>
       </c>
       <c r="P86" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -5084,28 +5090,28 @@
         <v>33</v>
       </c>
       <c r="C87">
-        <v>0.7164672131147527</v>
+        <v>0.6498239504652852</v>
       </c>
       <c r="D87" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E87">
-        <v>0.9831311475409823</v>
+        <v>0.9301657597584363</v>
       </c>
       <c r="F87">
         <v>1</v>
       </c>
       <c r="G87">
-        <v>0.006043532786885248</v>
+        <v>0.006110176049534715</v>
       </c>
       <c r="H87">
-        <v>0.005216868852459018</v>
+        <v>0.005269834240241564</v>
       </c>
       <c r="I87">
-        <v>0.2666639344262296</v>
+        <v>0.2803418092931511</v>
       </c>
       <c r="J87">
-        <v>1.163114754098361</v>
+        <v>1.192216615517343</v>
       </c>
       <c r="K87">
         <v>2.29</v>
@@ -5123,7 +5129,7 @@
         <v>1</v>
       </c>
       <c r="P87" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -5131,60 +5137,60 @@
         <v>0</v>
       </c>
       <c r="B88" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C88">
-        <v>0.6498239504652852</v>
+        <v>0.5205928926738919</v>
       </c>
       <c r="D88" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="E88">
-        <v>0.9301657597584363</v>
+        <v>0.4040417624885522</v>
       </c>
       <c r="F88">
         <v>1</v>
       </c>
       <c r="G88">
-        <v>0.006110176049534715</v>
+        <v>0.006459407107326108</v>
       </c>
       <c r="H88">
-        <v>0.005269834240241564</v>
+        <v>0.006215958237511448</v>
       </c>
       <c r="I88">
-        <v>0.2803418092931511</v>
+        <v>-0.1165511301853397</v>
       </c>
       <c r="J88">
-        <v>1.192216615517343</v>
+        <v>1.268977396293209</v>
       </c>
       <c r="K88">
+        <v>2.34</v>
+      </c>
+      <c r="L88">
+        <v>3.49</v>
+      </c>
+      <c r="M88">
         <v>2.29</v>
       </c>
-      <c r="L88">
-        <v>3.38</v>
-      </c>
-      <c r="M88">
-        <v>1.82</v>
-      </c>
       <c r="N88">
-        <v>3.1</v>
+        <v>3.31</v>
       </c>
       <c r="O88">
         <v>1</v>
       </c>
       <c r="P88" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:16">
       <c r="A89" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B89" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C89">
-        <v>0.5205928926738919</v>
+        <v>0.474041762488552</v>
       </c>
       <c r="D89" t="s">
         <v>32</v>
@@ -5196,22 +5202,22 @@
         <v>1</v>
       </c>
       <c r="G89">
-        <v>0.006459407107326108</v>
+        <v>0.006285958237511447</v>
       </c>
       <c r="H89">
         <v>0.006215958237511448</v>
       </c>
       <c r="I89">
-        <v>-0.1165511301853397</v>
+        <v>-0.06999999999999984</v>
       </c>
       <c r="J89">
         <v>1.268977396293209</v>
       </c>
       <c r="K89">
-        <v>2.34</v>
+        <v>2.29</v>
       </c>
       <c r="L89">
-        <v>3.49</v>
+        <v>3.38</v>
       </c>
       <c r="M89">
         <v>2.29</v>
@@ -5223,45 +5229,45 @@
         <v>1</v>
       </c>
       <c r="P89" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="90" spans="1:16">
       <c r="A90" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B90" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C90">
-        <v>0.474041762488552</v>
+        <v>0.3774746016246668</v>
       </c>
       <c r="D90" t="s">
         <v>32</v>
       </c>
       <c r="E90">
-        <v>0.4040417624885522</v>
+        <v>0.2639815545814042</v>
       </c>
       <c r="F90">
         <v>1</v>
       </c>
       <c r="G90">
-        <v>0.006285958237511447</v>
+        <v>0.006602525398375333</v>
       </c>
       <c r="H90">
-        <v>0.006215958237511448</v>
+        <v>0.006356018445418596</v>
       </c>
       <c r="I90">
-        <v>-0.06999999999999984</v>
+        <v>-0.1134930470432627</v>
       </c>
       <c r="J90">
-        <v>1.268977396293209</v>
+        <v>1.330139059134758</v>
       </c>
       <c r="K90">
-        <v>2.29</v>
+        <v>2.34</v>
       </c>
       <c r="L90">
-        <v>3.38</v>
+        <v>3.49</v>
       </c>
       <c r="M90">
         <v>2.29</v>
@@ -5273,18 +5279,18 @@
         <v>1</v>
       </c>
       <c r="P90" t="s">
-        <v>102</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91" spans="1:16">
       <c r="A91" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B91" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C91">
-        <v>0.3774746016246668</v>
+        <v>0.333981554581404</v>
       </c>
       <c r="D91" t="s">
         <v>32</v>
@@ -5296,22 +5302,22 @@
         <v>1</v>
       </c>
       <c r="G91">
-        <v>0.006602525398375333</v>
+        <v>0.006426018445418596</v>
       </c>
       <c r="H91">
         <v>0.006356018445418596</v>
       </c>
       <c r="I91">
-        <v>-0.1134930470432627</v>
+        <v>-0.06999999999999984</v>
       </c>
       <c r="J91">
         <v>1.330139059134758</v>
       </c>
       <c r="K91">
-        <v>2.34</v>
+        <v>2.29</v>
       </c>
       <c r="L91">
-        <v>3.49</v>
+        <v>3.38</v>
       </c>
       <c r="M91">
         <v>2.29</v>
@@ -5328,40 +5334,40 @@
     </row>
     <row r="92" spans="1:16">
       <c r="A92" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B92" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C92">
-        <v>0.333981554581404</v>
+        <v>0.2442505289553791</v>
       </c>
       <c r="D92" t="s">
         <v>32</v>
       </c>
       <c r="E92">
-        <v>0.2639815545814042</v>
+        <v>0.1336041501315459</v>
       </c>
       <c r="F92">
         <v>1</v>
       </c>
       <c r="G92">
-        <v>0.006426018445418596</v>
+        <v>0.006735749471044622</v>
       </c>
       <c r="H92">
-        <v>0.006356018445418596</v>
+        <v>0.006486395849868455</v>
       </c>
       <c r="I92">
-        <v>-0.06999999999999984</v>
+        <v>-0.1106463788238332</v>
       </c>
       <c r="J92">
-        <v>1.330139059134758</v>
+        <v>1.387072423523342</v>
       </c>
       <c r="K92">
-        <v>2.29</v>
+        <v>2.34</v>
       </c>
       <c r="L92">
-        <v>3.38</v>
+        <v>3.49</v>
       </c>
       <c r="M92">
         <v>2.29</v>
@@ -5373,121 +5379,121 @@
         <v>1</v>
       </c>
       <c r="P92" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
     </row>
     <row r="93" spans="1:16">
       <c r="A93" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B93" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C93">
-        <v>0.2442505289553791</v>
+        <v>0.2977942894248136</v>
       </c>
       <c r="D93" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="E93">
-        <v>0.1336041501315459</v>
+        <v>0.5755281891875166</v>
       </c>
       <c r="F93">
         <v>1</v>
       </c>
       <c r="G93">
-        <v>0.006735749471044622</v>
+        <v>0.006262205710575186</v>
       </c>
       <c r="H93">
-        <v>0.006486395849868455</v>
+        <v>0.005624471810812484</v>
       </c>
       <c r="I93">
-        <v>-0.1106463788238332</v>
+        <v>0.277733899762703</v>
       </c>
       <c r="J93">
         <v>1.387072423523342</v>
       </c>
       <c r="K93">
-        <v>2.34</v>
+        <v>2.15</v>
       </c>
       <c r="L93">
-        <v>3.49</v>
+        <v>3.28</v>
       </c>
       <c r="M93">
-        <v>2.29</v>
+        <v>1.82</v>
       </c>
       <c r="N93">
-        <v>3.31</v>
+        <v>3.1</v>
       </c>
       <c r="O93">
         <v>1</v>
       </c>
       <c r="P93" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="94" spans="1:16">
       <c r="A94" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B94" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C94">
-        <v>0.2977942894248136</v>
+        <v>1.851150997400674</v>
       </c>
       <c r="D94" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E94">
-        <v>0.5755281891875166</v>
+        <v>1.622642804691997</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G94">
-        <v>0.006262205710575186</v>
+        <v>0.004988849002599325</v>
       </c>
       <c r="H94">
-        <v>0.005624471810812484</v>
+        <v>0.004537357195308004</v>
       </c>
       <c r="I94">
-        <v>0.277733899762703</v>
+        <v>0.2285081927086774</v>
       </c>
       <c r="J94">
-        <v>1.387072423523342</v>
+        <v>0.7963700520808761</v>
       </c>
       <c r="K94">
-        <v>2.15</v>
+        <v>1.97</v>
       </c>
       <c r="L94">
-        <v>3.28</v>
+        <v>3.42</v>
       </c>
       <c r="M94">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="N94">
-        <v>3.1</v>
+        <v>3.08</v>
       </c>
       <c r="O94">
         <v>1</v>
       </c>
       <c r="P94" t="s">
-        <v>103</v>
+        <v>31</v>
       </c>
     </row>
     <row r="95" spans="1:16">
       <c r="A95" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B95" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C95">
-        <v>1.851150997400674</v>
+        <v>1.833368794275822</v>
       </c>
       <c r="D95" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E95">
         <v>1.622642804691997</v>
@@ -5496,22 +5502,22 @@
         <v>-1</v>
       </c>
       <c r="G95">
-        <v>0.004988849002599325</v>
+        <v>0.005066631205724178</v>
       </c>
       <c r="H95">
         <v>0.004537357195308004</v>
       </c>
       <c r="I95">
-        <v>0.2285081927086774</v>
+        <v>0.2107259895838252</v>
       </c>
       <c r="J95">
         <v>0.7963700520808761</v>
       </c>
       <c r="K95">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="L95">
-        <v>3.42</v>
+        <v>3.45</v>
       </c>
       <c r="M95">
         <v>1.83</v>
@@ -5528,34 +5534,34 @@
     </row>
     <row r="96" spans="1:16">
       <c r="A96" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B96" t="s">
         <v>26</v>
       </c>
       <c r="C96">
-        <v>1.833368794275822</v>
+        <v>1.825554329597634</v>
       </c>
       <c r="D96" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E96">
-        <v>1.622642804691997</v>
+        <v>1.61559823801166</v>
       </c>
       <c r="F96">
         <v>-1</v>
       </c>
       <c r="G96">
-        <v>0.005066631205724178</v>
+        <v>0.005074445670402367</v>
       </c>
       <c r="H96">
-        <v>0.004537357195308004</v>
+        <v>0.00454440176198834</v>
       </c>
       <c r="I96">
-        <v>0.2107259895838252</v>
+        <v>0.2099560915859742</v>
       </c>
       <c r="J96">
-        <v>0.7963700520808761</v>
+        <v>0.8002195420701311</v>
       </c>
       <c r="K96">
         <v>2.03</v>
@@ -5573,7 +5579,7 @@
         <v>1</v>
       </c>
       <c r="P96" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -5584,28 +5590,28 @@
         <v>26</v>
       </c>
       <c r="C97">
-        <v>1.825554329597634</v>
+        <v>1.814964366537685</v>
       </c>
       <c r="D97" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E97">
-        <v>1.61559823801166</v>
+        <v>1.606051621065991</v>
       </c>
       <c r="F97">
         <v>-1</v>
       </c>
       <c r="G97">
-        <v>0.005074445670402367</v>
+        <v>0.005085035633462316</v>
       </c>
       <c r="H97">
-        <v>0.00454440176198834</v>
+        <v>0.004553948378934009</v>
       </c>
       <c r="I97">
-        <v>0.2099560915859742</v>
+        <v>0.2089127454716935</v>
       </c>
       <c r="J97">
-        <v>0.8002195420701311</v>
+        <v>0.8054362726415348</v>
       </c>
       <c r="K97">
         <v>2.03</v>
@@ -5623,7 +5629,7 @@
         <v>1</v>
       </c>
       <c r="P97" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -5634,28 +5640,28 @@
         <v>26</v>
       </c>
       <c r="C98">
-        <v>1.814964366537685</v>
+        <v>1.80276175127278</v>
       </c>
       <c r="D98" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E98">
-        <v>1.606051621065991</v>
+        <v>1.595051233906003</v>
       </c>
       <c r="F98">
         <v>-1</v>
       </c>
       <c r="G98">
-        <v>0.005085035633462316</v>
+        <v>0.005097238248727221</v>
       </c>
       <c r="H98">
-        <v>0.004553948378934009</v>
+        <v>0.004564948766093997</v>
       </c>
       <c r="I98">
-        <v>0.2089127454716935</v>
+        <v>0.2077105173667766</v>
       </c>
       <c r="J98">
-        <v>0.8054362726415348</v>
+        <v>0.8114474131661186</v>
       </c>
       <c r="K98">
         <v>2.03</v>
@@ -5673,21 +5679,21 @@
         <v>1</v>
       </c>
       <c r="P98" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
     </row>
     <row r="99" spans="1:16">
       <c r="A99" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B99" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C99">
-        <v>1.80276175127278</v>
+        <v>1.766532803009457</v>
       </c>
       <c r="D99" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E99">
         <v>1.595051233906003</v>
@@ -5696,22 +5702,22 @@
         <v>-1</v>
       </c>
       <c r="G99">
-        <v>0.005097238248727221</v>
+        <v>0.005093467196990544</v>
       </c>
       <c r="H99">
         <v>0.004564948766093997</v>
       </c>
       <c r="I99">
-        <v>0.2077105173667766</v>
+        <v>0.1714815691034541</v>
       </c>
       <c r="J99">
         <v>0.8114474131661186</v>
       </c>
       <c r="K99">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="L99">
-        <v>3.45</v>
+        <v>3.43</v>
       </c>
       <c r="M99">
         <v>1.83</v>
@@ -5723,45 +5729,45 @@
         <v>1</v>
       </c>
       <c r="P99" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="100" spans="1:16">
       <c r="A100" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B100" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C100">
-        <v>1.766532803009457</v>
+        <v>1.799355758249058</v>
       </c>
       <c r="D100" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E100">
-        <v>1.595051233906003</v>
+        <v>1.591980806697426</v>
       </c>
       <c r="F100">
         <v>-1</v>
       </c>
       <c r="G100">
-        <v>0.005093467196990544</v>
+        <v>0.005100644241750943</v>
       </c>
       <c r="H100">
-        <v>0.004564948766093997</v>
+        <v>0.004568019193302574</v>
       </c>
       <c r="I100">
-        <v>0.1714815691034541</v>
+        <v>0.2073749515516314</v>
       </c>
       <c r="J100">
-        <v>0.8114474131661186</v>
+        <v>0.8131252422418436</v>
       </c>
       <c r="K100">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="L100">
-        <v>3.43</v>
+        <v>3.45</v>
       </c>
       <c r="M100">
         <v>1.83</v>
@@ -5778,16 +5784,16 @@
     </row>
     <row r="101" spans="1:16">
       <c r="A101" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B101" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C101">
-        <v>1.799355758249058</v>
+        <v>1.763093253404221</v>
       </c>
       <c r="D101" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E101">
         <v>1.591980806697426</v>
@@ -5796,22 +5802,22 @@
         <v>-1</v>
       </c>
       <c r="G101">
-        <v>0.005100644241750943</v>
+        <v>0.00509690674659578</v>
       </c>
       <c r="H101">
         <v>0.004568019193302574</v>
       </c>
       <c r="I101">
-        <v>0.2073749515516314</v>
+        <v>0.1711124467067946</v>
       </c>
       <c r="J101">
         <v>0.8131252422418436</v>
       </c>
       <c r="K101">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="L101">
-        <v>3.45</v>
+        <v>3.43</v>
       </c>
       <c r="M101">
         <v>1.83</v>
@@ -5823,39 +5829,39 @@
         <v>1</v>
       </c>
       <c r="P101" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="102" spans="1:16">
       <c r="A102" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B102" t="s">
         <v>36</v>
       </c>
       <c r="C102">
-        <v>1.763093253404221</v>
+        <v>1.758945050051923</v>
       </c>
       <c r="D102" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E102">
-        <v>1.591980806697426</v>
+        <v>1.579368851023481</v>
       </c>
       <c r="F102">
         <v>-1</v>
       </c>
       <c r="G102">
-        <v>0.00509690674659578</v>
+        <v>0.005101054949948077</v>
       </c>
       <c r="H102">
-        <v>0.004568019193302574</v>
+        <v>0.00466063114897652</v>
       </c>
       <c r="I102">
-        <v>0.1711124467067946</v>
+        <v>0.1795761990284428</v>
       </c>
       <c r="J102">
-        <v>0.8131252422418436</v>
+        <v>0.8151487560722326</v>
       </c>
       <c r="K102">
         <v>2.05</v>
@@ -5864,16 +5870,16 @@
         <v>3.43</v>
       </c>
       <c r="M102">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="N102">
-        <v>3.08</v>
+        <v>3.12</v>
       </c>
       <c r="O102">
         <v>1</v>
       </c>
       <c r="P102" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -5881,37 +5887,37 @@
         <v>0</v>
       </c>
       <c r="B103" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C103">
-        <v>1.758945050051923</v>
+        <v>1.72904089319749</v>
       </c>
       <c r="D103" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E103">
-        <v>1.579368851023481</v>
+        <v>1.571905533403557</v>
       </c>
       <c r="F103">
         <v>-1</v>
       </c>
       <c r="G103">
-        <v>0.005101054949948077</v>
+        <v>0.00507095910680251</v>
       </c>
       <c r="H103">
-        <v>0.00466063114897652</v>
+        <v>0.004668094466596443</v>
       </c>
       <c r="I103">
-        <v>0.1795761990284428</v>
+        <v>0.1571353597939327</v>
       </c>
       <c r="J103">
-        <v>0.8151487560722326</v>
+        <v>0.8190976013737793</v>
       </c>
       <c r="K103">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="L103">
-        <v>3.43</v>
+        <v>3.4</v>
       </c>
       <c r="M103">
         <v>1.89</v>
@@ -5923,21 +5929,21 @@
         <v>1</v>
       </c>
       <c r="P103" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
     </row>
     <row r="104" spans="1:16">
       <c r="A104" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B104" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C104">
-        <v>1.72904089319749</v>
+        <v>1.750849917183753</v>
       </c>
       <c r="D104" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E104">
         <v>1.571905533403557</v>
@@ -5946,22 +5952,22 @@
         <v>-1</v>
       </c>
       <c r="G104">
-        <v>0.00507095910680251</v>
+        <v>0.005109150082816248</v>
       </c>
       <c r="H104">
         <v>0.004668094466596443</v>
       </c>
       <c r="I104">
-        <v>0.1571353597939327</v>
+        <v>0.1789443837801954</v>
       </c>
       <c r="J104">
         <v>0.8190976013737793</v>
       </c>
       <c r="K104">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="L104">
-        <v>3.4</v>
+        <v>3.43</v>
       </c>
       <c r="M104">
         <v>1.89</v>
@@ -5973,45 +5979,45 @@
         <v>1</v>
       </c>
       <c r="P104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="105" spans="1:16">
       <c r="A105" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B105" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C105">
-        <v>1.750849917183753</v>
+        <v>1.732368893145465</v>
       </c>
       <c r="D105" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E105">
-        <v>1.571905533403557</v>
+        <v>1.574988827473004</v>
       </c>
       <c r="F105">
         <v>-1</v>
       </c>
       <c r="G105">
-        <v>0.005109150082816248</v>
+        <v>0.005067631106854534</v>
       </c>
       <c r="H105">
-        <v>0.004668094466596443</v>
+        <v>0.004665011172526996</v>
       </c>
       <c r="I105">
-        <v>0.1789443837801954</v>
+        <v>0.1573800656724604</v>
       </c>
       <c r="J105">
-        <v>0.8190976013737793</v>
+        <v>0.8174662288502623</v>
       </c>
       <c r="K105">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="L105">
-        <v>3.43</v>
+        <v>3.4</v>
       </c>
       <c r="M105">
         <v>1.89</v>
@@ -6031,43 +6037,43 @@
         <v>0</v>
       </c>
       <c r="B106" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C106">
-        <v>1.732368893145465</v>
+        <v>1.697534484639878</v>
       </c>
       <c r="D106" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E106">
-        <v>1.574988827473004</v>
+        <v>1.561011377500918</v>
       </c>
       <c r="F106">
         <v>-1</v>
       </c>
       <c r="G106">
-        <v>0.005067631106854534</v>
+        <v>0.004842465515360122</v>
       </c>
       <c r="H106">
-        <v>0.004665011172526996</v>
+        <v>0.004478988622499082</v>
       </c>
       <c r="I106">
-        <v>0.1573800656724604</v>
+        <v>0.1365231071389603</v>
       </c>
       <c r="J106">
-        <v>0.8174662288502623</v>
+        <v>0.8105492347217125</v>
       </c>
       <c r="K106">
-        <v>2.04</v>
+        <v>1.94</v>
       </c>
       <c r="L106">
-        <v>3.4</v>
+        <v>3.27</v>
       </c>
       <c r="M106">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="N106">
-        <v>3.12</v>
+        <v>3.02</v>
       </c>
       <c r="O106">
         <v>1</v>
@@ -6087,7 +6093,7 @@
         <v>1.703024477239647</v>
       </c>
       <c r="D107" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E107">
         <v>1.566105185067714</v>
@@ -6137,7 +6143,7 @@
         <v>1.706762500295012</v>
       </c>
       <c r="D108" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E108">
         <v>1.56957345388197</v>
@@ -6187,7 +6193,7 @@
         <v>1.711603744119008</v>
       </c>
       <c r="D109" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E109">
         <v>1.574065329594956</v>
@@ -6237,10 +6243,10 @@
         <v>1.702699397711841</v>
       </c>
       <c r="D110" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E110">
-        <v>1.61665071206469</v>
+        <v>1.624657667157141</v>
       </c>
       <c r="F110">
         <v>-1</v>
@@ -6249,10 +6255,10 @@
         <v>0.004697300602288159</v>
       </c>
       <c r="H110">
-        <v>0.004723349287935309</v>
+        <v>0.004715342332842859</v>
       </c>
       <c r="I110">
-        <v>0.08604868564715051</v>
+        <v>0.07804173055470032</v>
       </c>
       <c r="J110">
         <v>0.8006955092450049</v>
@@ -6264,7 +6270,7 @@
         <v>3.2</v>
       </c>
       <c r="M110">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="N110">
         <v>3.17</v>
@@ -6287,10 +6293,10 @@
         <v>1.706549065306413</v>
       </c>
       <c r="D111" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E111">
-        <v>1.620644484863337</v>
+        <v>1.628630853498062</v>
       </c>
       <c r="F111">
         <v>-1</v>
@@ -6299,10 +6305,10 @@
         <v>0.004693450934693588</v>
       </c>
       <c r="H111">
-        <v>0.004719355515136662</v>
+        <v>0.004711369146501937</v>
       </c>
       <c r="I111">
-        <v>0.08590458044307536</v>
+        <v>0.07791821180835035</v>
       </c>
       <c r="J111">
         <v>0.7986368634725065</v>
@@ -6314,7 +6320,7 @@
         <v>3.2</v>
       </c>
       <c r="M111">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="N111">
         <v>3.17</v>
@@ -6323,7 +6329,7 @@
         <v>1</v>
       </c>
       <c r="P111" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -6337,10 +6343,10 @@
         <v>1.715081561736875</v>
       </c>
       <c r="D112" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E112">
-        <v>1.629496379555902</v>
+        <v>1.63743711986747</v>
       </c>
       <c r="F112">
         <v>-1</v>
@@ -6349,10 +6355,10 @@
         <v>0.004684918438263125</v>
       </c>
       <c r="H112">
-        <v>0.004710503620444098</v>
+        <v>0.00470256288013253</v>
       </c>
       <c r="I112">
-        <v>0.08558518218097277</v>
+        <v>0.07764444186940511</v>
       </c>
       <c r="J112">
         <v>0.7940740311567515</v>
@@ -6364,7 +6370,7 @@
         <v>3.2</v>
       </c>
       <c r="M112">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="N112">
         <v>3.17</v>
@@ -6373,7 +6379,7 @@
         <v>1</v>
       </c>
       <c r="P112" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -6387,10 +6393,10 @@
         <v>1.724215665563157</v>
       </c>
       <c r="D113" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E113">
-        <v>1.638972401707232</v>
+        <v>1.646864296543793</v>
       </c>
       <c r="F113">
         <v>-1</v>
@@ -6399,10 +6405,10 @@
         <v>0.004675784334436843</v>
       </c>
       <c r="H113">
-        <v>0.004701027598292767</v>
+        <v>0.004693135703456207</v>
       </c>
       <c r="I113">
-        <v>0.08524326385592484</v>
+        <v>0.07735136901936412</v>
       </c>
       <c r="J113">
         <v>0.7891894836560657</v>
@@ -6414,7 +6420,7 @@
         <v>3.2</v>
       </c>
       <c r="M113">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="N113">
         <v>3.17</v>
@@ -6437,10 +6443,10 @@
         <v>1.726739382920171</v>
       </c>
       <c r="D114" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E114">
-        <v>1.64159058976745</v>
+        <v>1.649468988789267</v>
       </c>
       <c r="F114">
         <v>-1</v>
@@ -6449,10 +6455,10 @@
         <v>0.00467326061707983</v>
       </c>
       <c r="H114">
-        <v>0.00469840941023255</v>
+        <v>0.004690531011210733</v>
       </c>
       <c r="I114">
-        <v>0.08514879315272106</v>
+        <v>0.07727039413090364</v>
       </c>
       <c r="J114">
         <v>0.7878399021817268</v>
@@ -6464,7 +6470,7 @@
         <v>3.2</v>
       </c>
       <c r="M114">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="N114">
         <v>3.17</v>
@@ -6487,10 +6493,10 @@
         <v>1.708455604764484</v>
       </c>
       <c r="D115" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="E115">
-        <v>1.581191854101024</v>
+        <v>1.602087480096213</v>
       </c>
       <c r="F115">
         <v>-1</v>
@@ -6499,10 +6505,10 @@
         <v>0.004591544395235517</v>
       </c>
       <c r="H115">
-        <v>0.004558808145898975</v>
+        <v>0.004437912519903786</v>
       </c>
       <c r="I115">
-        <v>0.1272637506634595</v>
+        <v>0.1063681246682702</v>
       </c>
       <c r="J115">
         <v>0.7877291777243258</v>
@@ -6514,10 +6520,10 @@
         <v>3.15</v>
       </c>
       <c r="M115">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="N115">
-        <v>3.07</v>
+        <v>3.02</v>
       </c>
       <c r="O115">
         <v>1</v>
@@ -6537,10 +6543,10 @@
         <v>1.726946437655511</v>
       </c>
       <c r="D116" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E116">
-        <v>1.641805395214808</v>
+        <v>1.649682686992051</v>
       </c>
       <c r="F116">
         <v>-1</v>
@@ -6549,10 +6555,10 @@
         <v>0.004673053562344489</v>
       </c>
       <c r="H116">
-        <v>0.004698194604785192</v>
+        <v>0.004690317313007949</v>
       </c>
       <c r="I116">
-        <v>0.08514104244070286</v>
+        <v>0.0772637506634597</v>
       </c>
       <c r="J116">
         <v>0.7877291777243258</v>
@@ -6564,7 +6570,7 @@
         <v>3.2</v>
       </c>
       <c r="M116">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="N116">
         <v>3.17</v>
@@ -6587,7 +6593,7 @@
         <v>1.709251767384038</v>
       </c>
       <c r="D117" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E117">
         <v>1.582014120413023</v>
@@ -6637,10 +6643,10 @@
         <v>1.727760002736695</v>
       </c>
       <c r="D118" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E118">
-        <v>1.642649414603844</v>
+        <v>1.65052235576568</v>
       </c>
       <c r="F118">
         <v>-1</v>
@@ -6649,10 +6655,10 @@
         <v>0.004672239997263306</v>
       </c>
       <c r="H118">
-        <v>0.004697350585396156</v>
+        <v>0.00468947764423432</v>
       </c>
       <c r="I118">
-        <v>0.08511058813285111</v>
+        <v>0.07723764697101521</v>
       </c>
       <c r="J118">
         <v>0.7872941161835857</v>
@@ -6664,7 +6670,7 @@
         <v>3.2</v>
       </c>
       <c r="M118">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="N118">
         <v>3.17</v>
@@ -6687,7 +6693,7 @@
         <v>1.706716749552468</v>
       </c>
       <c r="D119" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E119">
         <v>1.579395987242713</v>
@@ -6737,10 +6743,10 @@
         <v>1.725169574679298</v>
       </c>
       <c r="D120" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E120">
-        <v>1.63996201865125</v>
+        <v>1.647848812369543</v>
       </c>
       <c r="F120">
         <v>-1</v>
@@ -6749,10 +6755,10 @@
         <v>0.004674830425320703</v>
       </c>
       <c r="H120">
-        <v>0.00470003798134875</v>
+        <v>0.004692151187630457</v>
       </c>
       <c r="I120">
-        <v>0.08520755602804786</v>
+        <v>0.07732076230975515</v>
       </c>
       <c r="J120">
         <v>0.7886793718292525</v>
@@ -6764,7 +6770,7 @@
         <v>3.2</v>
       </c>
       <c r="M120">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="N120">
         <v>3.17</v>
@@ -6787,10 +6793,10 @@
         <v>1.722799046842222</v>
       </c>
       <c r="D121" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E121">
-        <v>1.637502754478027</v>
+        <v>1.645402224815769</v>
       </c>
       <c r="F121">
         <v>-1</v>
@@ -6799,10 +6805,10 @@
         <v>0.004677200953157779</v>
       </c>
       <c r="H121">
-        <v>0.004702497245521972</v>
+        <v>0.004694597775184231</v>
       </c>
       <c r="I121">
-        <v>0.08529629236419489</v>
+        <v>0.07739682202645293</v>
       </c>
       <c r="J121">
         <v>0.7899470337742129</v>
@@ -6814,7 +6820,7 @@
         <v>3.2</v>
       </c>
       <c r="M121">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="N121">
         <v>3.17</v>
@@ -6837,10 +6843,10 @@
         <v>1.721909002855845</v>
       </c>
       <c r="D122" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E122">
-        <v>1.63657939333708</v>
+        <v>1.644483623268332</v>
       </c>
       <c r="F122">
         <v>-1</v>
@@ -6849,10 +6855,10 @@
         <v>0.004678090997144155</v>
       </c>
       <c r="H122">
-        <v>0.004703420606662919</v>
+        <v>0.004695516376731668</v>
       </c>
       <c r="I122">
-        <v>0.08532960951876523</v>
+        <v>0.07742537958751305</v>
       </c>
       <c r="J122">
         <v>0.7904229931252164</v>
@@ -6864,7 +6870,7 @@
         <v>3.2</v>
       </c>
       <c r="M122">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="N122">
         <v>3.17</v>
@@ -6887,10 +6893,10 @@
         <v>1.720598225993867</v>
       </c>
       <c r="D123" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E123">
-        <v>1.635219549961551</v>
+        <v>1.643130789394739</v>
       </c>
       <c r="F123">
         <v>-1</v>
@@ -6899,10 +6905,10 @@
         <v>0.004679401774006134</v>
       </c>
       <c r="H123">
-        <v>0.004704780450038449</v>
+        <v>0.004696869210605261</v>
       </c>
       <c r="I123">
-        <v>0.08537867603231541</v>
+        <v>0.07746743659912747</v>
       </c>
       <c r="J123">
         <v>0.791123943318788</v>
@@ -6914,7 +6920,7 @@
         <v>3.2</v>
       </c>
       <c r="M123">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="N123">
         <v>3.17</v>
@@ -6931,43 +6937,43 @@
         <v>0</v>
       </c>
       <c r="B124" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C124">
-        <v>1.671620581307566</v>
+        <v>1.741857926477373</v>
       </c>
       <c r="D124" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="E124">
-        <v>1.728676249745893</v>
+        <v>1.665072619305524</v>
       </c>
       <c r="F124">
         <v>-1</v>
       </c>
       <c r="G124">
-        <v>0.004488379418692434</v>
+        <v>0.004658142073522628</v>
       </c>
       <c r="H124">
-        <v>0.004671323750254107</v>
+        <v>0.004674927380694476</v>
       </c>
       <c r="I124">
-        <v>-0.05705566843832699</v>
+        <v>0.07678530717184895</v>
       </c>
       <c r="J124">
-        <v>0.7868041445209126</v>
+        <v>0.7797551195308166</v>
       </c>
       <c r="K124">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="L124">
-        <v>3.08</v>
+        <v>3.2</v>
       </c>
       <c r="M124">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="N124">
-        <v>3.2</v>
+        <v>3.17</v>
       </c>
       <c r="O124">
         <v>1</v>
@@ -6981,49 +6987,49 @@
         <v>0</v>
       </c>
       <c r="B125" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C125">
-        <v>1.674116133860681</v>
+        <v>1.7430123394524</v>
       </c>
       <c r="D125" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="E125">
-        <v>1.731283335374008</v>
+        <v>1.666264072269054</v>
       </c>
       <c r="F125">
         <v>-1</v>
       </c>
       <c r="G125">
-        <v>0.004485883866139319</v>
+        <v>0.004656987660547601</v>
       </c>
       <c r="H125">
-        <v>0.004668716664625992</v>
+        <v>0.004673735927730945</v>
       </c>
       <c r="I125">
-        <v>-0.05716720151332666</v>
+        <v>0.07674826718334549</v>
       </c>
       <c r="J125">
-        <v>0.7854099810834182</v>
+        <v>0.7791377863890909</v>
       </c>
       <c r="K125">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="L125">
-        <v>3.08</v>
+        <v>3.2</v>
       </c>
       <c r="M125">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="N125">
-        <v>3.2</v>
+        <v>3.17</v>
       </c>
       <c r="O125">
         <v>1</v>
       </c>
       <c r="P125" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -7037,10 +7043,10 @@
         <v>1.745259534195844</v>
       </c>
       <c r="D126" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E126">
-        <v>1.660804008737934</v>
+        <v>1.668583369517636</v>
       </c>
       <c r="F126">
         <v>-1</v>
@@ -7049,10 +7055,10 @@
         <v>0.004654740465804157</v>
       </c>
       <c r="H126">
-        <v>0.004679195991262065</v>
+        <v>0.004671416630482364</v>
       </c>
       <c r="I126">
-        <v>0.08445552545790957</v>
+        <v>0.07667616467820837</v>
       </c>
       <c r="J126">
         <v>0.777936077970137</v>
@@ -7064,7 +7070,7 @@
         <v>3.2</v>
       </c>
       <c r="M126">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="N126">
         <v>3.17</v>
@@ -7073,7 +7079,7 @@
         <v>1</v>
       </c>
       <c r="P126" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -7087,10 +7093,10 @@
         <v>1.746411489484559</v>
       </c>
       <c r="D127" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E127">
-        <v>1.661999085347617</v>
+        <v>1.669772285938609</v>
       </c>
       <c r="F127">
         <v>-1</v>
@@ -7099,10 +7105,10 @@
         <v>0.004653588510515442</v>
       </c>
       <c r="H127">
-        <v>0.004678000914652383</v>
+        <v>0.004670227714061391</v>
       </c>
       <c r="I127">
-        <v>0.08441240413694184</v>
+        <v>0.07663920354595022</v>
       </c>
       <c r="J127">
         <v>0.7773200590991663</v>
@@ -7114,7 +7120,7 @@
         <v>3.2</v>
       </c>
       <c r="M127">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="N127">
         <v>3.17</v>
@@ -7123,7 +7129,7 @@
         <v>1</v>
       </c>
       <c r="P127" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -7137,10 +7143,10 @@
         <v>1.748527788884446</v>
       </c>
       <c r="D128" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E128">
-        <v>1.664194604511136</v>
+        <v>1.671956487993038</v>
       </c>
       <c r="F128">
         <v>-1</v>
@@ -7149,10 +7155,10 @@
         <v>0.004651472211115554</v>
       </c>
       <c r="H128">
-        <v>0.004675805395488864</v>
+        <v>0.004668043512006962</v>
       </c>
       <c r="I128">
-        <v>0.08433318437330972</v>
+        <v>0.0765713008914084</v>
       </c>
       <c r="J128">
         <v>0.7761883481901358</v>
@@ -7164,7 +7170,7 @@
         <v>3.2</v>
       </c>
       <c r="M128">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="N128">
         <v>3.17</v>
@@ -7173,7 +7179,7 @@
         <v>1</v>
       </c>
       <c r="P128" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -7187,10 +7193,10 @@
         <v>1.750999132580348</v>
       </c>
       <c r="D129" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E129">
-        <v>1.666758458398863</v>
+        <v>1.674507126139075</v>
       </c>
       <c r="F129">
         <v>-1</v>
@@ -7199,10 +7205,10 @@
         <v>0.004649000867419653</v>
       </c>
       <c r="H129">
-        <v>0.004673241541601136</v>
+        <v>0.004665492873860925</v>
       </c>
       <c r="I129">
-        <v>0.08424067418148429</v>
+        <v>0.07649200644127241</v>
       </c>
       <c r="J129">
         <v>0.7748667740212044</v>
@@ -7214,7 +7220,7 @@
         <v>3.2</v>
       </c>
       <c r="M129">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="N129">
         <v>3.17</v>
@@ -7223,7 +7229,7 @@
         <v>1</v>
       </c>
       <c r="P129" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -7237,10 +7243,10 @@
         <v>1.753450334202255</v>
       </c>
       <c r="D130" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E130">
-        <v>1.669301416231217</v>
+        <v>1.677036975941365</v>
       </c>
       <c r="F130">
         <v>-1</v>
@@ -7249,10 +7255,10 @@
         <v>0.004646549665797745</v>
       </c>
       <c r="H130">
-        <v>0.004670698583768783</v>
+        <v>0.004662963024058635</v>
       </c>
       <c r="I130">
-        <v>0.08414891797103863</v>
+        <v>0.07641335826089035</v>
       </c>
       <c r="J130">
         <v>0.7735559710148369</v>
@@ -7264,7 +7270,7 @@
         <v>3.2</v>
       </c>
       <c r="M130">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="N130">
         <v>3.17</v>
@@ -7273,7 +7279,7 @@
         <v>1</v>
       </c>
       <c r="P130" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -7287,10 +7293,10 @@
         <v>1.754939802540862</v>
       </c>
       <c r="D131" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E131">
-        <v>1.670846640069129</v>
+        <v>1.678574234707948</v>
       </c>
       <c r="F131">
         <v>-1</v>
@@ -7299,10 +7305,10 @@
         <v>0.004645060197459139</v>
       </c>
       <c r="H131">
-        <v>0.00466915335993087</v>
+        <v>0.004661425765292052</v>
       </c>
       <c r="I131">
-        <v>0.08409316247173271</v>
+        <v>0.07636556783291382</v>
       </c>
       <c r="J131">
         <v>0.7727594638818923</v>
@@ -7314,7 +7320,7 @@
         <v>3.2</v>
       </c>
       <c r="M131">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="N131">
         <v>3.17</v>
@@ -7323,7 +7329,7 @@
         <v>1</v>
       </c>
       <c r="P131" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="132" spans="1:16">
@@ -7337,10 +7343,10 @@
         <v>1.755568315849489</v>
       </c>
       <c r="D132" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E132">
-        <v>1.671498680613908</v>
+        <v>1.679222914218992</v>
       </c>
       <c r="F132">
         <v>-1</v>
@@ -7349,10 +7355,10 @@
         <v>0.004644431684150511</v>
       </c>
       <c r="H132">
-        <v>0.004668501319386092</v>
+        <v>0.004660777085781009</v>
       </c>
       <c r="I132">
-        <v>0.08406963523558075</v>
+        <v>0.07634540163049763</v>
       </c>
       <c r="J132">
         <v>0.7724233605082945</v>
@@ -7364,7 +7370,7 @@
         <v>3.2</v>
       </c>
       <c r="M132">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="N132">
         <v>3.17</v>
@@ -7373,7 +7379,7 @@
         <v>1</v>
       </c>
       <c r="P132" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="133" spans="1:16">
@@ -7387,10 +7393,10 @@
         <v>1.755871060200726</v>
       </c>
       <c r="D133" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E133">
-        <v>1.671812757641394</v>
+        <v>1.679535372292727</v>
       </c>
       <c r="F133">
         <v>-1</v>
@@ -7399,10 +7405,10 @@
         <v>0.004644128939799275</v>
       </c>
       <c r="H133">
-        <v>0.004668187242358606</v>
+        <v>0.004660464627707272</v>
       </c>
       <c r="I133">
-        <v>0.08405830255933133</v>
+        <v>0.07633568790799838</v>
       </c>
       <c r="J133">
         <v>0.7722614651333018</v>
@@ -7414,7 +7420,7 @@
         <v>3.2</v>
       </c>
       <c r="M133">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="N133">
         <v>3.17</v>
@@ -7423,7 +7429,7 @@
         <v>1</v>
       </c>
       <c r="P133" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -7437,10 +7443,10 @@
         <v>1.755021860709565</v>
       </c>
       <c r="D134" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E134">
-        <v>1.670931769933987</v>
+        <v>1.67865892575907</v>
       </c>
       <c r="F134">
         <v>-1</v>
@@ -7449,10 +7455,10 @@
         <v>0.004644978139290435</v>
       </c>
       <c r="H134">
-        <v>0.004669068230066012</v>
+        <v>0.004661341074240931</v>
       </c>
       <c r="I134">
-        <v>0.08409009077557794</v>
+        <v>0.07636293495049529</v>
       </c>
       <c r="J134">
         <v>0.772715582508254</v>
@@ -7464,7 +7470,7 @@
         <v>3.2</v>
       </c>
       <c r="M134">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="N134">
         <v>3.17</v>
@@ -7473,7 +7479,7 @@
         <v>1</v>
       </c>
       <c r="P134" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -7487,10 +7493,10 @@
         <v>1.753276827162878</v>
       </c>
       <c r="D135" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E135">
-        <v>1.669121414275927</v>
+        <v>1.676857901831206</v>
       </c>
       <c r="F135">
         <v>-1</v>
@@ -7499,10 +7505,10 @@
         <v>0.004646723172837122</v>
       </c>
       <c r="H135">
-        <v>0.004670878585724072</v>
+        <v>0.004663142098168794</v>
       </c>
       <c r="I135">
-        <v>0.08415541288695105</v>
+        <v>0.07641892533167249</v>
       </c>
       <c r="J135">
         <v>0.7736487555278725</v>
@@ -7514,7 +7520,7 @@
         <v>3.2</v>
       </c>
       <c r="M135">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="N135">
         <v>3.17</v>
@@ -7523,7 +7529,7 @@
         <v>1</v>
       </c>
       <c r="P135" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="136" spans="1:16">
@@ -7537,10 +7543,10 @@
         <v>1.751466054533885</v>
       </c>
       <c r="D136" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E136">
-        <v>1.667242858714298</v>
+        <v>1.674989029545668</v>
       </c>
       <c r="F136">
         <v>-1</v>
@@ -7549,10 +7555,10 @@
         <v>0.004648533945466115</v>
       </c>
       <c r="H136">
-        <v>0.004672757141285702</v>
+        <v>0.004665010970454333</v>
       </c>
       <c r="I136">
-        <v>0.08422319581958737</v>
+        <v>0.07647702498821762</v>
       </c>
       <c r="J136">
         <v>0.7746170831369599</v>
@@ -7564,7 +7570,7 @@
         <v>3.2</v>
       </c>
       <c r="M136">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="N136">
         <v>3.17</v>
@@ -7573,7 +7579,7 @@
         <v>1</v>
       </c>
       <c r="P136" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -7587,10 +7593,10 @@
         <v>1.748327094900906</v>
       </c>
       <c r="D137" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E137">
-        <v>1.663986397918586</v>
+        <v>1.671749354630346</v>
       </c>
       <c r="F137">
         <v>-1</v>
@@ -7599,10 +7605,10 @@
         <v>0.004651672905099095</v>
       </c>
       <c r="H137">
-        <v>0.004676013602081413</v>
+        <v>0.004668250645369653</v>
       </c>
       <c r="I137">
-        <v>0.08434069698231927</v>
+        <v>0.07657774027055941</v>
       </c>
       <c r="J137">
         <v>0.7762956711759863</v>
@@ -7614,7 +7620,7 @@
         <v>3.2</v>
       </c>
       <c r="M137">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="N137">
         <v>3.17</v>
@@ -7623,7 +7629,7 @@
         <v>1</v>
       </c>
       <c r="P137" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="138" spans="1:16">
@@ -7637,10 +7643,10 @@
         <v>1.745110555324242</v>
       </c>
       <c r="D138" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E138">
-        <v>1.660649453117128</v>
+        <v>1.668429610575287</v>
       </c>
       <c r="F138">
         <v>-1</v>
@@ -7649,10 +7655,10 @@
         <v>0.004654889444675759</v>
       </c>
       <c r="H138">
-        <v>0.004679350546882872</v>
+        <v>0.004671570389424713</v>
       </c>
       <c r="I138">
-        <v>0.084461102207114</v>
+        <v>0.07668094474895493</v>
       </c>
       <c r="J138">
         <v>0.7780157458159134</v>
@@ -7664,7 +7670,7 @@
         <v>3.2</v>
       </c>
       <c r="M138">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="N138">
         <v>3.17</v>
@@ -7673,7 +7679,7 @@
         <v>1</v>
       </c>
       <c r="P138" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="139" spans="1:16">
@@ -7687,10 +7693,10 @@
         <v>1.743382145937803</v>
       </c>
       <c r="D139" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E139">
-        <v>1.658856343914085</v>
+        <v>1.666645744203187</v>
       </c>
       <c r="F139">
         <v>-1</v>
@@ -7699,10 +7705,10 @@
         <v>0.004656617854062197</v>
       </c>
       <c r="H139">
-        <v>0.004681143656085915</v>
+        <v>0.004673354255796813</v>
       </c>
       <c r="I139">
-        <v>0.08452580202371873</v>
+        <v>0.07673640173461593</v>
       </c>
       <c r="J139">
         <v>0.7789400289102656</v>
@@ -7714,7 +7720,7 @@
         <v>3.2</v>
       </c>
       <c r="M139">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="N139">
         <v>3.17</v>
@@ -7723,7 +7729,7 @@
         <v>1</v>
       </c>
       <c r="P139" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -7737,10 +7743,10 @@
         <v>1.7416544035055</v>
       </c>
       <c r="D140" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E140">
-        <v>1.657063926631375</v>
+        <v>1.664862566184821</v>
       </c>
       <c r="F140">
         <v>-1</v>
@@ -7749,10 +7755,10 @@
         <v>0.0046583455964945</v>
       </c>
       <c r="H140">
-        <v>0.004682936073368625</v>
+        <v>0.004675137433815178</v>
       </c>
       <c r="I140">
-        <v>0.08459047687412569</v>
+        <v>0.07679183732067929</v>
       </c>
       <c r="J140">
         <v>0.7798639553446522</v>
@@ -7764,7 +7770,7 @@
         <v>3.2</v>
       </c>
       <c r="M140">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="N140">
         <v>3.17</v>
@@ -7773,7 +7779,57 @@
         <v>1</v>
       </c>
       <c r="P140" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16">
+      <c r="A141" s="1">
+        <v>0</v>
+      </c>
+      <c r="B141" t="s">
+        <v>39</v>
+      </c>
+      <c r="C141">
+        <v>1.739968999606976</v>
+      </c>
+      <c r="D141" t="s">
+        <v>61</v>
+      </c>
+      <c r="E141">
+        <v>1.663123085155863</v>
+      </c>
+      <c r="F141">
+        <v>-1</v>
+      </c>
+      <c r="G141">
+        <v>0.004660031000393024</v>
+      </c>
+      <c r="H141">
+        <v>0.004676876914844136</v>
+      </c>
+      <c r="I141">
+        <v>0.07684591445111311</v>
+      </c>
+      <c r="J141">
+        <v>0.7807652408518843</v>
+      </c>
+      <c r="K141">
+        <v>1.87</v>
+      </c>
+      <c r="L141">
+        <v>3.2</v>
+      </c>
+      <c r="M141">
+        <v>1.93</v>
+      </c>
+      <c r="N141">
+        <v>3.17</v>
+      </c>
+      <c r="O141">
+        <v>1</v>
+      </c>
+      <c r="P141" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/s60_signal/position-01618-601618.xlsx
+++ b/s60_signal/position-01618-601618.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="138">
   <si>
     <t>trade_time</t>
   </si>
@@ -106,12 +106,12 @@
     <t>2021-01-15</t>
   </si>
   <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
     <t>2021-04-01</t>
   </si>
   <si>
-    <t>2021-03-31</t>
-  </si>
-  <si>
     <t>2021-02-26</t>
   </si>
   <si>
@@ -169,37 +169,37 @@
     <t>2021-01-12</t>
   </si>
   <si>
+    <t>2021-03-10</t>
+  </si>
+  <si>
+    <t>2021-05-21</t>
+  </si>
+  <si>
+    <t>2021-01-22</t>
+  </si>
+  <si>
+    <t>2021-04-30</t>
+  </si>
+  <si>
+    <t>2021-01-07</t>
+  </si>
+  <si>
+    <t>2021-01-26</t>
+  </si>
+  <si>
+    <t>2021-03-09</t>
+  </si>
+  <si>
+    <t>2021-04-21</t>
+  </si>
+  <si>
+    <t>2021-05-06</t>
+  </si>
+  <si>
     <t>2021-05-24</t>
   </si>
   <si>
-    <t>2021-03-10</t>
-  </si>
-  <si>
-    <t>2021-05-21</t>
-  </si>
-  <si>
-    <t>2021-01-22</t>
-  </si>
-  <si>
-    <t>2021-04-30</t>
-  </si>
-  <si>
-    <t>2021-01-07</t>
-  </si>
-  <si>
-    <t>2021-01-26</t>
-  </si>
-  <si>
-    <t>2021-03-09</t>
-  </si>
-  <si>
-    <t>2021-04-21</t>
-  </si>
-  <si>
-    <t>2021-05-06</t>
-  </si>
-  <si>
-    <t>2021-07-15</t>
+    <t>2021-07-16</t>
   </si>
   <si>
     <t>2021-05-28</t>
@@ -422,6 +422,12 @@
   </si>
   <si>
     <t>2021-07-02</t>
+  </si>
+  <si>
+    <t>2021-07-05</t>
+  </si>
+  <si>
+    <t>2021-07-06</t>
   </si>
 </sst>
 </file>
@@ -779,7 +785,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P141"/>
+  <dimension ref="A1:P142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2346,7 +2352,7 @@
         <v>51</v>
       </c>
       <c r="E32">
-        <v>2.56427663569716</v>
+        <v>2.601744839228811</v>
       </c>
       <c r="F32">
         <v>-1</v>
@@ -2355,10 +2361,10 @@
         <v>0.004132313187720295</v>
       </c>
       <c r="H32">
-        <v>0.003475723364302841</v>
+        <v>0.003518255160771189</v>
       </c>
       <c r="I32">
-        <v>0.4034101765825446</v>
+        <v>0.3659419730508935</v>
       </c>
       <c r="J32">
         <v>0.2531796468349111</v>
@@ -2370,10 +2376,10 @@
         <v>3.55</v>
       </c>
       <c r="M32">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="N32">
-        <v>3.02</v>
+        <v>3.06</v>
       </c>
       <c r="O32">
         <v>1</v>
@@ -2393,10 +2399,10 @@
         <v>2.94857711339348</v>
       </c>
       <c r="D33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E33">
-        <v>2.56427663569716</v>
+        <v>2.601744839228811</v>
       </c>
       <c r="F33">
         <v>-1</v>
@@ -2405,10 +2411,10 @@
         <v>0.00397142288660652</v>
       </c>
       <c r="H33">
-        <v>0.003475723364302841</v>
+        <v>0.003518255160771189</v>
       </c>
       <c r="I33">
-        <v>0.3843004776963199</v>
+        <v>0.3468322741646688</v>
       </c>
       <c r="J33">
         <v>0.2531796468349111</v>
@@ -2420,10 +2426,10 @@
         <v>3.46</v>
       </c>
       <c r="M33">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="N33">
-        <v>3.02</v>
+        <v>3.06</v>
       </c>
       <c r="O33">
         <v>1</v>
@@ -2443,10 +2449,10 @@
         <v>2.936045316925131</v>
       </c>
       <c r="D34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E34">
-        <v>2.56427663569716</v>
+        <v>2.601744839228811</v>
       </c>
       <c r="F34">
         <v>-1</v>
@@ -2455,10 +2461,10 @@
         <v>0.00396395468307487</v>
       </c>
       <c r="H34">
-        <v>0.003475723364302841</v>
+        <v>0.003518255160771189</v>
       </c>
       <c r="I34">
-        <v>0.3717686812279708</v>
+        <v>0.3343004776963197</v>
       </c>
       <c r="J34">
         <v>0.2531796468349111</v>
@@ -2470,10 +2476,10 @@
         <v>3.45</v>
       </c>
       <c r="M34">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="N34">
-        <v>3.02</v>
+        <v>3.06</v>
       </c>
       <c r="O34">
         <v>1</v>
@@ -2593,7 +2599,7 @@
         <v>2.969422072159588</v>
       </c>
       <c r="D37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E37">
         <v>2.603110413308198</v>
@@ -2643,7 +2649,7 @@
         <v>2.950101124244508</v>
       </c>
       <c r="D38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E38">
         <v>2.603110413308198</v>
@@ -2693,7 +2699,7 @@
         <v>2.937576872384333</v>
       </c>
       <c r="D39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E39">
         <v>2.603110413308198</v>
@@ -2793,7 +2799,7 @@
         <v>2.970852231383444</v>
       </c>
       <c r="D41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E41">
         <v>2.604235886436537</v>
@@ -2843,7 +2849,7 @@
         <v>2.951357177128068</v>
       </c>
       <c r="D42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E42">
         <v>2.604235886436537</v>
@@ -2893,7 +2899,7 @@
         <v>2.938839143351475</v>
       </c>
       <c r="D43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E43">
         <v>2.604235886436537</v>
@@ -2993,7 +2999,7 @@
         <v>2.964905134405401</v>
       </c>
       <c r="D45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E45">
         <v>2.599555779684251</v>
@@ -3043,7 +3049,7 @@
         <v>2.946134074564744</v>
       </c>
       <c r="D46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E46">
         <v>2.599555779684251</v>
@@ -3093,7 +3099,7 @@
         <v>2.933590183844768</v>
       </c>
       <c r="D47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E47">
         <v>2.599555779684251</v>
@@ -3193,7 +3199,7 @@
         <v>2.492796963946868</v>
       </c>
       <c r="D49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E49">
         <v>2.222096394686907</v>
@@ -3243,7 +3249,7 @@
         <v>2.502796963946869</v>
       </c>
       <c r="D50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E50">
         <v>2.222096394686907</v>
@@ -3290,10 +3296,10 @@
         <v>30</v>
       </c>
       <c r="C51">
-        <v>2.504006072106261</v>
+        <v>2.480757495256166</v>
       </c>
       <c r="D51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E51">
         <v>2.229102087286527</v>
@@ -3302,19 +3308,19 @@
         <v>-1</v>
       </c>
       <c r="G51">
-        <v>0.004335993927893739</v>
+        <v>0.004359242504743834</v>
       </c>
       <c r="H51">
         <v>0.003930897912713473</v>
       </c>
       <c r="I51">
-        <v>0.2749039848197343</v>
+        <v>0.2516554079696394</v>
       </c>
       <c r="J51">
         <v>0.4649715370018978</v>
       </c>
       <c r="K51">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="L51">
         <v>3.42</v>
@@ -3343,7 +3349,7 @@
         <v>2.506107779886148</v>
       </c>
       <c r="D52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E52">
         <v>2.229102087286527</v>
@@ -3393,7 +3399,7 @@
         <v>1.934694011032936</v>
       </c>
       <c r="D53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E53">
         <v>2.167884562588337</v>
@@ -3443,7 +3449,7 @@
         <v>2.422019174201789</v>
       </c>
       <c r="D54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E54">
         <v>2.152176517544798</v>
@@ -3487,13 +3493,13 @@
         <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C55">
         <v>2.394108322356129</v>
       </c>
       <c r="D55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E55">
         <v>2.150603084114712</v>
@@ -3543,7 +3549,7 @@
         <v>2.419029650684626</v>
       </c>
       <c r="D56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E56">
         <v>2.150603084114712</v>
@@ -3593,7 +3599,7 @@
         <v>2.361811863714594</v>
       </c>
       <c r="D57" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E57">
         <v>2.092698992639265</v>
@@ -3637,13 +3643,13 @@
         <v>1</v>
       </c>
       <c r="B58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C58">
         <v>2.32039997860817</v>
       </c>
       <c r="D58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E58">
         <v>2.08382770339255</v>
@@ -3693,7 +3699,7 @@
         <v>2.344956414145834</v>
       </c>
       <c r="D59" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E59">
         <v>2.08382770339255</v>
@@ -3743,7 +3749,7 @@
         <v>2.284943445032334</v>
       </c>
       <c r="D60" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E60">
         <v>2.016762312365275</v>
@@ -3787,13 +3793,13 @@
         <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C61">
         <v>2.226294399372918</v>
       </c>
       <c r="D61" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E61">
         <v>1.998573639035861</v>
@@ -3843,7 +3849,7 @@
         <v>2.250384965706448</v>
       </c>
       <c r="D62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E62">
         <v>1.998573639035861</v>
@@ -3893,7 +3899,7 @@
         <v>2.206392009113778</v>
       </c>
       <c r="D63" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E63">
         <v>1.894705026964186</v>
@@ -3937,13 +3943,13 @@
         <v>1</v>
       </c>
       <c r="B64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C64">
         <v>2.130128399036261</v>
       </c>
       <c r="D64" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E64">
         <v>1.911452955562554</v>
@@ -3993,7 +3999,7 @@
         <v>2.153742896061194</v>
       </c>
       <c r="D65" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E65">
         <v>1.911452955562554</v>
@@ -4037,13 +4043,13 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C66">
         <v>2.062136368241531</v>
       </c>
       <c r="D66" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E66">
         <v>1.818634291310661</v>
@@ -4093,7 +4099,7 @@
         <v>2.050780115497619</v>
       </c>
       <c r="D67" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E67">
         <v>1.818634291310661</v>
@@ -4137,13 +4143,13 @@
         <v>0</v>
       </c>
       <c r="B68" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C68">
         <v>1.960646887966805</v>
       </c>
       <c r="D68" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E68">
         <v>1.724357261410788</v>
@@ -4193,7 +4199,7 @@
         <v>1.946199585062241</v>
       </c>
       <c r="D69" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E69">
         <v>1.724357261410788</v>
@@ -4237,13 +4243,13 @@
         <v>0</v>
       </c>
       <c r="B70" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C70">
         <v>1.843540306843175</v>
       </c>
       <c r="D70" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E70">
         <v>1.615572975392391</v>
@@ -4293,7 +4299,7 @@
         <v>1.825526306036369</v>
       </c>
       <c r="D71" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E71">
         <v>1.615572975392391</v>
@@ -4343,7 +4349,7 @@
         <v>1.364830842322013</v>
       </c>
       <c r="D72" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E72">
         <v>1.554057700011381</v>
@@ -4387,13 +4393,13 @@
         <v>1</v>
       </c>
       <c r="B73" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C73">
         <v>1.746644873089242</v>
       </c>
       <c r="D73" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E73">
         <v>1.525563511549905</v>
@@ -4443,7 +4449,7 @@
         <v>1.253223538131198</v>
       </c>
       <c r="D74" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E74">
         <v>1.465356698427415</v>
@@ -4487,13 +4493,13 @@
         <v>1</v>
       </c>
       <c r="B75" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C75">
         <v>1.650633349396707</v>
       </c>
       <c r="D75" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E75">
         <v>1.454707122988519</v>
@@ -4543,7 +4549,7 @@
         <v>1.142741567826858</v>
       </c>
       <c r="D76" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E76">
         <v>1.377550067006499</v>
@@ -4593,7 +4599,7 @@
         <v>1.02473295176371</v>
       </c>
       <c r="D77" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E77">
         <v>1.28376155991701</v>
@@ -4643,7 +4649,7 @@
         <v>0.9555784956116042</v>
       </c>
       <c r="D78" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E78">
         <v>1.228800376424943</v>
@@ -4693,7 +4699,7 @@
         <v>0.95505474527386</v>
       </c>
       <c r="D79" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E79">
         <v>1.172750932925077</v>
@@ -4743,7 +4749,7 @@
         <v>0.8997461387005035</v>
       </c>
       <c r="D80" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E80">
         <v>1.128793874425728</v>
@@ -4793,7 +4799,7 @@
         <v>0.9004291893178089</v>
       </c>
       <c r="D81" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E81">
         <v>1.129336735615027</v>
@@ -4843,7 +4849,7 @@
         <v>0.8995341152947529</v>
       </c>
       <c r="D82" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E82">
         <v>1.128625366740808</v>
@@ -4893,7 +4899,7 @@
         <v>0.8942975364165378</v>
       </c>
       <c r="D83" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E83">
         <v>1.124463544226244</v>
@@ -4929,7 +4935,7 @@
         <v>1</v>
       </c>
       <c r="P83" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -4943,7 +4949,7 @@
         <v>0.823882990348408</v>
       </c>
       <c r="D84" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E84">
         <v>1.068500891892621</v>
@@ -4993,7 +4999,7 @@
         <v>0.7552208383877499</v>
       </c>
       <c r="D85" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E85">
         <v>1.013930971993758</v>
@@ -5043,7 +5049,7 @@
         <v>0.7164672131147527</v>
       </c>
       <c r="D86" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E86">
         <v>0.9831311475409823</v>
@@ -5093,7 +5099,7 @@
         <v>0.6498239504652852</v>
       </c>
       <c r="D87" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E87">
         <v>0.9301657597584363</v>
@@ -5393,7 +5399,7 @@
         <v>0.2977942894248136</v>
       </c>
       <c r="D93" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E93">
         <v>0.5755281891875166</v>
@@ -5437,13 +5443,13 @@
         <v>0</v>
       </c>
       <c r="B94" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C94">
         <v>1.851150997400674</v>
       </c>
       <c r="D94" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E94">
         <v>1.622642804691997</v>
@@ -5479,7 +5485,7 @@
         <v>1</v>
       </c>
       <c r="P94" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -5493,7 +5499,7 @@
         <v>1.833368794275822</v>
       </c>
       <c r="D95" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E95">
         <v>1.622642804691997</v>
@@ -5529,7 +5535,7 @@
         <v>1</v>
       </c>
       <c r="P95" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -5543,7 +5549,7 @@
         <v>1.825554329597634</v>
       </c>
       <c r="D96" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E96">
         <v>1.61559823801166</v>
@@ -5579,7 +5585,7 @@
         <v>1</v>
       </c>
       <c r="P96" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -5593,7 +5599,7 @@
         <v>1.814964366537685</v>
       </c>
       <c r="D97" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E97">
         <v>1.606051621065991</v>
@@ -5643,7 +5649,7 @@
         <v>1.80276175127278</v>
       </c>
       <c r="D98" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E98">
         <v>1.595051233906003</v>
@@ -5693,7 +5699,7 @@
         <v>1.766532803009457</v>
       </c>
       <c r="D99" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E99">
         <v>1.595051233906003</v>
@@ -5743,7 +5749,7 @@
         <v>1.799355758249058</v>
       </c>
       <c r="D100" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E100">
         <v>1.591980806697426</v>
@@ -5793,7 +5799,7 @@
         <v>1.763093253404221</v>
       </c>
       <c r="D101" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E101">
         <v>1.591980806697426</v>
@@ -5843,7 +5849,7 @@
         <v>1.758945050051923</v>
       </c>
       <c r="D102" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E102">
         <v>1.579368851023481</v>
@@ -5893,7 +5899,7 @@
         <v>1.72904089319749</v>
       </c>
       <c r="D103" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E103">
         <v>1.571905533403557</v>
@@ -5934,40 +5940,40 @@
     </row>
     <row r="104" spans="1:16">
       <c r="A104" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B104" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C104">
-        <v>1.750849917183753</v>
+        <v>1.732368893145465</v>
       </c>
       <c r="D104" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E104">
-        <v>1.571905533403557</v>
+        <v>1.574988827473004</v>
       </c>
       <c r="F104">
         <v>-1</v>
       </c>
       <c r="G104">
-        <v>0.005109150082816248</v>
+        <v>0.005067631106854534</v>
       </c>
       <c r="H104">
-        <v>0.004668094466596443</v>
+        <v>0.004665011172526996</v>
       </c>
       <c r="I104">
-        <v>0.1789443837801954</v>
+        <v>0.1573800656724604</v>
       </c>
       <c r="J104">
-        <v>0.8190976013737793</v>
+        <v>0.8174662288502623</v>
       </c>
       <c r="K104">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="L104">
-        <v>3.43</v>
+        <v>3.4</v>
       </c>
       <c r="M104">
         <v>1.89</v>
@@ -5979,7 +5985,7 @@
         <v>1</v>
       </c>
       <c r="P104" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -5987,49 +5993,49 @@
         <v>0</v>
       </c>
       <c r="B105" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C105">
-        <v>1.732368893145465</v>
+        <v>1.697534484639878</v>
       </c>
       <c r="D105" t="s">
         <v>60</v>
       </c>
       <c r="E105">
-        <v>1.574988827473004</v>
+        <v>1.561011377500918</v>
       </c>
       <c r="F105">
         <v>-1</v>
       </c>
       <c r="G105">
-        <v>0.005067631106854534</v>
+        <v>0.004842465515360122</v>
       </c>
       <c r="H105">
-        <v>0.004665011172526996</v>
+        <v>0.004478988622499082</v>
       </c>
       <c r="I105">
-        <v>0.1573800656724604</v>
+        <v>0.1365231071389603</v>
       </c>
       <c r="J105">
-        <v>0.8174662288502623</v>
+        <v>0.8105492347217125</v>
       </c>
       <c r="K105">
-        <v>2.04</v>
+        <v>1.94</v>
       </c>
       <c r="L105">
-        <v>3.4</v>
+        <v>3.27</v>
       </c>
       <c r="M105">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="N105">
-        <v>3.12</v>
+        <v>3.02</v>
       </c>
       <c r="O105">
         <v>1</v>
       </c>
       <c r="P105" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -6040,28 +6046,28 @@
         <v>38</v>
       </c>
       <c r="C106">
-        <v>1.697534484639878</v>
+        <v>1.703024477239647</v>
       </c>
       <c r="D106" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E106">
-        <v>1.561011377500918</v>
+        <v>1.566105185067714</v>
       </c>
       <c r="F106">
         <v>-1</v>
       </c>
       <c r="G106">
-        <v>0.004842465515360122</v>
+        <v>0.004836975522760354</v>
       </c>
       <c r="H106">
-        <v>0.004478988622499082</v>
+        <v>0.004473894814932287</v>
       </c>
       <c r="I106">
-        <v>0.1365231071389603</v>
+        <v>0.1369192921719335</v>
       </c>
       <c r="J106">
-        <v>0.8105492347217125</v>
+        <v>0.8077193416290479</v>
       </c>
       <c r="K106">
         <v>1.94</v>
@@ -6079,7 +6085,7 @@
         <v>1</v>
       </c>
       <c r="P106" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -6090,28 +6096,28 @@
         <v>38</v>
       </c>
       <c r="C107">
-        <v>1.703024477239647</v>
+        <v>1.706762500295012</v>
       </c>
       <c r="D107" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E107">
-        <v>1.566105185067714</v>
+        <v>1.56957345388197</v>
       </c>
       <c r="F107">
         <v>-1</v>
       </c>
       <c r="G107">
-        <v>0.004836975522760354</v>
+        <v>0.004833237499704988</v>
       </c>
       <c r="H107">
-        <v>0.004473894814932287</v>
+        <v>0.004470426546118031</v>
       </c>
       <c r="I107">
-        <v>0.1369192921719335</v>
+        <v>0.1371890464130423</v>
       </c>
       <c r="J107">
-        <v>0.8077193416290479</v>
+        <v>0.8057925256211278</v>
       </c>
       <c r="K107">
         <v>1.94</v>
@@ -6129,7 +6135,7 @@
         <v>1</v>
       </c>
       <c r="P107" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -6140,28 +6146,28 @@
         <v>38</v>
       </c>
       <c r="C108">
-        <v>1.706762500295012</v>
+        <v>1.711603744119008</v>
       </c>
       <c r="D108" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E108">
-        <v>1.56957345388197</v>
+        <v>1.574065329594956</v>
       </c>
       <c r="F108">
         <v>-1</v>
       </c>
       <c r="G108">
-        <v>0.004833237499704988</v>
+        <v>0.004828396255880993</v>
       </c>
       <c r="H108">
-        <v>0.004470426546118031</v>
+        <v>0.004465934670405044</v>
       </c>
       <c r="I108">
-        <v>0.1371890464130423</v>
+        <v>0.1375384145240521</v>
       </c>
       <c r="J108">
-        <v>0.8057925256211278</v>
+        <v>0.8032970391139135</v>
       </c>
       <c r="K108">
         <v>1.94</v>
@@ -6179,7 +6185,7 @@
         <v>1</v>
       </c>
       <c r="P108" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -6187,49 +6193,49 @@
         <v>0</v>
       </c>
       <c r="B109" t="s">
+        <v>39</v>
+      </c>
+      <c r="C109">
+        <v>1.702699397711841</v>
+      </c>
+      <c r="D109" t="s">
+        <v>61</v>
+      </c>
+      <c r="E109">
+        <v>1.58060202641754</v>
+      </c>
+      <c r="F109">
+        <v>-1</v>
+      </c>
+      <c r="G109">
+        <v>0.004697300602288159</v>
+      </c>
+      <c r="H109">
+        <v>0.00479939797358246</v>
+      </c>
+      <c r="I109">
+        <v>0.1220973712943008</v>
+      </c>
+      <c r="J109">
+        <v>0.8006955092450049</v>
+      </c>
+      <c r="K109">
+        <v>1.87</v>
+      </c>
+      <c r="L109">
+        <v>3.2</v>
+      </c>
+      <c r="M109">
+        <v>2.01</v>
+      </c>
+      <c r="N109">
+        <v>3.19</v>
+      </c>
+      <c r="O109">
+        <v>1</v>
+      </c>
+      <c r="P109" t="s">
         <v>38</v>
-      </c>
-      <c r="C109">
-        <v>1.711603744119008</v>
-      </c>
-      <c r="D109" t="s">
-        <v>51</v>
-      </c>
-      <c r="E109">
-        <v>1.574065329594956</v>
-      </c>
-      <c r="F109">
-        <v>-1</v>
-      </c>
-      <c r="G109">
-        <v>0.004828396255880993</v>
-      </c>
-      <c r="H109">
-        <v>0.004465934670405044</v>
-      </c>
-      <c r="I109">
-        <v>0.1375384145240521</v>
-      </c>
-      <c r="J109">
-        <v>0.8032970391139135</v>
-      </c>
-      <c r="K109">
-        <v>1.94</v>
-      </c>
-      <c r="L109">
-        <v>3.27</v>
-      </c>
-      <c r="M109">
-        <v>1.8</v>
-      </c>
-      <c r="N109">
-        <v>3.02</v>
-      </c>
-      <c r="O109">
-        <v>1</v>
-      </c>
-      <c r="P109" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -6240,28 +6246,28 @@
         <v>39</v>
       </c>
       <c r="C110">
-        <v>1.702699397711841</v>
+        <v>1.706549065306413</v>
       </c>
       <c r="D110" t="s">
         <v>61</v>
       </c>
       <c r="E110">
-        <v>1.624657667157141</v>
+        <v>1.584739904420262</v>
       </c>
       <c r="F110">
         <v>-1</v>
       </c>
       <c r="G110">
-        <v>0.004697300602288159</v>
+        <v>0.004693450934693588</v>
       </c>
       <c r="H110">
-        <v>0.004715342332842859</v>
+        <v>0.004795260095579738</v>
       </c>
       <c r="I110">
-        <v>0.07804173055470032</v>
+        <v>0.1218091608861507</v>
       </c>
       <c r="J110">
-        <v>0.8006955092450049</v>
+        <v>0.7986368634725065</v>
       </c>
       <c r="K110">
         <v>1.87</v>
@@ -6270,16 +6276,16 @@
         <v>3.2</v>
       </c>
       <c r="M110">
-        <v>1.93</v>
+        <v>2.01</v>
       </c>
       <c r="N110">
-        <v>3.17</v>
+        <v>3.19</v>
       </c>
       <c r="O110">
         <v>1</v>
       </c>
       <c r="P110" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -6290,28 +6296,28 @@
         <v>39</v>
       </c>
       <c r="C111">
-        <v>1.706549065306413</v>
+        <v>1.715081561736875</v>
       </c>
       <c r="D111" t="s">
         <v>61</v>
       </c>
       <c r="E111">
-        <v>1.628630853498062</v>
+        <v>1.59391119737493</v>
       </c>
       <c r="F111">
         <v>-1</v>
       </c>
       <c r="G111">
-        <v>0.004693450934693588</v>
+        <v>0.004684918438263125</v>
       </c>
       <c r="H111">
-        <v>0.004711369146501937</v>
+        <v>0.00478608880262507</v>
       </c>
       <c r="I111">
-        <v>0.07791821180835035</v>
+        <v>0.1211703643619453</v>
       </c>
       <c r="J111">
-        <v>0.7986368634725065</v>
+        <v>0.7940740311567515</v>
       </c>
       <c r="K111">
         <v>1.87</v>
@@ -6320,16 +6326,16 @@
         <v>3.2</v>
       </c>
       <c r="M111">
-        <v>1.93</v>
+        <v>2.01</v>
       </c>
       <c r="N111">
-        <v>3.17</v>
+        <v>3.19</v>
       </c>
       <c r="O111">
         <v>1</v>
       </c>
       <c r="P111" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -6340,28 +6346,28 @@
         <v>39</v>
       </c>
       <c r="C112">
-        <v>1.715081561736875</v>
+        <v>1.724215665563157</v>
       </c>
       <c r="D112" t="s">
         <v>61</v>
       </c>
       <c r="E112">
-        <v>1.63743711986747</v>
+        <v>1.603729137851308</v>
       </c>
       <c r="F112">
         <v>-1</v>
       </c>
       <c r="G112">
-        <v>0.004684918438263125</v>
+        <v>0.004675784334436843</v>
       </c>
       <c r="H112">
-        <v>0.00470256288013253</v>
+        <v>0.004776270862148693</v>
       </c>
       <c r="I112">
-        <v>0.07764444186940511</v>
+        <v>0.1204865277118492</v>
       </c>
       <c r="J112">
-        <v>0.7940740311567515</v>
+        <v>0.7891894836560657</v>
       </c>
       <c r="K112">
         <v>1.87</v>
@@ -6370,16 +6376,16 @@
         <v>3.2</v>
       </c>
       <c r="M112">
-        <v>1.93</v>
+        <v>2.01</v>
       </c>
       <c r="N112">
-        <v>3.17</v>
+        <v>3.19</v>
       </c>
       <c r="O112">
         <v>1</v>
       </c>
       <c r="P112" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -6390,28 +6396,28 @@
         <v>39</v>
       </c>
       <c r="C113">
-        <v>1.724215665563157</v>
+        <v>1.726739382920171</v>
       </c>
       <c r="D113" t="s">
         <v>61</v>
       </c>
       <c r="E113">
-        <v>1.646864296543793</v>
+        <v>1.606441796614729</v>
       </c>
       <c r="F113">
         <v>-1</v>
       </c>
       <c r="G113">
-        <v>0.004675784334436843</v>
+        <v>0.00467326061707983</v>
       </c>
       <c r="H113">
-        <v>0.004693135703456207</v>
+        <v>0.004773558203385271</v>
       </c>
       <c r="I113">
-        <v>0.07735136901936412</v>
+        <v>0.1202975863054419</v>
       </c>
       <c r="J113">
-        <v>0.7891894836560657</v>
+        <v>0.7878399021817268</v>
       </c>
       <c r="K113">
         <v>1.87</v>
@@ -6420,16 +6426,16 @@
         <v>3.2</v>
       </c>
       <c r="M113">
-        <v>1.93</v>
+        <v>2.01</v>
       </c>
       <c r="N113">
-        <v>3.17</v>
+        <v>3.19</v>
       </c>
       <c r="O113">
         <v>1</v>
       </c>
       <c r="P113" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -6437,93 +6443,93 @@
         <v>0</v>
       </c>
       <c r="B114" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C114">
-        <v>1.726739382920171</v>
+        <v>1.708455604764484</v>
       </c>
       <c r="D114" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E114">
-        <v>1.649468988789267</v>
+        <v>1.602087480096213</v>
       </c>
       <c r="F114">
         <v>-1</v>
       </c>
       <c r="G114">
-        <v>0.00467326061707983</v>
+        <v>0.004591544395235517</v>
       </c>
       <c r="H114">
-        <v>0.004690531011210733</v>
+        <v>0.004437912519903786</v>
       </c>
       <c r="I114">
-        <v>0.07727039413090364</v>
+        <v>0.1063681246682702</v>
       </c>
       <c r="J114">
-        <v>0.7878399021817268</v>
+        <v>0.7877291777243258</v>
       </c>
       <c r="K114">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="L114">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="M114">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="N114">
-        <v>3.17</v>
+        <v>3.02</v>
       </c>
       <c r="O114">
         <v>1</v>
       </c>
       <c r="P114" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:16">
       <c r="A115" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B115" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C115">
-        <v>1.708455604764484</v>
+        <v>1.726946437655511</v>
       </c>
       <c r="D115" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E115">
-        <v>1.602087480096213</v>
+        <v>1.606664352774105</v>
       </c>
       <c r="F115">
         <v>-1</v>
       </c>
       <c r="G115">
-        <v>0.004591544395235517</v>
+        <v>0.004673053562344489</v>
       </c>
       <c r="H115">
-        <v>0.004437912519903786</v>
+        <v>0.004773335647225894</v>
       </c>
       <c r="I115">
-        <v>0.1063681246682702</v>
+        <v>0.1202820848814057</v>
       </c>
       <c r="J115">
         <v>0.7877291777243258</v>
       </c>
       <c r="K115">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="L115">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="M115">
-        <v>1.8</v>
+        <v>2.01</v>
       </c>
       <c r="N115">
-        <v>3.02</v>
+        <v>3.19</v>
       </c>
       <c r="O115">
         <v>1</v>
@@ -6534,96 +6540,96 @@
     </row>
     <row r="116" spans="1:16">
       <c r="A116" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B116" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C116">
-        <v>1.726946437655511</v>
+        <v>1.709251767384038</v>
       </c>
       <c r="D116" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E116">
-        <v>1.649682686992051</v>
+        <v>1.582014120413023</v>
       </c>
       <c r="F116">
         <v>-1</v>
       </c>
       <c r="G116">
-        <v>0.004673053562344489</v>
+        <v>0.004590748232615962</v>
       </c>
       <c r="H116">
-        <v>0.004690317313007949</v>
+        <v>0.004557985879586977</v>
       </c>
       <c r="I116">
-        <v>0.0772637506634597</v>
+        <v>0.127237646971015</v>
       </c>
       <c r="J116">
-        <v>0.7877291777243258</v>
+        <v>0.7872941161835857</v>
       </c>
       <c r="K116">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="L116">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="M116">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="N116">
-        <v>3.17</v>
+        <v>3.07</v>
       </c>
       <c r="O116">
         <v>1</v>
       </c>
       <c r="P116" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="117" spans="1:16">
       <c r="A117" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B117" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C117">
-        <v>1.709251767384038</v>
+        <v>1.727760002736695</v>
       </c>
       <c r="D117" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E117">
-        <v>1.582014120413023</v>
+        <v>1.607538826470993</v>
       </c>
       <c r="F117">
         <v>-1</v>
       </c>
       <c r="G117">
-        <v>0.004590748232615962</v>
+        <v>0.004672239997263306</v>
       </c>
       <c r="H117">
-        <v>0.004557985879586977</v>
+        <v>0.004772461173529007</v>
       </c>
       <c r="I117">
-        <v>0.127237646971015</v>
+        <v>0.1202211762657019</v>
       </c>
       <c r="J117">
         <v>0.7872941161835857</v>
       </c>
       <c r="K117">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="L117">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="M117">
-        <v>1.89</v>
+        <v>2.01</v>
       </c>
       <c r="N117">
-        <v>3.07</v>
+        <v>3.19</v>
       </c>
       <c r="O117">
         <v>1</v>
@@ -6634,96 +6640,96 @@
     </row>
     <row r="118" spans="1:16">
       <c r="A118" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B118" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C118">
-        <v>1.727760002736695</v>
+        <v>1.706716749552468</v>
       </c>
       <c r="D118" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E118">
-        <v>1.65052235576568</v>
+        <v>1.579395987242713</v>
       </c>
       <c r="F118">
         <v>-1</v>
       </c>
       <c r="G118">
-        <v>0.004672239997263306</v>
+        <v>0.004593283250447533</v>
       </c>
       <c r="H118">
-        <v>0.00468947764423432</v>
+        <v>0.004560604012757288</v>
       </c>
       <c r="I118">
-        <v>0.07723764697101521</v>
+        <v>0.1273207623097552</v>
       </c>
       <c r="J118">
-        <v>0.7872941161835857</v>
+        <v>0.7886793718292525</v>
       </c>
       <c r="K118">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="L118">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="M118">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="N118">
-        <v>3.17</v>
+        <v>3.07</v>
       </c>
       <c r="O118">
         <v>1</v>
       </c>
       <c r="P118" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="119" spans="1:16">
       <c r="A119" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B119" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C119">
-        <v>1.706716749552468</v>
+        <v>1.725169574679298</v>
       </c>
       <c r="D119" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E119">
-        <v>1.579395987242713</v>
+        <v>1.604754462623203</v>
       </c>
       <c r="F119">
         <v>-1</v>
       </c>
       <c r="G119">
-        <v>0.004593283250447533</v>
+        <v>0.004674830425320703</v>
       </c>
       <c r="H119">
-        <v>0.004560604012757288</v>
+        <v>0.004775245537376798</v>
       </c>
       <c r="I119">
-        <v>0.1273207623097552</v>
+        <v>0.1204151120560952</v>
       </c>
       <c r="J119">
         <v>0.7886793718292525</v>
       </c>
       <c r="K119">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="L119">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="M119">
-        <v>1.89</v>
+        <v>2.01</v>
       </c>
       <c r="N119">
-        <v>3.07</v>
+        <v>3.19</v>
       </c>
       <c r="O119">
         <v>1</v>
@@ -6734,34 +6740,34 @@
     </row>
     <row r="120" spans="1:16">
       <c r="A120" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B120" t="s">
         <v>39</v>
       </c>
       <c r="C120">
-        <v>1.725169574679298</v>
+        <v>1.722799046842222</v>
       </c>
       <c r="D120" t="s">
         <v>61</v>
       </c>
       <c r="E120">
-        <v>1.647848812369543</v>
+        <v>1.602206462113832</v>
       </c>
       <c r="F120">
         <v>-1</v>
       </c>
       <c r="G120">
-        <v>0.004674830425320703</v>
+        <v>0.004677200953157779</v>
       </c>
       <c r="H120">
-        <v>0.004692151187630457</v>
+        <v>0.004777793537886168</v>
       </c>
       <c r="I120">
-        <v>0.07732076230975515</v>
+        <v>0.1205925847283897</v>
       </c>
       <c r="J120">
-        <v>0.7886793718292525</v>
+        <v>0.7899470337742129</v>
       </c>
       <c r="K120">
         <v>1.87</v>
@@ -6770,16 +6776,16 @@
         <v>3.2</v>
       </c>
       <c r="M120">
-        <v>1.93</v>
+        <v>2.01</v>
       </c>
       <c r="N120">
-        <v>3.17</v>
+        <v>3.19</v>
       </c>
       <c r="O120">
         <v>1</v>
       </c>
       <c r="P120" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -6790,28 +6796,28 @@
         <v>39</v>
       </c>
       <c r="C121">
-        <v>1.722799046842222</v>
+        <v>1.721909002855845</v>
       </c>
       <c r="D121" t="s">
         <v>61</v>
       </c>
       <c r="E121">
-        <v>1.645402224815769</v>
+        <v>1.601249783818315</v>
       </c>
       <c r="F121">
         <v>-1</v>
       </c>
       <c r="G121">
-        <v>0.004677200953157779</v>
+        <v>0.004678090997144155</v>
       </c>
       <c r="H121">
-        <v>0.004694597775184231</v>
+        <v>0.004778750216181685</v>
       </c>
       <c r="I121">
-        <v>0.07739682202645293</v>
+        <v>0.1206592190375302</v>
       </c>
       <c r="J121">
-        <v>0.7899470337742129</v>
+        <v>0.7904229931252164</v>
       </c>
       <c r="K121">
         <v>1.87</v>
@@ -6820,16 +6826,16 @@
         <v>3.2</v>
       </c>
       <c r="M121">
-        <v>1.93</v>
+        <v>2.01</v>
       </c>
       <c r="N121">
-        <v>3.17</v>
+        <v>3.19</v>
       </c>
       <c r="O121">
         <v>1</v>
       </c>
       <c r="P121" t="s">
-        <v>116</v>
+        <v>40</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -6840,28 +6846,28 @@
         <v>39</v>
       </c>
       <c r="C122">
-        <v>1.721909002855845</v>
+        <v>1.720598225993867</v>
       </c>
       <c r="D122" t="s">
         <v>61</v>
       </c>
       <c r="E122">
-        <v>1.644483623268332</v>
+        <v>1.599840873929236</v>
       </c>
       <c r="F122">
         <v>-1</v>
       </c>
       <c r="G122">
-        <v>0.004678090997144155</v>
+        <v>0.004679401774006134</v>
       </c>
       <c r="H122">
-        <v>0.004695516376731668</v>
+        <v>0.004780159126070764</v>
       </c>
       <c r="I122">
-        <v>0.07742537958751305</v>
+        <v>0.1207573520646303</v>
       </c>
       <c r="J122">
-        <v>0.7904229931252164</v>
+        <v>0.791123943318788</v>
       </c>
       <c r="K122">
         <v>1.87</v>
@@ -6870,16 +6876,16 @@
         <v>3.2</v>
       </c>
       <c r="M122">
-        <v>1.93</v>
+        <v>2.01</v>
       </c>
       <c r="N122">
-        <v>3.17</v>
+        <v>3.19</v>
       </c>
       <c r="O122">
         <v>1</v>
       </c>
       <c r="P122" t="s">
-        <v>40</v>
+        <v>117</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -6890,28 +6896,28 @@
         <v>39</v>
       </c>
       <c r="C123">
-        <v>1.720598225993867</v>
+        <v>1.741857926477373</v>
       </c>
       <c r="D123" t="s">
         <v>61</v>
       </c>
       <c r="E123">
-        <v>1.643130789394739</v>
+        <v>1.622692209743059</v>
       </c>
       <c r="F123">
         <v>-1</v>
       </c>
       <c r="G123">
-        <v>0.004679401774006134</v>
+        <v>0.004658142073522628</v>
       </c>
       <c r="H123">
-        <v>0.004696869210605261</v>
+        <v>0.004757307790256941</v>
       </c>
       <c r="I123">
-        <v>0.07746743659912747</v>
+        <v>0.1191657167343141</v>
       </c>
       <c r="J123">
-        <v>0.791123943318788</v>
+        <v>0.7797551195308166</v>
       </c>
       <c r="K123">
         <v>1.87</v>
@@ -6920,16 +6926,16 @@
         <v>3.2</v>
       </c>
       <c r="M123">
-        <v>1.93</v>
+        <v>2.01</v>
       </c>
       <c r="N123">
-        <v>3.17</v>
+        <v>3.19</v>
       </c>
       <c r="O123">
         <v>1</v>
       </c>
       <c r="P123" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -6940,28 +6946,28 @@
         <v>39</v>
       </c>
       <c r="C124">
-        <v>1.741857926477373</v>
+        <v>1.7430123394524</v>
       </c>
       <c r="D124" t="s">
         <v>61</v>
       </c>
       <c r="E124">
-        <v>1.665072619305524</v>
+        <v>1.623933049357927</v>
       </c>
       <c r="F124">
         <v>-1</v>
       </c>
       <c r="G124">
-        <v>0.004658142073522628</v>
+        <v>0.004656987660547601</v>
       </c>
       <c r="H124">
-        <v>0.004674927380694476</v>
+        <v>0.004756066950642073</v>
       </c>
       <c r="I124">
-        <v>0.07678530717184895</v>
+        <v>0.1190792900944726</v>
       </c>
       <c r="J124">
-        <v>0.7797551195308166</v>
+        <v>0.7791377863890909</v>
       </c>
       <c r="K124">
         <v>1.87</v>
@@ -6970,16 +6976,16 @@
         <v>3.2</v>
       </c>
       <c r="M124">
-        <v>1.93</v>
+        <v>2.01</v>
       </c>
       <c r="N124">
-        <v>3.17</v>
+        <v>3.19</v>
       </c>
       <c r="O124">
         <v>1</v>
       </c>
       <c r="P124" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -6990,28 +6996,28 @@
         <v>39</v>
       </c>
       <c r="C125">
-        <v>1.7430123394524</v>
+        <v>1.745259534195844</v>
       </c>
       <c r="D125" t="s">
         <v>61</v>
       </c>
       <c r="E125">
-        <v>1.666264072269054</v>
+        <v>1.626348483280025</v>
       </c>
       <c r="F125">
         <v>-1</v>
       </c>
       <c r="G125">
-        <v>0.004656987660547601</v>
+        <v>0.004654740465804157</v>
       </c>
       <c r="H125">
-        <v>0.004673735927730945</v>
+        <v>0.004753651516719975</v>
       </c>
       <c r="I125">
-        <v>0.07674826718334549</v>
+        <v>0.1189110509158191</v>
       </c>
       <c r="J125">
-        <v>0.7791377863890909</v>
+        <v>0.777936077970137</v>
       </c>
       <c r="K125">
         <v>1.87</v>
@@ -7020,16 +7026,16 @@
         <v>3.2</v>
       </c>
       <c r="M125">
-        <v>1.93</v>
+        <v>2.01</v>
       </c>
       <c r="N125">
-        <v>3.17</v>
+        <v>3.19</v>
       </c>
       <c r="O125">
         <v>1</v>
       </c>
       <c r="P125" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -7040,28 +7046,28 @@
         <v>39</v>
       </c>
       <c r="C126">
-        <v>1.745259534195844</v>
+        <v>1.746411489484559</v>
       </c>
       <c r="D126" t="s">
         <v>61</v>
       </c>
       <c r="E126">
-        <v>1.668583369517636</v>
+        <v>1.627586681210676</v>
       </c>
       <c r="F126">
         <v>-1</v>
       </c>
       <c r="G126">
-        <v>0.004654740465804157</v>
+        <v>0.004653588510515442</v>
       </c>
       <c r="H126">
-        <v>0.004671416630482364</v>
+        <v>0.004752413318789324</v>
       </c>
       <c r="I126">
-        <v>0.07667616467820837</v>
+        <v>0.1188248082738832</v>
       </c>
       <c r="J126">
-        <v>0.777936077970137</v>
+        <v>0.7773200590991663</v>
       </c>
       <c r="K126">
         <v>1.87</v>
@@ -7070,16 +7076,16 @@
         <v>3.2</v>
       </c>
       <c r="M126">
-        <v>1.93</v>
+        <v>2.01</v>
       </c>
       <c r="N126">
-        <v>3.17</v>
+        <v>3.19</v>
       </c>
       <c r="O126">
         <v>1</v>
       </c>
       <c r="P126" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -7090,28 +7096,28 @@
         <v>39</v>
       </c>
       <c r="C127">
-        <v>1.746411489484559</v>
+        <v>1.748527788884446</v>
       </c>
       <c r="D127" t="s">
         <v>61</v>
       </c>
       <c r="E127">
-        <v>1.669772285938609</v>
+        <v>1.629861420137827</v>
       </c>
       <c r="F127">
         <v>-1</v>
       </c>
       <c r="G127">
-        <v>0.004653588510515442</v>
+        <v>0.004651472211115554</v>
       </c>
       <c r="H127">
-        <v>0.004670227714061391</v>
+        <v>0.004750138579862172</v>
       </c>
       <c r="I127">
-        <v>0.07663920354595022</v>
+        <v>0.118666368746619</v>
       </c>
       <c r="J127">
-        <v>0.7773200590991663</v>
+        <v>0.7761883481901358</v>
       </c>
       <c r="K127">
         <v>1.87</v>
@@ -7120,16 +7126,16 @@
         <v>3.2</v>
       </c>
       <c r="M127">
-        <v>1.93</v>
+        <v>2.01</v>
       </c>
       <c r="N127">
-        <v>3.17</v>
+        <v>3.19</v>
       </c>
       <c r="O127">
         <v>1</v>
       </c>
       <c r="P127" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -7140,28 +7146,28 @@
         <v>39</v>
       </c>
       <c r="C128">
-        <v>1.748527788884446</v>
+        <v>1.750999132580348</v>
       </c>
       <c r="D128" t="s">
         <v>61</v>
       </c>
       <c r="E128">
-        <v>1.671956487993038</v>
+        <v>1.632517784217379</v>
       </c>
       <c r="F128">
         <v>-1</v>
       </c>
       <c r="G128">
-        <v>0.004651472211115554</v>
+        <v>0.004649000867419653</v>
       </c>
       <c r="H128">
-        <v>0.004668043512006962</v>
+        <v>0.004747482215782621</v>
       </c>
       <c r="I128">
-        <v>0.0765713008914084</v>
+        <v>0.1184813483629685</v>
       </c>
       <c r="J128">
-        <v>0.7761883481901358</v>
+        <v>0.7748667740212044</v>
       </c>
       <c r="K128">
         <v>1.87</v>
@@ -7170,16 +7176,16 @@
         <v>3.2</v>
       </c>
       <c r="M128">
-        <v>1.93</v>
+        <v>2.01</v>
       </c>
       <c r="N128">
-        <v>3.17</v>
+        <v>3.19</v>
       </c>
       <c r="O128">
         <v>1</v>
       </c>
       <c r="P128" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -7190,28 +7196,28 @@
         <v>39</v>
       </c>
       <c r="C129">
-        <v>1.750999132580348</v>
+        <v>1.753450334202255</v>
       </c>
       <c r="D129" t="s">
         <v>61</v>
       </c>
       <c r="E129">
-        <v>1.674507126139075</v>
+        <v>1.635152498260178</v>
       </c>
       <c r="F129">
         <v>-1</v>
       </c>
       <c r="G129">
-        <v>0.004649000867419653</v>
+        <v>0.004646549665797745</v>
       </c>
       <c r="H129">
-        <v>0.004665492873860925</v>
+        <v>0.004744847501739822</v>
       </c>
       <c r="I129">
-        <v>0.07649200644127241</v>
+        <v>0.1182978359420772</v>
       </c>
       <c r="J129">
-        <v>0.7748667740212044</v>
+        <v>0.7735559710148369</v>
       </c>
       <c r="K129">
         <v>1.87</v>
@@ -7220,16 +7226,16 @@
         <v>3.2</v>
       </c>
       <c r="M129">
-        <v>1.93</v>
+        <v>2.01</v>
       </c>
       <c r="N129">
-        <v>3.17</v>
+        <v>3.19</v>
       </c>
       <c r="O129">
         <v>1</v>
       </c>
       <c r="P129" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -7240,28 +7246,28 @@
         <v>39</v>
       </c>
       <c r="C130">
-        <v>1.753450334202255</v>
+        <v>1.754939802540862</v>
       </c>
       <c r="D130" t="s">
         <v>61</v>
       </c>
       <c r="E130">
-        <v>1.677036975941365</v>
+        <v>1.636753477597397</v>
       </c>
       <c r="F130">
         <v>-1</v>
       </c>
       <c r="G130">
-        <v>0.004646549665797745</v>
+        <v>0.004645060197459139</v>
       </c>
       <c r="H130">
-        <v>0.004662963024058635</v>
+        <v>0.004743246522402603</v>
       </c>
       <c r="I130">
-        <v>0.07641335826089035</v>
+        <v>0.1181863249434649</v>
       </c>
       <c r="J130">
-        <v>0.7735559710148369</v>
+        <v>0.7727594638818923</v>
       </c>
       <c r="K130">
         <v>1.87</v>
@@ -7270,16 +7276,16 @@
         <v>3.2</v>
       </c>
       <c r="M130">
-        <v>1.93</v>
+        <v>2.01</v>
       </c>
       <c r="N130">
-        <v>3.17</v>
+        <v>3.19</v>
       </c>
       <c r="O130">
         <v>1</v>
       </c>
       <c r="P130" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -7290,28 +7296,28 @@
         <v>39</v>
       </c>
       <c r="C131">
-        <v>1.754939802540862</v>
+        <v>1.755568315849489</v>
       </c>
       <c r="D131" t="s">
         <v>61</v>
       </c>
       <c r="E131">
-        <v>1.678574234707948</v>
+        <v>1.637429045378328</v>
       </c>
       <c r="F131">
         <v>-1</v>
       </c>
       <c r="G131">
-        <v>0.004645060197459139</v>
+        <v>0.004644431684150511</v>
       </c>
       <c r="H131">
-        <v>0.004661425765292052</v>
+        <v>0.004742570954621671</v>
       </c>
       <c r="I131">
-        <v>0.07636556783291382</v>
+        <v>0.118139270471161</v>
       </c>
       <c r="J131">
-        <v>0.7727594638818923</v>
+        <v>0.7724233605082945</v>
       </c>
       <c r="K131">
         <v>1.87</v>
@@ -7320,16 +7326,16 @@
         <v>3.2</v>
       </c>
       <c r="M131">
-        <v>1.93</v>
+        <v>2.01</v>
       </c>
       <c r="N131">
-        <v>3.17</v>
+        <v>3.19</v>
       </c>
       <c r="O131">
         <v>1</v>
       </c>
       <c r="P131" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="132" spans="1:16">
@@ -7340,28 +7346,28 @@
         <v>39</v>
       </c>
       <c r="C132">
-        <v>1.755568315849489</v>
+        <v>1.755871060200726</v>
       </c>
       <c r="D132" t="s">
         <v>61</v>
       </c>
       <c r="E132">
-        <v>1.679222914218992</v>
+        <v>1.637754455082063</v>
       </c>
       <c r="F132">
         <v>-1</v>
       </c>
       <c r="G132">
-        <v>0.004644431684150511</v>
+        <v>0.004644128939799275</v>
       </c>
       <c r="H132">
-        <v>0.004660777085781009</v>
+        <v>0.004742245544917937</v>
       </c>
       <c r="I132">
-        <v>0.07634540163049763</v>
+        <v>0.1181166051186624</v>
       </c>
       <c r="J132">
-        <v>0.7724233605082945</v>
+        <v>0.7722614651333018</v>
       </c>
       <c r="K132">
         <v>1.87</v>
@@ -7370,16 +7376,16 @@
         <v>3.2</v>
       </c>
       <c r="M132">
-        <v>1.93</v>
+        <v>2.01</v>
       </c>
       <c r="N132">
-        <v>3.17</v>
+        <v>3.19</v>
       </c>
       <c r="O132">
         <v>1</v>
       </c>
       <c r="P132" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="133" spans="1:16">
@@ -7390,28 +7396,28 @@
         <v>39</v>
       </c>
       <c r="C133">
-        <v>1.755871060200726</v>
+        <v>1.755021860709565</v>
       </c>
       <c r="D133" t="s">
         <v>61</v>
       </c>
       <c r="E133">
-        <v>1.679535372292727</v>
+        <v>1.63684167915841</v>
       </c>
       <c r="F133">
         <v>-1</v>
       </c>
       <c r="G133">
-        <v>0.004644128939799275</v>
+        <v>0.004644978139290435</v>
       </c>
       <c r="H133">
-        <v>0.004660464627707272</v>
+        <v>0.004743158320841591</v>
       </c>
       <c r="I133">
-        <v>0.07633568790799838</v>
+        <v>0.1181801815511556</v>
       </c>
       <c r="J133">
-        <v>0.7722614651333018</v>
+        <v>0.772715582508254</v>
       </c>
       <c r="K133">
         <v>1.87</v>
@@ -7420,16 +7426,16 @@
         <v>3.2</v>
       </c>
       <c r="M133">
-        <v>1.93</v>
+        <v>2.01</v>
       </c>
       <c r="N133">
-        <v>3.17</v>
+        <v>3.19</v>
       </c>
       <c r="O133">
         <v>1</v>
       </c>
       <c r="P133" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -7440,28 +7446,28 @@
         <v>39</v>
       </c>
       <c r="C134">
-        <v>1.755021860709565</v>
+        <v>1.753276827162878</v>
       </c>
       <c r="D134" t="s">
         <v>61</v>
       </c>
       <c r="E134">
-        <v>1.67865892575907</v>
+        <v>1.634966001388976</v>
       </c>
       <c r="F134">
         <v>-1</v>
       </c>
       <c r="G134">
-        <v>0.004644978139290435</v>
+        <v>0.004646723172837122</v>
       </c>
       <c r="H134">
-        <v>0.004661341074240931</v>
+        <v>0.004745033998611024</v>
       </c>
       <c r="I134">
-        <v>0.07636293495049529</v>
+        <v>0.1183108257739021</v>
       </c>
       <c r="J134">
-        <v>0.772715582508254</v>
+        <v>0.7736487555278725</v>
       </c>
       <c r="K134">
         <v>1.87</v>
@@ -7470,16 +7476,16 @@
         <v>3.2</v>
       </c>
       <c r="M134">
-        <v>1.93</v>
+        <v>2.01</v>
       </c>
       <c r="N134">
-        <v>3.17</v>
+        <v>3.19</v>
       </c>
       <c r="O134">
         <v>1</v>
       </c>
       <c r="P134" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -7490,28 +7496,28 @@
         <v>39</v>
       </c>
       <c r="C135">
-        <v>1.753276827162878</v>
+        <v>1.751466054533885</v>
       </c>
       <c r="D135" t="s">
         <v>61</v>
       </c>
       <c r="E135">
-        <v>1.676857901831206</v>
+        <v>1.633019662894711</v>
       </c>
       <c r="F135">
         <v>-1</v>
       </c>
       <c r="G135">
-        <v>0.004646723172837122</v>
+        <v>0.004648533945466115</v>
       </c>
       <c r="H135">
-        <v>0.004663142098168794</v>
+        <v>0.004746980337105289</v>
       </c>
       <c r="I135">
-        <v>0.07641892533167249</v>
+        <v>0.1184463916391745</v>
       </c>
       <c r="J135">
-        <v>0.7736487555278725</v>
+        <v>0.7746170831369599</v>
       </c>
       <c r="K135">
         <v>1.87</v>
@@ -7520,16 +7526,16 @@
         <v>3.2</v>
       </c>
       <c r="M135">
-        <v>1.93</v>
+        <v>2.01</v>
       </c>
       <c r="N135">
-        <v>3.17</v>
+        <v>3.19</v>
       </c>
       <c r="O135">
         <v>1</v>
       </c>
       <c r="P135" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="136" spans="1:16">
@@ -7540,28 +7546,28 @@
         <v>39</v>
       </c>
       <c r="C136">
-        <v>1.751466054533885</v>
+        <v>1.748327094900906</v>
       </c>
       <c r="D136" t="s">
         <v>61</v>
       </c>
       <c r="E136">
-        <v>1.674989029545668</v>
+        <v>1.629645700936268</v>
       </c>
       <c r="F136">
         <v>-1</v>
       </c>
       <c r="G136">
-        <v>0.004648533945466115</v>
+        <v>0.004651672905099095</v>
       </c>
       <c r="H136">
-        <v>0.004665010970454333</v>
+        <v>0.004750354299063732</v>
       </c>
       <c r="I136">
-        <v>0.07647702498821762</v>
+        <v>0.1186813939646381</v>
       </c>
       <c r="J136">
-        <v>0.7746170831369599</v>
+        <v>0.7762956711759863</v>
       </c>
       <c r="K136">
         <v>1.87</v>
@@ -7570,16 +7576,16 @@
         <v>3.2</v>
       </c>
       <c r="M136">
-        <v>1.93</v>
+        <v>2.01</v>
       </c>
       <c r="N136">
-        <v>3.17</v>
+        <v>3.19</v>
       </c>
       <c r="O136">
         <v>1</v>
       </c>
       <c r="P136" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -7590,28 +7596,28 @@
         <v>39</v>
       </c>
       <c r="C137">
-        <v>1.748327094900906</v>
+        <v>1.745110555324242</v>
       </c>
       <c r="D137" t="s">
         <v>61</v>
       </c>
       <c r="E137">
-        <v>1.671749354630346</v>
+        <v>1.626188350910014</v>
       </c>
       <c r="F137">
         <v>-1</v>
       </c>
       <c r="G137">
-        <v>0.004651672905099095</v>
+        <v>0.004654889444675759</v>
       </c>
       <c r="H137">
-        <v>0.004668250645369653</v>
+        <v>0.004753811649089986</v>
       </c>
       <c r="I137">
-        <v>0.07657774027055941</v>
+        <v>0.118922204414228</v>
       </c>
       <c r="J137">
-        <v>0.7762956711759863</v>
+        <v>0.7780157458159134</v>
       </c>
       <c r="K137">
         <v>1.87</v>
@@ -7620,16 +7626,16 @@
         <v>3.2</v>
       </c>
       <c r="M137">
-        <v>1.93</v>
+        <v>2.01</v>
       </c>
       <c r="N137">
-        <v>3.17</v>
+        <v>3.19</v>
       </c>
       <c r="O137">
         <v>1</v>
       </c>
       <c r="P137" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="138" spans="1:16">
@@ -7640,28 +7646,28 @@
         <v>39</v>
       </c>
       <c r="C138">
-        <v>1.745110555324242</v>
+        <v>1.743382145937803</v>
       </c>
       <c r="D138" t="s">
         <v>61</v>
       </c>
       <c r="E138">
-        <v>1.668429610575287</v>
+        <v>1.624330541890366</v>
       </c>
       <c r="F138">
         <v>-1</v>
       </c>
       <c r="G138">
-        <v>0.004654889444675759</v>
+        <v>0.004656617854062197</v>
       </c>
       <c r="H138">
-        <v>0.004671570389424713</v>
+        <v>0.004755669458109634</v>
       </c>
       <c r="I138">
-        <v>0.07668094474895493</v>
+        <v>0.1190516040474372</v>
       </c>
       <c r="J138">
-        <v>0.7780157458159134</v>
+        <v>0.7789400289102656</v>
       </c>
       <c r="K138">
         <v>1.87</v>
@@ -7670,16 +7676,16 @@
         <v>3.2</v>
       </c>
       <c r="M138">
-        <v>1.93</v>
+        <v>2.01</v>
       </c>
       <c r="N138">
-        <v>3.17</v>
+        <v>3.19</v>
       </c>
       <c r="O138">
         <v>1</v>
       </c>
       <c r="P138" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="139" spans="1:16">
@@ -7690,28 +7696,28 @@
         <v>39</v>
       </c>
       <c r="C139">
-        <v>1.743382145937803</v>
+        <v>1.7416544035055</v>
       </c>
       <c r="D139" t="s">
         <v>61</v>
       </c>
       <c r="E139">
-        <v>1.666645744203187</v>
+        <v>1.622473449757249</v>
       </c>
       <c r="F139">
         <v>-1</v>
       </c>
       <c r="G139">
-        <v>0.004656617854062197</v>
+        <v>0.0046583455964945</v>
       </c>
       <c r="H139">
-        <v>0.004673354255796813</v>
+        <v>0.004757526550242751</v>
       </c>
       <c r="I139">
-        <v>0.07673640173461593</v>
+        <v>0.1191809537482513</v>
       </c>
       <c r="J139">
-        <v>0.7789400289102656</v>
+        <v>0.7798639553446522</v>
       </c>
       <c r="K139">
         <v>1.87</v>
@@ -7720,16 +7726,16 @@
         <v>3.2</v>
       </c>
       <c r="M139">
-        <v>1.93</v>
+        <v>2.01</v>
       </c>
       <c r="N139">
-        <v>3.17</v>
+        <v>3.19</v>
       </c>
       <c r="O139">
         <v>1</v>
       </c>
       <c r="P139" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -7740,28 +7746,28 @@
         <v>39</v>
       </c>
       <c r="C140">
-        <v>1.7416544035055</v>
+        <v>1.739968999606976</v>
       </c>
       <c r="D140" t="s">
         <v>61</v>
       </c>
       <c r="E140">
-        <v>1.664862566184821</v>
+        <v>1.620661865887713</v>
       </c>
       <c r="F140">
         <v>-1</v>
       </c>
       <c r="G140">
-        <v>0.0046583455964945</v>
+        <v>0.004660031000393024</v>
       </c>
       <c r="H140">
-        <v>0.004675137433815178</v>
+        <v>0.004759338134112287</v>
       </c>
       <c r="I140">
-        <v>0.07679183732067929</v>
+        <v>0.1193071337192637</v>
       </c>
       <c r="J140">
-        <v>0.7798639553446522</v>
+        <v>0.7807652408518843</v>
       </c>
       <c r="K140">
         <v>1.87</v>
@@ -7770,16 +7776,16 @@
         <v>3.2</v>
       </c>
       <c r="M140">
-        <v>1.93</v>
+        <v>2.01</v>
       </c>
       <c r="N140">
-        <v>3.17</v>
+        <v>3.19</v>
       </c>
       <c r="O140">
         <v>1</v>
       </c>
       <c r="P140" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="141" spans="1:16">
@@ -7790,28 +7796,28 @@
         <v>39</v>
       </c>
       <c r="C141">
-        <v>1.739968999606976</v>
+        <v>1.737252695517318</v>
       </c>
       <c r="D141" t="s">
         <v>61</v>
       </c>
       <c r="E141">
-        <v>1.663123085155863</v>
+        <v>1.617742202133588</v>
       </c>
       <c r="F141">
         <v>-1</v>
       </c>
       <c r="G141">
-        <v>0.004660031000393024</v>
+        <v>0.004662747304482682</v>
       </c>
       <c r="H141">
-        <v>0.004676876914844136</v>
+        <v>0.004762257797866412</v>
       </c>
       <c r="I141">
-        <v>0.07684591445111311</v>
+        <v>0.1195104933837301</v>
       </c>
       <c r="J141">
-        <v>0.7807652408518843</v>
+        <v>0.7822178098837871</v>
       </c>
       <c r="K141">
         <v>1.87</v>
@@ -7820,16 +7826,66 @@
         <v>3.2</v>
       </c>
       <c r="M141">
-        <v>1.93</v>
+        <v>2.01</v>
       </c>
       <c r="N141">
-        <v>3.17</v>
+        <v>3.19</v>
       </c>
       <c r="O141">
         <v>1</v>
       </c>
       <c r="P141" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16">
+      <c r="A142" s="1">
+        <v>0</v>
+      </c>
+      <c r="B142" t="s">
+        <v>39</v>
+      </c>
+      <c r="C142">
+        <v>1.735223857764917</v>
+      </c>
+      <c r="D142" t="s">
+        <v>61</v>
+      </c>
+      <c r="E142">
+        <v>1.61556147278475</v>
+      </c>
+      <c r="F142">
+        <v>-1</v>
+      </c>
+      <c r="G142">
+        <v>0.004664776142235084</v>
+      </c>
+      <c r="H142">
+        <v>0.00476443852721525</v>
+      </c>
+      <c r="I142">
+        <v>0.1196623849801666</v>
+      </c>
+      <c r="J142">
+        <v>0.7833027498583333</v>
+      </c>
+      <c r="K142">
+        <v>1.87</v>
+      </c>
+      <c r="L142">
+        <v>3.2</v>
+      </c>
+      <c r="M142">
+        <v>2.01</v>
+      </c>
+      <c r="N142">
+        <v>3.19</v>
+      </c>
+      <c r="O142">
+        <v>1</v>
+      </c>
+      <c r="P142" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/s60_signal/position-01618-601618.xlsx
+++ b/s60_signal/position-01618-601618.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="139">
   <si>
     <t>trade_time</t>
   </si>
@@ -85,6 +85,9 @@
     <t>2020-08-17</t>
   </si>
   <si>
+    <t>2020-12-11</t>
+  </si>
+  <si>
     <t>2020-12-15</t>
   </si>
   <si>
@@ -97,9 +100,6 @@
     <t>2021-04-12</t>
   </si>
   <si>
-    <t>2020-12-11</t>
-  </si>
-  <si>
     <t>2021-01-13</t>
   </si>
   <si>
@@ -109,6 +109,9 @@
     <t>2021-03-31</t>
   </si>
   <si>
+    <t>2021-04-19</t>
+  </si>
+  <si>
     <t>2021-04-01</t>
   </si>
   <si>
@@ -124,9 +127,6 @@
     <t>2021-03-03</t>
   </si>
   <si>
-    <t>2021-04-19</t>
-  </si>
-  <si>
     <t>2021-04-15</t>
   </si>
   <si>
@@ -139,6 +139,9 @@
     <t>2021-05-17</t>
   </si>
   <si>
+    <t>2021-05-14</t>
+  </si>
+  <si>
     <t>2016-12-30</t>
   </si>
   <si>
@@ -178,6 +181,9 @@
     <t>2021-01-22</t>
   </si>
   <si>
+    <t>2021-03-02</t>
+  </si>
+  <si>
     <t>2021-04-30</t>
   </si>
   <si>
@@ -202,6 +208,9 @@
     <t>2021-07-16</t>
   </si>
   <si>
+    <t>2021-07-19</t>
+  </si>
+  <si>
     <t>2021-05-28</t>
   </si>
   <si>
@@ -364,13 +373,7 @@
     <t>2021-05-13</t>
   </si>
   <si>
-    <t>2021-05-14</t>
-  </si>
-  <si>
     <t>2021-05-18</t>
-  </si>
-  <si>
-    <t>2021-06-07</t>
   </si>
   <si>
     <t>2021-06-08</t>
@@ -785,7 +788,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P142"/>
+  <dimension ref="A1:P143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -849,7 +852,7 @@
         <v>2.241636620202809</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E2">
         <v>2.083673377356266</v>
@@ -885,7 +888,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -899,7 +902,7 @@
         <v>2.291018963074085</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E3">
         <v>2.748932188801797</v>
@@ -935,7 +938,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -949,7 +952,7 @@
         <v>0.1640886968569069</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E4">
         <v>0.8087275807852619</v>
@@ -985,7 +988,7 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -999,7 +1002,7 @@
         <v>0.1567937244930127</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E5">
         <v>0.8087275807852619</v>
@@ -1035,7 +1038,7 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1049,7 +1052,7 @@
         <v>0.06008199184724816</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E6">
         <v>0.7118353409391309</v>
@@ -1085,7 +1088,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1099,7 +1102,7 @@
         <v>0.05109309920632388</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E7">
         <v>0.7118353409391309</v>
@@ -1135,7 +1138,7 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1149,7 +1152,7 @@
         <v>-0.0569506423664734</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E8">
         <v>0.6028081963621785</v>
@@ -1185,7 +1188,7 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1199,7 +1202,7 @@
         <v>-0.06784560396853312</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E9">
         <v>0.6028081963621785</v>
@@ -1235,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1249,7 +1252,7 @@
         <v>-0.1396452470657845</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>0.5257702258605397</v>
@@ -1285,7 +1288,7 @@
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1299,7 +1302,7 @@
         <v>-0.1518870263339567</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E11">
         <v>0.5257702258605397</v>
@@ -1335,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1349,7 +1352,7 @@
         <v>-0.2479133877986754</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E12">
         <v>0.424908049151723</v>
@@ -1385,7 +1388,7 @@
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1399,7 +1402,7 @@
         <v>-0.2619184918344848</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E13">
         <v>0.424908049151723</v>
@@ -1435,7 +1438,7 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1449,7 +1452,7 @@
         <v>-0.3399965939203824</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E14">
         <v>0.3391236942630966</v>
@@ -1485,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1499,7 +1502,7 @@
         <v>0.9756011105228968</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E15">
         <v>0.8107654111102569</v>
@@ -1535,7 +1538,7 @@
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1549,7 +1552,7 @@
         <v>1.301145679016073</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E16">
         <v>1.173416666670367</v>
@@ -1585,7 +1588,7 @@
         <v>1</v>
       </c>
       <c r="P16" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1599,7 +1602,7 @@
         <v>1.296277364845049</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E17">
         <v>1.230890933009092</v>
@@ -1635,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="P17" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1649,7 +1652,7 @@
         <v>0.4435035626339812</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E18">
         <v>0.9439906537348826</v>
@@ -1685,7 +1688,7 @@
         <v>1</v>
       </c>
       <c r="P18" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1699,7 +1702,7 @@
         <v>0.4423533289773536</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E19">
         <v>0.9439906537348826</v>
@@ -1735,7 +1738,7 @@
         <v>1</v>
       </c>
       <c r="P19" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1749,7 +1752,7 @@
         <v>1.507350128118183</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E20">
         <v>1.202821457299868</v>
@@ -1785,7 +1788,7 @@
         <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1799,7 +1802,7 @@
         <v>1.54125697476493</v>
       </c>
       <c r="D21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E21">
         <v>1.238224194239853</v>
@@ -1835,7 +1838,7 @@
         <v>1</v>
       </c>
       <c r="P21" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1849,7 +1852,7 @@
         <v>1.573438797246031</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E22">
         <v>1.271825803006885</v>
@@ -1885,7 +1888,7 @@
         <v>1</v>
       </c>
       <c r="P22" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1899,7 +1902,7 @@
         <v>1.613400857289038</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E23">
         <v>1.313550895110613</v>
@@ -1935,7 +1938,7 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1949,7 +1952,7 @@
         <v>1.593400857289038</v>
       </c>
       <c r="D24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E24">
         <v>1.363275825771058</v>
@@ -1985,7 +1988,7 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1999,7 +2002,7 @@
         <v>1.645344720184119</v>
       </c>
       <c r="D25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E25">
         <v>1.346904046074595</v>
@@ -2035,7 +2038,7 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2049,7 +2052,7 @@
         <v>1.625344720184119</v>
       </c>
       <c r="D26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E26">
         <v>1.394045281942056</v>
@@ -2085,7 +2088,7 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2099,7 +2102,7 @@
         <v>1.68180858461344</v>
       </c>
       <c r="D27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E27">
         <v>1.384976610405209</v>
@@ -2135,7 +2138,7 @@
         <v>1</v>
       </c>
       <c r="P27" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2149,7 +2152,7 @@
         <v>1.66180858461344</v>
       </c>
       <c r="D28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E28">
         <v>1.429168563120298</v>
@@ -2185,7 +2188,7 @@
         <v>1</v>
       </c>
       <c r="P28" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2199,7 +2202,7 @@
         <v>1.710614904938503</v>
       </c>
       <c r="D29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E29">
         <v>1.415053797803437</v>
@@ -2235,7 +2238,7 @@
         <v>1</v>
       </c>
       <c r="P29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2249,7 +2252,7 @@
         <v>1.690614904938503</v>
       </c>
       <c r="D30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E30">
         <v>1.456915827551058</v>
@@ -2285,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="P30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2296,10 +2299,10 @@
         <v>23</v>
       </c>
       <c r="C31">
-        <v>2.268334662646267</v>
+        <v>2.275802866177917</v>
       </c>
       <c r="D31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E31">
         <v>2.649848972127444</v>
@@ -2308,22 +2311,22 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.002931665337353733</v>
+        <v>0.002944197133822083</v>
       </c>
       <c r="H31">
         <v>0.003470151027872556</v>
       </c>
       <c r="I31">
-        <v>0.3815143094811773</v>
+        <v>0.3740461059495268</v>
       </c>
       <c r="J31">
         <v>0.2531796468349111</v>
       </c>
       <c r="K31">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="L31">
-        <v>2.6</v>
+        <v>2.61</v>
       </c>
       <c r="M31">
         <v>1.62</v>
@@ -2335,7 +2338,7 @@
         <v>1</v>
       </c>
       <c r="P31" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2346,37 +2349,37 @@
         <v>24</v>
       </c>
       <c r="C32">
-        <v>2.967686812279704</v>
+        <v>2.268334662646267</v>
       </c>
       <c r="D32" t="s">
         <v>51</v>
       </c>
       <c r="E32">
-        <v>2.601744839228811</v>
+        <v>2.649848972127444</v>
       </c>
       <c r="F32">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>0.004132313187720295</v>
+        <v>0.002931665337353733</v>
       </c>
       <c r="H32">
-        <v>0.003518255160771189</v>
+        <v>0.003470151027872556</v>
       </c>
       <c r="I32">
-        <v>0.3659419730508935</v>
+        <v>0.3815143094811773</v>
       </c>
       <c r="J32">
         <v>0.2531796468349111</v>
       </c>
       <c r="K32">
-        <v>2.3</v>
+        <v>1.31</v>
       </c>
       <c r="L32">
-        <v>3.55</v>
+        <v>2.6</v>
       </c>
       <c r="M32">
-        <v>1.81</v>
+        <v>1.62</v>
       </c>
       <c r="N32">
         <v>3.06</v>
@@ -2385,7 +2388,7 @@
         <v>1</v>
       </c>
       <c r="P32" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2396,7 +2399,7 @@
         <v>25</v>
       </c>
       <c r="C33">
-        <v>2.94857711339348</v>
+        <v>2.967686812279704</v>
       </c>
       <c r="D33" t="s">
         <v>52</v>
@@ -2408,22 +2411,22 @@
         <v>-1</v>
       </c>
       <c r="G33">
-        <v>0.00397142288660652</v>
+        <v>0.004132313187720295</v>
       </c>
       <c r="H33">
         <v>0.003518255160771189</v>
       </c>
       <c r="I33">
-        <v>0.3468322741646688</v>
+        <v>0.3659419730508935</v>
       </c>
       <c r="J33">
         <v>0.2531796468349111</v>
       </c>
       <c r="K33">
-        <v>2.02</v>
+        <v>2.3</v>
       </c>
       <c r="L33">
-        <v>3.46</v>
+        <v>3.55</v>
       </c>
       <c r="M33">
         <v>1.81</v>
@@ -2435,7 +2438,7 @@
         <v>1</v>
       </c>
       <c r="P33" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2446,10 +2449,10 @@
         <v>26</v>
       </c>
       <c r="C34">
-        <v>2.936045316925131</v>
+        <v>2.94857711339348</v>
       </c>
       <c r="D34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E34">
         <v>2.601744839228811</v>
@@ -2458,22 +2461,22 @@
         <v>-1</v>
       </c>
       <c r="G34">
-        <v>0.00396395468307487</v>
+        <v>0.00397142288660652</v>
       </c>
       <c r="H34">
         <v>0.003518255160771189</v>
       </c>
       <c r="I34">
-        <v>0.3343004776963197</v>
+        <v>0.3468322741646688</v>
       </c>
       <c r="J34">
         <v>0.2531796468349111</v>
       </c>
       <c r="K34">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="L34">
-        <v>3.45</v>
+        <v>3.46</v>
       </c>
       <c r="M34">
         <v>1.81</v>
@@ -2485,48 +2488,48 @@
         <v>1</v>
       </c>
       <c r="P34" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B35" t="s">
         <v>27</v>
       </c>
       <c r="C35">
-        <v>2.276798754456807</v>
+        <v>2.936045316925131</v>
       </c>
       <c r="D35" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E35">
-        <v>2.651071198651537</v>
+        <v>2.601744839228811</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G35">
-        <v>0.002943201245543193</v>
+        <v>0.00396395468307487</v>
       </c>
       <c r="H35">
-        <v>0.003468928801348464</v>
+        <v>0.003518255160771189</v>
       </c>
       <c r="I35">
-        <v>0.3742724441947294</v>
+        <v>0.3343004776963197</v>
       </c>
       <c r="J35">
-        <v>0.2524251860175702</v>
+        <v>0.2531796468349111</v>
       </c>
       <c r="K35">
-        <v>1.32</v>
+        <v>2.03</v>
       </c>
       <c r="L35">
-        <v>2.61</v>
+        <v>3.45</v>
       </c>
       <c r="M35">
-        <v>1.62</v>
+        <v>1.81</v>
       </c>
       <c r="N35">
         <v>3.06</v>
@@ -2535,21 +2538,21 @@
         <v>1</v>
       </c>
       <c r="P35" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B36" t="s">
         <v>23</v>
       </c>
       <c r="C36">
-        <v>2.269323006316983</v>
+        <v>2.276798754456807</v>
       </c>
       <c r="D36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E36">
         <v>2.651071198651537</v>
@@ -2558,22 +2561,22 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0.002930676993683017</v>
+        <v>0.002943201245543193</v>
       </c>
       <c r="H36">
         <v>0.003468928801348464</v>
       </c>
       <c r="I36">
-        <v>0.3817481923345531</v>
+        <v>0.3742724441947294</v>
       </c>
       <c r="J36">
         <v>0.2524251860175702</v>
       </c>
       <c r="K36">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="L36">
-        <v>2.6</v>
+        <v>2.61</v>
       </c>
       <c r="M36">
         <v>1.62</v>
@@ -2585,21 +2588,21 @@
         <v>1</v>
       </c>
       <c r="P36" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C37">
         <v>2.969422072159588</v>
       </c>
       <c r="D37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E37">
         <v>2.603110413308198</v>
@@ -2635,21 +2638,21 @@
         <v>1</v>
       </c>
       <c r="P37" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C38">
         <v>2.950101124244508</v>
       </c>
       <c r="D38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E38">
         <v>2.603110413308198</v>
@@ -2685,21 +2688,21 @@
         <v>1</v>
       </c>
       <c r="P38" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C39">
         <v>2.937576872384333</v>
       </c>
       <c r="D39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E39">
         <v>2.603110413308198</v>
@@ -2735,7 +2738,7 @@
         <v>1</v>
       </c>
       <c r="P39" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2743,13 +2746,13 @@
         <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C40">
         <v>2.277619541489629</v>
       </c>
       <c r="D40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E40">
         <v>2.652078528191817</v>
@@ -2785,7 +2788,7 @@
         <v>1</v>
       </c>
       <c r="P40" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2793,13 +2796,13 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C41">
         <v>2.970852231383444</v>
       </c>
       <c r="D41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E41">
         <v>2.604235886436537</v>
@@ -2835,7 +2838,7 @@
         <v>1</v>
       </c>
       <c r="P41" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2843,13 +2846,13 @@
         <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C42">
         <v>2.951357177128068</v>
       </c>
       <c r="D42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E42">
         <v>2.604235886436537</v>
@@ -2885,7 +2888,7 @@
         <v>1</v>
       </c>
       <c r="P42" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2893,13 +2896,13 @@
         <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C43">
         <v>2.938839143351475</v>
       </c>
       <c r="D43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E43">
         <v>2.604235886436537</v>
@@ -2935,7 +2938,7 @@
         <v>1</v>
       </c>
       <c r="P43" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2943,13 +2946,13 @@
         <v>0</v>
       </c>
       <c r="B44" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C44">
         <v>2.2742064249631</v>
       </c>
       <c r="D44" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E44">
         <v>2.647889703363805</v>
@@ -2985,7 +2988,7 @@
         <v>1</v>
       </c>
       <c r="P44" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2993,13 +2996,13 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C45">
         <v>2.964905134405401</v>
       </c>
       <c r="D45" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E45">
         <v>2.599555779684251</v>
@@ -3035,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="P45" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3043,13 +3046,13 @@
         <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C46">
         <v>2.946134074564744</v>
       </c>
       <c r="D46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E46">
         <v>2.599555779684251</v>
@@ -3085,7 +3088,7 @@
         <v>1</v>
       </c>
       <c r="P46" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3093,13 +3096,13 @@
         <v>3</v>
       </c>
       <c r="B47" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C47">
         <v>2.933590183844768</v>
       </c>
       <c r="D47" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E47">
         <v>2.599555779684251</v>
@@ -3135,7 +3138,7 @@
         <v>1</v>
       </c>
       <c r="P47" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3143,13 +3146,13 @@
         <v>0</v>
       </c>
       <c r="B48" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C48">
         <v>1.990887286527514</v>
       </c>
       <c r="D48" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E48">
         <v>2.306746110056926</v>
@@ -3185,7 +3188,7 @@
         <v>1</v>
       </c>
       <c r="P48" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3199,7 +3202,7 @@
         <v>2.492796963946868</v>
       </c>
       <c r="D49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E49">
         <v>2.222096394686907</v>
@@ -3235,7 +3238,7 @@
         <v>1</v>
       </c>
       <c r="P49" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3249,7 +3252,7 @@
         <v>2.502796963946869</v>
       </c>
       <c r="D50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E50">
         <v>2.222096394686907</v>
@@ -3285,7 +3288,7 @@
         <v>1</v>
       </c>
       <c r="P50" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3293,49 +3296,49 @@
         <v>3</v>
       </c>
       <c r="B51" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C51">
-        <v>2.480757495256166</v>
+        <v>2.480565464895635</v>
       </c>
       <c r="D51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E51">
-        <v>2.229102087286527</v>
+        <v>2.217508918406072</v>
       </c>
       <c r="F51">
         <v>-1</v>
       </c>
       <c r="G51">
-        <v>0.004359242504743834</v>
+        <v>0.004619434535104365</v>
       </c>
       <c r="H51">
-        <v>0.003930897912713473</v>
+        <v>0.004142491081593929</v>
       </c>
       <c r="I51">
-        <v>0.2516554079696394</v>
+        <v>0.2630565464895636</v>
       </c>
       <c r="J51">
         <v>0.4649715370018978</v>
       </c>
       <c r="K51">
-        <v>2.02</v>
+        <v>2.3</v>
       </c>
       <c r="L51">
-        <v>3.42</v>
+        <v>3.55</v>
       </c>
       <c r="M51">
-        <v>1.83</v>
+        <v>2.07</v>
       </c>
       <c r="N51">
-        <v>3.08</v>
+        <v>3.18</v>
       </c>
       <c r="O51">
         <v>1</v>
       </c>
       <c r="P51" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3343,13 +3346,13 @@
         <v>4</v>
       </c>
       <c r="B52" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C52">
-        <v>2.506107779886148</v>
+        <v>2.480757495256166</v>
       </c>
       <c r="D52" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E52">
         <v>2.229102087286527</v>
@@ -3358,22 +3361,22 @@
         <v>-1</v>
       </c>
       <c r="G52">
-        <v>0.004393892220113852</v>
+        <v>0.004359242504743834</v>
       </c>
       <c r="H52">
         <v>0.003930897912713473</v>
       </c>
       <c r="I52">
-        <v>0.2770056925996207</v>
+        <v>0.2516554079696394</v>
       </c>
       <c r="J52">
         <v>0.4649715370018978</v>
       </c>
       <c r="K52">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="L52">
-        <v>3.45</v>
+        <v>3.42</v>
       </c>
       <c r="M52">
         <v>1.83</v>
@@ -3385,171 +3388,171 @@
         <v>1</v>
       </c>
       <c r="P52" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:16">
       <c r="A53" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B53" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53">
+        <v>2.506107779886148</v>
+      </c>
+      <c r="D53" t="s">
+        <v>56</v>
+      </c>
+      <c r="E53">
+        <v>2.229102087286527</v>
+      </c>
+      <c r="F53">
+        <v>-1</v>
+      </c>
+      <c r="G53">
+        <v>0.004393892220113852</v>
+      </c>
+      <c r="H53">
+        <v>0.003930897912713473</v>
+      </c>
+      <c r="I53">
+        <v>0.2770056925996207</v>
+      </c>
+      <c r="J53">
+        <v>0.4649715370018978</v>
+      </c>
+      <c r="K53">
+        <v>2.03</v>
+      </c>
+      <c r="L53">
+        <v>3.45</v>
+      </c>
+      <c r="M53">
+        <v>1.83</v>
+      </c>
+      <c r="N53">
+        <v>3.08</v>
+      </c>
+      <c r="O53">
+        <v>1</v>
+      </c>
+      <c r="P53" t="s">
         <v>23</v>
-      </c>
-      <c r="C53">
-        <v>1.934694011032936</v>
-      </c>
-      <c r="D53" t="s">
-        <v>55</v>
-      </c>
-      <c r="E53">
-        <v>2.167884562588337</v>
-      </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
-      <c r="G53">
-        <v>0.003265305988967065</v>
-      </c>
-      <c r="H53">
-        <v>0.003732115437411664</v>
-      </c>
-      <c r="I53">
-        <v>0.2331905515554009</v>
-      </c>
-      <c r="J53">
-        <v>0.5078671671504308</v>
-      </c>
-      <c r="K53">
-        <v>1.31</v>
-      </c>
-      <c r="L53">
-        <v>2.6</v>
-      </c>
-      <c r="M53">
-        <v>1.54</v>
-      </c>
-      <c r="N53">
-        <v>2.95</v>
-      </c>
-      <c r="O53">
-        <v>1</v>
-      </c>
-      <c r="P53" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="54" spans="1:16">
       <c r="A54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B54" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C54">
-        <v>2.422019174201789</v>
+        <v>1.934694011032936</v>
       </c>
       <c r="D54" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E54">
-        <v>2.152176517544798</v>
+        <v>2.167884562588337</v>
       </c>
       <c r="F54">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G54">
-        <v>0.004097980825798211</v>
+        <v>0.003265305988967065</v>
       </c>
       <c r="H54">
-        <v>0.003807823482455202</v>
+        <v>0.003732115437411664</v>
       </c>
       <c r="I54">
-        <v>0.2698426566569911</v>
+        <v>0.2331905515554009</v>
       </c>
       <c r="J54">
         <v>0.5078671671504308</v>
       </c>
       <c r="K54">
-        <v>1.65</v>
+        <v>1.31</v>
       </c>
       <c r="L54">
-        <v>3.26</v>
+        <v>2.6</v>
       </c>
       <c r="M54">
-        <v>1.63</v>
+        <v>1.54</v>
       </c>
       <c r="N54">
-        <v>2.98</v>
+        <v>2.95</v>
       </c>
       <c r="O54">
         <v>1</v>
       </c>
       <c r="P54" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:16">
       <c r="A55" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C55">
-        <v>2.394108322356129</v>
+        <v>2.422019174201789</v>
       </c>
       <c r="D55" t="s">
         <v>54</v>
       </c>
       <c r="E55">
-        <v>2.150603084114712</v>
+        <v>2.152176517544798</v>
       </c>
       <c r="F55">
         <v>-1</v>
       </c>
       <c r="G55">
-        <v>0.00444589167764387</v>
+        <v>0.004097980825798211</v>
       </c>
       <c r="H55">
-        <v>0.004009396915885288</v>
+        <v>0.003807823482455202</v>
       </c>
       <c r="I55">
-        <v>0.2435052382414176</v>
+        <v>0.2698426566569911</v>
       </c>
       <c r="J55">
         <v>0.5078671671504308</v>
       </c>
       <c r="K55">
-        <v>2.02</v>
+        <v>1.65</v>
       </c>
       <c r="L55">
-        <v>3.42</v>
+        <v>3.26</v>
       </c>
       <c r="M55">
-        <v>1.83</v>
+        <v>1.63</v>
       </c>
       <c r="N55">
-        <v>3.08</v>
+        <v>2.98</v>
       </c>
       <c r="O55">
         <v>1</v>
       </c>
       <c r="P55" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:16">
       <c r="A56" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C56">
-        <v>2.419029650684626</v>
+        <v>2.394108322356129</v>
       </c>
       <c r="D56" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E56">
         <v>2.150603084114712</v>
@@ -3558,22 +3561,22 @@
         <v>-1</v>
       </c>
       <c r="G56">
-        <v>0.004480970349315374</v>
+        <v>0.00444589167764387</v>
       </c>
       <c r="H56">
         <v>0.004009396915885288</v>
       </c>
       <c r="I56">
-        <v>0.2684265665699139</v>
+        <v>0.2435052382414176</v>
       </c>
       <c r="J56">
         <v>0.5078671671504308</v>
       </c>
       <c r="K56">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="L56">
-        <v>3.45</v>
+        <v>3.42</v>
       </c>
       <c r="M56">
         <v>1.83</v>
@@ -3585,121 +3588,121 @@
         <v>1</v>
       </c>
       <c r="P56" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:16">
       <c r="A57" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B57" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C57">
-        <v>2.361811863714594</v>
+        <v>2.419029650684626</v>
       </c>
       <c r="D57" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E57">
-        <v>2.092698992639265</v>
+        <v>2.150603084114712</v>
       </c>
       <c r="F57">
         <v>-1</v>
       </c>
       <c r="G57">
-        <v>0.004158188136285406</v>
+        <v>0.004480970349315374</v>
       </c>
       <c r="H57">
-        <v>0.003867301007360734</v>
+        <v>0.004009396915885288</v>
       </c>
       <c r="I57">
-        <v>0.2691128710753286</v>
+        <v>0.2684265665699139</v>
       </c>
       <c r="J57">
-        <v>0.5443564462335794</v>
+        <v>0.5078671671504308</v>
       </c>
       <c r="K57">
-        <v>1.65</v>
+        <v>2.03</v>
       </c>
       <c r="L57">
-        <v>3.26</v>
+        <v>3.45</v>
       </c>
       <c r="M57">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="N57">
-        <v>2.98</v>
+        <v>3.08</v>
       </c>
       <c r="O57">
         <v>1</v>
       </c>
       <c r="P57" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58" spans="1:16">
       <c r="A58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B58" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C58">
-        <v>2.32039997860817</v>
+        <v>2.361811863714594</v>
       </c>
       <c r="D58" t="s">
         <v>54</v>
       </c>
       <c r="E58">
-        <v>2.08382770339255</v>
+        <v>2.092698992639265</v>
       </c>
       <c r="F58">
         <v>-1</v>
       </c>
       <c r="G58">
-        <v>0.004519600021391831</v>
+        <v>0.004158188136285406</v>
       </c>
       <c r="H58">
-        <v>0.004076172296607451</v>
+        <v>0.003867301007360734</v>
       </c>
       <c r="I58">
-        <v>0.2365722752156199</v>
+        <v>0.2691128710753286</v>
       </c>
       <c r="J58">
         <v>0.5443564462335794</v>
       </c>
       <c r="K58">
-        <v>2.02</v>
+        <v>1.65</v>
       </c>
       <c r="L58">
-        <v>3.42</v>
+        <v>3.26</v>
       </c>
       <c r="M58">
-        <v>1.83</v>
+        <v>1.63</v>
       </c>
       <c r="N58">
-        <v>3.08</v>
+        <v>2.98</v>
       </c>
       <c r="O58">
         <v>1</v>
       </c>
       <c r="P58" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:16">
       <c r="A59" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B59" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C59">
-        <v>2.344956414145834</v>
+        <v>2.32039997860817</v>
       </c>
       <c r="D59" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E59">
         <v>2.08382770339255</v>
@@ -3708,22 +3711,22 @@
         <v>-1</v>
       </c>
       <c r="G59">
-        <v>0.004555043585854166</v>
+        <v>0.004519600021391831</v>
       </c>
       <c r="H59">
         <v>0.004076172296607451</v>
       </c>
       <c r="I59">
-        <v>0.261128710753284</v>
+        <v>0.2365722752156199</v>
       </c>
       <c r="J59">
         <v>0.5443564462335794</v>
       </c>
       <c r="K59">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="L59">
-        <v>3.45</v>
+        <v>3.42</v>
       </c>
       <c r="M59">
         <v>1.83</v>
@@ -3735,95 +3738,95 @@
         <v>1</v>
       </c>
       <c r="P59" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" spans="1:16">
       <c r="A60" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C60">
-        <v>2.284943445032334</v>
+        <v>2.344956414145834</v>
       </c>
       <c r="D60" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E60">
-        <v>2.016762312365275</v>
+        <v>2.08382770339255</v>
       </c>
       <c r="F60">
         <v>-1</v>
       </c>
       <c r="G60">
-        <v>0.004235056554967666</v>
+        <v>0.004555043585854166</v>
       </c>
       <c r="H60">
-        <v>0.003943237687634725</v>
+        <v>0.004076172296607451</v>
       </c>
       <c r="I60">
-        <v>0.2681811326670585</v>
+        <v>0.261128710753284</v>
       </c>
       <c r="J60">
-        <v>0.5909433666470703</v>
+        <v>0.5443564462335794</v>
       </c>
       <c r="K60">
-        <v>1.65</v>
+        <v>2.03</v>
       </c>
       <c r="L60">
-        <v>3.26</v>
+        <v>3.45</v>
       </c>
       <c r="M60">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="N60">
-        <v>2.98</v>
+        <v>3.08</v>
       </c>
       <c r="O60">
         <v>1</v>
       </c>
       <c r="P60" t="s">
-        <v>85</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:16">
       <c r="A61" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B61" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C61">
-        <v>2.226294399372918</v>
+        <v>2.314069285221163</v>
       </c>
       <c r="D61" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E61">
-        <v>1.998573639035861</v>
+        <v>2.08382770339255</v>
       </c>
       <c r="F61">
         <v>-1</v>
       </c>
       <c r="G61">
-        <v>0.004613705600627082</v>
+        <v>0.004545930714778837</v>
       </c>
       <c r="H61">
-        <v>0.004161426360964139</v>
+        <v>0.004076172296607451</v>
       </c>
       <c r="I61">
-        <v>0.2277207603370566</v>
+        <v>0.2302415818286128</v>
       </c>
       <c r="J61">
-        <v>0.5909433666470703</v>
+        <v>0.5443564462335794</v>
       </c>
       <c r="K61">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="L61">
-        <v>3.42</v>
+        <v>3.43</v>
       </c>
       <c r="M61">
         <v>1.83</v>
@@ -3835,145 +3838,145 @@
         <v>1</v>
       </c>
       <c r="P61" t="s">
-        <v>85</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="1:16">
       <c r="A62" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B62" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C62">
-        <v>2.250384965706448</v>
+        <v>2.284943445032334</v>
       </c>
       <c r="D62" t="s">
         <v>54</v>
       </c>
       <c r="E62">
-        <v>1.998573639035861</v>
+        <v>2.016762312365275</v>
       </c>
       <c r="F62">
         <v>-1</v>
       </c>
       <c r="G62">
-        <v>0.004649615034293553</v>
+        <v>0.004235056554967666</v>
       </c>
       <c r="H62">
-        <v>0.004161426360964139</v>
+        <v>0.003943237687634725</v>
       </c>
       <c r="I62">
-        <v>0.2518113266705861</v>
+        <v>0.2681811326670585</v>
       </c>
       <c r="J62">
         <v>0.5909433666470703</v>
       </c>
       <c r="K62">
-        <v>2.03</v>
+        <v>1.65</v>
       </c>
       <c r="L62">
-        <v>3.45</v>
+        <v>3.26</v>
       </c>
       <c r="M62">
-        <v>1.83</v>
+        <v>1.63</v>
       </c>
       <c r="N62">
-        <v>3.08</v>
+        <v>2.98</v>
       </c>
       <c r="O62">
         <v>1</v>
       </c>
       <c r="P62" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63" spans="1:16">
       <c r="A63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B63" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C63">
-        <v>2.206392009113778</v>
+        <v>2.226294399372918</v>
       </c>
       <c r="D63" t="s">
         <v>56</v>
       </c>
       <c r="E63">
-        <v>1.894705026964186</v>
+        <v>1.998573639035861</v>
       </c>
       <c r="F63">
         <v>-1</v>
       </c>
       <c r="G63">
-        <v>0.004313607990886223</v>
+        <v>0.004613705600627082</v>
       </c>
       <c r="H63">
-        <v>0.003925294973035814</v>
+        <v>0.004161426360964139</v>
       </c>
       <c r="I63">
-        <v>0.3116869821495918</v>
+        <v>0.2277207603370566</v>
       </c>
       <c r="J63">
-        <v>0.6385502975068013</v>
+        <v>0.5909433666470703</v>
       </c>
       <c r="K63">
-        <v>1.65</v>
+        <v>2.02</v>
       </c>
       <c r="L63">
-        <v>3.26</v>
+        <v>3.42</v>
       </c>
       <c r="M63">
-        <v>1.59</v>
+        <v>1.83</v>
       </c>
       <c r="N63">
-        <v>2.91</v>
+        <v>3.08</v>
       </c>
       <c r="O63">
         <v>1</v>
       </c>
       <c r="P63" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64" spans="1:16">
       <c r="A64" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C64">
-        <v>2.130128399036261</v>
+        <v>2.250384965706448</v>
       </c>
       <c r="D64" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E64">
-        <v>1.911452955562554</v>
+        <v>1.998573639035861</v>
       </c>
       <c r="F64">
         <v>-1</v>
       </c>
       <c r="G64">
-        <v>0.004709871600963739</v>
+        <v>0.004649615034293553</v>
       </c>
       <c r="H64">
-        <v>0.004248547044437446</v>
+        <v>0.004161426360964139</v>
       </c>
       <c r="I64">
-        <v>0.2186754434737077</v>
+        <v>0.2518113266705861</v>
       </c>
       <c r="J64">
-        <v>0.6385502975068013</v>
+        <v>0.5909433666470703</v>
       </c>
       <c r="K64">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="L64">
-        <v>3.42</v>
+        <v>3.45</v>
       </c>
       <c r="M64">
         <v>1.83</v>
@@ -3985,92 +3988,92 @@
         <v>1</v>
       </c>
       <c r="P64" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65" spans="1:16">
       <c r="A65" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B65" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C65">
-        <v>2.153742896061194</v>
+        <v>2.206392009113778</v>
       </c>
       <c r="D65" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E65">
-        <v>1.911452955562554</v>
+        <v>1.894705026964186</v>
       </c>
       <c r="F65">
         <v>-1</v>
       </c>
       <c r="G65">
-        <v>0.004746257103938807</v>
+        <v>0.004313607990886223</v>
       </c>
       <c r="H65">
-        <v>0.004248547044437446</v>
+        <v>0.003925294973035814</v>
       </c>
       <c r="I65">
-        <v>0.2422899404986398</v>
+        <v>0.3116869821495918</v>
       </c>
       <c r="J65">
         <v>0.6385502975068013</v>
       </c>
       <c r="K65">
-        <v>2.03</v>
+        <v>1.65</v>
       </c>
       <c r="L65">
-        <v>3.45</v>
+        <v>3.26</v>
       </c>
       <c r="M65">
-        <v>1.83</v>
+        <v>1.59</v>
       </c>
       <c r="N65">
-        <v>3.08</v>
+        <v>2.91</v>
       </c>
       <c r="O65">
         <v>1</v>
       </c>
       <c r="P65" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" spans="1:16">
       <c r="A66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B66" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C66">
-        <v>2.062136368241531</v>
+        <v>2.130128399036261</v>
       </c>
       <c r="D66" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E66">
-        <v>1.818634291310661</v>
+        <v>1.911452955562554</v>
       </c>
       <c r="F66">
         <v>-1</v>
       </c>
       <c r="G66">
-        <v>0.004777863631758469</v>
+        <v>0.004709871600963739</v>
       </c>
       <c r="H66">
-        <v>0.004341365708689339</v>
+        <v>0.004248547044437446</v>
       </c>
       <c r="I66">
-        <v>0.24350207693087</v>
+        <v>0.2186754434737077</v>
       </c>
       <c r="J66">
-        <v>0.6892708790652124</v>
+        <v>0.6385502975068013</v>
       </c>
       <c r="K66">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="L66">
         <v>3.42</v>
@@ -4085,39 +4088,39 @@
         <v>1</v>
       </c>
       <c r="P66" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="67" spans="1:16">
       <c r="A67" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C67">
-        <v>2.050780115497619</v>
+        <v>2.153742896061194</v>
       </c>
       <c r="D67" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E67">
-        <v>1.818634291310661</v>
+        <v>1.911452955562554</v>
       </c>
       <c r="F67">
         <v>-1</v>
       </c>
       <c r="G67">
-        <v>0.004849219884502381</v>
+        <v>0.004746257103938807</v>
       </c>
       <c r="H67">
-        <v>0.004341365708689339</v>
+        <v>0.004248547044437446</v>
       </c>
       <c r="I67">
-        <v>0.2321458241869578</v>
+        <v>0.2422899404986398</v>
       </c>
       <c r="J67">
-        <v>0.6892708790652124</v>
+        <v>0.6385502975068013</v>
       </c>
       <c r="K67">
         <v>2.03</v>
@@ -4135,7 +4138,7 @@
         <v>1</v>
       </c>
       <c r="P67" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4143,37 +4146,37 @@
         <v>0</v>
       </c>
       <c r="B68" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C68">
-        <v>1.960646887966805</v>
+        <v>2.050780115497619</v>
       </c>
       <c r="D68" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E68">
-        <v>1.724357261410788</v>
+        <v>1.818634291310661</v>
       </c>
       <c r="F68">
         <v>-1</v>
       </c>
       <c r="G68">
-        <v>0.004879353112033196</v>
+        <v>0.004849219884502381</v>
       </c>
       <c r="H68">
-        <v>0.004435642738589212</v>
+        <v>0.004341365708689339</v>
       </c>
       <c r="I68">
-        <v>0.2362896265560166</v>
+        <v>0.2321458241869578</v>
       </c>
       <c r="J68">
-        <v>0.7407883817427386</v>
+        <v>0.6892708790652124</v>
       </c>
       <c r="K68">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="L68">
-        <v>3.42</v>
+        <v>3.45</v>
       </c>
       <c r="M68">
         <v>1.83</v>
@@ -4185,21 +4188,21 @@
         <v>1</v>
       </c>
       <c r="P68" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="69" spans="1:16">
       <c r="A69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B69" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C69">
-        <v>1.946199585062241</v>
+        <v>1.960646887966805</v>
       </c>
       <c r="D69" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E69">
         <v>1.724357261410788</v>
@@ -4208,22 +4211,22 @@
         <v>-1</v>
       </c>
       <c r="G69">
-        <v>0.00495380041493776</v>
+        <v>0.004879353112033196</v>
       </c>
       <c r="H69">
         <v>0.004435642738589212</v>
       </c>
       <c r="I69">
-        <v>0.2218423236514526</v>
+        <v>0.2362896265560166</v>
       </c>
       <c r="J69">
         <v>0.7407883817427386</v>
       </c>
       <c r="K69">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="L69">
-        <v>3.45</v>
+        <v>3.42</v>
       </c>
       <c r="M69">
         <v>1.83</v>
@@ -4235,45 +4238,45 @@
         <v>1</v>
       </c>
       <c r="P69" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="70" spans="1:16">
       <c r="A70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B70" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C70">
-        <v>1.843540306843175</v>
+        <v>1.946199585062241</v>
       </c>
       <c r="D70" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E70">
-        <v>1.615572975392391</v>
+        <v>1.724357261410788</v>
       </c>
       <c r="F70">
         <v>-1</v>
       </c>
       <c r="G70">
-        <v>0.004996459693156825</v>
+        <v>0.00495380041493776</v>
       </c>
       <c r="H70">
-        <v>0.00454442702460761</v>
+        <v>0.004435642738589212</v>
       </c>
       <c r="I70">
-        <v>0.227967331450784</v>
+        <v>0.2218423236514526</v>
       </c>
       <c r="J70">
-        <v>0.8002333467801142</v>
+        <v>0.7407883817427386</v>
       </c>
       <c r="K70">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="L70">
-        <v>3.42</v>
+        <v>3.45</v>
       </c>
       <c r="M70">
         <v>1.83</v>
@@ -4285,21 +4288,21 @@
         <v>1</v>
       </c>
       <c r="P70" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="1:16">
       <c r="A71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B71" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C71">
-        <v>1.825526306036369</v>
+        <v>1.843540306843175</v>
       </c>
       <c r="D71" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E71">
         <v>1.615572975392391</v>
@@ -4308,22 +4311,22 @@
         <v>-1</v>
       </c>
       <c r="G71">
-        <v>0.005074473693963632</v>
+        <v>0.004996459693156825</v>
       </c>
       <c r="H71">
         <v>0.00454442702460761</v>
       </c>
       <c r="I71">
-        <v>0.2099533306439776</v>
+        <v>0.227967331450784</v>
       </c>
       <c r="J71">
         <v>0.8002333467801142</v>
       </c>
       <c r="K71">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="L71">
-        <v>3.45</v>
+        <v>3.42</v>
       </c>
       <c r="M71">
         <v>1.83</v>
@@ -4335,257 +4338,257 @@
         <v>1</v>
       </c>
       <c r="P71" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72" spans="1:16">
       <c r="A72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B72" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C72">
-        <v>1.364830842322013</v>
+        <v>1.825526306036369</v>
       </c>
       <c r="D72" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E72">
-        <v>1.554057700011381</v>
+        <v>1.615572975392391</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G72">
-        <v>0.005255169157677987</v>
+        <v>0.005074473693963632</v>
       </c>
       <c r="H72">
-        <v>0.004645942299988619</v>
+        <v>0.00454442702460761</v>
       </c>
       <c r="I72">
-        <v>0.1892268576893685</v>
+        <v>0.2099533306439776</v>
       </c>
       <c r="J72">
-        <v>0.8494188461475927</v>
+        <v>0.8002333467801142</v>
       </c>
       <c r="K72">
-        <v>2.29</v>
+        <v>2.03</v>
       </c>
       <c r="L72">
-        <v>3.31</v>
+        <v>3.45</v>
       </c>
       <c r="M72">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="N72">
-        <v>3.1</v>
+        <v>3.08</v>
       </c>
       <c r="O72">
         <v>1</v>
       </c>
       <c r="P72" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73" spans="1:16">
       <c r="A73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B73" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C73">
-        <v>1.746644873089242</v>
+        <v>1.364830842322013</v>
       </c>
       <c r="D73" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E73">
-        <v>1.525563511549905</v>
+        <v>1.554057700011381</v>
       </c>
       <c r="F73">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G73">
-        <v>0.005093355126910757</v>
+        <v>0.005255169157677987</v>
       </c>
       <c r="H73">
-        <v>0.004634436488450095</v>
+        <v>0.004645942299988619</v>
       </c>
       <c r="I73">
-        <v>0.221081361539337</v>
+        <v>0.1892268576893685</v>
       </c>
       <c r="J73">
         <v>0.8494188461475927</v>
       </c>
       <c r="K73">
-        <v>1.97</v>
+        <v>2.29</v>
       </c>
       <c r="L73">
-        <v>3.42</v>
+        <v>3.31</v>
       </c>
       <c r="M73">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="N73">
-        <v>3.08</v>
+        <v>3.1</v>
       </c>
       <c r="O73">
         <v>1</v>
       </c>
       <c r="P73" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="74" spans="1:16">
       <c r="A74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B74" t="s">
         <v>32</v>
       </c>
       <c r="C74">
-        <v>1.253223538131198</v>
+        <v>1.746644873089242</v>
       </c>
       <c r="D74" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E74">
-        <v>1.465356698427415</v>
+        <v>1.525563511549905</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G74">
-        <v>0.005366776461868803</v>
+        <v>0.005093355126910757</v>
       </c>
       <c r="H74">
-        <v>0.004734643301572585</v>
+        <v>0.004634436488450095</v>
       </c>
       <c r="I74">
-        <v>0.2121331602962171</v>
+        <v>0.221081361539337</v>
       </c>
       <c r="J74">
-        <v>0.898155660204717</v>
+        <v>0.8494188461475927</v>
       </c>
       <c r="K74">
-        <v>2.29</v>
+        <v>1.97</v>
       </c>
       <c r="L74">
-        <v>3.31</v>
+        <v>3.42</v>
       </c>
       <c r="M74">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="N74">
-        <v>3.1</v>
+        <v>3.08</v>
       </c>
       <c r="O74">
         <v>1</v>
       </c>
       <c r="P74" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="75" spans="1:16">
       <c r="A75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B75" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C75">
-        <v>1.650633349396707</v>
+        <v>1.253223538131198</v>
       </c>
       <c r="D75" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E75">
-        <v>1.454707122988519</v>
+        <v>1.465356698427415</v>
       </c>
       <c r="F75">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G75">
-        <v>0.005189366650603293</v>
+        <v>0.005366776461868803</v>
       </c>
       <c r="H75">
-        <v>0.005065292877011481</v>
+        <v>0.004734643301572585</v>
       </c>
       <c r="I75">
-        <v>0.1959262264081887</v>
+        <v>0.2121331602962171</v>
       </c>
       <c r="J75">
         <v>0.898155660204717</v>
       </c>
       <c r="K75">
-        <v>1.97</v>
+        <v>2.29</v>
       </c>
       <c r="L75">
-        <v>3.42</v>
+        <v>3.31</v>
       </c>
       <c r="M75">
-        <v>2.01</v>
+        <v>1.82</v>
       </c>
       <c r="N75">
-        <v>3.26</v>
+        <v>3.1</v>
       </c>
       <c r="O75">
         <v>1</v>
       </c>
       <c r="P75" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="76" spans="1:16">
       <c r="A76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B76" t="s">
         <v>32</v>
       </c>
       <c r="C76">
-        <v>1.142741567826858</v>
+        <v>1.650633349396707</v>
       </c>
       <c r="D76" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E76">
-        <v>1.377550067006499</v>
+        <v>1.454707122988519</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G76">
-        <v>0.005477258432173141</v>
+        <v>0.005189366650603293</v>
       </c>
       <c r="H76">
-        <v>0.004822449932993502</v>
+        <v>0.005065292877011481</v>
       </c>
       <c r="I76">
-        <v>0.2348084991796402</v>
+        <v>0.1959262264081887</v>
       </c>
       <c r="J76">
-        <v>0.9464010620843414</v>
+        <v>0.898155660204717</v>
       </c>
       <c r="K76">
-        <v>2.29</v>
+        <v>1.97</v>
       </c>
       <c r="L76">
-        <v>3.31</v>
+        <v>3.42</v>
       </c>
       <c r="M76">
-        <v>1.82</v>
+        <v>2.01</v>
       </c>
       <c r="N76">
-        <v>3.1</v>
+        <v>3.26</v>
       </c>
       <c r="O76">
         <v>1</v>
       </c>
       <c r="P76" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -4593,31 +4596,31 @@
         <v>0</v>
       </c>
       <c r="B77" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C77">
-        <v>1.02473295176371</v>
+        <v>1.142741567826858</v>
       </c>
       <c r="D77" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E77">
-        <v>1.28376155991701</v>
+        <v>1.377550067006499</v>
       </c>
       <c r="F77">
         <v>1</v>
       </c>
       <c r="G77">
-        <v>0.005595267048236289</v>
+        <v>0.005477258432173141</v>
       </c>
       <c r="H77">
-        <v>0.004916238440082991</v>
+        <v>0.004822449932993502</v>
       </c>
       <c r="I77">
-        <v>0.2590286081532995</v>
+        <v>0.2348084991796402</v>
       </c>
       <c r="J77">
-        <v>0.9979332088368078</v>
+        <v>0.9464010620843414</v>
       </c>
       <c r="K77">
         <v>2.29</v>
@@ -4635,7 +4638,7 @@
         <v>1</v>
       </c>
       <c r="P77" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -4643,31 +4646,31 @@
         <v>0</v>
       </c>
       <c r="B78" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C78">
-        <v>0.9555784956116042</v>
+        <v>1.02473295176371</v>
       </c>
       <c r="D78" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E78">
-        <v>1.228800376424943</v>
+        <v>1.28376155991701</v>
       </c>
       <c r="F78">
         <v>1</v>
       </c>
       <c r="G78">
-        <v>0.005664421504388396</v>
+        <v>0.005595267048236289</v>
       </c>
       <c r="H78">
-        <v>0.004971199623575057</v>
+        <v>0.004916238440082991</v>
       </c>
       <c r="I78">
-        <v>0.2732218808133391</v>
+        <v>0.2590286081532995</v>
       </c>
       <c r="J78">
-        <v>1.028131661304976</v>
+        <v>0.9979332088368078</v>
       </c>
       <c r="K78">
         <v>2.29</v>
@@ -4685,7 +4688,7 @@
         <v>1</v>
       </c>
       <c r="P78" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -4696,34 +4699,34 @@
         <v>33</v>
       </c>
       <c r="C79">
-        <v>0.95505474527386</v>
+        <v>0.9555784956116042</v>
       </c>
       <c r="D79" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E79">
-        <v>1.172750932925077</v>
+        <v>1.228800376424943</v>
       </c>
       <c r="F79">
         <v>1</v>
       </c>
       <c r="G79">
-        <v>0.00580494525472614</v>
+        <v>0.005664421504388396</v>
       </c>
       <c r="H79">
-        <v>0.005027249067074924</v>
+        <v>0.004971199623575057</v>
       </c>
       <c r="I79">
-        <v>0.2176961876512167</v>
+        <v>0.2732218808133391</v>
       </c>
       <c r="J79">
-        <v>1.058928058832376</v>
+        <v>1.028131661304976</v>
       </c>
       <c r="K79">
         <v>2.29</v>
       </c>
       <c r="L79">
-        <v>3.38</v>
+        <v>3.31</v>
       </c>
       <c r="M79">
         <v>1.82</v>
@@ -4735,7 +4738,7 @@
         <v>1</v>
       </c>
       <c r="P79" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -4743,31 +4746,31 @@
         <v>0</v>
       </c>
       <c r="B80" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C80">
-        <v>0.8997461387005035</v>
+        <v>0.95505474527386</v>
       </c>
       <c r="D80" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E80">
-        <v>1.128793874425728</v>
+        <v>1.172750932925077</v>
       </c>
       <c r="F80">
         <v>1</v>
       </c>
       <c r="G80">
-        <v>0.005860253861299496</v>
+        <v>0.00580494525472614</v>
       </c>
       <c r="H80">
-        <v>0.005071206125574273</v>
+        <v>0.005027249067074924</v>
       </c>
       <c r="I80">
-        <v>0.2290477357252241</v>
+        <v>0.2176961876512167</v>
       </c>
       <c r="J80">
-        <v>1.083080288777073</v>
+        <v>1.058928058832376</v>
       </c>
       <c r="K80">
         <v>2.29</v>
@@ -4785,7 +4788,7 @@
         <v>1</v>
       </c>
       <c r="P80" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -4793,31 +4796,31 @@
         <v>0</v>
       </c>
       <c r="B81" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C81">
-        <v>0.9004291893178089</v>
+        <v>0.8997461387005035</v>
       </c>
       <c r="D81" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E81">
-        <v>1.129336735615027</v>
+        <v>1.128793874425728</v>
       </c>
       <c r="F81">
         <v>1</v>
       </c>
       <c r="G81">
-        <v>0.005859570810682191</v>
+        <v>0.005860253861299496</v>
       </c>
       <c r="H81">
-        <v>0.005070663264384973</v>
+        <v>0.005071206125574273</v>
       </c>
       <c r="I81">
-        <v>0.2289075462972185</v>
+        <v>0.2290477357252241</v>
       </c>
       <c r="J81">
-        <v>1.082782013398337</v>
+        <v>1.083080288777073</v>
       </c>
       <c r="K81">
         <v>2.29</v>
@@ -4835,7 +4838,7 @@
         <v>1</v>
       </c>
       <c r="P81" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -4843,31 +4846,31 @@
         <v>0</v>
       </c>
       <c r="B82" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C82">
-        <v>0.8995341152947529</v>
+        <v>0.9004291893178089</v>
       </c>
       <c r="D82" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E82">
-        <v>1.128625366740808</v>
+        <v>1.129336735615027</v>
       </c>
       <c r="F82">
         <v>1</v>
       </c>
       <c r="G82">
-        <v>0.005860465884705247</v>
+        <v>0.005859570810682191</v>
       </c>
       <c r="H82">
-        <v>0.005071374633259193</v>
+        <v>0.005070663264384973</v>
       </c>
       <c r="I82">
-        <v>0.2290912514460552</v>
+        <v>0.2289075462972185</v>
       </c>
       <c r="J82">
-        <v>1.083172875417138</v>
+        <v>1.082782013398337</v>
       </c>
       <c r="K82">
         <v>2.29</v>
@@ -4885,7 +4888,7 @@
         <v>1</v>
       </c>
       <c r="P82" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -4893,31 +4896,31 @@
         <v>0</v>
       </c>
       <c r="B83" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C83">
-        <v>0.8942975364165378</v>
+        <v>0.8995341152947529</v>
       </c>
       <c r="D83" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E83">
-        <v>1.124463544226244</v>
+        <v>1.128625366740808</v>
       </c>
       <c r="F83">
         <v>1</v>
       </c>
       <c r="G83">
-        <v>0.005865702463583462</v>
+        <v>0.005860465884705247</v>
       </c>
       <c r="H83">
-        <v>0.005075536455773756</v>
+        <v>0.005071374633259193</v>
       </c>
       <c r="I83">
-        <v>0.2301660078097063</v>
+        <v>0.2290912514460552</v>
       </c>
       <c r="J83">
-        <v>1.085459591084481</v>
+        <v>1.083172875417138</v>
       </c>
       <c r="K83">
         <v>2.29</v>
@@ -4935,7 +4938,7 @@
         <v>1</v>
       </c>
       <c r="P83" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -4943,31 +4946,31 @@
         <v>0</v>
       </c>
       <c r="B84" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C84">
-        <v>0.823882990348408</v>
+        <v>0.8942975364165378</v>
       </c>
       <c r="D84" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E84">
-        <v>1.068500891892621</v>
+        <v>1.124463544226244</v>
       </c>
       <c r="F84">
         <v>1</v>
       </c>
       <c r="G84">
-        <v>0.005936117009651592</v>
+        <v>0.005865702463583462</v>
       </c>
       <c r="H84">
-        <v>0.005131499108107379</v>
+        <v>0.005075536455773756</v>
       </c>
       <c r="I84">
-        <v>0.2446179015442134</v>
+        <v>0.2301660078097063</v>
       </c>
       <c r="J84">
-        <v>1.1162083011579</v>
+        <v>1.085459591084481</v>
       </c>
       <c r="K84">
         <v>2.29</v>
@@ -4985,7 +4988,7 @@
         <v>1</v>
       </c>
       <c r="P84" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -4993,31 +4996,31 @@
         <v>0</v>
       </c>
       <c r="B85" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C85">
-        <v>0.7552208383877499</v>
+        <v>0.823882990348408</v>
       </c>
       <c r="D85" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E85">
-        <v>1.013930971993758</v>
+        <v>1.068500891892621</v>
       </c>
       <c r="F85">
         <v>1</v>
       </c>
       <c r="G85">
-        <v>0.00600477916161225</v>
+        <v>0.005936117009651592</v>
       </c>
       <c r="H85">
-        <v>0.005186069028006243</v>
+        <v>0.005131499108107379</v>
       </c>
       <c r="I85">
-        <v>0.2587101336060078</v>
+        <v>0.2446179015442134</v>
       </c>
       <c r="J85">
-        <v>1.146191773629804</v>
+        <v>1.1162083011579</v>
       </c>
       <c r="K85">
         <v>2.29</v>
@@ -5035,7 +5038,7 @@
         <v>1</v>
       </c>
       <c r="P85" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -5043,31 +5046,31 @@
         <v>0</v>
       </c>
       <c r="B86" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C86">
-        <v>0.7164672131147527</v>
+        <v>0.7552208383877499</v>
       </c>
       <c r="D86" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E86">
-        <v>0.9831311475409823</v>
+        <v>1.013930971993758</v>
       </c>
       <c r="F86">
         <v>1</v>
       </c>
       <c r="G86">
-        <v>0.006043532786885248</v>
+        <v>0.00600477916161225</v>
       </c>
       <c r="H86">
-        <v>0.005216868852459018</v>
+        <v>0.005186069028006243</v>
       </c>
       <c r="I86">
-        <v>0.2666639344262296</v>
+        <v>0.2587101336060078</v>
       </c>
       <c r="J86">
-        <v>1.163114754098361</v>
+        <v>1.146191773629804</v>
       </c>
       <c r="K86">
         <v>2.29</v>
@@ -5085,7 +5088,7 @@
         <v>1</v>
       </c>
       <c r="P86" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -5093,31 +5096,31 @@
         <v>0</v>
       </c>
       <c r="B87" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C87">
-        <v>0.6498239504652852</v>
+        <v>0.7164672131147527</v>
       </c>
       <c r="D87" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E87">
-        <v>0.9301657597584363</v>
+        <v>0.9831311475409823</v>
       </c>
       <c r="F87">
         <v>1</v>
       </c>
       <c r="G87">
-        <v>0.006110176049534715</v>
+        <v>0.006043532786885248</v>
       </c>
       <c r="H87">
-        <v>0.005269834240241564</v>
+        <v>0.005216868852459018</v>
       </c>
       <c r="I87">
-        <v>0.2803418092931511</v>
+        <v>0.2666639344262296</v>
       </c>
       <c r="J87">
-        <v>1.192216615517343</v>
+        <v>1.163114754098361</v>
       </c>
       <c r="K87">
         <v>2.29</v>
@@ -5135,7 +5138,7 @@
         <v>1</v>
       </c>
       <c r="P87" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -5146,60 +5149,60 @@
         <v>34</v>
       </c>
       <c r="C88">
-        <v>0.5205928926738919</v>
+        <v>0.6498239504652852</v>
       </c>
       <c r="D88" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="E88">
-        <v>0.4040417624885522</v>
+        <v>0.9301657597584363</v>
       </c>
       <c r="F88">
         <v>1</v>
       </c>
       <c r="G88">
-        <v>0.006459407107326108</v>
+        <v>0.006110176049534715</v>
       </c>
       <c r="H88">
-        <v>0.006215958237511448</v>
+        <v>0.005269834240241564</v>
       </c>
       <c r="I88">
-        <v>-0.1165511301853397</v>
+        <v>0.2803418092931511</v>
       </c>
       <c r="J88">
-        <v>1.268977396293209</v>
+        <v>1.192216615517343</v>
       </c>
       <c r="K88">
-        <v>2.34</v>
+        <v>2.29</v>
       </c>
       <c r="L88">
-        <v>3.49</v>
+        <v>3.38</v>
       </c>
       <c r="M88">
-        <v>2.29</v>
+        <v>1.82</v>
       </c>
       <c r="N88">
-        <v>3.31</v>
+        <v>3.1</v>
       </c>
       <c r="O88">
         <v>1</v>
       </c>
       <c r="P88" t="s">
-        <v>101</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89" spans="1:16">
       <c r="A89" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B89" t="s">
+        <v>35</v>
+      </c>
+      <c r="C89">
+        <v>0.5205928926738919</v>
+      </c>
+      <c r="D89" t="s">
         <v>33</v>
-      </c>
-      <c r="C89">
-        <v>0.474041762488552</v>
-      </c>
-      <c r="D89" t="s">
-        <v>32</v>
       </c>
       <c r="E89">
         <v>0.4040417624885522</v>
@@ -5208,22 +5211,22 @@
         <v>1</v>
       </c>
       <c r="G89">
-        <v>0.006285958237511447</v>
+        <v>0.006459407107326108</v>
       </c>
       <c r="H89">
         <v>0.006215958237511448</v>
       </c>
       <c r="I89">
-        <v>-0.06999999999999984</v>
+        <v>-0.1165511301853397</v>
       </c>
       <c r="J89">
         <v>1.268977396293209</v>
       </c>
       <c r="K89">
-        <v>2.29</v>
+        <v>2.34</v>
       </c>
       <c r="L89">
-        <v>3.38</v>
+        <v>3.49</v>
       </c>
       <c r="M89">
         <v>2.29</v>
@@ -5235,45 +5238,45 @@
         <v>1</v>
       </c>
       <c r="P89" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:16">
       <c r="A90" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B90" t="s">
         <v>34</v>
       </c>
       <c r="C90">
-        <v>0.3774746016246668</v>
+        <v>0.474041762488552</v>
       </c>
       <c r="D90" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E90">
-        <v>0.2639815545814042</v>
+        <v>0.4040417624885522</v>
       </c>
       <c r="F90">
         <v>1</v>
       </c>
       <c r="G90">
-        <v>0.006602525398375333</v>
+        <v>0.006285958237511447</v>
       </c>
       <c r="H90">
-        <v>0.006356018445418596</v>
+        <v>0.006215958237511448</v>
       </c>
       <c r="I90">
-        <v>-0.1134930470432627</v>
+        <v>-0.06999999999999984</v>
       </c>
       <c r="J90">
-        <v>1.330139059134758</v>
+        <v>1.268977396293209</v>
       </c>
       <c r="K90">
-        <v>2.34</v>
+        <v>2.29</v>
       </c>
       <c r="L90">
-        <v>3.49</v>
+        <v>3.38</v>
       </c>
       <c r="M90">
         <v>2.29</v>
@@ -5285,21 +5288,21 @@
         <v>1</v>
       </c>
       <c r="P90" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="1:16">
       <c r="A91" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B91" t="s">
+        <v>35</v>
+      </c>
+      <c r="C91">
+        <v>0.3774746016246668</v>
+      </c>
+      <c r="D91" t="s">
         <v>33</v>
-      </c>
-      <c r="C91">
-        <v>0.333981554581404</v>
-      </c>
-      <c r="D91" t="s">
-        <v>32</v>
       </c>
       <c r="E91">
         <v>0.2639815545814042</v>
@@ -5308,22 +5311,22 @@
         <v>1</v>
       </c>
       <c r="G91">
-        <v>0.006426018445418596</v>
+        <v>0.006602525398375333</v>
       </c>
       <c r="H91">
         <v>0.006356018445418596</v>
       </c>
       <c r="I91">
-        <v>-0.06999999999999984</v>
+        <v>-0.1134930470432627</v>
       </c>
       <c r="J91">
         <v>1.330139059134758</v>
       </c>
       <c r="K91">
-        <v>2.29</v>
+        <v>2.34</v>
       </c>
       <c r="L91">
-        <v>3.38</v>
+        <v>3.49</v>
       </c>
       <c r="M91">
         <v>2.29</v>
@@ -5340,40 +5343,40 @@
     </row>
     <row r="92" spans="1:16">
       <c r="A92" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B92" t="s">
         <v>34</v>
       </c>
       <c r="C92">
-        <v>0.2442505289553791</v>
+        <v>0.333981554581404</v>
       </c>
       <c r="D92" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E92">
-        <v>0.1336041501315459</v>
+        <v>0.2639815545814042</v>
       </c>
       <c r="F92">
         <v>1</v>
       </c>
       <c r="G92">
-        <v>0.006735749471044622</v>
+        <v>0.006426018445418596</v>
       </c>
       <c r="H92">
-        <v>0.006486395849868455</v>
+        <v>0.006356018445418596</v>
       </c>
       <c r="I92">
-        <v>-0.1106463788238332</v>
+        <v>-0.06999999999999984</v>
       </c>
       <c r="J92">
-        <v>1.387072423523342</v>
+        <v>1.330139059134758</v>
       </c>
       <c r="K92">
-        <v>2.34</v>
+        <v>2.29</v>
       </c>
       <c r="L92">
-        <v>3.49</v>
+        <v>3.38</v>
       </c>
       <c r="M92">
         <v>2.29</v>
@@ -5385,121 +5388,121 @@
         <v>1</v>
       </c>
       <c r="P92" t="s">
-        <v>102</v>
+        <v>29</v>
       </c>
     </row>
     <row r="93" spans="1:16">
       <c r="A93" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B93" t="s">
         <v>35</v>
       </c>
       <c r="C93">
-        <v>0.2977942894248136</v>
+        <v>0.2442505289553791</v>
       </c>
       <c r="D93" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="E93">
-        <v>0.5755281891875166</v>
+        <v>0.1336041501315459</v>
       </c>
       <c r="F93">
         <v>1</v>
       </c>
       <c r="G93">
-        <v>0.006262205710575186</v>
+        <v>0.006735749471044622</v>
       </c>
       <c r="H93">
-        <v>0.005624471810812484</v>
+        <v>0.006486395849868455</v>
       </c>
       <c r="I93">
-        <v>0.277733899762703</v>
+        <v>-0.1106463788238332</v>
       </c>
       <c r="J93">
         <v>1.387072423523342</v>
       </c>
       <c r="K93">
-        <v>2.15</v>
+        <v>2.34</v>
       </c>
       <c r="L93">
-        <v>3.28</v>
+        <v>3.49</v>
       </c>
       <c r="M93">
-        <v>1.82</v>
+        <v>2.29</v>
       </c>
       <c r="N93">
-        <v>3.1</v>
+        <v>3.31</v>
       </c>
       <c r="O93">
         <v>1</v>
       </c>
       <c r="P93" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="94" spans="1:16">
       <c r="A94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B94" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C94">
-        <v>1.851150997400674</v>
+        <v>0.2977942894248136</v>
       </c>
       <c r="D94" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E94">
-        <v>1.622642804691997</v>
+        <v>0.5755281891875166</v>
       </c>
       <c r="F94">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G94">
-        <v>0.004988849002599325</v>
+        <v>0.006262205710575186</v>
       </c>
       <c r="H94">
-        <v>0.004537357195308004</v>
+        <v>0.005624471810812484</v>
       </c>
       <c r="I94">
-        <v>0.2285081927086774</v>
+        <v>0.277733899762703</v>
       </c>
       <c r="J94">
-        <v>0.7963700520808761</v>
+        <v>1.387072423523342</v>
       </c>
       <c r="K94">
-        <v>1.97</v>
+        <v>2.15</v>
       </c>
       <c r="L94">
-        <v>3.42</v>
+        <v>3.28</v>
       </c>
       <c r="M94">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="N94">
-        <v>3.08</v>
+        <v>3.1</v>
       </c>
       <c r="O94">
         <v>1</v>
       </c>
       <c r="P94" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
     </row>
     <row r="95" spans="1:16">
       <c r="A95" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B95" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C95">
-        <v>1.833368794275822</v>
+        <v>1.851150997400674</v>
       </c>
       <c r="D95" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E95">
         <v>1.622642804691997</v>
@@ -5508,22 +5511,22 @@
         <v>-1</v>
       </c>
       <c r="G95">
-        <v>0.005066631205724178</v>
+        <v>0.004988849002599325</v>
       </c>
       <c r="H95">
         <v>0.004537357195308004</v>
       </c>
       <c r="I95">
-        <v>0.2107259895838252</v>
+        <v>0.2285081927086774</v>
       </c>
       <c r="J95">
         <v>0.7963700520808761</v>
       </c>
       <c r="K95">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="L95">
-        <v>3.45</v>
+        <v>3.42</v>
       </c>
       <c r="M95">
         <v>1.83</v>
@@ -5540,34 +5543,34 @@
     </row>
     <row r="96" spans="1:16">
       <c r="A96" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B96" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C96">
-        <v>1.825554329597634</v>
+        <v>1.833368794275822</v>
       </c>
       <c r="D96" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E96">
-        <v>1.61559823801166</v>
+        <v>1.622642804691997</v>
       </c>
       <c r="F96">
         <v>-1</v>
       </c>
       <c r="G96">
-        <v>0.005074445670402367</v>
+        <v>0.005066631205724178</v>
       </c>
       <c r="H96">
-        <v>0.00454440176198834</v>
+        <v>0.004537357195308004</v>
       </c>
       <c r="I96">
-        <v>0.2099560915859742</v>
+        <v>0.2107259895838252</v>
       </c>
       <c r="J96">
-        <v>0.8002195420701311</v>
+        <v>0.7963700520808761</v>
       </c>
       <c r="K96">
         <v>2.03</v>
@@ -5585,7 +5588,7 @@
         <v>1</v>
       </c>
       <c r="P96" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -5593,31 +5596,31 @@
         <v>0</v>
       </c>
       <c r="B97" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C97">
-        <v>1.814964366537685</v>
+        <v>1.825554329597634</v>
       </c>
       <c r="D97" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E97">
-        <v>1.606051621065991</v>
+        <v>1.61559823801166</v>
       </c>
       <c r="F97">
         <v>-1</v>
       </c>
       <c r="G97">
-        <v>0.005085035633462316</v>
+        <v>0.005074445670402367</v>
       </c>
       <c r="H97">
-        <v>0.004553948378934009</v>
+        <v>0.00454440176198834</v>
       </c>
       <c r="I97">
-        <v>0.2089127454716935</v>
+        <v>0.2099560915859742</v>
       </c>
       <c r="J97">
-        <v>0.8054362726415348</v>
+        <v>0.8002195420701311</v>
       </c>
       <c r="K97">
         <v>2.03</v>
@@ -5635,7 +5638,7 @@
         <v>1</v>
       </c>
       <c r="P97" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -5643,31 +5646,31 @@
         <v>0</v>
       </c>
       <c r="B98" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C98">
-        <v>1.80276175127278</v>
+        <v>1.814964366537685</v>
       </c>
       <c r="D98" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E98">
-        <v>1.595051233906003</v>
+        <v>1.606051621065991</v>
       </c>
       <c r="F98">
         <v>-1</v>
       </c>
       <c r="G98">
-        <v>0.005097238248727221</v>
+        <v>0.005085035633462316</v>
       </c>
       <c r="H98">
-        <v>0.004564948766093997</v>
+        <v>0.004553948378934009</v>
       </c>
       <c r="I98">
-        <v>0.2077105173667766</v>
+        <v>0.2089127454716935</v>
       </c>
       <c r="J98">
-        <v>0.8114474131661186</v>
+        <v>0.8054362726415348</v>
       </c>
       <c r="K98">
         <v>2.03</v>
@@ -5685,7 +5688,7 @@
         <v>1</v>
       </c>
       <c r="P98" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -5693,31 +5696,31 @@
         <v>1</v>
       </c>
       <c r="B99" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C99">
-        <v>1.766532803009457</v>
+        <v>1.778855641084854</v>
       </c>
       <c r="D99" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E99">
-        <v>1.595051233906003</v>
+        <v>1.606051621065991</v>
       </c>
       <c r="F99">
         <v>-1</v>
       </c>
       <c r="G99">
-        <v>0.005093467196990544</v>
+        <v>0.005081144358915147</v>
       </c>
       <c r="H99">
-        <v>0.004564948766093997</v>
+        <v>0.004553948378934009</v>
       </c>
       <c r="I99">
-        <v>0.1714815691034541</v>
+        <v>0.1728040200188627</v>
       </c>
       <c r="J99">
-        <v>0.8114474131661186</v>
+        <v>0.8054362726415348</v>
       </c>
       <c r="K99">
         <v>2.05</v>
@@ -5735,7 +5738,7 @@
         <v>1</v>
       </c>
       <c r="P99" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -5743,31 +5746,31 @@
         <v>0</v>
       </c>
       <c r="B100" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C100">
-        <v>1.799355758249058</v>
+        <v>1.80276175127278</v>
       </c>
       <c r="D100" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E100">
-        <v>1.591980806697426</v>
+        <v>1.595051233906003</v>
       </c>
       <c r="F100">
         <v>-1</v>
       </c>
       <c r="G100">
-        <v>0.005100644241750943</v>
+        <v>0.005097238248727221</v>
       </c>
       <c r="H100">
-        <v>0.004568019193302574</v>
+        <v>0.004564948766093997</v>
       </c>
       <c r="I100">
-        <v>0.2073749515516314</v>
+        <v>0.2077105173667766</v>
       </c>
       <c r="J100">
-        <v>0.8131252422418436</v>
+        <v>0.8114474131661186</v>
       </c>
       <c r="K100">
         <v>2.03</v>
@@ -5785,7 +5788,7 @@
         <v>1</v>
       </c>
       <c r="P100" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -5793,31 +5796,31 @@
         <v>1</v>
       </c>
       <c r="B101" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C101">
-        <v>1.763093253404221</v>
+        <v>1.766532803009457</v>
       </c>
       <c r="D101" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E101">
-        <v>1.591980806697426</v>
+        <v>1.595051233906003</v>
       </c>
       <c r="F101">
         <v>-1</v>
       </c>
       <c r="G101">
-        <v>0.00509690674659578</v>
+        <v>0.005093467196990544</v>
       </c>
       <c r="H101">
-        <v>0.004568019193302574</v>
+        <v>0.004564948766093997</v>
       </c>
       <c r="I101">
-        <v>0.1711124467067946</v>
+        <v>0.1714815691034541</v>
       </c>
       <c r="J101">
-        <v>0.8131252422418436</v>
+        <v>0.8114474131661186</v>
       </c>
       <c r="K101">
         <v>2.05</v>
@@ -5835,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="P101" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -5843,99 +5846,99 @@
         <v>0</v>
       </c>
       <c r="B102" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C102">
-        <v>1.758945050051923</v>
+        <v>1.799355758249058</v>
       </c>
       <c r="D102" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E102">
-        <v>1.579368851023481</v>
+        <v>1.591980806697426</v>
       </c>
       <c r="F102">
         <v>-1</v>
       </c>
       <c r="G102">
-        <v>0.005101054949948077</v>
+        <v>0.005100644241750943</v>
       </c>
       <c r="H102">
-        <v>0.00466063114897652</v>
+        <v>0.004568019193302574</v>
       </c>
       <c r="I102">
-        <v>0.1795761990284428</v>
+        <v>0.2073749515516314</v>
       </c>
       <c r="J102">
-        <v>0.8151487560722326</v>
+        <v>0.8131252422418436</v>
       </c>
       <c r="K102">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="L102">
-        <v>3.43</v>
+        <v>3.45</v>
       </c>
       <c r="M102">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="N102">
-        <v>3.12</v>
+        <v>3.08</v>
       </c>
       <c r="O102">
         <v>1</v>
       </c>
       <c r="P102" t="s">
-        <v>26</v>
+        <v>107</v>
       </c>
     </row>
     <row r="103" spans="1:16">
       <c r="A103" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B103" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C103">
-        <v>1.72904089319749</v>
+        <v>1.763093253404221</v>
       </c>
       <c r="D103" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E103">
-        <v>1.571905533403557</v>
+        <v>1.591980806697426</v>
       </c>
       <c r="F103">
         <v>-1</v>
       </c>
       <c r="G103">
-        <v>0.00507095910680251</v>
+        <v>0.00509690674659578</v>
       </c>
       <c r="H103">
-        <v>0.004668094466596443</v>
+        <v>0.004568019193302574</v>
       </c>
       <c r="I103">
-        <v>0.1571353597939327</v>
+        <v>0.1711124467067946</v>
       </c>
       <c r="J103">
-        <v>0.8190976013737793</v>
+        <v>0.8131252422418436</v>
       </c>
       <c r="K103">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="L103">
-        <v>3.4</v>
+        <v>3.43</v>
       </c>
       <c r="M103">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="N103">
-        <v>3.12</v>
+        <v>3.08</v>
       </c>
       <c r="O103">
         <v>1</v>
       </c>
       <c r="P103" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -5943,37 +5946,37 @@
         <v>0</v>
       </c>
       <c r="B104" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C104">
-        <v>1.732368893145465</v>
+        <v>1.758945050051923</v>
       </c>
       <c r="D104" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E104">
-        <v>1.574988827473004</v>
+        <v>1.579368851023481</v>
       </c>
       <c r="F104">
         <v>-1</v>
       </c>
       <c r="G104">
-        <v>0.005067631106854534</v>
+        <v>0.005101054949948077</v>
       </c>
       <c r="H104">
-        <v>0.004665011172526996</v>
+        <v>0.00466063114897652</v>
       </c>
       <c r="I104">
-        <v>0.1573800656724604</v>
+        <v>0.1795761990284428</v>
       </c>
       <c r="J104">
-        <v>0.8174662288502623</v>
+        <v>0.8151487560722326</v>
       </c>
       <c r="K104">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="L104">
-        <v>3.4</v>
+        <v>3.43</v>
       </c>
       <c r="M104">
         <v>1.89</v>
@@ -5985,7 +5988,7 @@
         <v>1</v>
       </c>
       <c r="P104" t="s">
-        <v>106</v>
+        <v>27</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -5993,49 +5996,49 @@
         <v>0</v>
       </c>
       <c r="B105" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C105">
-        <v>1.697534484639878</v>
+        <v>1.72904089319749</v>
       </c>
       <c r="D105" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E105">
-        <v>1.561011377500918</v>
+        <v>1.571905533403557</v>
       </c>
       <c r="F105">
         <v>-1</v>
       </c>
       <c r="G105">
-        <v>0.004842465515360122</v>
+        <v>0.00507095910680251</v>
       </c>
       <c r="H105">
-        <v>0.004478988622499082</v>
+        <v>0.004668094466596443</v>
       </c>
       <c r="I105">
-        <v>0.1365231071389603</v>
+        <v>0.1571353597939327</v>
       </c>
       <c r="J105">
-        <v>0.8105492347217125</v>
+        <v>0.8190976013737793</v>
       </c>
       <c r="K105">
-        <v>1.94</v>
+        <v>2.04</v>
       </c>
       <c r="L105">
-        <v>3.27</v>
+        <v>3.4</v>
       </c>
       <c r="M105">
-        <v>1.8</v>
+        <v>1.89</v>
       </c>
       <c r="N105">
-        <v>3.02</v>
+        <v>3.12</v>
       </c>
       <c r="O105">
         <v>1</v>
       </c>
       <c r="P105" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -6043,49 +6046,49 @@
         <v>0</v>
       </c>
       <c r="B106" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C106">
-        <v>1.703024477239647</v>
+        <v>1.732368893145465</v>
       </c>
       <c r="D106" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E106">
-        <v>1.566105185067714</v>
+        <v>1.574988827473004</v>
       </c>
       <c r="F106">
         <v>-1</v>
       </c>
       <c r="G106">
-        <v>0.004836975522760354</v>
+        <v>0.005067631106854534</v>
       </c>
       <c r="H106">
-        <v>0.004473894814932287</v>
+        <v>0.004665011172526996</v>
       </c>
       <c r="I106">
-        <v>0.1369192921719335</v>
+        <v>0.1573800656724604</v>
       </c>
       <c r="J106">
-        <v>0.8077193416290479</v>
+        <v>0.8174662288502623</v>
       </c>
       <c r="K106">
-        <v>1.94</v>
+        <v>2.04</v>
       </c>
       <c r="L106">
-        <v>3.27</v>
+        <v>3.4</v>
       </c>
       <c r="M106">
-        <v>1.8</v>
+        <v>1.89</v>
       </c>
       <c r="N106">
-        <v>3.02</v>
+        <v>3.12</v>
       </c>
       <c r="O106">
         <v>1</v>
       </c>
       <c r="P106" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -6096,28 +6099,28 @@
         <v>38</v>
       </c>
       <c r="C107">
-        <v>1.706762500295012</v>
+        <v>1.697534484639878</v>
       </c>
       <c r="D107" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E107">
-        <v>1.56957345388197</v>
+        <v>1.561011377500918</v>
       </c>
       <c r="F107">
         <v>-1</v>
       </c>
       <c r="G107">
-        <v>0.004833237499704988</v>
+        <v>0.004842465515360122</v>
       </c>
       <c r="H107">
-        <v>0.004470426546118031</v>
+        <v>0.004478988622499082</v>
       </c>
       <c r="I107">
-        <v>0.1371890464130423</v>
+        <v>0.1365231071389603</v>
       </c>
       <c r="J107">
-        <v>0.8057925256211278</v>
+        <v>0.8105492347217125</v>
       </c>
       <c r="K107">
         <v>1.94</v>
@@ -6135,7 +6138,7 @@
         <v>1</v>
       </c>
       <c r="P107" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -6146,28 +6149,28 @@
         <v>38</v>
       </c>
       <c r="C108">
-        <v>1.711603744119008</v>
+        <v>1.703024477239647</v>
       </c>
       <c r="D108" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E108">
-        <v>1.574065329594956</v>
+        <v>1.566105185067714</v>
       </c>
       <c r="F108">
         <v>-1</v>
       </c>
       <c r="G108">
-        <v>0.004828396255880993</v>
+        <v>0.004836975522760354</v>
       </c>
       <c r="H108">
-        <v>0.004465934670405044</v>
+        <v>0.004473894814932287</v>
       </c>
       <c r="I108">
-        <v>0.1375384145240521</v>
+        <v>0.1369192921719335</v>
       </c>
       <c r="J108">
-        <v>0.8032970391139135</v>
+        <v>0.8077193416290479</v>
       </c>
       <c r="K108">
         <v>1.94</v>
@@ -6185,7 +6188,7 @@
         <v>1</v>
       </c>
       <c r="P108" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -6193,49 +6196,49 @@
         <v>0</v>
       </c>
       <c r="B109" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C109">
-        <v>1.702699397711841</v>
+        <v>1.706762500295012</v>
       </c>
       <c r="D109" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E109">
-        <v>1.58060202641754</v>
+        <v>1.56957345388197</v>
       </c>
       <c r="F109">
         <v>-1</v>
       </c>
       <c r="G109">
-        <v>0.004697300602288159</v>
+        <v>0.004833237499704988</v>
       </c>
       <c r="H109">
-        <v>0.00479939797358246</v>
+        <v>0.004470426546118031</v>
       </c>
       <c r="I109">
-        <v>0.1220973712943008</v>
+        <v>0.1371890464130423</v>
       </c>
       <c r="J109">
-        <v>0.8006955092450049</v>
+        <v>0.8057925256211278</v>
       </c>
       <c r="K109">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="L109">
-        <v>3.2</v>
+        <v>3.27</v>
       </c>
       <c r="M109">
-        <v>2.01</v>
+        <v>1.8</v>
       </c>
       <c r="N109">
-        <v>3.19</v>
+        <v>3.02</v>
       </c>
       <c r="O109">
         <v>1</v>
       </c>
       <c r="P109" t="s">
-        <v>38</v>
+        <v>112</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -6243,49 +6246,49 @@
         <v>0</v>
       </c>
       <c r="B110" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C110">
-        <v>1.706549065306413</v>
+        <v>1.711603744119008</v>
       </c>
       <c r="D110" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E110">
-        <v>1.584739904420262</v>
+        <v>1.574065329594956</v>
       </c>
       <c r="F110">
         <v>-1</v>
       </c>
       <c r="G110">
-        <v>0.004693450934693588</v>
+        <v>0.004828396255880993</v>
       </c>
       <c r="H110">
-        <v>0.004795260095579738</v>
+        <v>0.004465934670405044</v>
       </c>
       <c r="I110">
-        <v>0.1218091608861507</v>
+        <v>0.1375384145240521</v>
       </c>
       <c r="J110">
-        <v>0.7986368634725065</v>
+        <v>0.8032970391139135</v>
       </c>
       <c r="K110">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="L110">
-        <v>3.2</v>
+        <v>3.27</v>
       </c>
       <c r="M110">
-        <v>2.01</v>
+        <v>1.8</v>
       </c>
       <c r="N110">
-        <v>3.19</v>
+        <v>3.02</v>
       </c>
       <c r="O110">
         <v>1</v>
       </c>
       <c r="P110" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -6296,28 +6299,28 @@
         <v>39</v>
       </c>
       <c r="C111">
-        <v>1.715081561736875</v>
+        <v>1.702699397711841</v>
       </c>
       <c r="D111" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E111">
-        <v>1.59391119737493</v>
+        <v>1.58060202641754</v>
       </c>
       <c r="F111">
         <v>-1</v>
       </c>
       <c r="G111">
-        <v>0.004684918438263125</v>
+        <v>0.004697300602288159</v>
       </c>
       <c r="H111">
-        <v>0.00478608880262507</v>
+        <v>0.00479939797358246</v>
       </c>
       <c r="I111">
-        <v>0.1211703643619453</v>
+        <v>0.1220973712943008</v>
       </c>
       <c r="J111">
-        <v>0.7940740311567515</v>
+        <v>0.8006955092450049</v>
       </c>
       <c r="K111">
         <v>1.87</v>
@@ -6335,7 +6338,7 @@
         <v>1</v>
       </c>
       <c r="P111" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -6346,28 +6349,28 @@
         <v>39</v>
       </c>
       <c r="C112">
-        <v>1.724215665563157</v>
+        <v>1.706549065306413</v>
       </c>
       <c r="D112" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E112">
-        <v>1.603729137851308</v>
+        <v>1.584739904420262</v>
       </c>
       <c r="F112">
         <v>-1</v>
       </c>
       <c r="G112">
-        <v>0.004675784334436843</v>
+        <v>0.004693450934693588</v>
       </c>
       <c r="H112">
-        <v>0.004776270862148693</v>
+        <v>0.004795260095579738</v>
       </c>
       <c r="I112">
-        <v>0.1204865277118492</v>
+        <v>0.1218091608861507</v>
       </c>
       <c r="J112">
-        <v>0.7891894836560657</v>
+        <v>0.7986368634725065</v>
       </c>
       <c r="K112">
         <v>1.87</v>
@@ -6385,7 +6388,7 @@
         <v>1</v>
       </c>
       <c r="P112" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -6396,28 +6399,28 @@
         <v>39</v>
       </c>
       <c r="C113">
-        <v>1.726739382920171</v>
+        <v>1.715081561736875</v>
       </c>
       <c r="D113" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E113">
-        <v>1.606441796614729</v>
+        <v>1.59391119737493</v>
       </c>
       <c r="F113">
         <v>-1</v>
       </c>
       <c r="G113">
-        <v>0.00467326061707983</v>
+        <v>0.004684918438263125</v>
       </c>
       <c r="H113">
-        <v>0.004773558203385271</v>
+        <v>0.00478608880262507</v>
       </c>
       <c r="I113">
-        <v>0.1202975863054419</v>
+        <v>0.1211703643619453</v>
       </c>
       <c r="J113">
-        <v>0.7878399021817268</v>
+        <v>0.7940740311567515</v>
       </c>
       <c r="K113">
         <v>1.87</v>
@@ -6435,7 +6438,7 @@
         <v>1</v>
       </c>
       <c r="P113" t="s">
-        <v>112</v>
+        <v>61</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -6443,81 +6446,81 @@
         <v>0</v>
       </c>
       <c r="B114" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C114">
-        <v>1.708455604764484</v>
+        <v>1.724215665563157</v>
       </c>
       <c r="D114" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E114">
-        <v>1.602087480096213</v>
+        <v>1.603729137851308</v>
       </c>
       <c r="F114">
         <v>-1</v>
       </c>
       <c r="G114">
-        <v>0.004591544395235517</v>
+        <v>0.004675784334436843</v>
       </c>
       <c r="H114">
-        <v>0.004437912519903786</v>
+        <v>0.004776270862148693</v>
       </c>
       <c r="I114">
-        <v>0.1063681246682702</v>
+        <v>0.1204865277118492</v>
       </c>
       <c r="J114">
-        <v>0.7877291777243258</v>
+        <v>0.7891894836560657</v>
       </c>
       <c r="K114">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="L114">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="M114">
-        <v>1.8</v>
+        <v>2.01</v>
       </c>
       <c r="N114">
-        <v>3.02</v>
+        <v>3.19</v>
       </c>
       <c r="O114">
         <v>1</v>
       </c>
       <c r="P114" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="115" spans="1:16">
       <c r="A115" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B115" t="s">
         <v>39</v>
       </c>
       <c r="C115">
-        <v>1.726946437655511</v>
+        <v>1.726739382920171</v>
       </c>
       <c r="D115" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E115">
-        <v>1.606664352774105</v>
+        <v>1.573712190745633</v>
       </c>
       <c r="F115">
         <v>-1</v>
       </c>
       <c r="G115">
-        <v>0.004673053562344489</v>
+        <v>0.00467326061707983</v>
       </c>
       <c r="H115">
-        <v>0.004773335647225894</v>
+        <v>0.004646287809254367</v>
       </c>
       <c r="I115">
-        <v>0.1202820848814057</v>
+        <v>0.1530271921745383</v>
       </c>
       <c r="J115">
-        <v>0.7877291777243258</v>
+        <v>0.7878399021817268</v>
       </c>
       <c r="K115">
         <v>1.87</v>
@@ -6526,16 +6529,16 @@
         <v>3.2</v>
       </c>
       <c r="M115">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="N115">
-        <v>3.19</v>
+        <v>3.11</v>
       </c>
       <c r="O115">
         <v>1</v>
       </c>
       <c r="P115" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -6546,28 +6549,28 @@
         <v>40</v>
       </c>
       <c r="C116">
-        <v>1.709251767384038</v>
+        <v>1.708455604764484</v>
       </c>
       <c r="D116" t="s">
         <v>62</v>
       </c>
       <c r="E116">
-        <v>1.582014120413023</v>
+        <v>1.602087480096213</v>
       </c>
       <c r="F116">
         <v>-1</v>
       </c>
       <c r="G116">
-        <v>0.004590748232615962</v>
+        <v>0.004591544395235517</v>
       </c>
       <c r="H116">
-        <v>0.004557985879586977</v>
+        <v>0.004437912519903786</v>
       </c>
       <c r="I116">
-        <v>0.127237646971015</v>
+        <v>0.1063681246682702</v>
       </c>
       <c r="J116">
-        <v>0.7872941161835857</v>
+        <v>0.7877291777243258</v>
       </c>
       <c r="K116">
         <v>1.83</v>
@@ -6576,16 +6579,16 @@
         <v>3.15</v>
       </c>
       <c r="M116">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="N116">
-        <v>3.07</v>
+        <v>3.02</v>
       </c>
       <c r="O116">
         <v>1</v>
       </c>
       <c r="P116" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -6596,28 +6599,28 @@
         <v>39</v>
       </c>
       <c r="C117">
-        <v>1.727760002736695</v>
+        <v>1.726946437655511</v>
       </c>
       <c r="D117" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E117">
-        <v>1.607538826470993</v>
+        <v>1.573928103437565</v>
       </c>
       <c r="F117">
         <v>-1</v>
       </c>
       <c r="G117">
-        <v>0.004672239997263306</v>
+        <v>0.004673053562344489</v>
       </c>
       <c r="H117">
-        <v>0.004772461173529007</v>
+        <v>0.004646071896562435</v>
       </c>
       <c r="I117">
-        <v>0.1202211762657019</v>
+        <v>0.1530183342179463</v>
       </c>
       <c r="J117">
-        <v>0.7872941161835857</v>
+        <v>0.7877291777243258</v>
       </c>
       <c r="K117">
         <v>1.87</v>
@@ -6626,16 +6629,16 @@
         <v>3.2</v>
       </c>
       <c r="M117">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="N117">
-        <v>3.19</v>
+        <v>3.11</v>
       </c>
       <c r="O117">
         <v>1</v>
       </c>
       <c r="P117" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -6646,28 +6649,28 @@
         <v>40</v>
       </c>
       <c r="C118">
-        <v>1.706716749552468</v>
+        <v>1.709251767384038</v>
       </c>
       <c r="D118" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E118">
-        <v>1.579395987242713</v>
+        <v>1.582014120413023</v>
       </c>
       <c r="F118">
         <v>-1</v>
       </c>
       <c r="G118">
-        <v>0.004593283250447533</v>
+        <v>0.004590748232615962</v>
       </c>
       <c r="H118">
-        <v>0.004560604012757288</v>
+        <v>0.004557985879586977</v>
       </c>
       <c r="I118">
-        <v>0.1273207623097552</v>
+        <v>0.127237646971015</v>
       </c>
       <c r="J118">
-        <v>0.7886793718292525</v>
+        <v>0.7872941161835857</v>
       </c>
       <c r="K118">
         <v>1.83</v>
@@ -6685,7 +6688,7 @@
         <v>1</v>
       </c>
       <c r="P118" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -6696,28 +6699,28 @@
         <v>39</v>
       </c>
       <c r="C119">
-        <v>1.725169574679298</v>
+        <v>1.727760002736695</v>
       </c>
       <c r="D119" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E119">
-        <v>1.604754462623203</v>
+        <v>1.574776473442008</v>
       </c>
       <c r="F119">
         <v>-1</v>
       </c>
       <c r="G119">
-        <v>0.004674830425320703</v>
+        <v>0.004672239997263306</v>
       </c>
       <c r="H119">
-        <v>0.004775245537376798</v>
+        <v>0.004645223526557992</v>
       </c>
       <c r="I119">
-        <v>0.1204151120560952</v>
+        <v>0.1529835292946871</v>
       </c>
       <c r="J119">
-        <v>0.7886793718292525</v>
+        <v>0.7872941161835857</v>
       </c>
       <c r="K119">
         <v>1.87</v>
@@ -6726,16 +6729,16 @@
         <v>3.2</v>
       </c>
       <c r="M119">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="N119">
-        <v>3.19</v>
+        <v>3.11</v>
       </c>
       <c r="O119">
         <v>1</v>
       </c>
       <c r="P119" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -6743,81 +6746,81 @@
         <v>0</v>
       </c>
       <c r="B120" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C120">
-        <v>1.722799046842222</v>
+        <v>1.700943162115883</v>
       </c>
       <c r="D120" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E120">
-        <v>1.602206462113832</v>
+        <v>1.579395987242713</v>
       </c>
       <c r="F120">
         <v>-1</v>
       </c>
       <c r="G120">
-        <v>0.004677200953157779</v>
+        <v>0.004619056837884117</v>
       </c>
       <c r="H120">
-        <v>0.004777793537886168</v>
+        <v>0.004560604012757288</v>
       </c>
       <c r="I120">
-        <v>0.1205925847283897</v>
+        <v>0.1215471748731702</v>
       </c>
       <c r="J120">
-        <v>0.7899470337742129</v>
+        <v>0.7886793718292525</v>
       </c>
       <c r="K120">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="L120">
-        <v>3.2</v>
+        <v>3.16</v>
       </c>
       <c r="M120">
-        <v>2.01</v>
+        <v>1.89</v>
       </c>
       <c r="N120">
-        <v>3.19</v>
+        <v>3.07</v>
       </c>
       <c r="O120">
         <v>1</v>
       </c>
       <c r="P120" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="121" spans="1:16">
       <c r="A121" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B121" t="s">
         <v>39</v>
       </c>
       <c r="C121">
-        <v>1.721909002855845</v>
+        <v>1.725169574679298</v>
       </c>
       <c r="D121" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E121">
-        <v>1.601249783818315</v>
+        <v>1.572075224932957</v>
       </c>
       <c r="F121">
         <v>-1</v>
       </c>
       <c r="G121">
-        <v>0.004678090997144155</v>
+        <v>0.004674830425320703</v>
       </c>
       <c r="H121">
-        <v>0.004778750216181685</v>
+        <v>0.004647924775067042</v>
       </c>
       <c r="I121">
-        <v>0.1206592190375302</v>
+        <v>0.1530943497463404</v>
       </c>
       <c r="J121">
-        <v>0.7904229931252164</v>
+        <v>0.7886793718292525</v>
       </c>
       <c r="K121">
         <v>1.87</v>
@@ -6826,16 +6829,16 @@
         <v>3.2</v>
       </c>
       <c r="M121">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="N121">
-        <v>3.19</v>
+        <v>3.11</v>
       </c>
       <c r="O121">
         <v>1</v>
       </c>
       <c r="P121" t="s">
-        <v>40</v>
+        <v>118</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -6846,28 +6849,28 @@
         <v>39</v>
       </c>
       <c r="C122">
-        <v>1.720598225993867</v>
+        <v>1.722799046842222</v>
       </c>
       <c r="D122" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E122">
-        <v>1.599840873929236</v>
+        <v>1.569603284140285</v>
       </c>
       <c r="F122">
         <v>-1</v>
       </c>
       <c r="G122">
-        <v>0.004679401774006134</v>
+        <v>0.004677200953157779</v>
       </c>
       <c r="H122">
-        <v>0.004780159126070764</v>
+        <v>0.004650396715859715</v>
       </c>
       <c r="I122">
-        <v>0.1207573520646303</v>
+        <v>0.1531957627019371</v>
       </c>
       <c r="J122">
-        <v>0.791123943318788</v>
+        <v>0.7899470337742129</v>
       </c>
       <c r="K122">
         <v>1.87</v>
@@ -6876,16 +6879,16 @@
         <v>3.2</v>
       </c>
       <c r="M122">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="N122">
-        <v>3.19</v>
+        <v>3.11</v>
       </c>
       <c r="O122">
         <v>1</v>
       </c>
       <c r="P122" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -6896,28 +6899,28 @@
         <v>39</v>
       </c>
       <c r="C123">
-        <v>1.741857926477373</v>
+        <v>1.721909002855845</v>
       </c>
       <c r="D123" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E123">
-        <v>1.622692209743059</v>
+        <v>1.568675163405828</v>
       </c>
       <c r="F123">
         <v>-1</v>
       </c>
       <c r="G123">
-        <v>0.004658142073522628</v>
+        <v>0.004678090997144155</v>
       </c>
       <c r="H123">
-        <v>0.004757307790256941</v>
+        <v>0.004651324836594172</v>
       </c>
       <c r="I123">
-        <v>0.1191657167343141</v>
+        <v>0.1532338394500175</v>
       </c>
       <c r="J123">
-        <v>0.7797551195308166</v>
+        <v>0.7904229931252164</v>
       </c>
       <c r="K123">
         <v>1.87</v>
@@ -6926,16 +6929,16 @@
         <v>3.2</v>
       </c>
       <c r="M123">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="N123">
-        <v>3.19</v>
+        <v>3.11</v>
       </c>
       <c r="O123">
         <v>1</v>
       </c>
       <c r="P123" t="s">
-        <v>118</v>
+        <v>40</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -6946,28 +6949,28 @@
         <v>39</v>
       </c>
       <c r="C124">
-        <v>1.7430123394524</v>
+        <v>1.720598225993867</v>
       </c>
       <c r="D124" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E124">
-        <v>1.623933049357927</v>
+        <v>1.567308310528363</v>
       </c>
       <c r="F124">
         <v>-1</v>
       </c>
       <c r="G124">
-        <v>0.004656987660547601</v>
+        <v>0.004679401774006134</v>
       </c>
       <c r="H124">
-        <v>0.004756066950642073</v>
+        <v>0.004652691689471636</v>
       </c>
       <c r="I124">
-        <v>0.1190792900944726</v>
+        <v>0.1532899154655032</v>
       </c>
       <c r="J124">
-        <v>0.7791377863890909</v>
+        <v>0.791123943318788</v>
       </c>
       <c r="K124">
         <v>1.87</v>
@@ -6976,10 +6979,10 @@
         <v>3.2</v>
       </c>
       <c r="M124">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="N124">
-        <v>3.19</v>
+        <v>3.11</v>
       </c>
       <c r="O124">
         <v>1</v>
@@ -6996,28 +6999,28 @@
         <v>39</v>
       </c>
       <c r="C125">
-        <v>1.745259534195844</v>
+        <v>1.7430123394524</v>
       </c>
       <c r="D125" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E125">
-        <v>1.626348483280025</v>
+        <v>1.590681316541273</v>
       </c>
       <c r="F125">
         <v>-1</v>
       </c>
       <c r="G125">
-        <v>0.004654740465804157</v>
+        <v>0.004656987660547601</v>
       </c>
       <c r="H125">
-        <v>0.004753651516719975</v>
+        <v>0.004629318683458727</v>
       </c>
       <c r="I125">
-        <v>0.1189110509158191</v>
+        <v>0.1523310229111274</v>
       </c>
       <c r="J125">
-        <v>0.777936077970137</v>
+        <v>0.7791377863890909</v>
       </c>
       <c r="K125">
         <v>1.87</v>
@@ -7026,10 +7029,10 @@
         <v>3.2</v>
       </c>
       <c r="M125">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="N125">
-        <v>3.19</v>
+        <v>3.11</v>
       </c>
       <c r="O125">
         <v>1</v>
@@ -7046,28 +7049,28 @@
         <v>39</v>
       </c>
       <c r="C126">
-        <v>1.746411489484559</v>
+        <v>1.745259534195844</v>
       </c>
       <c r="D126" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E126">
-        <v>1.627586681210676</v>
+        <v>1.593024647958233</v>
       </c>
       <c r="F126">
         <v>-1</v>
       </c>
       <c r="G126">
-        <v>0.004653588510515442</v>
+        <v>0.004654740465804157</v>
       </c>
       <c r="H126">
-        <v>0.004752413318789324</v>
+        <v>0.004626975352041767</v>
       </c>
       <c r="I126">
-        <v>0.1188248082738832</v>
+        <v>0.1522348862376111</v>
       </c>
       <c r="J126">
-        <v>0.7773200590991663</v>
+        <v>0.777936077970137</v>
       </c>
       <c r="K126">
         <v>1.87</v>
@@ -7076,10 +7079,10 @@
         <v>3.2</v>
       </c>
       <c r="M126">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="N126">
-        <v>3.19</v>
+        <v>3.11</v>
       </c>
       <c r="O126">
         <v>1</v>
@@ -7096,28 +7099,28 @@
         <v>39</v>
       </c>
       <c r="C127">
-        <v>1.748527788884446</v>
+        <v>1.746411489484559</v>
       </c>
       <c r="D127" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E127">
-        <v>1.629861420137827</v>
+        <v>1.594225884756626</v>
       </c>
       <c r="F127">
         <v>-1</v>
       </c>
       <c r="G127">
-        <v>0.004651472211115554</v>
+        <v>0.004653588510515442</v>
       </c>
       <c r="H127">
-        <v>0.004750138579862172</v>
+        <v>0.004625774115243374</v>
       </c>
       <c r="I127">
-        <v>0.118666368746619</v>
+        <v>0.1521856047279335</v>
       </c>
       <c r="J127">
-        <v>0.7761883481901358</v>
+        <v>0.7773200590991663</v>
       </c>
       <c r="K127">
         <v>1.87</v>
@@ -7126,10 +7129,10 @@
         <v>3.2</v>
       </c>
       <c r="M127">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="N127">
-        <v>3.19</v>
+        <v>3.11</v>
       </c>
       <c r="O127">
         <v>1</v>
@@ -7146,28 +7149,28 @@
         <v>39</v>
       </c>
       <c r="C128">
-        <v>1.750999132580348</v>
+        <v>1.748527788884446</v>
       </c>
       <c r="D128" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E128">
-        <v>1.632517784217379</v>
+        <v>1.596432721029235</v>
       </c>
       <c r="F128">
         <v>-1</v>
       </c>
       <c r="G128">
-        <v>0.004649000867419653</v>
+        <v>0.004651472211115554</v>
       </c>
       <c r="H128">
-        <v>0.004747482215782621</v>
+        <v>0.004623567278970764</v>
       </c>
       <c r="I128">
-        <v>0.1184813483629685</v>
+        <v>0.1520950678552111</v>
       </c>
       <c r="J128">
-        <v>0.7748667740212044</v>
+        <v>0.7761883481901358</v>
       </c>
       <c r="K128">
         <v>1.87</v>
@@ -7176,10 +7179,10 @@
         <v>3.2</v>
       </c>
       <c r="M128">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="N128">
-        <v>3.19</v>
+        <v>3.11</v>
       </c>
       <c r="O128">
         <v>1</v>
@@ -7196,28 +7199,28 @@
         <v>39</v>
       </c>
       <c r="C129">
-        <v>1.753450334202255</v>
+        <v>1.750999132580348</v>
       </c>
       <c r="D129" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E129">
-        <v>1.635152498260178</v>
+        <v>1.599009790658651</v>
       </c>
       <c r="F129">
         <v>-1</v>
       </c>
       <c r="G129">
-        <v>0.004646549665797745</v>
+        <v>0.004649000867419653</v>
       </c>
       <c r="H129">
-        <v>0.004744847501739822</v>
+        <v>0.004620990209341349</v>
       </c>
       <c r="I129">
-        <v>0.1182978359420772</v>
+        <v>0.1519893419216964</v>
       </c>
       <c r="J129">
-        <v>0.7735559710148369</v>
+        <v>0.7748667740212044</v>
       </c>
       <c r="K129">
         <v>1.87</v>
@@ -7226,10 +7229,10 @@
         <v>3.2</v>
       </c>
       <c r="M129">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="N129">
-        <v>3.19</v>
+        <v>3.11</v>
       </c>
       <c r="O129">
         <v>1</v>
@@ -7246,28 +7249,28 @@
         <v>39</v>
       </c>
       <c r="C130">
-        <v>1.754939802540862</v>
+        <v>1.753450334202255</v>
       </c>
       <c r="D130" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E130">
-        <v>1.636753477597397</v>
+        <v>1.601565856521068</v>
       </c>
       <c r="F130">
         <v>-1</v>
       </c>
       <c r="G130">
-        <v>0.004645060197459139</v>
+        <v>0.004646549665797745</v>
       </c>
       <c r="H130">
-        <v>0.004743246522402603</v>
+        <v>0.004618434143478931</v>
       </c>
       <c r="I130">
-        <v>0.1181863249434649</v>
+        <v>0.1518844776811872</v>
       </c>
       <c r="J130">
-        <v>0.7727594638818923</v>
+        <v>0.7735559710148369</v>
       </c>
       <c r="K130">
         <v>1.87</v>
@@ -7276,10 +7279,10 @@
         <v>3.2</v>
       </c>
       <c r="M130">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="N130">
-        <v>3.19</v>
+        <v>3.11</v>
       </c>
       <c r="O130">
         <v>1</v>
@@ -7296,28 +7299,28 @@
         <v>39</v>
       </c>
       <c r="C131">
-        <v>1.755568315849489</v>
+        <v>1.754939802540862</v>
       </c>
       <c r="D131" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E131">
-        <v>1.637429045378328</v>
+        <v>1.60311904543031</v>
       </c>
       <c r="F131">
         <v>-1</v>
       </c>
       <c r="G131">
-        <v>0.004644431684150511</v>
+        <v>0.004645060197459139</v>
       </c>
       <c r="H131">
-        <v>0.004742570954621671</v>
+        <v>0.00461688095456969</v>
       </c>
       <c r="I131">
-        <v>0.118139270471161</v>
+        <v>0.1518207571105517</v>
       </c>
       <c r="J131">
-        <v>0.7724233605082945</v>
+        <v>0.7727594638818923</v>
       </c>
       <c r="K131">
         <v>1.87</v>
@@ -7326,10 +7329,10 @@
         <v>3.2</v>
       </c>
       <c r="M131">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="N131">
-        <v>3.19</v>
+        <v>3.11</v>
       </c>
       <c r="O131">
         <v>1</v>
@@ -7346,28 +7349,28 @@
         <v>39</v>
       </c>
       <c r="C132">
-        <v>1.755871060200726</v>
+        <v>1.755568315849489</v>
       </c>
       <c r="D132" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E132">
-        <v>1.637754455082063</v>
+        <v>1.603774447008826</v>
       </c>
       <c r="F132">
         <v>-1</v>
       </c>
       <c r="G132">
-        <v>0.004644128939799275</v>
+        <v>0.004644431684150511</v>
       </c>
       <c r="H132">
-        <v>0.004742245544917937</v>
+        <v>0.004616225552991174</v>
       </c>
       <c r="I132">
-        <v>0.1181166051186624</v>
+        <v>0.1517938688406637</v>
       </c>
       <c r="J132">
-        <v>0.7722614651333018</v>
+        <v>0.7724233605082945</v>
       </c>
       <c r="K132">
         <v>1.87</v>
@@ -7376,10 +7379,10 @@
         <v>3.2</v>
       </c>
       <c r="M132">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="N132">
-        <v>3.19</v>
+        <v>3.11</v>
       </c>
       <c r="O132">
         <v>1</v>
@@ -7396,28 +7399,28 @@
         <v>39</v>
       </c>
       <c r="C133">
-        <v>1.755021860709565</v>
+        <v>1.755871060200726</v>
       </c>
       <c r="D133" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E133">
-        <v>1.63684167915841</v>
+        <v>1.604090142990061</v>
       </c>
       <c r="F133">
         <v>-1</v>
       </c>
       <c r="G133">
-        <v>0.004644978139290435</v>
+        <v>0.004644128939799275</v>
       </c>
       <c r="H133">
-        <v>0.004743158320841591</v>
+        <v>0.004615909857009939</v>
       </c>
       <c r="I133">
-        <v>0.1181801815511556</v>
+        <v>0.1517809172106643</v>
       </c>
       <c r="J133">
-        <v>0.772715582508254</v>
+        <v>0.7722614651333018</v>
       </c>
       <c r="K133">
         <v>1.87</v>
@@ -7426,10 +7429,10 @@
         <v>3.2</v>
       </c>
       <c r="M133">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="N133">
-        <v>3.19</v>
+        <v>3.11</v>
       </c>
       <c r="O133">
         <v>1</v>
@@ -7446,28 +7449,28 @@
         <v>39</v>
       </c>
       <c r="C134">
-        <v>1.753276827162878</v>
+        <v>1.755021860709565</v>
       </c>
       <c r="D134" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E134">
-        <v>1.634966001388976</v>
+        <v>1.603204614108905</v>
       </c>
       <c r="F134">
         <v>-1</v>
       </c>
       <c r="G134">
-        <v>0.004646723172837122</v>
+        <v>0.004644978139290435</v>
       </c>
       <c r="H134">
-        <v>0.004745033998611024</v>
+        <v>0.004616795385891095</v>
       </c>
       <c r="I134">
-        <v>0.1183108257739021</v>
+        <v>0.1518172466006604</v>
       </c>
       <c r="J134">
-        <v>0.7736487555278725</v>
+        <v>0.772715582508254</v>
       </c>
       <c r="K134">
         <v>1.87</v>
@@ -7476,10 +7479,10 @@
         <v>3.2</v>
       </c>
       <c r="M134">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="N134">
-        <v>3.19</v>
+        <v>3.11</v>
       </c>
       <c r="O134">
         <v>1</v>
@@ -7496,28 +7499,28 @@
         <v>39</v>
       </c>
       <c r="C135">
-        <v>1.751466054533885</v>
+        <v>1.753276827162878</v>
       </c>
       <c r="D135" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E135">
-        <v>1.633019662894711</v>
+        <v>1.601384926720649</v>
       </c>
       <c r="F135">
         <v>-1</v>
       </c>
       <c r="G135">
-        <v>0.004648533945466115</v>
+        <v>0.004646723172837122</v>
       </c>
       <c r="H135">
-        <v>0.004746980337105289</v>
+        <v>0.004618615073279351</v>
       </c>
       <c r="I135">
-        <v>0.1184463916391745</v>
+        <v>0.1518919004422299</v>
       </c>
       <c r="J135">
-        <v>0.7746170831369599</v>
+        <v>0.7736487555278725</v>
       </c>
       <c r="K135">
         <v>1.87</v>
@@ -7526,10 +7529,10 @@
         <v>3.2</v>
       </c>
       <c r="M135">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="N135">
-        <v>3.19</v>
+        <v>3.11</v>
       </c>
       <c r="O135">
         <v>1</v>
@@ -7546,28 +7549,28 @@
         <v>39</v>
       </c>
       <c r="C136">
-        <v>1.748327094900906</v>
+        <v>1.751466054533885</v>
       </c>
       <c r="D136" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E136">
-        <v>1.629645700936268</v>
+        <v>1.599496687882928</v>
       </c>
       <c r="F136">
         <v>-1</v>
       </c>
       <c r="G136">
-        <v>0.004651672905099095</v>
+        <v>0.004648533945466115</v>
       </c>
       <c r="H136">
-        <v>0.004750354299063732</v>
+        <v>0.004620503312117072</v>
       </c>
       <c r="I136">
-        <v>0.1186813939646381</v>
+        <v>0.1519693666509569</v>
       </c>
       <c r="J136">
-        <v>0.7762956711759863</v>
+        <v>0.7746170831369599</v>
       </c>
       <c r="K136">
         <v>1.87</v>
@@ -7576,10 +7579,10 @@
         <v>3.2</v>
       </c>
       <c r="M136">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="N136">
-        <v>3.19</v>
+        <v>3.11</v>
       </c>
       <c r="O136">
         <v>1</v>
@@ -7596,28 +7599,28 @@
         <v>39</v>
       </c>
       <c r="C137">
-        <v>1.745110555324242</v>
+        <v>1.748327094900906</v>
       </c>
       <c r="D137" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E137">
-        <v>1.626188350910014</v>
+        <v>1.596223441206827</v>
       </c>
       <c r="F137">
         <v>-1</v>
       </c>
       <c r="G137">
-        <v>0.004654889444675759</v>
+        <v>0.004651672905099095</v>
       </c>
       <c r="H137">
-        <v>0.004753811649089986</v>
+        <v>0.004623776558793173</v>
       </c>
       <c r="I137">
-        <v>0.118922204414228</v>
+        <v>0.1521036536940792</v>
       </c>
       <c r="J137">
-        <v>0.7780157458159134</v>
+        <v>0.7762956711759863</v>
       </c>
       <c r="K137">
         <v>1.87</v>
@@ -7626,10 +7629,10 @@
         <v>3.2</v>
       </c>
       <c r="M137">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="N137">
-        <v>3.19</v>
+        <v>3.11</v>
       </c>
       <c r="O137">
         <v>1</v>
@@ -7646,28 +7649,28 @@
         <v>39</v>
       </c>
       <c r="C138">
-        <v>1.743382145937803</v>
+        <v>1.745110555324242</v>
       </c>
       <c r="D138" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E138">
-        <v>1.624330541890366</v>
+        <v>1.626188350910014</v>
       </c>
       <c r="F138">
         <v>-1</v>
       </c>
       <c r="G138">
-        <v>0.004656617854062197</v>
+        <v>0.004654889444675759</v>
       </c>
       <c r="H138">
-        <v>0.004755669458109634</v>
+        <v>0.004753811649089986</v>
       </c>
       <c r="I138">
-        <v>0.1190516040474372</v>
+        <v>0.118922204414228</v>
       </c>
       <c r="J138">
-        <v>0.7789400289102656</v>
+        <v>0.7780157458159134</v>
       </c>
       <c r="K138">
         <v>1.87</v>
@@ -7696,28 +7699,28 @@
         <v>39</v>
       </c>
       <c r="C139">
-        <v>1.7416544035055</v>
+        <v>1.743382145937803</v>
       </c>
       <c r="D139" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E139">
-        <v>1.622473449757249</v>
+        <v>1.624330541890366</v>
       </c>
       <c r="F139">
         <v>-1</v>
       </c>
       <c r="G139">
-        <v>0.0046583455964945</v>
+        <v>0.004656617854062197</v>
       </c>
       <c r="H139">
-        <v>0.004757526550242751</v>
+        <v>0.004755669458109634</v>
       </c>
       <c r="I139">
-        <v>0.1191809537482513</v>
+        <v>0.1190516040474372</v>
       </c>
       <c r="J139">
-        <v>0.7798639553446522</v>
+        <v>0.7789400289102656</v>
       </c>
       <c r="K139">
         <v>1.87</v>
@@ -7746,28 +7749,28 @@
         <v>39</v>
       </c>
       <c r="C140">
-        <v>1.739968999606976</v>
+        <v>1.7416544035055</v>
       </c>
       <c r="D140" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E140">
-        <v>1.620661865887713</v>
+        <v>1.622473449757249</v>
       </c>
       <c r="F140">
         <v>-1</v>
       </c>
       <c r="G140">
-        <v>0.004660031000393024</v>
+        <v>0.0046583455964945</v>
       </c>
       <c r="H140">
-        <v>0.004759338134112287</v>
+        <v>0.004757526550242751</v>
       </c>
       <c r="I140">
-        <v>0.1193071337192637</v>
+        <v>0.1191809537482513</v>
       </c>
       <c r="J140">
-        <v>0.7807652408518843</v>
+        <v>0.7798639553446522</v>
       </c>
       <c r="K140">
         <v>1.87</v>
@@ -7796,28 +7799,28 @@
         <v>39</v>
       </c>
       <c r="C141">
-        <v>1.737252695517318</v>
+        <v>1.739968999606976</v>
       </c>
       <c r="D141" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E141">
-        <v>1.617742202133588</v>
+        <v>1.620661865887713</v>
       </c>
       <c r="F141">
         <v>-1</v>
       </c>
       <c r="G141">
-        <v>0.004662747304482682</v>
+        <v>0.004660031000393024</v>
       </c>
       <c r="H141">
-        <v>0.004762257797866412</v>
+        <v>0.004759338134112287</v>
       </c>
       <c r="I141">
-        <v>0.1195104933837301</v>
+        <v>0.1193071337192637</v>
       </c>
       <c r="J141">
-        <v>0.7822178098837871</v>
+        <v>0.7807652408518843</v>
       </c>
       <c r="K141">
         <v>1.87</v>
@@ -7846,28 +7849,28 @@
         <v>39</v>
       </c>
       <c r="C142">
-        <v>1.735223857764917</v>
+        <v>1.737252695517318</v>
       </c>
       <c r="D142" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E142">
-        <v>1.61556147278475</v>
+        <v>1.617742202133588</v>
       </c>
       <c r="F142">
         <v>-1</v>
       </c>
       <c r="G142">
-        <v>0.004664776142235084</v>
+        <v>0.004662747304482682</v>
       </c>
       <c r="H142">
-        <v>0.00476443852721525</v>
+        <v>0.004762257797866412</v>
       </c>
       <c r="I142">
-        <v>0.1196623849801666</v>
+        <v>0.1195104933837301</v>
       </c>
       <c r="J142">
-        <v>0.7833027498583333</v>
+        <v>0.7822178098837871</v>
       </c>
       <c r="K142">
         <v>1.87</v>
@@ -7886,6 +7889,56 @@
       </c>
       <c r="P142" t="s">
         <v>137</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16">
+      <c r="A143" s="1">
+        <v>0</v>
+      </c>
+      <c r="B143" t="s">
+        <v>39</v>
+      </c>
+      <c r="C143">
+        <v>1.735223857764917</v>
+      </c>
+      <c r="D143" t="s">
+        <v>63</v>
+      </c>
+      <c r="E143">
+        <v>1.61556147278475</v>
+      </c>
+      <c r="F143">
+        <v>-1</v>
+      </c>
+      <c r="G143">
+        <v>0.004664776142235084</v>
+      </c>
+      <c r="H143">
+        <v>0.00476443852721525</v>
+      </c>
+      <c r="I143">
+        <v>0.1196623849801666</v>
+      </c>
+      <c r="J143">
+        <v>0.7833027498583333</v>
+      </c>
+      <c r="K143">
+        <v>1.87</v>
+      </c>
+      <c r="L143">
+        <v>3.2</v>
+      </c>
+      <c r="M143">
+        <v>2.01</v>
+      </c>
+      <c r="N143">
+        <v>3.19</v>
+      </c>
+      <c r="O143">
+        <v>1</v>
+      </c>
+      <c r="P143" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/s60_signal/position-01618-601618.xlsx
+++ b/s60_signal/position-01618-601618.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="144">
   <si>
     <t>trade_time</t>
   </si>
@@ -106,27 +106,27 @@
     <t>2021-01-15</t>
   </si>
   <si>
+    <t>2021-04-01</t>
+  </si>
+  <si>
     <t>2021-03-31</t>
   </si>
   <si>
+    <t>2021-02-26</t>
+  </si>
+  <si>
+    <t>2021-02-25</t>
+  </si>
+  <si>
+    <t>2021-02-23</t>
+  </si>
+  <si>
+    <t>2021-03-03</t>
+  </si>
+  <si>
     <t>2021-04-19</t>
   </si>
   <si>
-    <t>2021-04-01</t>
-  </si>
-  <si>
-    <t>2021-02-26</t>
-  </si>
-  <si>
-    <t>2021-02-25</t>
-  </si>
-  <si>
-    <t>2021-02-23</t>
-  </si>
-  <si>
-    <t>2021-03-03</t>
-  </si>
-  <si>
     <t>2021-04-15</t>
   </si>
   <si>
@@ -139,243 +139,270 @@
     <t>2021-05-17</t>
   </si>
   <si>
+    <t>2016-12-30</t>
+  </si>
+  <si>
+    <t>2017-04-05</t>
+  </si>
+  <si>
+    <t>2017-05-04</t>
+  </si>
+  <si>
+    <t>2017-12-20</t>
+  </si>
+  <si>
+    <t>2020-08-11</t>
+  </si>
+  <si>
+    <t>2020-08-12</t>
+  </si>
+  <si>
+    <t>2020-03-02</t>
+  </si>
+  <si>
+    <t>2020-07-17</t>
+  </si>
+  <si>
+    <t>2020-10-15</t>
+  </si>
+  <si>
+    <t>2021-01-12</t>
+  </si>
+  <si>
+    <t>2021-03-10</t>
+  </si>
+  <si>
+    <t>2021-05-21</t>
+  </si>
+  <si>
+    <t>2021-01-22</t>
+  </si>
+  <si>
+    <t>2021-04-30</t>
+  </si>
+  <si>
+    <t>2021-01-07</t>
+  </si>
+  <si>
+    <t>2021-01-26</t>
+  </si>
+  <si>
+    <t>2021-03-09</t>
+  </si>
+  <si>
+    <t>2021-04-21</t>
+  </si>
+  <si>
+    <t>2021-05-06</t>
+  </si>
+  <si>
+    <t>2021-05-24</t>
+  </si>
+  <si>
+    <t>2021-07-16</t>
+  </si>
+  <si>
+    <t>2021-07-19</t>
+  </si>
+  <si>
+    <t>2021-05-28</t>
+  </si>
+  <si>
+    <t>2016-12-23</t>
+  </si>
+  <si>
+    <t>2017-02-09</t>
+  </si>
+  <si>
+    <t>2017-02-10</t>
+  </si>
+  <si>
+    <t>2017-02-13</t>
+  </si>
+  <si>
+    <t>2017-02-14</t>
+  </si>
+  <si>
+    <t>2017-02-15</t>
+  </si>
+  <si>
+    <t>2017-02-16</t>
+  </si>
+  <si>
+    <t>2017-04-27</t>
+  </si>
+  <si>
+    <t>2019-12-05</t>
+  </si>
+  <si>
+    <t>2019-12-06</t>
+  </si>
+  <si>
+    <t>2019-12-20</t>
+  </si>
+  <si>
+    <t>2020-02-21</t>
+  </si>
+  <si>
+    <t>2020-02-24</t>
+  </si>
+  <si>
+    <t>2020-02-25</t>
+  </si>
+  <si>
+    <t>2020-02-26</t>
+  </si>
+  <si>
+    <t>2020-02-27</t>
+  </si>
+  <si>
+    <t>2020-02-28</t>
+  </si>
+  <si>
+    <t>2020-11-26</t>
+  </si>
+  <si>
+    <t>2020-11-27</t>
+  </si>
+  <si>
+    <t>2020-12-01</t>
+  </si>
+  <si>
+    <t>2020-12-02</t>
+  </si>
+  <si>
+    <t>2020-12-14</t>
+  </si>
+  <si>
+    <t>2020-12-16</t>
+  </si>
+  <si>
+    <t>2020-12-17</t>
+  </si>
+  <si>
+    <t>2020-12-18</t>
+  </si>
+  <si>
+    <t>2020-12-21</t>
+  </si>
+  <si>
+    <t>2020-12-22</t>
+  </si>
+  <si>
+    <t>2020-12-23</t>
+  </si>
+  <si>
+    <t>2020-12-24</t>
+  </si>
+  <si>
+    <t>2020-12-28</t>
+  </si>
+  <si>
+    <t>2020-12-29</t>
+  </si>
+  <si>
+    <t>2020-12-30</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2021-01-04</t>
+  </si>
+  <si>
+    <t>2021-01-05</t>
+  </si>
+  <si>
+    <t>2021-01-06</t>
+  </si>
+  <si>
+    <t>2021-01-08</t>
+  </si>
+  <si>
+    <t>2021-01-11</t>
+  </si>
+  <si>
+    <t>2021-01-14</t>
+  </si>
+  <si>
+    <t>2021-01-18</t>
+  </si>
+  <si>
+    <t>2021-04-08</t>
+  </si>
+  <si>
+    <t>2021-04-09</t>
+  </si>
+  <si>
+    <t>2021-04-13</t>
+  </si>
+  <si>
+    <t>2021-04-14</t>
+  </si>
+  <si>
+    <t>2021-04-23</t>
+  </si>
+  <si>
+    <t>2021-04-26</t>
+  </si>
+  <si>
+    <t>2021-04-27</t>
+  </si>
+  <si>
+    <t>2021-04-28</t>
+  </si>
+  <si>
+    <t>2021-05-07</t>
+  </si>
+  <si>
+    <t>2021-05-10</t>
+  </si>
+  <si>
+    <t>2021-05-11</t>
+  </si>
+  <si>
+    <t>2021-05-12</t>
+  </si>
+  <si>
+    <t>2021-05-13</t>
+  </si>
+  <si>
     <t>2021-05-14</t>
   </si>
   <si>
-    <t>2016-12-30</t>
-  </si>
-  <si>
-    <t>2017-04-05</t>
-  </si>
-  <si>
-    <t>2017-05-04</t>
-  </si>
-  <si>
-    <t>2017-12-20</t>
-  </si>
-  <si>
-    <t>2020-08-11</t>
-  </si>
-  <si>
-    <t>2020-08-12</t>
-  </si>
-  <si>
-    <t>2020-03-02</t>
-  </si>
-  <si>
-    <t>2020-07-17</t>
-  </si>
-  <si>
-    <t>2020-10-15</t>
-  </si>
-  <si>
-    <t>2021-01-12</t>
-  </si>
-  <si>
-    <t>2021-03-10</t>
-  </si>
-  <si>
-    <t>2021-05-21</t>
-  </si>
-  <si>
-    <t>2021-01-22</t>
-  </si>
-  <si>
-    <t>2021-03-02</t>
-  </si>
-  <si>
-    <t>2021-04-30</t>
-  </si>
-  <si>
-    <t>2021-01-07</t>
-  </si>
-  <si>
-    <t>2021-01-26</t>
-  </si>
-  <si>
-    <t>2021-03-09</t>
-  </si>
-  <si>
-    <t>2021-04-21</t>
-  </si>
-  <si>
-    <t>2021-05-06</t>
-  </si>
-  <si>
-    <t>2021-05-24</t>
-  </si>
-  <si>
-    <t>2021-07-16</t>
-  </si>
-  <si>
-    <t>2021-07-19</t>
-  </si>
-  <si>
-    <t>2021-05-28</t>
-  </si>
-  <si>
-    <t>2016-12-23</t>
-  </si>
-  <si>
-    <t>2017-02-09</t>
-  </si>
-  <si>
-    <t>2017-02-10</t>
-  </si>
-  <si>
-    <t>2017-02-13</t>
-  </si>
-  <si>
-    <t>2017-02-14</t>
-  </si>
-  <si>
-    <t>2017-02-15</t>
-  </si>
-  <si>
-    <t>2017-02-16</t>
-  </si>
-  <si>
-    <t>2017-04-27</t>
-  </si>
-  <si>
-    <t>2019-12-05</t>
-  </si>
-  <si>
-    <t>2019-12-06</t>
-  </si>
-  <si>
-    <t>2019-12-20</t>
-  </si>
-  <si>
-    <t>2020-02-21</t>
-  </si>
-  <si>
-    <t>2020-02-24</t>
-  </si>
-  <si>
-    <t>2020-02-25</t>
-  </si>
-  <si>
-    <t>2020-02-26</t>
-  </si>
-  <si>
-    <t>2020-02-27</t>
-  </si>
-  <si>
-    <t>2020-02-28</t>
-  </si>
-  <si>
-    <t>2020-11-26</t>
-  </si>
-  <si>
-    <t>2020-11-27</t>
-  </si>
-  <si>
-    <t>2020-12-01</t>
-  </si>
-  <si>
-    <t>2020-12-02</t>
-  </si>
-  <si>
-    <t>2020-12-14</t>
-  </si>
-  <si>
-    <t>2020-12-16</t>
-  </si>
-  <si>
-    <t>2020-12-17</t>
-  </si>
-  <si>
-    <t>2020-12-18</t>
-  </si>
-  <si>
-    <t>2020-12-21</t>
-  </si>
-  <si>
-    <t>2020-12-22</t>
-  </si>
-  <si>
-    <t>2020-12-23</t>
-  </si>
-  <si>
-    <t>2020-12-24</t>
-  </si>
-  <si>
-    <t>2020-12-28</t>
-  </si>
-  <si>
-    <t>2020-12-29</t>
-  </si>
-  <si>
-    <t>2020-12-30</t>
-  </si>
-  <si>
-    <t>2020-12-31</t>
-  </si>
-  <si>
-    <t>2021-01-04</t>
-  </si>
-  <si>
-    <t>2021-01-05</t>
-  </si>
-  <si>
-    <t>2021-01-06</t>
-  </si>
-  <si>
-    <t>2021-01-08</t>
-  </si>
-  <si>
-    <t>2021-01-11</t>
-  </si>
-  <si>
-    <t>2021-01-14</t>
-  </si>
-  <si>
-    <t>2021-01-18</t>
-  </si>
-  <si>
-    <t>2021-04-08</t>
-  </si>
-  <si>
-    <t>2021-04-09</t>
-  </si>
-  <si>
-    <t>2021-04-13</t>
-  </si>
-  <si>
-    <t>2021-04-14</t>
-  </si>
-  <si>
-    <t>2021-04-23</t>
-  </si>
-  <si>
-    <t>2021-04-26</t>
-  </si>
-  <si>
-    <t>2021-04-27</t>
-  </si>
-  <si>
-    <t>2021-04-28</t>
-  </si>
-  <si>
-    <t>2021-05-07</t>
-  </si>
-  <si>
-    <t>2021-05-10</t>
-  </si>
-  <si>
-    <t>2021-05-11</t>
-  </si>
-  <si>
-    <t>2021-05-12</t>
-  </si>
-  <si>
-    <t>2021-05-13</t>
-  </si>
-  <si>
     <t>2021-05-18</t>
   </si>
   <si>
+    <t>2021-05-20</t>
+  </si>
+  <si>
+    <t>2021-05-25</t>
+  </si>
+  <si>
+    <t>2021-05-26</t>
+  </si>
+  <si>
+    <t>2021-05-27</t>
+  </si>
+  <si>
+    <t>2021-05-31</t>
+  </si>
+  <si>
+    <t>2021-06-01</t>
+  </si>
+  <si>
+    <t>2021-06-02</t>
+  </si>
+  <si>
+    <t>2021-06-03</t>
+  </si>
+  <si>
+    <t>2021-06-04</t>
+  </si>
+  <si>
+    <t>2021-06-07</t>
+  </si>
+  <si>
     <t>2021-06-08</t>
   </si>
   <si>
@@ -419,18 +446,6 @@
   </si>
   <si>
     <t>2021-06-29</t>
-  </si>
-  <si>
-    <t>2021-06-30</t>
-  </si>
-  <si>
-    <t>2021-07-02</t>
-  </si>
-  <si>
-    <t>2021-07-05</t>
-  </si>
-  <si>
-    <t>2021-07-06</t>
   </si>
 </sst>
 </file>
@@ -788,7 +803,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P143"/>
+  <dimension ref="A1:P151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -852,7 +867,7 @@
         <v>2.241636620202809</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E2">
         <v>2.083673377356266</v>
@@ -888,7 +903,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -902,7 +917,7 @@
         <v>2.291018963074085</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3">
         <v>2.748932188801797</v>
@@ -938,7 +953,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -952,7 +967,7 @@
         <v>0.1640886968569069</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4">
         <v>0.8087275807852619</v>
@@ -988,7 +1003,7 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1002,7 +1017,7 @@
         <v>0.1567937244930127</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5">
         <v>0.8087275807852619</v>
@@ -1038,7 +1053,7 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1052,7 +1067,7 @@
         <v>0.06008199184724816</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6">
         <v>0.7118353409391309</v>
@@ -1088,7 +1103,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1102,7 +1117,7 @@
         <v>0.05109309920632388</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7">
         <v>0.7118353409391309</v>
@@ -1138,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1152,7 +1167,7 @@
         <v>-0.0569506423664734</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8">
         <v>0.6028081963621785</v>
@@ -1188,7 +1203,7 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1202,7 +1217,7 @@
         <v>-0.06784560396853312</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>0.6028081963621785</v>
@@ -1238,7 +1253,7 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1252,7 +1267,7 @@
         <v>-0.1396452470657845</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10">
         <v>0.5257702258605397</v>
@@ -1288,7 +1303,7 @@
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1302,7 +1317,7 @@
         <v>-0.1518870263339567</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11">
         <v>0.5257702258605397</v>
@@ -1338,7 +1353,7 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1352,7 +1367,7 @@
         <v>-0.2479133877986754</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12">
         <v>0.424908049151723</v>
@@ -1388,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1402,7 +1417,7 @@
         <v>-0.2619184918344848</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13">
         <v>0.424908049151723</v>
@@ -1438,7 +1453,7 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1452,7 +1467,7 @@
         <v>-0.3399965939203824</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E14">
         <v>0.3391236942630966</v>
@@ -1488,7 +1503,7 @@
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1502,7 +1517,7 @@
         <v>0.9756011105228968</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E15">
         <v>0.8107654111102569</v>
@@ -1538,7 +1553,7 @@
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1552,7 +1567,7 @@
         <v>1.301145679016073</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E16">
         <v>1.173416666670367</v>
@@ -1588,7 +1603,7 @@
         <v>1</v>
       </c>
       <c r="P16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1602,7 +1617,7 @@
         <v>1.296277364845049</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E17">
         <v>1.230890933009092</v>
@@ -1638,7 +1653,7 @@
         <v>1</v>
       </c>
       <c r="P17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1652,7 +1667,7 @@
         <v>0.4435035626339812</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E18">
         <v>0.9439906537348826</v>
@@ -1688,7 +1703,7 @@
         <v>1</v>
       </c>
       <c r="P18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1702,7 +1717,7 @@
         <v>0.4423533289773536</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E19">
         <v>0.9439906537348826</v>
@@ -1738,7 +1753,7 @@
         <v>1</v>
       </c>
       <c r="P19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1752,7 +1767,7 @@
         <v>1.507350128118183</v>
       </c>
       <c r="D20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E20">
         <v>1.202821457299868</v>
@@ -1788,7 +1803,7 @@
         <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1802,7 +1817,7 @@
         <v>1.54125697476493</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E21">
         <v>1.238224194239853</v>
@@ -1838,7 +1853,7 @@
         <v>1</v>
       </c>
       <c r="P21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1852,7 +1867,7 @@
         <v>1.573438797246031</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E22">
         <v>1.271825803006885</v>
@@ -1888,7 +1903,7 @@
         <v>1</v>
       </c>
       <c r="P22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1902,7 +1917,7 @@
         <v>1.613400857289038</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E23">
         <v>1.313550895110613</v>
@@ -1938,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1952,7 +1967,7 @@
         <v>1.593400857289038</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E24">
         <v>1.363275825771058</v>
@@ -1988,7 +2003,7 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2002,7 +2017,7 @@
         <v>1.645344720184119</v>
       </c>
       <c r="D25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E25">
         <v>1.346904046074595</v>
@@ -2038,7 +2053,7 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2052,7 +2067,7 @@
         <v>1.625344720184119</v>
       </c>
       <c r="D26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E26">
         <v>1.394045281942056</v>
@@ -2088,7 +2103,7 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2102,7 +2117,7 @@
         <v>1.68180858461344</v>
       </c>
       <c r="D27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E27">
         <v>1.384976610405209</v>
@@ -2138,7 +2153,7 @@
         <v>1</v>
       </c>
       <c r="P27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2152,7 +2167,7 @@
         <v>1.66180858461344</v>
       </c>
       <c r="D28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E28">
         <v>1.429168563120298</v>
@@ -2188,7 +2203,7 @@
         <v>1</v>
       </c>
       <c r="P28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2202,7 +2217,7 @@
         <v>1.710614904938503</v>
       </c>
       <c r="D29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E29">
         <v>1.415053797803437</v>
@@ -2238,7 +2253,7 @@
         <v>1</v>
       </c>
       <c r="P29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2252,7 +2267,7 @@
         <v>1.690614904938503</v>
       </c>
       <c r="D30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E30">
         <v>1.456915827551058</v>
@@ -2288,7 +2303,7 @@
         <v>1</v>
       </c>
       <c r="P30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2302,7 +2317,7 @@
         <v>2.275802866177917</v>
       </c>
       <c r="D31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E31">
         <v>2.649848972127444</v>
@@ -2338,7 +2353,7 @@
         <v>1</v>
       </c>
       <c r="P31" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2352,7 +2367,7 @@
         <v>2.268334662646267</v>
       </c>
       <c r="D32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E32">
         <v>2.649848972127444</v>
@@ -2388,7 +2403,7 @@
         <v>1</v>
       </c>
       <c r="P32" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2402,7 +2417,7 @@
         <v>2.967686812279704</v>
       </c>
       <c r="D33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E33">
         <v>2.601744839228811</v>
@@ -2438,7 +2453,7 @@
         <v>1</v>
       </c>
       <c r="P33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2452,7 +2467,7 @@
         <v>2.94857711339348</v>
       </c>
       <c r="D34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E34">
         <v>2.601744839228811</v>
@@ -2488,7 +2503,7 @@
         <v>1</v>
       </c>
       <c r="P34" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2502,7 +2517,7 @@
         <v>2.936045316925131</v>
       </c>
       <c r="D35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E35">
         <v>2.601744839228811</v>
@@ -2538,7 +2553,7 @@
         <v>1</v>
       </c>
       <c r="P35" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2552,7 +2567,7 @@
         <v>2.276798754456807</v>
       </c>
       <c r="D36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E36">
         <v>2.651071198651537</v>
@@ -2588,7 +2603,7 @@
         <v>1</v>
       </c>
       <c r="P36" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2602,7 +2617,7 @@
         <v>2.969422072159588</v>
       </c>
       <c r="D37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E37">
         <v>2.603110413308198</v>
@@ -2638,7 +2653,7 @@
         <v>1</v>
       </c>
       <c r="P37" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2652,7 +2667,7 @@
         <v>2.950101124244508</v>
       </c>
       <c r="D38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E38">
         <v>2.603110413308198</v>
@@ -2688,7 +2703,7 @@
         <v>1</v>
       </c>
       <c r="P38" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2702,7 +2717,7 @@
         <v>2.937576872384333</v>
       </c>
       <c r="D39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E39">
         <v>2.603110413308198</v>
@@ -2738,7 +2753,7 @@
         <v>1</v>
       </c>
       <c r="P39" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2752,7 +2767,7 @@
         <v>2.277619541489629</v>
       </c>
       <c r="D40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E40">
         <v>2.652078528191817</v>
@@ -2788,7 +2803,7 @@
         <v>1</v>
       </c>
       <c r="P40" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2802,7 +2817,7 @@
         <v>2.970852231383444</v>
       </c>
       <c r="D41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E41">
         <v>2.604235886436537</v>
@@ -2838,7 +2853,7 @@
         <v>1</v>
       </c>
       <c r="P41" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2852,7 +2867,7 @@
         <v>2.951357177128068</v>
       </c>
       <c r="D42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E42">
         <v>2.604235886436537</v>
@@ -2888,7 +2903,7 @@
         <v>1</v>
       </c>
       <c r="P42" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2902,7 +2917,7 @@
         <v>2.938839143351475</v>
       </c>
       <c r="D43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E43">
         <v>2.604235886436537</v>
@@ -2938,7 +2953,7 @@
         <v>1</v>
       </c>
       <c r="P43" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2952,7 +2967,7 @@
         <v>2.2742064249631</v>
       </c>
       <c r="D44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E44">
         <v>2.647889703363805</v>
@@ -2988,7 +3003,7 @@
         <v>1</v>
       </c>
       <c r="P44" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3002,7 +3017,7 @@
         <v>2.964905134405401</v>
       </c>
       <c r="D45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E45">
         <v>2.599555779684251</v>
@@ -3038,7 +3053,7 @@
         <v>1</v>
       </c>
       <c r="P45" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3052,7 +3067,7 @@
         <v>2.946134074564744</v>
       </c>
       <c r="D46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E46">
         <v>2.599555779684251</v>
@@ -3088,7 +3103,7 @@
         <v>1</v>
       </c>
       <c r="P46" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3102,7 +3117,7 @@
         <v>2.933590183844768</v>
       </c>
       <c r="D47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E47">
         <v>2.599555779684251</v>
@@ -3138,7 +3153,7 @@
         <v>1</v>
       </c>
       <c r="P47" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3152,7 +3167,7 @@
         <v>1.990887286527514</v>
       </c>
       <c r="D48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E48">
         <v>2.306746110056926</v>
@@ -3202,7 +3217,7 @@
         <v>2.492796963946868</v>
       </c>
       <c r="D49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E49">
         <v>2.222096394686907</v>
@@ -3252,7 +3267,7 @@
         <v>2.502796963946869</v>
       </c>
       <c r="D50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E50">
         <v>2.222096394686907</v>
@@ -3296,43 +3311,43 @@
         <v>3</v>
       </c>
       <c r="B51" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C51">
-        <v>2.480565464895635</v>
+        <v>2.504006072106261</v>
       </c>
       <c r="D51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E51">
-        <v>2.217508918406072</v>
+        <v>2.229102087286527</v>
       </c>
       <c r="F51">
         <v>-1</v>
       </c>
       <c r="G51">
-        <v>0.004619434535104365</v>
+        <v>0.004335993927893739</v>
       </c>
       <c r="H51">
-        <v>0.004142491081593929</v>
+        <v>0.003930897912713473</v>
       </c>
       <c r="I51">
-        <v>0.2630565464895636</v>
+        <v>0.2749039848197343</v>
       </c>
       <c r="J51">
         <v>0.4649715370018978</v>
       </c>
       <c r="K51">
-        <v>2.3</v>
+        <v>1.97</v>
       </c>
       <c r="L51">
-        <v>3.55</v>
+        <v>3.42</v>
       </c>
       <c r="M51">
-        <v>2.07</v>
+        <v>1.83</v>
       </c>
       <c r="N51">
-        <v>3.18</v>
+        <v>3.08</v>
       </c>
       <c r="O51">
         <v>1</v>
@@ -3346,13 +3361,13 @@
         <v>4</v>
       </c>
       <c r="B52" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C52">
-        <v>2.480757495256166</v>
+        <v>2.506107779886148</v>
       </c>
       <c r="D52" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E52">
         <v>2.229102087286527</v>
@@ -3361,22 +3376,22 @@
         <v>-1</v>
       </c>
       <c r="G52">
-        <v>0.004359242504743834</v>
+        <v>0.004393892220113852</v>
       </c>
       <c r="H52">
         <v>0.003930897912713473</v>
       </c>
       <c r="I52">
-        <v>0.2516554079696394</v>
+        <v>0.2770056925996207</v>
       </c>
       <c r="J52">
         <v>0.4649715370018978</v>
       </c>
       <c r="K52">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="L52">
-        <v>3.42</v>
+        <v>3.45</v>
       </c>
       <c r="M52">
         <v>1.83</v>
@@ -3393,166 +3408,166 @@
     </row>
     <row r="53" spans="1:16">
       <c r="A53" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B53" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C53">
-        <v>2.506107779886148</v>
+        <v>1.934694011032936</v>
       </c>
       <c r="D53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E53">
-        <v>2.229102087286527</v>
+        <v>2.167884562588337</v>
       </c>
       <c r="F53">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G53">
-        <v>0.004393892220113852</v>
+        <v>0.003265305988967065</v>
       </c>
       <c r="H53">
-        <v>0.003930897912713473</v>
+        <v>0.003732115437411664</v>
       </c>
       <c r="I53">
-        <v>0.2770056925996207</v>
+        <v>0.2331905515554009</v>
       </c>
       <c r="J53">
-        <v>0.4649715370018978</v>
+        <v>0.5078671671504308</v>
       </c>
       <c r="K53">
-        <v>2.03</v>
+        <v>1.31</v>
       </c>
       <c r="L53">
-        <v>3.45</v>
+        <v>2.6</v>
       </c>
       <c r="M53">
-        <v>1.83</v>
+        <v>1.54</v>
       </c>
       <c r="N53">
-        <v>3.08</v>
+        <v>2.95</v>
       </c>
       <c r="O53">
         <v>1</v>
       </c>
       <c r="P53" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:16">
       <c r="A54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B54" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C54">
-        <v>1.934694011032936</v>
+        <v>2.422019174201789</v>
       </c>
       <c r="D54" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E54">
-        <v>2.167884562588337</v>
+        <v>2.152176517544798</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G54">
-        <v>0.003265305988967065</v>
+        <v>0.004097980825798211</v>
       </c>
       <c r="H54">
-        <v>0.003732115437411664</v>
+        <v>0.003807823482455202</v>
       </c>
       <c r="I54">
-        <v>0.2331905515554009</v>
+        <v>0.2698426566569911</v>
       </c>
       <c r="J54">
         <v>0.5078671671504308</v>
       </c>
       <c r="K54">
-        <v>1.31</v>
+        <v>1.65</v>
       </c>
       <c r="L54">
-        <v>2.6</v>
+        <v>3.26</v>
       </c>
       <c r="M54">
-        <v>1.54</v>
+        <v>1.63</v>
       </c>
       <c r="N54">
-        <v>2.95</v>
+        <v>2.98</v>
       </c>
       <c r="O54">
         <v>1</v>
       </c>
       <c r="P54" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" spans="1:16">
       <c r="A55" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C55">
-        <v>2.422019174201789</v>
+        <v>2.394108322356129</v>
       </c>
       <c r="D55" t="s">
         <v>54</v>
       </c>
       <c r="E55">
-        <v>2.152176517544798</v>
+        <v>2.150603084114712</v>
       </c>
       <c r="F55">
         <v>-1</v>
       </c>
       <c r="G55">
-        <v>0.004097980825798211</v>
+        <v>0.00444589167764387</v>
       </c>
       <c r="H55">
-        <v>0.003807823482455202</v>
+        <v>0.004009396915885288</v>
       </c>
       <c r="I55">
-        <v>0.2698426566569911</v>
+        <v>0.2435052382414176</v>
       </c>
       <c r="J55">
         <v>0.5078671671504308</v>
       </c>
       <c r="K55">
-        <v>1.65</v>
+        <v>2.02</v>
       </c>
       <c r="L55">
-        <v>3.26</v>
+        <v>3.42</v>
       </c>
       <c r="M55">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="N55">
-        <v>2.98</v>
+        <v>3.08</v>
       </c>
       <c r="O55">
         <v>1</v>
       </c>
       <c r="P55" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56" spans="1:16">
       <c r="A56" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B56" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C56">
-        <v>2.394108322356129</v>
+        <v>2.419029650684626</v>
       </c>
       <c r="D56" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E56">
         <v>2.150603084114712</v>
@@ -3561,22 +3576,22 @@
         <v>-1</v>
       </c>
       <c r="G56">
-        <v>0.00444589167764387</v>
+        <v>0.004480970349315374</v>
       </c>
       <c r="H56">
         <v>0.004009396915885288</v>
       </c>
       <c r="I56">
-        <v>0.2435052382414176</v>
+        <v>0.2684265665699139</v>
       </c>
       <c r="J56">
         <v>0.5078671671504308</v>
       </c>
       <c r="K56">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="L56">
-        <v>3.42</v>
+        <v>3.45</v>
       </c>
       <c r="M56">
         <v>1.83</v>
@@ -3588,101 +3603,101 @@
         <v>1</v>
       </c>
       <c r="P56" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57" spans="1:16">
       <c r="A57" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C57">
-        <v>2.419029650684626</v>
+        <v>2.361811863714594</v>
       </c>
       <c r="D57" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E57">
-        <v>2.150603084114712</v>
+        <v>2.092698992639265</v>
       </c>
       <c r="F57">
         <v>-1</v>
       </c>
       <c r="G57">
-        <v>0.004480970349315374</v>
+        <v>0.004158188136285406</v>
       </c>
       <c r="H57">
-        <v>0.004009396915885288</v>
+        <v>0.003867301007360734</v>
       </c>
       <c r="I57">
-        <v>0.2684265665699139</v>
+        <v>0.2691128710753286</v>
       </c>
       <c r="J57">
-        <v>0.5078671671504308</v>
+        <v>0.5443564462335794</v>
       </c>
       <c r="K57">
-        <v>2.03</v>
+        <v>1.65</v>
       </c>
       <c r="L57">
-        <v>3.45</v>
+        <v>3.26</v>
       </c>
       <c r="M57">
-        <v>1.83</v>
+        <v>1.63</v>
       </c>
       <c r="N57">
-        <v>3.08</v>
+        <v>2.98</v>
       </c>
       <c r="O57">
         <v>1</v>
       </c>
       <c r="P57" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:16">
       <c r="A58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B58" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C58">
-        <v>2.361811863714594</v>
+        <v>2.32039997860817</v>
       </c>
       <c r="D58" t="s">
         <v>54</v>
       </c>
       <c r="E58">
-        <v>2.092698992639265</v>
+        <v>2.08382770339255</v>
       </c>
       <c r="F58">
         <v>-1</v>
       </c>
       <c r="G58">
-        <v>0.004158188136285406</v>
+        <v>0.004519600021391831</v>
       </c>
       <c r="H58">
-        <v>0.003867301007360734</v>
+        <v>0.004076172296607451</v>
       </c>
       <c r="I58">
-        <v>0.2691128710753286</v>
+        <v>0.2365722752156199</v>
       </c>
       <c r="J58">
         <v>0.5443564462335794</v>
       </c>
       <c r="K58">
-        <v>1.65</v>
+        <v>2.02</v>
       </c>
       <c r="L58">
-        <v>3.26</v>
+        <v>3.42</v>
       </c>
       <c r="M58">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="N58">
-        <v>2.98</v>
+        <v>3.08</v>
       </c>
       <c r="O58">
         <v>1</v>
@@ -3693,16 +3708,16 @@
     </row>
     <row r="59" spans="1:16">
       <c r="A59" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C59">
-        <v>2.32039997860817</v>
+        <v>2.344956414145834</v>
       </c>
       <c r="D59" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E59">
         <v>2.08382770339255</v>
@@ -3711,22 +3726,22 @@
         <v>-1</v>
       </c>
       <c r="G59">
-        <v>0.004519600021391831</v>
+        <v>0.004555043585854166</v>
       </c>
       <c r="H59">
         <v>0.004076172296607451</v>
       </c>
       <c r="I59">
-        <v>0.2365722752156199</v>
+        <v>0.261128710753284</v>
       </c>
       <c r="J59">
         <v>0.5443564462335794</v>
       </c>
       <c r="K59">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="L59">
-        <v>3.42</v>
+        <v>3.45</v>
       </c>
       <c r="M59">
         <v>1.83</v>
@@ -3743,90 +3758,90 @@
     </row>
     <row r="60" spans="1:16">
       <c r="A60" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B60" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C60">
-        <v>2.344956414145834</v>
+        <v>2.284943445032334</v>
       </c>
       <c r="D60" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E60">
-        <v>2.08382770339255</v>
+        <v>2.016762312365275</v>
       </c>
       <c r="F60">
         <v>-1</v>
       </c>
       <c r="G60">
-        <v>0.004555043585854166</v>
+        <v>0.004235056554967666</v>
       </c>
       <c r="H60">
-        <v>0.004076172296607451</v>
+        <v>0.003943237687634725</v>
       </c>
       <c r="I60">
-        <v>0.261128710753284</v>
+        <v>0.2681811326670585</v>
       </c>
       <c r="J60">
-        <v>0.5443564462335794</v>
+        <v>0.5909433666470703</v>
       </c>
       <c r="K60">
-        <v>2.03</v>
+        <v>1.65</v>
       </c>
       <c r="L60">
-        <v>3.45</v>
+        <v>3.26</v>
       </c>
       <c r="M60">
-        <v>1.83</v>
+        <v>1.63</v>
       </c>
       <c r="N60">
-        <v>3.08</v>
+        <v>2.98</v>
       </c>
       <c r="O60">
         <v>1</v>
       </c>
       <c r="P60" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61" spans="1:16">
       <c r="A61" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B61" t="s">
         <v>31</v>
       </c>
       <c r="C61">
-        <v>2.314069285221163</v>
+        <v>2.226294399372918</v>
       </c>
       <c r="D61" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E61">
-        <v>2.08382770339255</v>
+        <v>1.998573639035861</v>
       </c>
       <c r="F61">
         <v>-1</v>
       </c>
       <c r="G61">
-        <v>0.004545930714778837</v>
+        <v>0.004613705600627082</v>
       </c>
       <c r="H61">
-        <v>0.004076172296607451</v>
+        <v>0.004161426360964139</v>
       </c>
       <c r="I61">
-        <v>0.2302415818286128</v>
+        <v>0.2277207603370566</v>
       </c>
       <c r="J61">
-        <v>0.5443564462335794</v>
+        <v>0.5909433666470703</v>
       </c>
       <c r="K61">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="L61">
-        <v>3.43</v>
+        <v>3.42</v>
       </c>
       <c r="M61">
         <v>1.83</v>
@@ -3838,145 +3853,145 @@
         <v>1</v>
       </c>
       <c r="P61" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62" spans="1:16">
       <c r="A62" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C62">
-        <v>2.284943445032334</v>
+        <v>2.250384965706448</v>
       </c>
       <c r="D62" t="s">
         <v>54</v>
       </c>
       <c r="E62">
-        <v>2.016762312365275</v>
+        <v>1.998573639035861</v>
       </c>
       <c r="F62">
         <v>-1</v>
       </c>
       <c r="G62">
-        <v>0.004235056554967666</v>
+        <v>0.004649615034293553</v>
       </c>
       <c r="H62">
-        <v>0.003943237687634725</v>
+        <v>0.004161426360964139</v>
       </c>
       <c r="I62">
-        <v>0.2681811326670585</v>
+        <v>0.2518113266705861</v>
       </c>
       <c r="J62">
         <v>0.5909433666470703</v>
       </c>
       <c r="K62">
-        <v>1.65</v>
+        <v>2.03</v>
       </c>
       <c r="L62">
-        <v>3.26</v>
+        <v>3.45</v>
       </c>
       <c r="M62">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="N62">
-        <v>2.98</v>
+        <v>3.08</v>
       </c>
       <c r="O62">
         <v>1</v>
       </c>
       <c r="P62" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63" spans="1:16">
       <c r="A63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B63" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C63">
-        <v>2.226294399372918</v>
+        <v>2.206392009113778</v>
       </c>
       <c r="D63" t="s">
         <v>56</v>
       </c>
       <c r="E63">
-        <v>1.998573639035861</v>
+        <v>1.894705026964186</v>
       </c>
       <c r="F63">
         <v>-1</v>
       </c>
       <c r="G63">
-        <v>0.004613705600627082</v>
+        <v>0.004313607990886223</v>
       </c>
       <c r="H63">
-        <v>0.004161426360964139</v>
+        <v>0.003925294973035814</v>
       </c>
       <c r="I63">
-        <v>0.2277207603370566</v>
+        <v>0.3116869821495918</v>
       </c>
       <c r="J63">
-        <v>0.5909433666470703</v>
+        <v>0.6385502975068013</v>
       </c>
       <c r="K63">
-        <v>2.02</v>
+        <v>1.65</v>
       </c>
       <c r="L63">
-        <v>3.42</v>
+        <v>3.26</v>
       </c>
       <c r="M63">
-        <v>1.83</v>
+        <v>1.59</v>
       </c>
       <c r="N63">
-        <v>3.08</v>
+        <v>2.91</v>
       </c>
       <c r="O63">
         <v>1</v>
       </c>
       <c r="P63" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:16">
       <c r="A64" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B64" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C64">
-        <v>2.250384965706448</v>
+        <v>2.130128399036261</v>
       </c>
       <c r="D64" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E64">
-        <v>1.998573639035861</v>
+        <v>1.911452955562554</v>
       </c>
       <c r="F64">
         <v>-1</v>
       </c>
       <c r="G64">
-        <v>0.004649615034293553</v>
+        <v>0.004709871600963739</v>
       </c>
       <c r="H64">
-        <v>0.004161426360964139</v>
+        <v>0.004248547044437446</v>
       </c>
       <c r="I64">
-        <v>0.2518113266705861</v>
+        <v>0.2186754434737077</v>
       </c>
       <c r="J64">
-        <v>0.5909433666470703</v>
+        <v>0.6385502975068013</v>
       </c>
       <c r="K64">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="L64">
-        <v>3.45</v>
+        <v>3.42</v>
       </c>
       <c r="M64">
         <v>1.83</v>
@@ -3988,92 +4003,92 @@
         <v>1</v>
       </c>
       <c r="P64" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65" spans="1:16">
       <c r="A65" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C65">
-        <v>2.206392009113778</v>
+        <v>2.153742896061194</v>
       </c>
       <c r="D65" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E65">
-        <v>1.894705026964186</v>
+        <v>1.911452955562554</v>
       </c>
       <c r="F65">
         <v>-1</v>
       </c>
       <c r="G65">
-        <v>0.004313607990886223</v>
+        <v>0.004746257103938807</v>
       </c>
       <c r="H65">
-        <v>0.003925294973035814</v>
+        <v>0.004248547044437446</v>
       </c>
       <c r="I65">
-        <v>0.3116869821495918</v>
+        <v>0.2422899404986398</v>
       </c>
       <c r="J65">
         <v>0.6385502975068013</v>
       </c>
       <c r="K65">
-        <v>1.65</v>
+        <v>2.03</v>
       </c>
       <c r="L65">
-        <v>3.26</v>
+        <v>3.45</v>
       </c>
       <c r="M65">
-        <v>1.59</v>
+        <v>1.83</v>
       </c>
       <c r="N65">
-        <v>2.91</v>
+        <v>3.08</v>
       </c>
       <c r="O65">
         <v>1</v>
       </c>
       <c r="P65" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66" spans="1:16">
       <c r="A66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B66" t="s">
         <v>30</v>
       </c>
       <c r="C66">
-        <v>2.130128399036261</v>
+        <v>2.062136368241531</v>
       </c>
       <c r="D66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E66">
-        <v>1.911452955562554</v>
+        <v>1.818634291310661</v>
       </c>
       <c r="F66">
         <v>-1</v>
       </c>
       <c r="G66">
-        <v>0.004709871600963739</v>
+        <v>0.004777863631758469</v>
       </c>
       <c r="H66">
-        <v>0.004248547044437446</v>
+        <v>0.004341365708689339</v>
       </c>
       <c r="I66">
-        <v>0.2186754434737077</v>
+        <v>0.24350207693087</v>
       </c>
       <c r="J66">
-        <v>0.6385502975068013</v>
+        <v>0.6892708790652124</v>
       </c>
       <c r="K66">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="L66">
         <v>3.42</v>
@@ -4088,39 +4103,39 @@
         <v>1</v>
       </c>
       <c r="P66" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="67" spans="1:16">
       <c r="A67" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B67" t="s">
         <v>27</v>
       </c>
       <c r="C67">
-        <v>2.153742896061194</v>
+        <v>2.050780115497619</v>
       </c>
       <c r="D67" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E67">
-        <v>1.911452955562554</v>
+        <v>1.818634291310661</v>
       </c>
       <c r="F67">
         <v>-1</v>
       </c>
       <c r="G67">
-        <v>0.004746257103938807</v>
+        <v>0.004849219884502381</v>
       </c>
       <c r="H67">
-        <v>0.004248547044437446</v>
+        <v>0.004341365708689339</v>
       </c>
       <c r="I67">
-        <v>0.2422899404986398</v>
+        <v>0.2321458241869578</v>
       </c>
       <c r="J67">
-        <v>0.6385502975068013</v>
+        <v>0.6892708790652124</v>
       </c>
       <c r="K67">
         <v>2.03</v>
@@ -4138,7 +4153,7 @@
         <v>1</v>
       </c>
       <c r="P67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4146,37 +4161,37 @@
         <v>0</v>
       </c>
       <c r="B68" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C68">
-        <v>2.050780115497619</v>
+        <v>1.960646887966805</v>
       </c>
       <c r="D68" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E68">
-        <v>1.818634291310661</v>
+        <v>1.724357261410788</v>
       </c>
       <c r="F68">
         <v>-1</v>
       </c>
       <c r="G68">
-        <v>0.004849219884502381</v>
+        <v>0.004879353112033196</v>
       </c>
       <c r="H68">
-        <v>0.004341365708689339</v>
+        <v>0.004435642738589212</v>
       </c>
       <c r="I68">
-        <v>0.2321458241869578</v>
+        <v>0.2362896265560166</v>
       </c>
       <c r="J68">
-        <v>0.6892708790652124</v>
+        <v>0.7407883817427386</v>
       </c>
       <c r="K68">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="L68">
-        <v>3.45</v>
+        <v>3.42</v>
       </c>
       <c r="M68">
         <v>1.83</v>
@@ -4188,21 +4203,21 @@
         <v>1</v>
       </c>
       <c r="P68" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69" spans="1:16">
       <c r="A69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B69" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C69">
-        <v>1.960646887966805</v>
+        <v>1.946199585062241</v>
       </c>
       <c r="D69" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E69">
         <v>1.724357261410788</v>
@@ -4211,22 +4226,22 @@
         <v>-1</v>
       </c>
       <c r="G69">
-        <v>0.004879353112033196</v>
+        <v>0.00495380041493776</v>
       </c>
       <c r="H69">
         <v>0.004435642738589212</v>
       </c>
       <c r="I69">
-        <v>0.2362896265560166</v>
+        <v>0.2218423236514526</v>
       </c>
       <c r="J69">
         <v>0.7407883817427386</v>
       </c>
       <c r="K69">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="L69">
-        <v>3.42</v>
+        <v>3.45</v>
       </c>
       <c r="M69">
         <v>1.83</v>
@@ -4238,45 +4253,45 @@
         <v>1</v>
       </c>
       <c r="P69" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" spans="1:16">
       <c r="A70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B70" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C70">
-        <v>1.946199585062241</v>
+        <v>1.843540306843175</v>
       </c>
       <c r="D70" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E70">
-        <v>1.724357261410788</v>
+        <v>1.615572975392391</v>
       </c>
       <c r="F70">
         <v>-1</v>
       </c>
       <c r="G70">
-        <v>0.00495380041493776</v>
+        <v>0.004996459693156825</v>
       </c>
       <c r="H70">
-        <v>0.004435642738589212</v>
+        <v>0.00454442702460761</v>
       </c>
       <c r="I70">
-        <v>0.2218423236514526</v>
+        <v>0.227967331450784</v>
       </c>
       <c r="J70">
-        <v>0.7407883817427386</v>
+        <v>0.8002333467801142</v>
       </c>
       <c r="K70">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="L70">
-        <v>3.45</v>
+        <v>3.42</v>
       </c>
       <c r="M70">
         <v>1.83</v>
@@ -4288,21 +4303,21 @@
         <v>1</v>
       </c>
       <c r="P70" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71" spans="1:16">
       <c r="A71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B71" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C71">
-        <v>1.843540306843175</v>
+        <v>1.825526306036369</v>
       </c>
       <c r="D71" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E71">
         <v>1.615572975392391</v>
@@ -4311,22 +4326,22 @@
         <v>-1</v>
       </c>
       <c r="G71">
-        <v>0.004996459693156825</v>
+        <v>0.005074473693963632</v>
       </c>
       <c r="H71">
         <v>0.00454442702460761</v>
       </c>
       <c r="I71">
-        <v>0.227967331450784</v>
+        <v>0.2099533306439776</v>
       </c>
       <c r="J71">
         <v>0.8002333467801142</v>
       </c>
       <c r="K71">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="L71">
-        <v>3.42</v>
+        <v>3.45</v>
       </c>
       <c r="M71">
         <v>1.83</v>
@@ -4338,257 +4353,257 @@
         <v>1</v>
       </c>
       <c r="P71" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72" spans="1:16">
       <c r="A72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B72" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C72">
-        <v>1.825526306036369</v>
+        <v>1.364830842322013</v>
       </c>
       <c r="D72" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E72">
-        <v>1.615572975392391</v>
+        <v>1.554057700011381</v>
       </c>
       <c r="F72">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G72">
-        <v>0.005074473693963632</v>
+        <v>0.005255169157677987</v>
       </c>
       <c r="H72">
-        <v>0.00454442702460761</v>
+        <v>0.004645942299988619</v>
       </c>
       <c r="I72">
-        <v>0.2099533306439776</v>
+        <v>0.1892268576893685</v>
       </c>
       <c r="J72">
-        <v>0.8002333467801142</v>
+        <v>0.8494188461475927</v>
       </c>
       <c r="K72">
-        <v>2.03</v>
+        <v>2.29</v>
       </c>
       <c r="L72">
-        <v>3.45</v>
+        <v>3.31</v>
       </c>
       <c r="M72">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="N72">
-        <v>3.08</v>
+        <v>3.1</v>
       </c>
       <c r="O72">
         <v>1</v>
       </c>
       <c r="P72" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73" spans="1:16">
       <c r="A73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B73" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C73">
-        <v>1.364830842322013</v>
+        <v>1.746644873089242</v>
       </c>
       <c r="D73" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E73">
-        <v>1.554057700011381</v>
+        <v>1.525563511549905</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G73">
-        <v>0.005255169157677987</v>
+        <v>0.005093355126910757</v>
       </c>
       <c r="H73">
-        <v>0.004645942299988619</v>
+        <v>0.004634436488450095</v>
       </c>
       <c r="I73">
-        <v>0.1892268576893685</v>
+        <v>0.221081361539337</v>
       </c>
       <c r="J73">
         <v>0.8494188461475927</v>
       </c>
       <c r="K73">
-        <v>2.29</v>
+        <v>1.97</v>
       </c>
       <c r="L73">
-        <v>3.31</v>
+        <v>3.42</v>
       </c>
       <c r="M73">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="N73">
-        <v>3.1</v>
+        <v>3.08</v>
       </c>
       <c r="O73">
         <v>1</v>
       </c>
       <c r="P73" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74" spans="1:16">
       <c r="A74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B74" t="s">
         <v>32</v>
       </c>
       <c r="C74">
-        <v>1.746644873089242</v>
+        <v>1.253223538131198</v>
       </c>
       <c r="D74" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E74">
-        <v>1.525563511549905</v>
+        <v>1.465356698427415</v>
       </c>
       <c r="F74">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G74">
-        <v>0.005093355126910757</v>
+        <v>0.005366776461868803</v>
       </c>
       <c r="H74">
-        <v>0.004634436488450095</v>
+        <v>0.004734643301572585</v>
       </c>
       <c r="I74">
-        <v>0.221081361539337</v>
+        <v>0.2121331602962171</v>
       </c>
       <c r="J74">
-        <v>0.8494188461475927</v>
+        <v>0.898155660204717</v>
       </c>
       <c r="K74">
-        <v>1.97</v>
+        <v>2.29</v>
       </c>
       <c r="L74">
-        <v>3.42</v>
+        <v>3.31</v>
       </c>
       <c r="M74">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="N74">
-        <v>3.08</v>
+        <v>3.1</v>
       </c>
       <c r="O74">
         <v>1</v>
       </c>
       <c r="P74" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:16">
       <c r="A75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B75" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C75">
-        <v>1.253223538131198</v>
+        <v>1.650633349396707</v>
       </c>
       <c r="D75" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E75">
-        <v>1.465356698427415</v>
+        <v>1.454707122988519</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G75">
-        <v>0.005366776461868803</v>
+        <v>0.005189366650603293</v>
       </c>
       <c r="H75">
-        <v>0.004734643301572585</v>
+        <v>0.005065292877011481</v>
       </c>
       <c r="I75">
-        <v>0.2121331602962171</v>
+        <v>0.1959262264081887</v>
       </c>
       <c r="J75">
         <v>0.898155660204717</v>
       </c>
       <c r="K75">
-        <v>2.29</v>
+        <v>1.97</v>
       </c>
       <c r="L75">
-        <v>3.31</v>
+        <v>3.42</v>
       </c>
       <c r="M75">
-        <v>1.82</v>
+        <v>2.01</v>
       </c>
       <c r="N75">
-        <v>3.1</v>
+        <v>3.26</v>
       </c>
       <c r="O75">
         <v>1</v>
       </c>
       <c r="P75" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76" spans="1:16">
       <c r="A76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B76" t="s">
         <v>32</v>
       </c>
       <c r="C76">
-        <v>1.650633349396707</v>
+        <v>1.142741567826858</v>
       </c>
       <c r="D76" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E76">
-        <v>1.454707122988519</v>
+        <v>1.377550067006499</v>
       </c>
       <c r="F76">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G76">
-        <v>0.005189366650603293</v>
+        <v>0.005477258432173141</v>
       </c>
       <c r="H76">
-        <v>0.005065292877011481</v>
+        <v>0.004822449932993502</v>
       </c>
       <c r="I76">
-        <v>0.1959262264081887</v>
+        <v>0.2348084991796402</v>
       </c>
       <c r="J76">
-        <v>0.898155660204717</v>
+        <v>0.9464010620843414</v>
       </c>
       <c r="K76">
-        <v>1.97</v>
+        <v>2.29</v>
       </c>
       <c r="L76">
-        <v>3.42</v>
+        <v>3.31</v>
       </c>
       <c r="M76">
-        <v>2.01</v>
+        <v>1.82</v>
       </c>
       <c r="N76">
-        <v>3.26</v>
+        <v>3.1</v>
       </c>
       <c r="O76">
         <v>1</v>
       </c>
       <c r="P76" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -4596,31 +4611,31 @@
         <v>0</v>
       </c>
       <c r="B77" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C77">
-        <v>1.142741567826858</v>
+        <v>1.02473295176371</v>
       </c>
       <c r="D77" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E77">
-        <v>1.377550067006499</v>
+        <v>1.28376155991701</v>
       </c>
       <c r="F77">
         <v>1</v>
       </c>
       <c r="G77">
-        <v>0.005477258432173141</v>
+        <v>0.005595267048236289</v>
       </c>
       <c r="H77">
-        <v>0.004822449932993502</v>
+        <v>0.004916238440082991</v>
       </c>
       <c r="I77">
-        <v>0.2348084991796402</v>
+        <v>0.2590286081532995</v>
       </c>
       <c r="J77">
-        <v>0.9464010620843414</v>
+        <v>0.9979332088368078</v>
       </c>
       <c r="K77">
         <v>2.29</v>
@@ -4638,7 +4653,7 @@
         <v>1</v>
       </c>
       <c r="P77" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -4646,31 +4661,31 @@
         <v>0</v>
       </c>
       <c r="B78" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C78">
-        <v>1.02473295176371</v>
+        <v>0.9555784956116042</v>
       </c>
       <c r="D78" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E78">
-        <v>1.28376155991701</v>
+        <v>1.228800376424943</v>
       </c>
       <c r="F78">
         <v>1</v>
       </c>
       <c r="G78">
-        <v>0.005595267048236289</v>
+        <v>0.005664421504388396</v>
       </c>
       <c r="H78">
-        <v>0.004916238440082991</v>
+        <v>0.004971199623575057</v>
       </c>
       <c r="I78">
-        <v>0.2590286081532995</v>
+        <v>0.2732218808133391</v>
       </c>
       <c r="J78">
-        <v>0.9979332088368078</v>
+        <v>1.028131661304976</v>
       </c>
       <c r="K78">
         <v>2.29</v>
@@ -4688,7 +4703,7 @@
         <v>1</v>
       </c>
       <c r="P78" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -4699,34 +4714,34 @@
         <v>33</v>
       </c>
       <c r="C79">
-        <v>0.9555784956116042</v>
+        <v>0.95505474527386</v>
       </c>
       <c r="D79" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E79">
-        <v>1.228800376424943</v>
+        <v>1.172750932925077</v>
       </c>
       <c r="F79">
         <v>1</v>
       </c>
       <c r="G79">
-        <v>0.005664421504388396</v>
+        <v>0.00580494525472614</v>
       </c>
       <c r="H79">
-        <v>0.004971199623575057</v>
+        <v>0.005027249067074924</v>
       </c>
       <c r="I79">
-        <v>0.2732218808133391</v>
+        <v>0.2176961876512167</v>
       </c>
       <c r="J79">
-        <v>1.028131661304976</v>
+        <v>1.058928058832376</v>
       </c>
       <c r="K79">
         <v>2.29</v>
       </c>
       <c r="L79">
-        <v>3.31</v>
+        <v>3.38</v>
       </c>
       <c r="M79">
         <v>1.82</v>
@@ -4738,7 +4753,7 @@
         <v>1</v>
       </c>
       <c r="P79" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -4746,31 +4761,31 @@
         <v>0</v>
       </c>
       <c r="B80" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C80">
-        <v>0.95505474527386</v>
+        <v>0.8997461387005035</v>
       </c>
       <c r="D80" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E80">
-        <v>1.172750932925077</v>
+        <v>1.128793874425728</v>
       </c>
       <c r="F80">
         <v>1</v>
       </c>
       <c r="G80">
-        <v>0.00580494525472614</v>
+        <v>0.005860253861299496</v>
       </c>
       <c r="H80">
-        <v>0.005027249067074924</v>
+        <v>0.005071206125574273</v>
       </c>
       <c r="I80">
-        <v>0.2176961876512167</v>
+        <v>0.2290477357252241</v>
       </c>
       <c r="J80">
-        <v>1.058928058832376</v>
+        <v>1.083080288777073</v>
       </c>
       <c r="K80">
         <v>2.29</v>
@@ -4788,7 +4803,7 @@
         <v>1</v>
       </c>
       <c r="P80" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -4796,31 +4811,31 @@
         <v>0</v>
       </c>
       <c r="B81" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C81">
-        <v>0.8997461387005035</v>
+        <v>0.9004291893178089</v>
       </c>
       <c r="D81" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E81">
-        <v>1.128793874425728</v>
+        <v>1.129336735615027</v>
       </c>
       <c r="F81">
         <v>1</v>
       </c>
       <c r="G81">
-        <v>0.005860253861299496</v>
+        <v>0.005859570810682191</v>
       </c>
       <c r="H81">
-        <v>0.005071206125574273</v>
+        <v>0.005070663264384973</v>
       </c>
       <c r="I81">
-        <v>0.2290477357252241</v>
+        <v>0.2289075462972185</v>
       </c>
       <c r="J81">
-        <v>1.083080288777073</v>
+        <v>1.082782013398337</v>
       </c>
       <c r="K81">
         <v>2.29</v>
@@ -4838,7 +4853,7 @@
         <v>1</v>
       </c>
       <c r="P81" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -4846,31 +4861,31 @@
         <v>0</v>
       </c>
       <c r="B82" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C82">
-        <v>0.9004291893178089</v>
+        <v>0.8995341152947529</v>
       </c>
       <c r="D82" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E82">
-        <v>1.129336735615027</v>
+        <v>1.128625366740808</v>
       </c>
       <c r="F82">
         <v>1</v>
       </c>
       <c r="G82">
-        <v>0.005859570810682191</v>
+        <v>0.005860465884705247</v>
       </c>
       <c r="H82">
-        <v>0.005070663264384973</v>
+        <v>0.005071374633259193</v>
       </c>
       <c r="I82">
-        <v>0.2289075462972185</v>
+        <v>0.2290912514460552</v>
       </c>
       <c r="J82">
-        <v>1.082782013398337</v>
+        <v>1.083172875417138</v>
       </c>
       <c r="K82">
         <v>2.29</v>
@@ -4888,7 +4903,7 @@
         <v>1</v>
       </c>
       <c r="P82" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -4896,31 +4911,31 @@
         <v>0</v>
       </c>
       <c r="B83" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C83">
-        <v>0.8995341152947529</v>
+        <v>0.8942975364165378</v>
       </c>
       <c r="D83" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E83">
-        <v>1.128625366740808</v>
+        <v>1.124463544226244</v>
       </c>
       <c r="F83">
         <v>1</v>
       </c>
       <c r="G83">
-        <v>0.005860465884705247</v>
+        <v>0.005865702463583462</v>
       </c>
       <c r="H83">
-        <v>0.005071374633259193</v>
+        <v>0.005075536455773756</v>
       </c>
       <c r="I83">
-        <v>0.2290912514460552</v>
+        <v>0.2301660078097063</v>
       </c>
       <c r="J83">
-        <v>1.083172875417138</v>
+        <v>1.085459591084481</v>
       </c>
       <c r="K83">
         <v>2.29</v>
@@ -4938,7 +4953,7 @@
         <v>1</v>
       </c>
       <c r="P83" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -4946,31 +4961,31 @@
         <v>0</v>
       </c>
       <c r="B84" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C84">
-        <v>0.8942975364165378</v>
+        <v>0.823882990348408</v>
       </c>
       <c r="D84" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E84">
-        <v>1.124463544226244</v>
+        <v>1.068500891892621</v>
       </c>
       <c r="F84">
         <v>1</v>
       </c>
       <c r="G84">
-        <v>0.005865702463583462</v>
+        <v>0.005936117009651592</v>
       </c>
       <c r="H84">
-        <v>0.005075536455773756</v>
+        <v>0.005131499108107379</v>
       </c>
       <c r="I84">
-        <v>0.2301660078097063</v>
+        <v>0.2446179015442134</v>
       </c>
       <c r="J84">
-        <v>1.085459591084481</v>
+        <v>1.1162083011579</v>
       </c>
       <c r="K84">
         <v>2.29</v>
@@ -4988,7 +5003,7 @@
         <v>1</v>
       </c>
       <c r="P84" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -4996,31 +5011,31 @@
         <v>0</v>
       </c>
       <c r="B85" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C85">
-        <v>0.823882990348408</v>
+        <v>0.7552208383877499</v>
       </c>
       <c r="D85" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E85">
-        <v>1.068500891892621</v>
+        <v>1.013930971993758</v>
       </c>
       <c r="F85">
         <v>1</v>
       </c>
       <c r="G85">
-        <v>0.005936117009651592</v>
+        <v>0.00600477916161225</v>
       </c>
       <c r="H85">
-        <v>0.005131499108107379</v>
+        <v>0.005186069028006243</v>
       </c>
       <c r="I85">
-        <v>0.2446179015442134</v>
+        <v>0.2587101336060078</v>
       </c>
       <c r="J85">
-        <v>1.1162083011579</v>
+        <v>1.146191773629804</v>
       </c>
       <c r="K85">
         <v>2.29</v>
@@ -5038,7 +5053,7 @@
         <v>1</v>
       </c>
       <c r="P85" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -5046,31 +5061,31 @@
         <v>0</v>
       </c>
       <c r="B86" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C86">
-        <v>0.7552208383877499</v>
+        <v>0.7164672131147527</v>
       </c>
       <c r="D86" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E86">
-        <v>1.013930971993758</v>
+        <v>0.9831311475409823</v>
       </c>
       <c r="F86">
         <v>1</v>
       </c>
       <c r="G86">
-        <v>0.00600477916161225</v>
+        <v>0.006043532786885248</v>
       </c>
       <c r="H86">
-        <v>0.005186069028006243</v>
+        <v>0.005216868852459018</v>
       </c>
       <c r="I86">
-        <v>0.2587101336060078</v>
+        <v>0.2666639344262296</v>
       </c>
       <c r="J86">
-        <v>1.146191773629804</v>
+        <v>1.163114754098361</v>
       </c>
       <c r="K86">
         <v>2.29</v>
@@ -5088,7 +5103,7 @@
         <v>1</v>
       </c>
       <c r="P86" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -5096,31 +5111,31 @@
         <v>0</v>
       </c>
       <c r="B87" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C87">
-        <v>0.7164672131147527</v>
+        <v>0.6498239504652852</v>
       </c>
       <c r="D87" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E87">
-        <v>0.9831311475409823</v>
+        <v>0.9301657597584363</v>
       </c>
       <c r="F87">
         <v>1</v>
       </c>
       <c r="G87">
-        <v>0.006043532786885248</v>
+        <v>0.006110176049534715</v>
       </c>
       <c r="H87">
-        <v>0.005216868852459018</v>
+        <v>0.005269834240241564</v>
       </c>
       <c r="I87">
-        <v>0.2666639344262296</v>
+        <v>0.2803418092931511</v>
       </c>
       <c r="J87">
-        <v>1.163114754098361</v>
+        <v>1.192216615517343</v>
       </c>
       <c r="K87">
         <v>2.29</v>
@@ -5138,7 +5153,7 @@
         <v>1</v>
       </c>
       <c r="P87" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -5149,60 +5164,60 @@
         <v>34</v>
       </c>
       <c r="C88">
-        <v>0.6498239504652852</v>
+        <v>0.5205928926738919</v>
       </c>
       <c r="D88" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="E88">
-        <v>0.9301657597584363</v>
+        <v>0.4040417624885522</v>
       </c>
       <c r="F88">
         <v>1</v>
       </c>
       <c r="G88">
-        <v>0.006110176049534715</v>
+        <v>0.006459407107326108</v>
       </c>
       <c r="H88">
-        <v>0.005269834240241564</v>
+        <v>0.006215958237511448</v>
       </c>
       <c r="I88">
-        <v>0.2803418092931511</v>
+        <v>-0.1165511301853397</v>
       </c>
       <c r="J88">
-        <v>1.192216615517343</v>
+        <v>1.268977396293209</v>
       </c>
       <c r="K88">
+        <v>2.34</v>
+      </c>
+      <c r="L88">
+        <v>3.49</v>
+      </c>
+      <c r="M88">
         <v>2.29</v>
       </c>
-      <c r="L88">
-        <v>3.38</v>
-      </c>
-      <c r="M88">
-        <v>1.82</v>
-      </c>
       <c r="N88">
-        <v>3.1</v>
+        <v>3.31</v>
       </c>
       <c r="O88">
         <v>1</v>
       </c>
       <c r="P88" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:16">
       <c r="A89" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B89" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C89">
-        <v>0.5205928926738919</v>
+        <v>0.474041762488552</v>
       </c>
       <c r="D89" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E89">
         <v>0.4040417624885522</v>
@@ -5211,22 +5226,22 @@
         <v>1</v>
       </c>
       <c r="G89">
-        <v>0.006459407107326108</v>
+        <v>0.006285958237511447</v>
       </c>
       <c r="H89">
         <v>0.006215958237511448</v>
       </c>
       <c r="I89">
-        <v>-0.1165511301853397</v>
+        <v>-0.06999999999999984</v>
       </c>
       <c r="J89">
         <v>1.268977396293209</v>
       </c>
       <c r="K89">
-        <v>2.34</v>
+        <v>2.29</v>
       </c>
       <c r="L89">
-        <v>3.49</v>
+        <v>3.38</v>
       </c>
       <c r="M89">
         <v>2.29</v>
@@ -5238,45 +5253,45 @@
         <v>1</v>
       </c>
       <c r="P89" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:16">
       <c r="A90" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B90" t="s">
         <v>34</v>
       </c>
       <c r="C90">
-        <v>0.474041762488552</v>
+        <v>0.3774746016246668</v>
       </c>
       <c r="D90" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E90">
-        <v>0.4040417624885522</v>
+        <v>0.2639815545814042</v>
       </c>
       <c r="F90">
         <v>1</v>
       </c>
       <c r="G90">
-        <v>0.006285958237511447</v>
+        <v>0.006602525398375333</v>
       </c>
       <c r="H90">
-        <v>0.006215958237511448</v>
+        <v>0.006356018445418596</v>
       </c>
       <c r="I90">
-        <v>-0.06999999999999984</v>
+        <v>-0.1134930470432627</v>
       </c>
       <c r="J90">
-        <v>1.268977396293209</v>
+        <v>1.330139059134758</v>
       </c>
       <c r="K90">
-        <v>2.29</v>
+        <v>2.34</v>
       </c>
       <c r="L90">
-        <v>3.38</v>
+        <v>3.49</v>
       </c>
       <c r="M90">
         <v>2.29</v>
@@ -5288,21 +5303,21 @@
         <v>1</v>
       </c>
       <c r="P90" t="s">
-        <v>104</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91" spans="1:16">
       <c r="A91" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B91" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C91">
-        <v>0.3774746016246668</v>
+        <v>0.333981554581404</v>
       </c>
       <c r="D91" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E91">
         <v>0.2639815545814042</v>
@@ -5311,22 +5326,22 @@
         <v>1</v>
       </c>
       <c r="G91">
-        <v>0.006602525398375333</v>
+        <v>0.006426018445418596</v>
       </c>
       <c r="H91">
         <v>0.006356018445418596</v>
       </c>
       <c r="I91">
-        <v>-0.1134930470432627</v>
+        <v>-0.06999999999999984</v>
       </c>
       <c r="J91">
         <v>1.330139059134758</v>
       </c>
       <c r="K91">
-        <v>2.34</v>
+        <v>2.29</v>
       </c>
       <c r="L91">
-        <v>3.49</v>
+        <v>3.38</v>
       </c>
       <c r="M91">
         <v>2.29</v>
@@ -5343,40 +5358,40 @@
     </row>
     <row r="92" spans="1:16">
       <c r="A92" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B92" t="s">
         <v>34</v>
       </c>
       <c r="C92">
-        <v>0.333981554581404</v>
+        <v>0.2442505289553791</v>
       </c>
       <c r="D92" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E92">
-        <v>0.2639815545814042</v>
+        <v>0.1336041501315459</v>
       </c>
       <c r="F92">
         <v>1</v>
       </c>
       <c r="G92">
-        <v>0.006426018445418596</v>
+        <v>0.006735749471044622</v>
       </c>
       <c r="H92">
-        <v>0.006356018445418596</v>
+        <v>0.006486395849868455</v>
       </c>
       <c r="I92">
-        <v>-0.06999999999999984</v>
+        <v>-0.1106463788238332</v>
       </c>
       <c r="J92">
-        <v>1.330139059134758</v>
+        <v>1.387072423523342</v>
       </c>
       <c r="K92">
-        <v>2.29</v>
+        <v>2.34</v>
       </c>
       <c r="L92">
-        <v>3.38</v>
+        <v>3.49</v>
       </c>
       <c r="M92">
         <v>2.29</v>
@@ -5388,21 +5403,21 @@
         <v>1</v>
       </c>
       <c r="P92" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
     </row>
     <row r="93" spans="1:16">
       <c r="A93" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B93" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C93">
-        <v>0.2442505289553791</v>
+        <v>0.2036041501315458</v>
       </c>
       <c r="D93" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E93">
         <v>0.1336041501315459</v>
@@ -5411,22 +5426,22 @@
         <v>1</v>
       </c>
       <c r="G93">
-        <v>0.006735749471044622</v>
+        <v>0.006556395849868454</v>
       </c>
       <c r="H93">
         <v>0.006486395849868455</v>
       </c>
       <c r="I93">
-        <v>-0.1106463788238332</v>
+        <v>-0.06999999999999984</v>
       </c>
       <c r="J93">
         <v>1.387072423523342</v>
       </c>
       <c r="K93">
-        <v>2.34</v>
+        <v>2.29</v>
       </c>
       <c r="L93">
-        <v>3.49</v>
+        <v>3.38</v>
       </c>
       <c r="M93">
         <v>2.29</v>
@@ -5438,21 +5453,21 @@
         <v>1</v>
       </c>
       <c r="P93" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="94" spans="1:16">
       <c r="A94" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B94" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C94">
         <v>0.2977942894248136</v>
       </c>
       <c r="D94" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E94">
         <v>0.5755281891875166</v>
@@ -5488,7 +5503,7 @@
         <v>1</v>
       </c>
       <c r="P94" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -5496,13 +5511,13 @@
         <v>0</v>
       </c>
       <c r="B95" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C95">
         <v>1.851150997400674</v>
       </c>
       <c r="D95" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E95">
         <v>1.622642804691997</v>
@@ -5538,7 +5553,7 @@
         <v>1</v>
       </c>
       <c r="P95" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -5552,7 +5567,7 @@
         <v>1.833368794275822</v>
       </c>
       <c r="D96" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E96">
         <v>1.622642804691997</v>
@@ -5588,7 +5603,7 @@
         <v>1</v>
       </c>
       <c r="P96" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -5602,7 +5617,7 @@
         <v>1.825554329597634</v>
       </c>
       <c r="D97" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E97">
         <v>1.61559823801166</v>
@@ -5638,7 +5653,7 @@
         <v>1</v>
       </c>
       <c r="P97" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -5652,7 +5667,7 @@
         <v>1.814964366537685</v>
       </c>
       <c r="D98" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E98">
         <v>1.606051621065991</v>
@@ -5696,13 +5711,13 @@
         <v>1</v>
       </c>
       <c r="B99" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C99">
         <v>1.778855641084854</v>
       </c>
       <c r="D99" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E99">
         <v>1.606051621065991</v>
@@ -5752,7 +5767,7 @@
         <v>1.80276175127278</v>
       </c>
       <c r="D100" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E100">
         <v>1.595051233906003</v>
@@ -5788,7 +5803,7 @@
         <v>1</v>
       </c>
       <c r="P100" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -5796,13 +5811,13 @@
         <v>1</v>
       </c>
       <c r="B101" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C101">
         <v>1.766532803009457</v>
       </c>
       <c r="D101" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E101">
         <v>1.595051233906003</v>
@@ -5838,7 +5853,7 @@
         <v>1</v>
       </c>
       <c r="P101" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -5852,7 +5867,7 @@
         <v>1.799355758249058</v>
       </c>
       <c r="D102" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E102">
         <v>1.591980806697426</v>
@@ -5888,7 +5903,7 @@
         <v>1</v>
       </c>
       <c r="P102" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -5896,13 +5911,13 @@
         <v>1</v>
       </c>
       <c r="B103" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C103">
         <v>1.763093253404221</v>
       </c>
       <c r="D103" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E103">
         <v>1.591980806697426</v>
@@ -5938,7 +5953,7 @@
         <v>1</v>
       </c>
       <c r="P103" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -5946,13 +5961,13 @@
         <v>0</v>
       </c>
       <c r="B104" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C104">
         <v>1.758945050051923</v>
       </c>
       <c r="D104" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E104">
         <v>1.579368851023481</v>
@@ -6002,7 +6017,7 @@
         <v>1.72904089319749</v>
       </c>
       <c r="D105" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E105">
         <v>1.571905533403557</v>
@@ -6038,7 +6053,7 @@
         <v>1</v>
       </c>
       <c r="P105" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -6052,7 +6067,7 @@
         <v>1.732368893145465</v>
       </c>
       <c r="D106" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E106">
         <v>1.574988827473004</v>
@@ -6088,7 +6103,7 @@
         <v>1</v>
       </c>
       <c r="P106" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -6102,7 +6117,7 @@
         <v>1.697534484639878</v>
       </c>
       <c r="D107" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E107">
         <v>1.561011377500918</v>
@@ -6138,7 +6153,7 @@
         <v>1</v>
       </c>
       <c r="P107" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -6152,7 +6167,7 @@
         <v>1.703024477239647</v>
       </c>
       <c r="D108" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E108">
         <v>1.566105185067714</v>
@@ -6188,7 +6203,7 @@
         <v>1</v>
       </c>
       <c r="P108" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -6202,7 +6217,7 @@
         <v>1.706762500295012</v>
       </c>
       <c r="D109" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E109">
         <v>1.56957345388197</v>
@@ -6238,7 +6253,7 @@
         <v>1</v>
       </c>
       <c r="P109" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -6252,7 +6267,7 @@
         <v>1.711603744119008</v>
       </c>
       <c r="D110" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E110">
         <v>1.574065329594956</v>
@@ -6288,7 +6303,7 @@
         <v>1</v>
       </c>
       <c r="P110" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -6302,7 +6317,7 @@
         <v>1.702699397711841</v>
       </c>
       <c r="D111" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E111">
         <v>1.58060202641754</v>
@@ -6352,7 +6367,7 @@
         <v>1.706549065306413</v>
       </c>
       <c r="D112" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E112">
         <v>1.584739904420262</v>
@@ -6388,7 +6403,7 @@
         <v>1</v>
       </c>
       <c r="P112" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -6402,7 +6417,7 @@
         <v>1.715081561736875</v>
       </c>
       <c r="D113" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E113">
         <v>1.59391119737493</v>
@@ -6438,7 +6453,7 @@
         <v>1</v>
       </c>
       <c r="P113" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -6452,7 +6467,7 @@
         <v>1.724215665563157</v>
       </c>
       <c r="D114" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E114">
         <v>1.603729137851308</v>
@@ -6488,7 +6503,7 @@
         <v>1</v>
       </c>
       <c r="P114" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -6502,7 +6517,7 @@
         <v>1.726739382920171</v>
       </c>
       <c r="D115" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E115">
         <v>1.573712190745633</v>
@@ -6538,7 +6553,7 @@
         <v>1</v>
       </c>
       <c r="P115" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -6546,81 +6561,81 @@
         <v>0</v>
       </c>
       <c r="B116" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C116">
-        <v>1.708455604764484</v>
+        <v>1.726946437655511</v>
       </c>
       <c r="D116" t="s">
         <v>62</v>
       </c>
       <c r="E116">
-        <v>1.602087480096213</v>
+        <v>1.573928103437565</v>
       </c>
       <c r="F116">
         <v>-1</v>
       </c>
       <c r="G116">
-        <v>0.004591544395235517</v>
+        <v>0.004673053562344489</v>
       </c>
       <c r="H116">
-        <v>0.004437912519903786</v>
+        <v>0.004646071896562435</v>
       </c>
       <c r="I116">
-        <v>0.1063681246682702</v>
+        <v>0.1530183342179463</v>
       </c>
       <c r="J116">
         <v>0.7877291777243258</v>
       </c>
       <c r="K116">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="L116">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="M116">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="N116">
-        <v>3.02</v>
+        <v>3.11</v>
       </c>
       <c r="O116">
         <v>1</v>
       </c>
       <c r="P116" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="117" spans="1:16">
       <c r="A117" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B117" t="s">
         <v>39</v>
       </c>
       <c r="C117">
-        <v>1.726946437655511</v>
+        <v>1.727760002736695</v>
       </c>
       <c r="D117" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E117">
-        <v>1.573928103437565</v>
+        <v>1.574776473442008</v>
       </c>
       <c r="F117">
         <v>-1</v>
       </c>
       <c r="G117">
-        <v>0.004673053562344489</v>
+        <v>0.004672239997263306</v>
       </c>
       <c r="H117">
-        <v>0.004646071896562435</v>
+        <v>0.004645223526557992</v>
       </c>
       <c r="I117">
-        <v>0.1530183342179463</v>
+        <v>0.1529835292946871</v>
       </c>
       <c r="J117">
-        <v>0.7877291777243258</v>
+        <v>0.7872941161835857</v>
       </c>
       <c r="K117">
         <v>1.87</v>
@@ -6638,7 +6653,7 @@
         <v>1</v>
       </c>
       <c r="P117" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -6649,28 +6664,28 @@
         <v>40</v>
       </c>
       <c r="C118">
-        <v>1.709251767384038</v>
+        <v>1.706716749552468</v>
       </c>
       <c r="D118" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E118">
-        <v>1.582014120413023</v>
+        <v>1.579395987242713</v>
       </c>
       <c r="F118">
         <v>-1</v>
       </c>
       <c r="G118">
-        <v>0.004590748232615962</v>
+        <v>0.004593283250447533</v>
       </c>
       <c r="H118">
-        <v>0.004557985879586977</v>
+        <v>0.004560604012757288</v>
       </c>
       <c r="I118">
-        <v>0.127237646971015</v>
+        <v>0.1273207623097552</v>
       </c>
       <c r="J118">
-        <v>0.7872941161835857</v>
+        <v>0.7886793718292525</v>
       </c>
       <c r="K118">
         <v>1.83</v>
@@ -6688,7 +6703,7 @@
         <v>1</v>
       </c>
       <c r="P118" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -6699,28 +6714,28 @@
         <v>39</v>
       </c>
       <c r="C119">
-        <v>1.727760002736695</v>
+        <v>1.725169574679298</v>
       </c>
       <c r="D119" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E119">
-        <v>1.574776473442008</v>
+        <v>1.572075224932957</v>
       </c>
       <c r="F119">
         <v>-1</v>
       </c>
       <c r="G119">
-        <v>0.004672239997263306</v>
+        <v>0.004674830425320703</v>
       </c>
       <c r="H119">
-        <v>0.004645223526557992</v>
+        <v>0.004647924775067042</v>
       </c>
       <c r="I119">
-        <v>0.1529835292946871</v>
+        <v>0.1530943497463404</v>
       </c>
       <c r="J119">
-        <v>0.7872941161835857</v>
+        <v>0.7886793718292525</v>
       </c>
       <c r="K119">
         <v>1.87</v>
@@ -6738,7 +6753,7 @@
         <v>1</v>
       </c>
       <c r="P119" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -6746,37 +6761,37 @@
         <v>0</v>
       </c>
       <c r="B120" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C120">
-        <v>1.700943162115883</v>
+        <v>1.70439692819319</v>
       </c>
       <c r="D120" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E120">
-        <v>1.579395987242713</v>
+        <v>1.577000106166737</v>
       </c>
       <c r="F120">
         <v>-1</v>
       </c>
       <c r="G120">
-        <v>0.004619056837884117</v>
+        <v>0.00459560307180681</v>
       </c>
       <c r="H120">
-        <v>0.004560604012757288</v>
+        <v>0.004562999893833262</v>
       </c>
       <c r="I120">
-        <v>0.1215471748731702</v>
+        <v>0.1273968220264527</v>
       </c>
       <c r="J120">
-        <v>0.7886793718292525</v>
+        <v>0.7899470337742129</v>
       </c>
       <c r="K120">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="L120">
-        <v>3.16</v>
+        <v>3.15</v>
       </c>
       <c r="M120">
         <v>1.89</v>
@@ -6788,7 +6803,7 @@
         <v>1</v>
       </c>
       <c r="P120" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -6799,28 +6814,28 @@
         <v>39</v>
       </c>
       <c r="C121">
-        <v>1.725169574679298</v>
+        <v>1.722799046842222</v>
       </c>
       <c r="D121" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E121">
-        <v>1.572075224932957</v>
+        <v>1.569603284140285</v>
       </c>
       <c r="F121">
         <v>-1</v>
       </c>
       <c r="G121">
-        <v>0.004674830425320703</v>
+        <v>0.004677200953157779</v>
       </c>
       <c r="H121">
-        <v>0.004647924775067042</v>
+        <v>0.004650396715859715</v>
       </c>
       <c r="I121">
-        <v>0.1530943497463404</v>
+        <v>0.1531957627019371</v>
       </c>
       <c r="J121">
-        <v>0.7886793718292525</v>
+        <v>0.7899470337742129</v>
       </c>
       <c r="K121">
         <v>1.87</v>
@@ -6838,7 +6853,7 @@
         <v>1</v>
       </c>
       <c r="P121" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -6849,28 +6864,28 @@
         <v>39</v>
       </c>
       <c r="C122">
-        <v>1.722799046842222</v>
+        <v>1.721909002855845</v>
       </c>
       <c r="D122" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E122">
-        <v>1.569603284140285</v>
+        <v>1.568675163405828</v>
       </c>
       <c r="F122">
         <v>-1</v>
       </c>
       <c r="G122">
-        <v>0.004677200953157779</v>
+        <v>0.004678090997144155</v>
       </c>
       <c r="H122">
-        <v>0.004650396715859715</v>
+        <v>0.004651324836594172</v>
       </c>
       <c r="I122">
-        <v>0.1531957627019371</v>
+        <v>0.1532338394500175</v>
       </c>
       <c r="J122">
-        <v>0.7899470337742129</v>
+        <v>0.7904229931252164</v>
       </c>
       <c r="K122">
         <v>1.87</v>
@@ -6888,7 +6903,7 @@
         <v>1</v>
       </c>
       <c r="P122" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -6899,28 +6914,28 @@
         <v>39</v>
       </c>
       <c r="C123">
-        <v>1.721909002855845</v>
+        <v>1.720598225993867</v>
       </c>
       <c r="D123" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E123">
-        <v>1.568675163405828</v>
+        <v>1.567308310528363</v>
       </c>
       <c r="F123">
         <v>-1</v>
       </c>
       <c r="G123">
-        <v>0.004678090997144155</v>
+        <v>0.004679401774006134</v>
       </c>
       <c r="H123">
-        <v>0.004651324836594172</v>
+        <v>0.004652691689471636</v>
       </c>
       <c r="I123">
-        <v>0.1532338394500175</v>
+        <v>0.1532899154655032</v>
       </c>
       <c r="J123">
-        <v>0.7904229931252164</v>
+        <v>0.791123943318788</v>
       </c>
       <c r="K123">
         <v>1.87</v>
@@ -6938,7 +6953,7 @@
         <v>1</v>
       </c>
       <c r="P123" t="s">
-        <v>40</v>
+        <v>118</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -6949,28 +6964,28 @@
         <v>39</v>
       </c>
       <c r="C124">
-        <v>1.720598225993867</v>
+        <v>1.719739270136877</v>
       </c>
       <c r="D124" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E124">
-        <v>1.567308310528363</v>
+        <v>1.566412607896743</v>
       </c>
       <c r="F124">
         <v>-1</v>
       </c>
       <c r="G124">
-        <v>0.004679401774006134</v>
+        <v>0.004680260729863123</v>
       </c>
       <c r="H124">
-        <v>0.004652691689471636</v>
+        <v>0.004653587392103257</v>
       </c>
       <c r="I124">
-        <v>0.1532899154655032</v>
+        <v>0.1533266622401337</v>
       </c>
       <c r="J124">
-        <v>0.791123943318788</v>
+        <v>0.7915832780016702</v>
       </c>
       <c r="K124">
         <v>1.87</v>
@@ -6999,28 +7014,28 @@
         <v>39</v>
       </c>
       <c r="C125">
-        <v>1.7430123394524</v>
+        <v>1.720624811893301</v>
       </c>
       <c r="D125" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E125">
-        <v>1.590681316541273</v>
+        <v>1.567336033792479</v>
       </c>
       <c r="F125">
         <v>-1</v>
       </c>
       <c r="G125">
-        <v>0.004656987660547601</v>
+        <v>0.004679375188106701</v>
       </c>
       <c r="H125">
-        <v>0.004629318683458727</v>
+        <v>0.004652663966207521</v>
       </c>
       <c r="I125">
-        <v>0.1523310229111274</v>
+        <v>0.1532887781008216</v>
       </c>
       <c r="J125">
-        <v>0.7791377863890909</v>
+        <v>0.7911097262602672</v>
       </c>
       <c r="K125">
         <v>1.87</v>
@@ -7038,7 +7053,7 @@
         <v>1</v>
       </c>
       <c r="P125" t="s">
-        <v>120</v>
+        <v>52</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -7049,28 +7064,28 @@
         <v>39</v>
       </c>
       <c r="C126">
-        <v>1.745259534195844</v>
+        <v>1.721822046417237</v>
       </c>
       <c r="D126" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E126">
-        <v>1.593024647958233</v>
+        <v>1.568584486905675</v>
       </c>
       <c r="F126">
         <v>-1</v>
       </c>
       <c r="G126">
-        <v>0.004654740465804157</v>
+        <v>0.004678177953582763</v>
       </c>
       <c r="H126">
-        <v>0.004626975352041767</v>
+        <v>0.004651415513094326</v>
       </c>
       <c r="I126">
-        <v>0.1522348862376111</v>
+        <v>0.1532375595115623</v>
       </c>
       <c r="J126">
-        <v>0.777936077970137</v>
+        <v>0.7904694938945258</v>
       </c>
       <c r="K126">
         <v>1.87</v>
@@ -7088,7 +7103,7 @@
         <v>1</v>
       </c>
       <c r="P126" t="s">
-        <v>121</v>
+        <v>60</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -7099,28 +7114,28 @@
         <v>39</v>
       </c>
       <c r="C127">
-        <v>1.746411489484559</v>
+        <v>1.72428138280355</v>
       </c>
       <c r="D127" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E127">
-        <v>1.594225884756626</v>
+        <v>1.571149035543809</v>
       </c>
       <c r="F127">
         <v>-1</v>
       </c>
       <c r="G127">
-        <v>0.004653588510515442</v>
+        <v>0.00467571861719645</v>
       </c>
       <c r="H127">
-        <v>0.004625774115243374</v>
+        <v>0.004648850964456191</v>
       </c>
       <c r="I127">
-        <v>0.1521856047279335</v>
+        <v>0.1531323472597415</v>
       </c>
       <c r="J127">
-        <v>0.7773200590991663</v>
+        <v>0.7891543407467646</v>
       </c>
       <c r="K127">
         <v>1.87</v>
@@ -7138,7 +7153,7 @@
         <v>1</v>
       </c>
       <c r="P127" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -7149,28 +7164,28 @@
         <v>39</v>
       </c>
       <c r="C128">
-        <v>1.748527788884446</v>
+        <v>1.727206229285669</v>
       </c>
       <c r="D128" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E128">
-        <v>1.596432721029235</v>
+        <v>1.574199009148157</v>
       </c>
       <c r="F128">
         <v>-1</v>
       </c>
       <c r="G128">
-        <v>0.004651472211115554</v>
+        <v>0.004672793770714332</v>
       </c>
       <c r="H128">
-        <v>0.004623567278970764</v>
+        <v>0.004645800990851843</v>
       </c>
       <c r="I128">
-        <v>0.1520950678552111</v>
+        <v>0.1530072201375119</v>
       </c>
       <c r="J128">
-        <v>0.7761883481901358</v>
+        <v>0.7875902517188939</v>
       </c>
       <c r="K128">
         <v>1.87</v>
@@ -7188,7 +7203,7 @@
         <v>1</v>
       </c>
       <c r="P128" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -7199,28 +7214,28 @@
         <v>39</v>
       </c>
       <c r="C129">
-        <v>1.750999132580348</v>
+        <v>1.728676249745893</v>
       </c>
       <c r="D129" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E129">
-        <v>1.599009790658651</v>
+        <v>1.57573191818422</v>
       </c>
       <c r="F129">
         <v>-1</v>
       </c>
       <c r="G129">
-        <v>0.004649000867419653</v>
+        <v>0.004671323750254107</v>
       </c>
       <c r="H129">
-        <v>0.004620990209341349</v>
+        <v>0.00464426808181578</v>
       </c>
       <c r="I129">
-        <v>0.1519893419216964</v>
+        <v>0.1529443315616732</v>
       </c>
       <c r="J129">
-        <v>0.7748667740212044</v>
+        <v>0.7868041445209126</v>
       </c>
       <c r="K129">
         <v>1.87</v>
@@ -7238,7 +7253,7 @@
         <v>1</v>
       </c>
       <c r="P129" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -7249,28 +7264,28 @@
         <v>39</v>
       </c>
       <c r="C130">
-        <v>1.753450334202255</v>
+        <v>1.731283335374008</v>
       </c>
       <c r="D130" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E130">
-        <v>1.601565856521068</v>
+        <v>1.578450536887334</v>
       </c>
       <c r="F130">
         <v>-1</v>
       </c>
       <c r="G130">
-        <v>0.004646549665797745</v>
+        <v>0.004668716664625992</v>
       </c>
       <c r="H130">
-        <v>0.004618434143478931</v>
+        <v>0.004641549463112665</v>
       </c>
       <c r="I130">
-        <v>0.1518844776811872</v>
+        <v>0.1528327984866735</v>
       </c>
       <c r="J130">
-        <v>0.7735559710148369</v>
+        <v>0.7854099810834182</v>
       </c>
       <c r="K130">
         <v>1.87</v>
@@ -7288,7 +7303,7 @@
         <v>1</v>
       </c>
       <c r="P130" t="s">
-        <v>125</v>
+        <v>63</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -7299,28 +7314,28 @@
         <v>39</v>
       </c>
       <c r="C131">
-        <v>1.754939802540862</v>
+        <v>1.734783094984213</v>
       </c>
       <c r="D131" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E131">
-        <v>1.60311904543031</v>
+        <v>1.582100018833805</v>
       </c>
       <c r="F131">
         <v>-1</v>
       </c>
       <c r="G131">
-        <v>0.004645060197459139</v>
+        <v>0.004665216905015787</v>
       </c>
       <c r="H131">
-        <v>0.00461688095456969</v>
+        <v>0.004637899981166194</v>
       </c>
       <c r="I131">
-        <v>0.1518207571105517</v>
+        <v>0.1526830761504081</v>
       </c>
       <c r="J131">
-        <v>0.7727594638818923</v>
+        <v>0.7835384518800999</v>
       </c>
       <c r="K131">
         <v>1.87</v>
@@ -7338,7 +7353,7 @@
         <v>1</v>
       </c>
       <c r="P131" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="132" spans="1:16">
@@ -7349,28 +7364,28 @@
         <v>39</v>
       </c>
       <c r="C132">
-        <v>1.755568315849489</v>
+        <v>1.735723855063803</v>
       </c>
       <c r="D132" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E132">
-        <v>1.603774447008826</v>
+        <v>1.583081025333912</v>
       </c>
       <c r="F132">
         <v>-1</v>
       </c>
       <c r="G132">
-        <v>0.004644431684150511</v>
+        <v>0.004664276144936198</v>
       </c>
       <c r="H132">
-        <v>0.004616225552991174</v>
+        <v>0.004636918974666088</v>
       </c>
       <c r="I132">
-        <v>0.1517938688406637</v>
+        <v>0.152642829729891</v>
       </c>
       <c r="J132">
-        <v>0.7724233605082945</v>
+        <v>0.783035371623635</v>
       </c>
       <c r="K132">
         <v>1.87</v>
@@ -7388,7 +7403,7 @@
         <v>1</v>
       </c>
       <c r="P132" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="133" spans="1:16">
@@ -7399,28 +7414,28 @@
         <v>39</v>
       </c>
       <c r="C133">
-        <v>1.755871060200726</v>
+        <v>1.736960969364403</v>
       </c>
       <c r="D133" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E133">
-        <v>1.604090142990061</v>
+        <v>1.584371064310473</v>
       </c>
       <c r="F133">
         <v>-1</v>
       </c>
       <c r="G133">
-        <v>0.004644128939799275</v>
+        <v>0.004663039030635597</v>
       </c>
       <c r="H133">
-        <v>0.004615909857009939</v>
+        <v>0.004635628935689527</v>
       </c>
       <c r="I133">
-        <v>0.1517809172106643</v>
+        <v>0.1525899050539294</v>
       </c>
       <c r="J133">
-        <v>0.7722614651333018</v>
+        <v>0.7823738131741161</v>
       </c>
       <c r="K133">
         <v>1.87</v>
@@ -7438,7 +7453,7 @@
         <v>1</v>
       </c>
       <c r="P133" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -7449,28 +7464,28 @@
         <v>39</v>
       </c>
       <c r="C134">
-        <v>1.755021860709565</v>
+        <v>1.73969811687623</v>
       </c>
       <c r="D134" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E134">
-        <v>1.603204614108905</v>
+        <v>1.587225309042058</v>
       </c>
       <c r="F134">
         <v>-1</v>
       </c>
       <c r="G134">
-        <v>0.004644978139290435</v>
+        <v>0.004660301883123771</v>
       </c>
       <c r="H134">
-        <v>0.004616795385891095</v>
+        <v>0.004632774690957941</v>
       </c>
       <c r="I134">
-        <v>0.1518172466006604</v>
+        <v>0.1524728078341722</v>
       </c>
       <c r="J134">
-        <v>0.772715582508254</v>
+        <v>0.7809100979271496</v>
       </c>
       <c r="K134">
         <v>1.87</v>
@@ -7488,7 +7503,7 @@
         <v>1</v>
       </c>
       <c r="P134" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -7499,28 +7514,28 @@
         <v>39</v>
       </c>
       <c r="C135">
-        <v>1.753276827162878</v>
+        <v>1.741117100086012</v>
       </c>
       <c r="D135" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E135">
-        <v>1.601384926720649</v>
+        <v>1.588704997415894</v>
       </c>
       <c r="F135">
         <v>-1</v>
       </c>
       <c r="G135">
-        <v>0.004646723172837122</v>
+        <v>0.004658882899913989</v>
       </c>
       <c r="H135">
-        <v>0.004618615073279351</v>
+        <v>0.004631295002584105</v>
       </c>
       <c r="I135">
-        <v>0.1518919004422299</v>
+        <v>0.1524121026701173</v>
       </c>
       <c r="J135">
-        <v>0.7736487555278725</v>
+        <v>0.7801512833764644</v>
       </c>
       <c r="K135">
         <v>1.87</v>
@@ -7538,7 +7553,7 @@
         <v>1</v>
       </c>
       <c r="P135" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="136" spans="1:16">
@@ -7549,28 +7564,28 @@
         <v>39</v>
       </c>
       <c r="C136">
-        <v>1.751466054533885</v>
+        <v>1.741857926477373</v>
       </c>
       <c r="D136" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E136">
-        <v>1.599496687882928</v>
+        <v>1.589477516914908</v>
       </c>
       <c r="F136">
         <v>-1</v>
       </c>
       <c r="G136">
-        <v>0.004648533945466115</v>
+        <v>0.004658142073522628</v>
       </c>
       <c r="H136">
-        <v>0.004620503312117072</v>
+        <v>0.004630522483085092</v>
       </c>
       <c r="I136">
-        <v>0.1519693666509569</v>
+        <v>0.1523804095624655</v>
       </c>
       <c r="J136">
-        <v>0.7746170831369599</v>
+        <v>0.7797551195308166</v>
       </c>
       <c r="K136">
         <v>1.87</v>
@@ -7588,7 +7603,7 @@
         <v>1</v>
       </c>
       <c r="P136" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -7599,28 +7614,28 @@
         <v>39</v>
       </c>
       <c r="C137">
-        <v>1.748327094900906</v>
+        <v>1.7430123394524</v>
       </c>
       <c r="D137" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E137">
-        <v>1.596223441206827</v>
+        <v>1.590681316541273</v>
       </c>
       <c r="F137">
         <v>-1</v>
       </c>
       <c r="G137">
-        <v>0.004651672905099095</v>
+        <v>0.004656987660547601</v>
       </c>
       <c r="H137">
-        <v>0.004623776558793173</v>
+        <v>0.004629318683458727</v>
       </c>
       <c r="I137">
-        <v>0.1521036536940792</v>
+        <v>0.1523310229111274</v>
       </c>
       <c r="J137">
-        <v>0.7762956711759863</v>
+        <v>0.7791377863890909</v>
       </c>
       <c r="K137">
         <v>1.87</v>
@@ -7638,7 +7653,7 @@
         <v>1</v>
       </c>
       <c r="P137" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="138" spans="1:16">
@@ -7649,28 +7664,28 @@
         <v>39</v>
       </c>
       <c r="C138">
-        <v>1.745110555324242</v>
+        <v>1.745259534195844</v>
       </c>
       <c r="D138" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E138">
-        <v>1.626188350910014</v>
+        <v>1.593024647958233</v>
       </c>
       <c r="F138">
         <v>-1</v>
       </c>
       <c r="G138">
-        <v>0.004654889444675759</v>
+        <v>0.004654740465804157</v>
       </c>
       <c r="H138">
-        <v>0.004753811649089986</v>
+        <v>0.004626975352041767</v>
       </c>
       <c r="I138">
-        <v>0.118922204414228</v>
+        <v>0.1522348862376111</v>
       </c>
       <c r="J138">
-        <v>0.7780157458159134</v>
+        <v>0.777936077970137</v>
       </c>
       <c r="K138">
         <v>1.87</v>
@@ -7679,16 +7694,16 @@
         <v>3.2</v>
       </c>
       <c r="M138">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="N138">
-        <v>3.19</v>
+        <v>3.11</v>
       </c>
       <c r="O138">
         <v>1</v>
       </c>
       <c r="P138" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="139" spans="1:16">
@@ -7699,28 +7714,28 @@
         <v>39</v>
       </c>
       <c r="C139">
-        <v>1.743382145937803</v>
+        <v>1.746411489484559</v>
       </c>
       <c r="D139" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E139">
-        <v>1.624330541890366</v>
+        <v>1.594225884756626</v>
       </c>
       <c r="F139">
         <v>-1</v>
       </c>
       <c r="G139">
-        <v>0.004656617854062197</v>
+        <v>0.004653588510515442</v>
       </c>
       <c r="H139">
-        <v>0.004755669458109634</v>
+        <v>0.004625774115243374</v>
       </c>
       <c r="I139">
-        <v>0.1190516040474372</v>
+        <v>0.1521856047279335</v>
       </c>
       <c r="J139">
-        <v>0.7789400289102656</v>
+        <v>0.7773200590991663</v>
       </c>
       <c r="K139">
         <v>1.87</v>
@@ -7729,16 +7744,16 @@
         <v>3.2</v>
       </c>
       <c r="M139">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="N139">
-        <v>3.19</v>
+        <v>3.11</v>
       </c>
       <c r="O139">
         <v>1</v>
       </c>
       <c r="P139" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -7749,28 +7764,28 @@
         <v>39</v>
       </c>
       <c r="C140">
-        <v>1.7416544035055</v>
+        <v>1.748527788884446</v>
       </c>
       <c r="D140" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E140">
-        <v>1.622473449757249</v>
+        <v>1.596432721029235</v>
       </c>
       <c r="F140">
         <v>-1</v>
       </c>
       <c r="G140">
-        <v>0.0046583455964945</v>
+        <v>0.004651472211115554</v>
       </c>
       <c r="H140">
-        <v>0.004757526550242751</v>
+        <v>0.004623567278970764</v>
       </c>
       <c r="I140">
-        <v>0.1191809537482513</v>
+        <v>0.1520950678552111</v>
       </c>
       <c r="J140">
-        <v>0.7798639553446522</v>
+        <v>0.7761883481901358</v>
       </c>
       <c r="K140">
         <v>1.87</v>
@@ -7779,16 +7794,16 @@
         <v>3.2</v>
       </c>
       <c r="M140">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="N140">
-        <v>3.19</v>
+        <v>3.11</v>
       </c>
       <c r="O140">
         <v>1</v>
       </c>
       <c r="P140" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="141" spans="1:16">
@@ -7799,28 +7814,28 @@
         <v>39</v>
       </c>
       <c r="C141">
-        <v>1.739968999606976</v>
+        <v>1.750999132580348</v>
       </c>
       <c r="D141" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E141">
-        <v>1.620661865887713</v>
+        <v>1.599009790658651</v>
       </c>
       <c r="F141">
         <v>-1</v>
       </c>
       <c r="G141">
-        <v>0.004660031000393024</v>
+        <v>0.004649000867419653</v>
       </c>
       <c r="H141">
-        <v>0.004759338134112287</v>
+        <v>0.004620990209341349</v>
       </c>
       <c r="I141">
-        <v>0.1193071337192637</v>
+        <v>0.1519893419216964</v>
       </c>
       <c r="J141">
-        <v>0.7807652408518843</v>
+        <v>0.7748667740212044</v>
       </c>
       <c r="K141">
         <v>1.87</v>
@@ -7829,16 +7844,16 @@
         <v>3.2</v>
       </c>
       <c r="M141">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="N141">
-        <v>3.19</v>
+        <v>3.11</v>
       </c>
       <c r="O141">
         <v>1</v>
       </c>
       <c r="P141" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -7849,28 +7864,28 @@
         <v>39</v>
       </c>
       <c r="C142">
-        <v>1.737252695517318</v>
+        <v>1.753450334202255</v>
       </c>
       <c r="D142" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E142">
-        <v>1.617742202133588</v>
+        <v>1.601565856521068</v>
       </c>
       <c r="F142">
         <v>-1</v>
       </c>
       <c r="G142">
-        <v>0.004662747304482682</v>
+        <v>0.004646549665797745</v>
       </c>
       <c r="H142">
-        <v>0.004762257797866412</v>
+        <v>0.004618434143478931</v>
       </c>
       <c r="I142">
-        <v>0.1195104933837301</v>
+        <v>0.1518844776811872</v>
       </c>
       <c r="J142">
-        <v>0.7822178098837871</v>
+        <v>0.7735559710148369</v>
       </c>
       <c r="K142">
         <v>1.87</v>
@@ -7879,16 +7894,16 @@
         <v>3.2</v>
       </c>
       <c r="M142">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="N142">
-        <v>3.19</v>
+        <v>3.11</v>
       </c>
       <c r="O142">
         <v>1</v>
       </c>
       <c r="P142" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -7899,28 +7914,28 @@
         <v>39</v>
       </c>
       <c r="C143">
-        <v>1.735223857764917</v>
+        <v>1.754939802540862</v>
       </c>
       <c r="D143" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E143">
-        <v>1.61556147278475</v>
+        <v>1.60311904543031</v>
       </c>
       <c r="F143">
         <v>-1</v>
       </c>
       <c r="G143">
-        <v>0.004664776142235084</v>
+        <v>0.004645060197459139</v>
       </c>
       <c r="H143">
-        <v>0.00476443852721525</v>
+        <v>0.00461688095456969</v>
       </c>
       <c r="I143">
-        <v>0.1196623849801666</v>
+        <v>0.1518207571105517</v>
       </c>
       <c r="J143">
-        <v>0.7833027498583333</v>
+        <v>0.7727594638818923</v>
       </c>
       <c r="K143">
         <v>1.87</v>
@@ -7929,16 +7944,416 @@
         <v>3.2</v>
       </c>
       <c r="M143">
+        <v>1.95</v>
+      </c>
+      <c r="N143">
+        <v>3.11</v>
+      </c>
+      <c r="O143">
+        <v>1</v>
+      </c>
+      <c r="P143" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16">
+      <c r="A144" s="1">
+        <v>0</v>
+      </c>
+      <c r="B144" t="s">
+        <v>39</v>
+      </c>
+      <c r="C144">
+        <v>1.755568315849489</v>
+      </c>
+      <c r="D144" t="s">
+        <v>62</v>
+      </c>
+      <c r="E144">
+        <v>1.603774447008826</v>
+      </c>
+      <c r="F144">
+        <v>-1</v>
+      </c>
+      <c r="G144">
+        <v>0.004644431684150511</v>
+      </c>
+      <c r="H144">
+        <v>0.004616225552991174</v>
+      </c>
+      <c r="I144">
+        <v>0.1517938688406637</v>
+      </c>
+      <c r="J144">
+        <v>0.7724233605082945</v>
+      </c>
+      <c r="K144">
+        <v>1.87</v>
+      </c>
+      <c r="L144">
+        <v>3.2</v>
+      </c>
+      <c r="M144">
+        <v>1.95</v>
+      </c>
+      <c r="N144">
+        <v>3.11</v>
+      </c>
+      <c r="O144">
+        <v>1</v>
+      </c>
+      <c r="P144" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16">
+      <c r="A145" s="1">
+        <v>0</v>
+      </c>
+      <c r="B145" t="s">
+        <v>39</v>
+      </c>
+      <c r="C145">
+        <v>1.755871060200726</v>
+      </c>
+      <c r="D145" t="s">
+        <v>62</v>
+      </c>
+      <c r="E145">
+        <v>1.604090142990061</v>
+      </c>
+      <c r="F145">
+        <v>-1</v>
+      </c>
+      <c r="G145">
+        <v>0.004644128939799275</v>
+      </c>
+      <c r="H145">
+        <v>0.004615909857009939</v>
+      </c>
+      <c r="I145">
+        <v>0.1517809172106643</v>
+      </c>
+      <c r="J145">
+        <v>0.7722614651333018</v>
+      </c>
+      <c r="K145">
+        <v>1.87</v>
+      </c>
+      <c r="L145">
+        <v>3.2</v>
+      </c>
+      <c r="M145">
+        <v>1.95</v>
+      </c>
+      <c r="N145">
+        <v>3.11</v>
+      </c>
+      <c r="O145">
+        <v>1</v>
+      </c>
+      <c r="P145" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16">
+      <c r="A146" s="1">
+        <v>0</v>
+      </c>
+      <c r="B146" t="s">
+        <v>39</v>
+      </c>
+      <c r="C146">
+        <v>1.755021860709565</v>
+      </c>
+      <c r="D146" t="s">
+        <v>62</v>
+      </c>
+      <c r="E146">
+        <v>1.603204614108905</v>
+      </c>
+      <c r="F146">
+        <v>-1</v>
+      </c>
+      <c r="G146">
+        <v>0.004644978139290435</v>
+      </c>
+      <c r="H146">
+        <v>0.004616795385891095</v>
+      </c>
+      <c r="I146">
+        <v>0.1518172466006604</v>
+      </c>
+      <c r="J146">
+        <v>0.772715582508254</v>
+      </c>
+      <c r="K146">
+        <v>1.87</v>
+      </c>
+      <c r="L146">
+        <v>3.2</v>
+      </c>
+      <c r="M146">
+        <v>1.95</v>
+      </c>
+      <c r="N146">
+        <v>3.11</v>
+      </c>
+      <c r="O146">
+        <v>1</v>
+      </c>
+      <c r="P146" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16">
+      <c r="A147" s="1">
+        <v>0</v>
+      </c>
+      <c r="B147" t="s">
+        <v>39</v>
+      </c>
+      <c r="C147">
+        <v>1.753276827162878</v>
+      </c>
+      <c r="D147" t="s">
+        <v>61</v>
+      </c>
+      <c r="E147">
+        <v>1.634966001388976</v>
+      </c>
+      <c r="F147">
+        <v>-1</v>
+      </c>
+      <c r="G147">
+        <v>0.004646723172837122</v>
+      </c>
+      <c r="H147">
+        <v>0.004745033998611024</v>
+      </c>
+      <c r="I147">
+        <v>0.1183108257739021</v>
+      </c>
+      <c r="J147">
+        <v>0.7736487555278725</v>
+      </c>
+      <c r="K147">
+        <v>1.87</v>
+      </c>
+      <c r="L147">
+        <v>3.2</v>
+      </c>
+      <c r="M147">
         <v>2.01</v>
       </c>
-      <c r="N143">
+      <c r="N147">
         <v>3.19</v>
       </c>
-      <c r="O143">
-        <v>1</v>
-      </c>
-      <c r="P143" t="s">
-        <v>138</v>
+      <c r="O147">
+        <v>1</v>
+      </c>
+      <c r="P147" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16">
+      <c r="A148" s="1">
+        <v>0</v>
+      </c>
+      <c r="B148" t="s">
+        <v>39</v>
+      </c>
+      <c r="C148">
+        <v>1.751466054533885</v>
+      </c>
+      <c r="D148" t="s">
+        <v>61</v>
+      </c>
+      <c r="E148">
+        <v>1.633019662894711</v>
+      </c>
+      <c r="F148">
+        <v>-1</v>
+      </c>
+      <c r="G148">
+        <v>0.004648533945466115</v>
+      </c>
+      <c r="H148">
+        <v>0.004746980337105289</v>
+      </c>
+      <c r="I148">
+        <v>0.1184463916391745</v>
+      </c>
+      <c r="J148">
+        <v>0.7746170831369599</v>
+      </c>
+      <c r="K148">
+        <v>1.87</v>
+      </c>
+      <c r="L148">
+        <v>3.2</v>
+      </c>
+      <c r="M148">
+        <v>2.01</v>
+      </c>
+      <c r="N148">
+        <v>3.19</v>
+      </c>
+      <c r="O148">
+        <v>1</v>
+      </c>
+      <c r="P148" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16">
+      <c r="A149" s="1">
+        <v>0</v>
+      </c>
+      <c r="B149" t="s">
+        <v>39</v>
+      </c>
+      <c r="C149">
+        <v>1.748327094900906</v>
+      </c>
+      <c r="D149" t="s">
+        <v>61</v>
+      </c>
+      <c r="E149">
+        <v>1.629645700936268</v>
+      </c>
+      <c r="F149">
+        <v>-1</v>
+      </c>
+      <c r="G149">
+        <v>0.004651672905099095</v>
+      </c>
+      <c r="H149">
+        <v>0.004750354299063732</v>
+      </c>
+      <c r="I149">
+        <v>0.1186813939646381</v>
+      </c>
+      <c r="J149">
+        <v>0.7762956711759863</v>
+      </c>
+      <c r="K149">
+        <v>1.87</v>
+      </c>
+      <c r="L149">
+        <v>3.2</v>
+      </c>
+      <c r="M149">
+        <v>2.01</v>
+      </c>
+      <c r="N149">
+        <v>3.19</v>
+      </c>
+      <c r="O149">
+        <v>1</v>
+      </c>
+      <c r="P149" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16">
+      <c r="A150" s="1">
+        <v>0</v>
+      </c>
+      <c r="B150" t="s">
+        <v>39</v>
+      </c>
+      <c r="C150">
+        <v>1.745110555324242</v>
+      </c>
+      <c r="D150" t="s">
+        <v>61</v>
+      </c>
+      <c r="E150">
+        <v>1.626188350910014</v>
+      </c>
+      <c r="F150">
+        <v>-1</v>
+      </c>
+      <c r="G150">
+        <v>0.004654889444675759</v>
+      </c>
+      <c r="H150">
+        <v>0.004753811649089986</v>
+      </c>
+      <c r="I150">
+        <v>0.118922204414228</v>
+      </c>
+      <c r="J150">
+        <v>0.7780157458159134</v>
+      </c>
+      <c r="K150">
+        <v>1.87</v>
+      </c>
+      <c r="L150">
+        <v>3.2</v>
+      </c>
+      <c r="M150">
+        <v>2.01</v>
+      </c>
+      <c r="N150">
+        <v>3.19</v>
+      </c>
+      <c r="O150">
+        <v>1</v>
+      </c>
+      <c r="P150" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16">
+      <c r="A151" s="1">
+        <v>0</v>
+      </c>
+      <c r="B151" t="s">
+        <v>39</v>
+      </c>
+      <c r="C151">
+        <v>1.743382145937803</v>
+      </c>
+      <c r="D151" t="s">
+        <v>61</v>
+      </c>
+      <c r="E151">
+        <v>1.624330541890366</v>
+      </c>
+      <c r="F151">
+        <v>-1</v>
+      </c>
+      <c r="G151">
+        <v>0.004656617854062197</v>
+      </c>
+      <c r="H151">
+        <v>0.004755669458109634</v>
+      </c>
+      <c r="I151">
+        <v>0.1190516040474372</v>
+      </c>
+      <c r="J151">
+        <v>0.7789400289102656</v>
+      </c>
+      <c r="K151">
+        <v>1.87</v>
+      </c>
+      <c r="L151">
+        <v>3.2</v>
+      </c>
+      <c r="M151">
+        <v>2.01</v>
+      </c>
+      <c r="N151">
+        <v>3.19</v>
+      </c>
+      <c r="O151">
+        <v>1</v>
+      </c>
+      <c r="P151" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
